--- a/input/reg_income.xlsx
+++ b/input/reg_income.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsFork\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF041BF-C556-4679-AAEA-27AD1DEB19C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F51F219-A60E-4A73-8CED-CFA74D2E4ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="852" activeTab="4" xr2:uid="{8DDB884B-4CBA-4D96-8159-4841B9678181}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="7" r:id="rId1"/>
-    <sheet name="I3a_selection" sheetId="44" r:id="rId2"/>
-    <sheet name="I3b_selection" sheetId="45" r:id="rId3"/>
-    <sheet name="I3a_amount" sheetId="46" r:id="rId4"/>
-    <sheet name="I3b_amount" sheetId="47" r:id="rId5"/>
+    <sheet name="HU_I3a_selection" sheetId="44" r:id="rId2"/>
+    <sheet name="HU_I3b_selection" sheetId="45" r:id="rId3"/>
+    <sheet name="HU_I3a_amount" sheetId="46" r:id="rId4"/>
+    <sheet name="HU_I3b_amount" sheetId="47" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -129,12 +129,6 @@
     <t>Categorical health variable modelled as continuous</t>
   </si>
   <si>
-    <t>REGRESSORS</t>
-  </si>
-  <si>
-    <t>COEFFICIENTS</t>
-  </si>
-  <si>
     <t>HUA</t>
   </si>
   <si>
@@ -148,6 +142,12 @@
   </si>
   <si>
     <t>Les_c4_Retired_L1</t>
+  </si>
+  <si>
+    <t>REGRESSOR</t>
+  </si>
+  <si>
+    <t>COEFFICIENT</t>
   </si>
 </sst>
 </file>
@@ -217,14 +217,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,16 +557,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6">
         <v>45623</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -587,10 +587,10 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="2"/>
@@ -655,7 +655,7 @@
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B10" t="s">
@@ -686,20 +686,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E58AB64-AB0B-453E-B671-AB6F0851D77A}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="20.140625" style="4" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -720,10 +722,10 @@
         <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K1" t="s">
         <v>15</v>
@@ -962,7 +964,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>0.15547622749862661</v>
@@ -1000,7 +1002,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>0.28809119553515905</v>
@@ -1121,20 +1123,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30AE7C4-97F7-4E3B-B4D2-E5D20CBCD6D2}">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="39" style="4" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1152,13 +1156,13 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
         <v>33</v>
-      </c>
-      <c r="I1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" t="s">
-        <v>35</v>
       </c>
       <c r="K1" t="s">
         <v>7</v>
@@ -1185,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="S1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U1" t="s">
         <v>15</v>
@@ -1539,7 +1543,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>0.263922591603653</v>
@@ -1607,7 +1611,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>0.16639773044221021</v>
@@ -1675,7 +1679,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>-7.1415898247411316E-3</v>
@@ -2287,7 +2291,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>0.21966248655960974</v>
@@ -2355,7 +2359,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19">
         <v>0.51054777236701676</v>
@@ -2566,20 +2570,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096FB178-A353-4186-9E40-A0F2A803816D}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="20.42578125" style="4" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2600,10 +2606,10 @@
         <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K1" t="s">
         <v>15</v>
@@ -2842,7 +2848,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>-0.12773509156487015</v>
@@ -2880,7 +2886,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>-0.21335051578297848</v>
@@ -3001,20 +3007,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6625456-5B9C-404B-BC52-0A6D9CC89C32}">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="30.7109375" style="4" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3032,13 +3040,13 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
         <v>33</v>
-      </c>
-      <c r="I1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" t="s">
-        <v>35</v>
       </c>
       <c r="K1" t="s">
         <v>7</v>
@@ -3065,10 +3073,10 @@
         <v>14</v>
       </c>
       <c r="S1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U1" t="s">
         <v>15</v>
@@ -3419,7 +3427,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>-0.10154498861753357</v>
@@ -3487,7 +3495,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>2.9205414940590761E-2</v>
@@ -3555,7 +3563,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>6.2970126368330853E-2</v>
@@ -4167,7 +4175,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>6.2033253090084716E-3</v>
@@ -4235,7 +4243,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19">
         <v>-0.10213128610126428</v>

--- a/input/reg_income.xlsx
+++ b/input/reg_income.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570A9D57-F053-4DC3-ABD2-8B52889F11B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1A6C86-BBC5-43F4-8237-359E65302A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="4320" windowWidth="28800" windowHeight="15105" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
-    <sheet name="I3a_selection" sheetId="2" r:id="rId2"/>
-    <sheet name="I3b_selection" sheetId="3" r:id="rId3"/>
-    <sheet name="I3a_amount" sheetId="4" r:id="rId4"/>
-    <sheet name="I3b_amount" sheetId="5" r:id="rId5"/>
+    <sheet name="PL_I3a_selection" sheetId="2" r:id="rId2"/>
+    <sheet name="PL_I3b_selection" sheetId="3" r:id="rId3"/>
+    <sheet name="PL_I3a_amount" sheetId="4" r:id="rId4"/>
+    <sheet name="PL_I3b_amount" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -147,7 +147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="164" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -170,806 +170,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -979,1127 +179,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="164">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2132,171 +212,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="30" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="33" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="34" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="35" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="36" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="37" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="38" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="39" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="40" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="41" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="42" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="43" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="44" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="45" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="46" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="47" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="48" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="49" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="50" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="51" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="52" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="53" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="54" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="55" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="56" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="57" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="58" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="59" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="60" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="61" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="62" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="63" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="64" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="65" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="66" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="67" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="68" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="69" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="70" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="71" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="72" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="73" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="74" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="75" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="76" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="77" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="78" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="79" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="80" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="81" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="82" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="83" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="84" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="85" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="86" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="87" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="88" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="89" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="90" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="91" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="92" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="93" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="94" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="95" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="96" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="97" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="98" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="99" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="100" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="101" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="102" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="103" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="104" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="105" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="106" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="107" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="108" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="109" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="110" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="111" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="112" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="113" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="114" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="115" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="116" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="117" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="118" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="119" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="120" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="121" fillId="0" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="122" fillId="0" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="123" fillId="0" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="124" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="125" fillId="0" borderId="125" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="126" fillId="0" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="127" fillId="0" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="128" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="129" fillId="0" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="130" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="131" fillId="0" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="132" fillId="0" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="133" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="134" fillId="0" borderId="134" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="135" fillId="0" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="136" fillId="0" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="137" fillId="0" borderId="137" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="138" fillId="0" borderId="138" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="139" fillId="0" borderId="139" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="140" fillId="0" borderId="140" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="141" fillId="0" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="142" fillId="0" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="143" fillId="0" borderId="143" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="144" fillId="0" borderId="144" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="145" fillId="0" borderId="145" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="146" fillId="0" borderId="146" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="147" fillId="0" borderId="147" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="148" fillId="0" borderId="148" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="149" fillId="0" borderId="149" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="150" fillId="0" borderId="150" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="151" fillId="0" borderId="151" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="152" fillId="0" borderId="152" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="153" fillId="0" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="154" fillId="0" borderId="154" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="155" fillId="0" borderId="155" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="156" fillId="0" borderId="156" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="157" fillId="0" borderId="157" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="158" fillId="0" borderId="158" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="159" fillId="0" borderId="159" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="160" fillId="0" borderId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="161" fillId="0" borderId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="162" fillId="0" borderId="162" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="163" fillId="0" borderId="163" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2707,7 +627,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2715,10 +637,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" t="s">
         <v>14</v>
       </c>
       <c r="C1" t="s">
@@ -2765,10 +687,10 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2">
         <v>-7.7137139995391943E-2</v>
       </c>
       <c r="C2">
@@ -2815,10 +737,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3">
         <v>-1.4486688485880228</v>
       </c>
       <c r="C3">
@@ -2865,10 +787,10 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4">
         <v>3.2024664596736779E-2</v>
       </c>
       <c r="C4">
@@ -2915,10 +837,10 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5">
         <v>-0.19056607531039457</v>
       </c>
       <c r="C5">
@@ -2965,10 +887,10 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6">
         <v>0.15498820174254099</v>
       </c>
       <c r="C6">
@@ -3015,10 +937,10 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7">
         <v>6.5824629529861651</v>
       </c>
       <c r="C7">
@@ -3065,10 +987,10 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8">
         <v>0.46904079849651109</v>
       </c>
       <c r="C8">
@@ -3115,10 +1037,10 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9">
         <v>0.43444854438437697</v>
       </c>
       <c r="C9">
@@ -3165,10 +1087,10 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10">
         <v>0.36418357166815052</v>
       </c>
       <c r="C10">
@@ -3215,10 +1137,10 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11">
         <v>0.4417314585055569</v>
       </c>
       <c r="C11">
@@ -3265,10 +1187,10 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12">
         <v>-1.1420535173920386E-2</v>
       </c>
       <c r="C12">
@@ -3315,10 +1237,10 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13">
         <v>-1.0923325088930209</v>
       </c>
       <c r="C13">
@@ -3365,10 +1287,10 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14">
         <v>-0.16952993488882531</v>
       </c>
       <c r="C14">
@@ -3415,10 +1337,10 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15">
         <v>14.464878234925298</v>
       </c>
       <c r="C15">
@@ -3474,7 +1396,7 @@
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:Z1"/>
+      <selection activeCell="C1" sqref="C1:Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3483,10 +1405,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" t="s">
         <v>14</v>
       </c>
       <c r="C1" t="s">
@@ -3563,10 +1485,10 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2">
         <v>-5.2929107178675182E-2</v>
       </c>
       <c r="C2">
@@ -3643,10 +1565,10 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3">
         <v>-1.0203398754938992E-2</v>
       </c>
       <c r="C3">
@@ -3723,10 +1645,10 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4">
         <v>5.0889820754302921E-5</v>
       </c>
       <c r="C4">
@@ -3803,10 +1725,10 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5">
         <v>-0.11454570587423712</v>
       </c>
       <c r="C5">
@@ -3883,10 +1805,10 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6">
         <v>-7.7524790767445881E-2</v>
       </c>
       <c r="C6">
@@ -3963,10 +1885,10 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7">
         <v>0.71907174360390569</v>
       </c>
       <c r="C7">
@@ -4043,10 +1965,10 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+      <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8">
         <v>0.30592393239884119</v>
       </c>
       <c r="C8">
@@ -4123,10 +2045,10 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="51">
+      <c r="B9">
         <v>-1.6578694355308364E-2</v>
       </c>
       <c r="C9">
@@ -4203,10 +2125,10 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="53">
+      <c r="B10">
         <v>0.56290807310381452</v>
       </c>
       <c r="C10">
@@ -4283,10 +2205,10 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
+      <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="55">
+      <c r="B11">
         <v>9.7377766538373475E-2</v>
       </c>
       <c r="C11">
@@ -4363,10 +2285,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
+      <c r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="57">
+      <c r="B12">
         <v>1.246317864144562</v>
       </c>
       <c r="C12">
@@ -4443,10 +2365,10 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="58" t="s">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="59">
+      <c r="B13">
         <v>-4.229332678340781E-2</v>
       </c>
       <c r="C13">
@@ -4523,10 +2445,10 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="60" t="s">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="61">
+      <c r="B14">
         <v>2.5290789368810615E-2</v>
       </c>
       <c r="C14">
@@ -4603,10 +2525,10 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="62" t="s">
+      <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="63">
+      <c r="B15">
         <v>4.2773444099808229</v>
       </c>
       <c r="C15">
@@ -4683,10 +2605,10 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="64" t="s">
+      <c r="A16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="65">
+      <c r="B16">
         <v>-1.1227454524569786E-2</v>
       </c>
       <c r="C16">
@@ -4763,10 +2685,10 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="66" t="s">
+      <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="67">
+      <c r="B17">
         <v>2.6614489397532162</v>
       </c>
       <c r="C17">
@@ -4843,10 +2765,10 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="68" t="s">
+      <c r="A18" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="69">
+      <c r="B18">
         <v>6.6502196171544195E-2</v>
       </c>
       <c r="C18">
@@ -4923,10 +2845,10 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="70" t="s">
+      <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19">
         <v>0.35440695050377108</v>
       </c>
       <c r="C19">
@@ -5003,10 +2925,10 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="72" t="s">
+      <c r="A20" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="73">
+      <c r="B20">
         <v>0.1578242911532359</v>
       </c>
       <c r="C20">
@@ -5083,10 +3005,10 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="74" t="s">
+      <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="75">
+      <c r="B21">
         <v>7.3263048314709964E-2</v>
       </c>
       <c r="C21">
@@ -5163,10 +3085,10 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="76" t="s">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="77">
+      <c r="B22">
         <v>-3.6680784117341832E-2</v>
       </c>
       <c r="C22">
@@ -5243,10 +3165,10 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="78" t="s">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="79">
+      <c r="B23">
         <v>-0.46884303997736343</v>
       </c>
       <c r="C23">
@@ -5323,10 +3245,10 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="80" t="s">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="81">
+      <c r="B24">
         <v>-0.41516675433278211</v>
       </c>
       <c r="C24">
@@ -5403,10 +3325,10 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="82" t="s">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="83">
+      <c r="B25">
         <v>-2.1642819772036228</v>
       </c>
       <c r="C25">
@@ -5491,8 +3413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:P1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5501,10 +3423,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" t="s">
         <v>14</v>
       </c>
       <c r="C1" t="s">
@@ -5514,7 +3436,7 @@
         <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
         <v>18</v>
@@ -5551,10 +3473,10 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="87">
+      <c r="B2">
         <v>0.15723596814416196</v>
       </c>
       <c r="C2">
@@ -5601,10 +3523,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="88" t="s">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="89">
+      <c r="B3">
         <v>-0.9393654305637017</v>
       </c>
       <c r="C3">
@@ -5651,10 +3573,10 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="91">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
         <v>2.1154403463160148E-2</v>
       </c>
       <c r="C4">
@@ -5701,10 +3623,10 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="92" t="s">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="93">
+      <c r="B5">
         <v>6.79665177284937E-2</v>
       </c>
       <c r="C5">
@@ -5751,10 +3673,10 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="94" t="s">
+      <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="95">
+      <c r="B6">
         <v>-6.5507625974446978E-3</v>
       </c>
       <c r="C6">
@@ -5801,10 +3723,10 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="96" t="s">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="97">
+      <c r="B7">
         <v>1.9940972012899063</v>
       </c>
       <c r="C7">
@@ -5851,10 +3773,10 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
+      <c r="A8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8">
         <v>0.25562317590842493</v>
       </c>
       <c r="C8">
@@ -5901,10 +3823,10 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="100" t="s">
+      <c r="A9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="101">
+      <c r="B9">
         <v>0.14781895500841313</v>
       </c>
       <c r="C9">
@@ -5951,10 +3873,10 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="102" t="s">
+      <c r="A10" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="103">
+      <c r="B10">
         <v>0.1730579568010582</v>
       </c>
       <c r="C10">
@@ -6001,10 +3923,10 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="104" t="s">
+      <c r="A11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="105">
+      <c r="B11">
         <v>0.17656842566696512</v>
       </c>
       <c r="C11">
@@ -6051,10 +3973,10 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="106" t="s">
+      <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="107">
+      <c r="B12">
         <v>6.4160003415538467E-4</v>
       </c>
       <c r="C12">
@@ -6101,10 +4023,10 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="108" t="s">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="109">
+      <c r="B13">
         <v>0.27270491399623842</v>
       </c>
       <c r="C13">
@@ -6151,10 +4073,10 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="110" t="s">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="111">
+      <c r="B14">
         <v>0.43562716822670633</v>
       </c>
       <c r="C14">
@@ -6201,10 +4123,10 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="112" t="s">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="113">
+      <c r="B15">
         <v>7.851290228396727</v>
       </c>
       <c r="C15">
@@ -6259,9 +4181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:Z1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6269,10 +4189,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" t="s">
         <v>14</v>
       </c>
       <c r="C1" t="s">
@@ -6349,10 +4269,10 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="116" t="s">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="117">
+      <c r="B2">
         <v>-6.7376083469045903E-2</v>
       </c>
       <c r="C2">
@@ -6429,10 +4349,10 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="118" t="s">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="119">
+      <c r="B3">
         <v>1.0231970437688869E-4</v>
       </c>
       <c r="C3">
@@ -6509,10 +4429,10 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="121">
+      <c r="B4">
         <v>-1.69014544665147E-5</v>
       </c>
       <c r="C4">
@@ -6589,10 +4509,10 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="122" t="s">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="123">
+      <c r="B5">
         <v>-1.5561657593544722E-2</v>
       </c>
       <c r="C5">
@@ -6669,10 +4589,10 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="124" t="s">
+      <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="125">
+      <c r="B6">
         <v>-0.13021883395020592</v>
       </c>
       <c r="C6">
@@ -6749,10 +4669,10 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="126" t="s">
+      <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="127">
+      <c r="B7">
         <v>-1.9386421684801047E-2</v>
       </c>
       <c r="C7">
@@ -6829,10 +4749,10 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="128" t="s">
+      <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="129">
+      <c r="B8">
         <v>0.1027577007817589</v>
       </c>
       <c r="C8">
@@ -6909,10 +4829,10 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="130" t="s">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="131">
+      <c r="B9">
         <v>7.5475413124488397E-2</v>
       </c>
       <c r="C9">
@@ -6989,10 +4909,10 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="132" t="s">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="133">
+      <c r="B10">
         <v>-7.3277565949491419E-2</v>
       </c>
       <c r="C10">
@@ -7069,10 +4989,10 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="134" t="s">
+      <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="135">
+      <c r="B11">
         <v>4.2583204982276857E-2</v>
       </c>
       <c r="C11">
@@ -7149,10 +5069,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="136" t="s">
+      <c r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="137">
+      <c r="B12">
         <v>0.13725456202181363</v>
       </c>
       <c r="C12">
@@ -7229,10 +5149,10 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="138" t="s">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="139">
+      <c r="B13">
         <v>-6.8996265481490607E-3</v>
       </c>
       <c r="C13">
@@ -7309,10 +5229,10 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="140" t="s">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="141">
+      <c r="B14">
         <v>1.9438199819221149E-2</v>
       </c>
       <c r="C14">
@@ -7389,10 +5309,10 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="142" t="s">
+      <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="143">
+      <c r="B15">
         <v>1.4917320998661929</v>
       </c>
       <c r="C15">
@@ -7469,10 +5389,10 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="144" t="s">
+      <c r="A16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="145">
+      <c r="B16">
         <v>-1.9099437143816538E-3</v>
       </c>
       <c r="C16">
@@ -7549,10 +5469,10 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="146" t="s">
+      <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="147">
+      <c r="B17">
         <v>0.56137429160879648</v>
       </c>
       <c r="C17">
@@ -7629,10 +5549,10 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="148" t="s">
+      <c r="A18" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="149">
+      <c r="B18">
         <v>5.9827546184474896E-2</v>
       </c>
       <c r="C18">
@@ -7709,10 +5629,10 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="150" t="s">
+      <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="151">
+      <c r="B19">
         <v>-6.4702301617247118E-2</v>
       </c>
       <c r="C19">
@@ -7789,10 +5709,10 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="152" t="s">
+      <c r="A20" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="153">
+      <c r="B20">
         <v>0.11337010271202008</v>
       </c>
       <c r="C20">
@@ -7869,10 +5789,10 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="154" t="s">
+      <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="155">
+      <c r="B21">
         <v>-9.0620025095866953E-3</v>
       </c>
       <c r="C21">
@@ -7949,10 +5869,10 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="156" t="s">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="157">
+      <c r="B22">
         <v>1.531390317255649E-2</v>
       </c>
       <c r="C22">
@@ -8029,10 +5949,10 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="158" t="s">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="159">
+      <c r="B23">
         <v>5.0217507049188516E-2</v>
       </c>
       <c r="C23">
@@ -8109,10 +6029,10 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="160" t="s">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="161">
+      <c r="B24">
         <v>0.10513940112018808</v>
       </c>
       <c r="C24">
@@ -8189,10 +6109,10 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="162" t="s">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="163">
+      <c r="B25">
         <v>-2.244592896222279</v>
       </c>
       <c r="C25">

--- a/input/reg_income.xlsx
+++ b/input/reg_income.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1A6C86-BBC5-43F4-8237-359E65302A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596872C3-AB1B-4EE0-87A7-85692A0165B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="14566" windowHeight="17363" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -169,6 +169,10 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -212,11 +216,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,9 +560,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -565,7 +570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -573,7 +578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -581,7 +586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -589,7 +594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -597,7 +602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -605,7 +610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -613,7 +618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -627,16 +632,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -686,704 +689,704 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2">
-        <v>-7.7137139995391943E-2</v>
+      <c r="B2" s="4">
+        <v>-5.413895693906591E-2</v>
       </c>
       <c r="C2">
-        <v>9.3510799294210072E-3</v>
+        <v>8.1691337540841791E-3</v>
       </c>
       <c r="D2">
-        <v>-1.0354905311379223E-3</v>
+        <v>2.6213006599096027E-4</v>
       </c>
       <c r="E2">
-        <v>2.3345060889902323E-5</v>
+        <v>-6.8804177687770497E-6</v>
       </c>
       <c r="F2">
-        <v>4.4253968288399852E-4</v>
+        <v>4.0176904822628501E-4</v>
       </c>
       <c r="G2">
-        <v>2.8442462684497537E-4</v>
+        <v>2.3081170605387046E-4</v>
       </c>
       <c r="H2">
-        <v>-2.9487584567058217E-4</v>
+        <v>-6.5221625064260103E-4</v>
       </c>
       <c r="I2">
-        <v>9.3508442377675206E-4</v>
+        <v>4.9473571393106883E-4</v>
       </c>
       <c r="J2">
-        <v>8.5800853171693215E-4</v>
+        <v>1.2851502816236919E-4</v>
       </c>
       <c r="K2">
-        <v>-1.6821002430706744E-4</v>
+        <v>-5.7060045993730677E-4</v>
       </c>
       <c r="L2">
-        <v>-2.1079363145885507E-4</v>
+        <v>-4.5165165787903956E-4</v>
       </c>
       <c r="M2">
-        <v>4.2403979484229395E-6</v>
+        <v>2.7374125245175544E-5</v>
       </c>
       <c r="N2">
-        <v>4.450840078950042E-4</v>
+        <v>1.8853391401716692E-5</v>
       </c>
       <c r="O2">
-        <v>-9.4339817713979569E-4</v>
+        <v>4.0259349806614966E-4</v>
       </c>
       <c r="P2">
-        <v>4.3834749028651369E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-8.6216099729082406E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3">
-        <v>-1.4486688485880228</v>
+      <c r="B3" s="4">
+        <v>-1.2936649419110358</v>
       </c>
       <c r="C3">
-        <v>-1.0354905311379223E-3</v>
+        <v>2.6213006599096027E-4</v>
       </c>
       <c r="D3">
-        <v>0.16328950525845515</v>
+        <v>0.13555648321942909</v>
       </c>
       <c r="E3">
-        <v>-3.8402921691470335E-3</v>
+        <v>-3.1922993437823828E-3</v>
       </c>
       <c r="F3">
-        <v>-2.0605612150621511E-3</v>
+        <v>-1.7370213117880728E-3</v>
       </c>
       <c r="G3">
-        <v>5.8744125317142064E-4</v>
+        <v>8.2522918166490385E-4</v>
       </c>
       <c r="H3">
-        <v>-4.8692925005158649E-2</v>
+        <v>-3.0723161283917833E-2</v>
       </c>
       <c r="I3">
-        <v>-2.3632841966000351E-3</v>
+        <v>-8.6578429680855828E-4</v>
       </c>
       <c r="J3">
-        <v>-5.7346499186868294E-3</v>
+        <v>-4.217859299998461E-3</v>
       </c>
       <c r="K3">
-        <v>-1.318971654758902E-3</v>
+        <v>-1.23431519831569E-3</v>
       </c>
       <c r="L3">
-        <v>-6.2524698319144298E-3</v>
+        <v>-4.8875640425388688E-3</v>
       </c>
       <c r="M3">
-        <v>3.8521674530084954E-4</v>
+        <v>1.9797512805043091E-4</v>
       </c>
       <c r="N3">
-        <v>1.0165292260368997E-3</v>
+        <v>-1.3165271134932821E-3</v>
       </c>
       <c r="O3">
-        <v>1.3348954087532672E-2</v>
+        <v>3.8480890978465077E-5</v>
       </c>
       <c r="P3">
-        <v>-1.7024512690683626</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-1.4115257751338999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4">
-        <v>3.2024664596736779E-2</v>
+      <c r="B4" s="4">
+        <v>2.8650192557363622E-2</v>
       </c>
       <c r="C4">
-        <v>2.3345060889902323E-5</v>
+        <v>-6.8804177687770497E-6</v>
       </c>
       <c r="D4">
-        <v>-3.8402921691470335E-3</v>
+        <v>-3.1922993437823828E-3</v>
       </c>
       <c r="E4">
-        <v>9.0701732702114501E-5</v>
+        <v>7.5493058361212039E-5</v>
       </c>
       <c r="F4">
-        <v>4.2688350270128801E-5</v>
+        <v>3.6322607004456772E-5</v>
       </c>
       <c r="G4">
-        <v>-1.741664416910659E-5</v>
+        <v>-2.2897735138223131E-5</v>
       </c>
       <c r="H4">
-        <v>1.0812095503586056E-3</v>
+        <v>6.7700932446665418E-4</v>
       </c>
       <c r="I4">
-        <v>7.3489965282752534E-5</v>
+        <v>3.8586644433378364E-5</v>
       </c>
       <c r="J4">
-        <v>1.3725382863111202E-4</v>
+        <v>1.0379365267325965E-4</v>
       </c>
       <c r="K4">
-        <v>4.223723946071632E-5</v>
+        <v>4.0030401470860389E-5</v>
       </c>
       <c r="L4">
-        <v>1.6300916327944594E-4</v>
+        <v>1.2979932132004804E-4</v>
       </c>
       <c r="M4">
-        <v>-8.3393278390538669E-6</v>
+        <v>-4.4963598280124304E-6</v>
       </c>
       <c r="N4">
-        <v>-2.2976298679526497E-5</v>
+        <v>3.6060589767692233E-5</v>
       </c>
       <c r="O4">
-        <v>-2.9313042760030147E-4</v>
+        <v>-1.2300119641810159E-6</v>
       </c>
       <c r="P4">
-        <v>3.989525722264127E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3.3125192001421555E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B5">
-        <v>-0.19056607531039457</v>
+      <c r="B5" s="4">
+        <v>-0.1972035123915013</v>
       </c>
       <c r="C5">
-        <v>4.4253968288399852E-4</v>
+        <v>4.0176904822628501E-4</v>
       </c>
       <c r="D5">
-        <v>-2.0605612150621511E-3</v>
+        <v>-1.7370213117880728E-3</v>
       </c>
       <c r="E5">
-        <v>4.2688350270128801E-5</v>
+        <v>3.6322607004456772E-5</v>
       </c>
       <c r="F5">
-        <v>5.9392302915489328E-3</v>
+        <v>4.7328737734591963E-3</v>
       </c>
       <c r="G5">
-        <v>-1.6529355713688752E-4</v>
+        <v>-8.0526690327414259E-5</v>
       </c>
       <c r="H5">
-        <v>4.6277901002067107E-3</v>
+        <v>2.8854419732986317E-3</v>
       </c>
       <c r="I5">
-        <v>1.0845440511010069E-3</v>
+        <v>6.5532043387448585E-4</v>
       </c>
       <c r="J5">
-        <v>1.1701584143407884E-3</v>
+        <v>9.4645318271271203E-4</v>
       </c>
       <c r="K5">
-        <v>-6.1562724028668236E-4</v>
+        <v>-3.3092924203557354E-4</v>
       </c>
       <c r="L5">
-        <v>-2.096628059479297E-4</v>
+        <v>-9.6233020541244363E-5</v>
       </c>
       <c r="M5">
-        <v>6.5836637890023244E-5</v>
+        <v>6.3641480683066887E-5</v>
       </c>
       <c r="N5">
-        <v>1.4013238613462056E-3</v>
+        <v>1.0910448960885681E-3</v>
       </c>
       <c r="O5">
-        <v>1.4223574426096286E-4</v>
+        <v>-8.3589024462494763E-5</v>
       </c>
       <c r="P5">
-        <v>-4.3020478570517731E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-2.6172734531353711E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6">
-        <v>0.15498820174254099</v>
+      <c r="B6" s="4">
+        <v>0.14158193451335491</v>
       </c>
       <c r="C6">
-        <v>2.8442462684497537E-4</v>
+        <v>2.3081170605387046E-4</v>
       </c>
       <c r="D6">
-        <v>5.8744125317142064E-4</v>
+        <v>8.2522918166490385E-4</v>
       </c>
       <c r="E6">
-        <v>-1.741664416910659E-5</v>
+        <v>-2.2897735138223131E-5</v>
       </c>
       <c r="F6">
-        <v>-1.6529355713688752E-4</v>
+        <v>-8.0526690327414259E-5</v>
       </c>
       <c r="G6">
-        <v>2.2602764740772205E-3</v>
+        <v>1.8566575933999412E-3</v>
       </c>
       <c r="H6">
-        <v>-7.0543016046084595E-4</v>
+        <v>-5.4758484982640396E-4</v>
       </c>
       <c r="I6">
-        <v>-1.1942403613817701E-4</v>
+        <v>-1.5816068078008342E-4</v>
       </c>
       <c r="J6">
-        <v>-1.3016743440718895E-3</v>
+        <v>-1.0191153143705211E-3</v>
       </c>
       <c r="K6">
-        <v>-3.9771751693129466E-4</v>
+        <v>-3.9545589585004818E-4</v>
       </c>
       <c r="L6">
-        <v>-4.4944093445110282E-4</v>
+        <v>-3.8143527564511769E-4</v>
       </c>
       <c r="M6">
-        <v>-8.4592424365515688E-7</v>
+        <v>-4.212806068279039E-6</v>
       </c>
       <c r="N6">
-        <v>2.7019247456358877E-5</v>
+        <v>-4.1987315502793957E-4</v>
       </c>
       <c r="O6">
-        <v>6.8356416595525757E-5</v>
+        <v>6.328301858630897E-4</v>
       </c>
       <c r="P6">
-        <v>-4.0716560285132168E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-6.8885262718541874E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7">
-        <v>6.5824629529861651</v>
+      <c r="B7" s="4">
+        <v>6.1104128049513715</v>
       </c>
       <c r="C7">
-        <v>-2.9487584567058217E-4</v>
+        <v>-6.5221625064260103E-4</v>
       </c>
       <c r="D7">
-        <v>-4.8692925005158649E-2</v>
+        <v>-3.0723161283917833E-2</v>
       </c>
       <c r="E7">
-        <v>1.0812095503586056E-3</v>
+        <v>6.7700932446665418E-4</v>
       </c>
       <c r="F7">
-        <v>4.6277901002067107E-3</v>
+        <v>2.8854419732986317E-3</v>
       </c>
       <c r="G7">
-        <v>-7.0543016046084595E-4</v>
+        <v>-5.4758484982640396E-4</v>
       </c>
       <c r="H7">
-        <v>0.33721482355528998</v>
+        <v>0.22747116279182461</v>
       </c>
       <c r="I7">
-        <v>-1.8119509250950905E-5</v>
+        <v>-2.0457891735361916E-3</v>
       </c>
       <c r="J7">
-        <v>1.9203986800829895E-2</v>
+        <v>1.0933157205874476E-2</v>
       </c>
       <c r="K7">
-        <v>-7.4959804230586517E-3</v>
+        <v>-4.1838092513528007E-3</v>
       </c>
       <c r="L7">
-        <v>-2.4853920173101454E-3</v>
+        <v>-1.9497506540785334E-3</v>
       </c>
       <c r="M7">
-        <v>-1.4568119499032417E-4</v>
+        <v>-1.3617399589979044E-4</v>
       </c>
       <c r="N7">
-        <v>-3.0631728568790539E-2</v>
+        <v>-1.1072709503141126E-2</v>
       </c>
       <c r="O7">
-        <v>-4.4865627605489011E-3</v>
+        <v>3.0992585275897017E-3</v>
       </c>
       <c r="P7">
-        <v>0.50723327861856926</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.32300867758518581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>35</v>
       </c>
-      <c r="B8">
-        <v>0.46904079849651109</v>
+      <c r="B8" s="4">
+        <v>0.51882021565006853</v>
       </c>
       <c r="C8">
-        <v>9.3508442377675206E-4</v>
+        <v>4.9473571393106883E-4</v>
       </c>
       <c r="D8">
-        <v>-2.3632841966000351E-3</v>
+        <v>-8.6578429680855828E-4</v>
       </c>
       <c r="E8">
-        <v>7.3489965282752534E-5</v>
+        <v>3.8586644433378364E-5</v>
       </c>
       <c r="F8">
-        <v>1.0845440511010069E-3</v>
+        <v>6.5532043387448585E-4</v>
       </c>
       <c r="G8">
-        <v>-1.1942403613817701E-4</v>
+        <v>-1.5816068078008342E-4</v>
       </c>
       <c r="H8">
-        <v>-1.8119509250950905E-5</v>
+        <v>-2.0457891735361916E-3</v>
       </c>
       <c r="I8">
-        <v>3.3765008180290136E-2</v>
+        <v>3.0135640080364155E-2</v>
       </c>
       <c r="J8">
-        <v>1.7206335189954763E-2</v>
+        <v>1.628971882367283E-2</v>
       </c>
       <c r="K8">
-        <v>1.7216448846098433E-2</v>
+        <v>1.6402823538071636E-2</v>
       </c>
       <c r="L8">
-        <v>1.7323892665981291E-2</v>
+        <v>1.643275250288153E-2</v>
       </c>
       <c r="M8">
-        <v>-1.0982992967642274E-4</v>
+        <v>-8.4741042674420144E-5</v>
       </c>
       <c r="N8">
-        <v>-1.9131288332305645E-3</v>
+        <v>9.1069784185505813E-4</v>
       </c>
       <c r="O8">
-        <v>1.1303050919366803E-3</v>
+        <v>6.5386378853884639E-4</v>
       </c>
       <c r="P8">
-        <v>-3.188066040961664E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-1.6367951086714266E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>36</v>
       </c>
-      <c r="B9">
-        <v>0.43444854438437697</v>
+      <c r="B9" s="4">
+        <v>0.55707431687834219</v>
       </c>
       <c r="C9">
-        <v>8.5800853171693215E-4</v>
+        <v>1.2851502816236919E-4</v>
       </c>
       <c r="D9">
-        <v>-5.7346499186868294E-3</v>
+        <v>-4.217859299998461E-3</v>
       </c>
       <c r="E9">
-        <v>1.3725382863111202E-4</v>
+        <v>1.0379365267325965E-4</v>
       </c>
       <c r="F9">
-        <v>1.1701584143407884E-3</v>
+        <v>9.4645318271271203E-4</v>
       </c>
       <c r="G9">
-        <v>-1.3016743440718895E-3</v>
+        <v>-1.0191153143705211E-3</v>
       </c>
       <c r="H9">
-        <v>1.9203986800829895E-2</v>
+        <v>1.0933157205874476E-2</v>
       </c>
       <c r="I9">
-        <v>1.7206335189954763E-2</v>
+        <v>1.628971882367283E-2</v>
       </c>
       <c r="J9">
-        <v>4.5996512247096319E-2</v>
+        <v>3.9369552014537824E-2</v>
       </c>
       <c r="K9">
-        <v>1.7002278715587113E-2</v>
+        <v>1.620209941862339E-2</v>
       </c>
       <c r="L9">
-        <v>1.7133616358362445E-2</v>
+        <v>1.6279519735759657E-2</v>
       </c>
       <c r="M9">
-        <v>2.0874015252130625E-4</v>
+        <v>1.9171109283045351E-4</v>
       </c>
       <c r="N9">
-        <v>-3.6383761408800529E-3</v>
+        <v>6.527126722013013E-5</v>
       </c>
       <c r="O9">
-        <v>-2.3354508336269637E-3</v>
+        <v>-5.1078407321390306E-4</v>
       </c>
       <c r="P9">
-        <v>3.2516042573487787E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.8396761992909651E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>37</v>
       </c>
-      <c r="B10">
-        <v>0.36418357166815052</v>
+      <c r="B10" s="4">
+        <v>0.34117299244793353</v>
       </c>
       <c r="C10">
-        <v>-1.6821002430706744E-4</v>
+        <v>-5.7060045993730677E-4</v>
       </c>
       <c r="D10">
-        <v>-1.318971654758902E-3</v>
+        <v>-1.23431519831569E-3</v>
       </c>
       <c r="E10">
-        <v>4.223723946071632E-5</v>
+        <v>4.0030401470860389E-5</v>
       </c>
       <c r="F10">
-        <v>-6.1562724028668236E-4</v>
+        <v>-3.3092924203557354E-4</v>
       </c>
       <c r="G10">
-        <v>-3.9771751693129466E-4</v>
+        <v>-3.9545589585004818E-4</v>
       </c>
       <c r="H10">
-        <v>-7.4959804230586517E-3</v>
+        <v>-4.1838092513528007E-3</v>
       </c>
       <c r="I10">
-        <v>1.7216448846098433E-2</v>
+        <v>1.6402823538071636E-2</v>
       </c>
       <c r="J10">
-        <v>1.7002278715587113E-2</v>
+        <v>1.620209941862339E-2</v>
       </c>
       <c r="K10">
-        <v>3.1382818023212571E-2</v>
+        <v>2.9317320640815641E-2</v>
       </c>
       <c r="L10">
-        <v>1.7477498087805292E-2</v>
+        <v>1.6531656549833653E-2</v>
       </c>
       <c r="M10">
-        <v>-2.1120838052038235E-4</v>
+        <v>-1.4004834829257212E-4</v>
       </c>
       <c r="N10">
-        <v>7.4516662200958318E-4</v>
+        <v>1.0557730654571597E-3</v>
       </c>
       <c r="O10">
-        <v>2.7473461898507461E-3</v>
+        <v>2.0357132843087638E-3</v>
       </c>
       <c r="P10">
-        <v>-1.5926103733120696E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-3.8010171487005166E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>38</v>
       </c>
-      <c r="B11">
-        <v>0.4417314585055569</v>
+      <c r="B11" s="4">
+        <v>0.45454334008868164</v>
       </c>
       <c r="C11">
-        <v>-2.1079363145885507E-4</v>
+        <v>-4.5165165787903956E-4</v>
       </c>
       <c r="D11">
-        <v>-6.2524698319144298E-3</v>
+        <v>-4.8875640425388688E-3</v>
       </c>
       <c r="E11">
-        <v>1.6300916327944594E-4</v>
+        <v>1.2979932132004804E-4</v>
       </c>
       <c r="F11">
-        <v>-2.096628059479297E-4</v>
+        <v>-9.6233020541244363E-5</v>
       </c>
       <c r="G11">
-        <v>-4.4944093445110282E-4</v>
+        <v>-3.8143527564511769E-4</v>
       </c>
       <c r="H11">
-        <v>-2.4853920173101454E-3</v>
+        <v>-1.9497506540785334E-3</v>
       </c>
       <c r="I11">
-        <v>1.7323892665981291E-2</v>
+        <v>1.643275250288153E-2</v>
       </c>
       <c r="J11">
-        <v>1.7133616358362445E-2</v>
+        <v>1.6279519735759657E-2</v>
       </c>
       <c r="K11">
-        <v>1.7477498087805292E-2</v>
+        <v>1.6531656549833653E-2</v>
       </c>
       <c r="L11">
-        <v>2.2523130587513821E-2</v>
+        <v>2.0903335527483666E-2</v>
       </c>
       <c r="M11">
-        <v>-1.0464278814231457E-4</v>
+        <v>-6.8244815206909931E-5</v>
       </c>
       <c r="N11">
-        <v>-1.7093127844821873E-3</v>
+        <v>3.1926393069209297E-4</v>
       </c>
       <c r="O11">
-        <v>2.5855516887828469E-3</v>
+        <v>1.7905890044448308E-3</v>
       </c>
       <c r="P11">
-        <v>4.4617584110153895E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3.0671164744450523E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12">
-        <v>-1.1420535173920386E-2</v>
+      <c r="B12" s="4">
+        <v>-1.3289487943530907E-2</v>
       </c>
       <c r="C12">
-        <v>4.2403979484229395E-6</v>
+        <v>2.7374125245175544E-5</v>
       </c>
       <c r="D12">
-        <v>3.8521674530084954E-4</v>
+        <v>1.9797512805043091E-4</v>
       </c>
       <c r="E12">
-        <v>-8.3393278390538669E-6</v>
+        <v>-4.4963598280124304E-6</v>
       </c>
       <c r="F12">
-        <v>6.5836637890023244E-5</v>
+        <v>6.3641480683066887E-5</v>
       </c>
       <c r="G12">
-        <v>-8.4592424365515688E-7</v>
+        <v>-4.212806068279039E-6</v>
       </c>
       <c r="H12">
-        <v>-1.4568119499032417E-4</v>
+        <v>-1.3617399589979044E-4</v>
       </c>
       <c r="I12">
-        <v>-1.0982992967642274E-4</v>
+        <v>-8.4741042674420144E-5</v>
       </c>
       <c r="J12">
-        <v>2.0874015252130625E-4</v>
+        <v>1.9171109283045351E-4</v>
       </c>
       <c r="K12">
-        <v>-2.1120838052038235E-4</v>
+        <v>-1.4004834829257212E-4</v>
       </c>
       <c r="L12">
-        <v>-1.0464278814231457E-4</v>
+        <v>-6.8244815206909931E-5</v>
       </c>
       <c r="M12">
-        <v>2.0508307993492514E-4</v>
+        <v>1.7085968602718212E-4</v>
       </c>
       <c r="N12">
-        <v>-1.0210872420944339E-3</v>
+        <v>-7.4675752310208662E-4</v>
       </c>
       <c r="O12">
-        <v>-1.236212894647603E-3</v>
+        <v>-8.3519868270770514E-4</v>
       </c>
       <c r="P12">
-        <v>-7.5886989911944022E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-5.0028773575633307E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13">
-        <v>-1.0923325088930209</v>
+      <c r="B13" s="4">
+        <v>-0.57606985945236311</v>
       </c>
       <c r="C13">
-        <v>4.450840078950042E-4</v>
+        <v>1.8853391401716692E-5</v>
       </c>
       <c r="D13">
-        <v>1.0165292260368997E-3</v>
+        <v>-1.3165271134932821E-3</v>
       </c>
       <c r="E13">
-        <v>-2.2976298679526497E-5</v>
+        <v>3.6060589767692233E-5</v>
       </c>
       <c r="F13">
-        <v>1.4013238613462056E-3</v>
+        <v>1.0910448960885681E-3</v>
       </c>
       <c r="G13">
-        <v>2.7019247456358877E-5</v>
+        <v>-4.1987315502793957E-4</v>
       </c>
       <c r="H13">
-        <v>-3.0631728568790539E-2</v>
+        <v>-1.1072709503141126E-2</v>
       </c>
       <c r="I13">
-        <v>-1.9131288332305645E-3</v>
+        <v>9.1069784185505813E-4</v>
       </c>
       <c r="J13">
-        <v>-3.6383761408800529E-3</v>
+        <v>6.527126722013013E-5</v>
       </c>
       <c r="K13">
-        <v>7.4516662200958318E-4</v>
+        <v>1.0557730654571597E-3</v>
       </c>
       <c r="L13">
-        <v>-1.7093127844821873E-3</v>
+        <v>3.1926393069209297E-4</v>
       </c>
       <c r="M13">
-        <v>-1.0210872420944339E-3</v>
+        <v>-7.4675752310208662E-4</v>
       </c>
       <c r="N13">
-        <v>0.10903754309703287</v>
+        <v>4.2561765798723929E-2</v>
       </c>
       <c r="O13">
-        <v>8.9850948397116517E-3</v>
+        <v>4.4651345189340224E-3</v>
       </c>
       <c r="P13">
-        <v>-2.3115348401244453E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.6188366525265563E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14">
-        <v>-0.16952993488882531</v>
+      <c r="B14" s="4">
+        <v>-0.41564251057217538</v>
       </c>
       <c r="C14">
-        <v>-9.4339817713979569E-4</v>
+        <v>4.0259349806614966E-4</v>
       </c>
       <c r="D14">
-        <v>1.3348954087532672E-2</v>
+        <v>3.8480890978465077E-5</v>
       </c>
       <c r="E14">
-        <v>-2.9313042760030147E-4</v>
+        <v>-1.2300119641810159E-6</v>
       </c>
       <c r="F14">
-        <v>1.4223574426096286E-4</v>
+        <v>-8.3589024462494763E-5</v>
       </c>
       <c r="G14">
-        <v>6.8356416595525757E-5</v>
+        <v>6.328301858630897E-4</v>
       </c>
       <c r="H14">
-        <v>-4.4865627605489011E-3</v>
+        <v>3.0992585275897017E-3</v>
       </c>
       <c r="I14">
-        <v>1.1303050919366803E-3</v>
+        <v>6.5386378853884639E-4</v>
       </c>
       <c r="J14">
-        <v>-2.3354508336269637E-3</v>
+        <v>-5.1078407321390306E-4</v>
       </c>
       <c r="K14">
-        <v>2.7473461898507461E-3</v>
+        <v>2.0357132843087638E-3</v>
       </c>
       <c r="L14">
-        <v>2.5855516887828469E-3</v>
+        <v>1.7905890044448308E-3</v>
       </c>
       <c r="M14">
-        <v>-1.236212894647603E-3</v>
+        <v>-8.3519868270770514E-4</v>
       </c>
       <c r="N14">
-        <v>8.9850948397116517E-3</v>
+        <v>4.4651345189340224E-3</v>
       </c>
       <c r="O14">
-        <v>7.7122938580054201E-2</v>
+        <v>4.435569031589532E-2</v>
       </c>
       <c r="P14">
-        <v>-0.13355788354160344</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>9.2867223847657894E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B15">
-        <v>14.464878234925298</v>
+      <c r="B15" s="4">
+        <v>12.770848868523037</v>
       </c>
       <c r="C15">
-        <v>4.3834749028651369E-3</v>
+        <v>-8.6216099729082406E-3</v>
       </c>
       <c r="D15">
-        <v>-1.7024512690683626</v>
+        <v>-1.4115257751338999</v>
       </c>
       <c r="E15">
-        <v>3.989525722264127E-2</v>
+        <v>3.3125192001421555E-2</v>
       </c>
       <c r="F15">
-        <v>-4.3020478570517731E-3</v>
+        <v>-2.6172734531353711E-3</v>
       </c>
       <c r="G15">
-        <v>-4.0716560285132168E-3</v>
+        <v>-6.8885262718541874E-3</v>
       </c>
       <c r="H15">
-        <v>0.50723327861856926</v>
+        <v>0.32300867758518581</v>
       </c>
       <c r="I15">
-        <v>-3.188066040961664E-3</v>
+        <v>-1.6367951086714266E-2</v>
       </c>
       <c r="J15">
-        <v>3.2516042573487787E-2</v>
+        <v>1.8396761992909651E-2</v>
       </c>
       <c r="K15">
-        <v>-1.5926103733120696E-3</v>
+        <v>-3.8010171487005166E-3</v>
       </c>
       <c r="L15">
-        <v>4.4617584110153895E-2</v>
+        <v>3.0671164744450523E-2</v>
       </c>
       <c r="M15">
-        <v>-7.5886989911944022E-3</v>
+        <v>-5.0028773575633307E-3</v>
       </c>
       <c r="N15">
-        <v>-2.3115348401244453E-3</v>
+        <v>1.6188366525265563E-2</v>
       </c>
       <c r="O15">
-        <v>-0.13355788354160344</v>
+        <v>9.2867223847657894E-3</v>
       </c>
       <c r="P15">
-        <v>17.998836172663712</v>
+        <v>14.904839738925935</v>
       </c>
     </row>
   </sheetData>
@@ -1395,16 +1398,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:Z1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="1" max="1" width="31.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1484,1924 +1485,1924 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2">
-        <v>-5.2929107178675182E-2</v>
+      <c r="B2" s="4">
+        <v>-5.618177630659682E-2</v>
       </c>
       <c r="C2">
-        <v>1.3314986282985098E-3</v>
+        <v>1.3954087584672685E-3</v>
       </c>
       <c r="D2">
-        <v>8.3365636179657848E-6</v>
+        <v>1.737257619528956E-5</v>
       </c>
       <c r="E2">
-        <v>-4.0252872420265715E-8</v>
+        <v>-1.1616774394067268E-7</v>
       </c>
       <c r="F2">
-        <v>-3.4173504902302134E-4</v>
+        <v>-2.9276437534348903E-4</v>
       </c>
       <c r="G2">
-        <v>-3.9079923239952714E-4</v>
+        <v>-2.5680184037327685E-4</v>
       </c>
       <c r="H2">
-        <v>-1.8876503471591425E-4</v>
+        <v>-1.459952872540863E-4</v>
       </c>
       <c r="I2">
-        <v>1.2472423517799987E-4</v>
+        <v>1.0335506413627522E-4</v>
       </c>
       <c r="J2">
-        <v>2.6463331593991239E-5</v>
+        <v>1.2088400881003133E-5</v>
       </c>
       <c r="K2">
-        <v>1.0782491019087143E-4</v>
+        <v>1.6019303252251898E-4</v>
       </c>
       <c r="L2">
-        <v>2.4544173577099994E-5</v>
+        <v>4.658819835013451E-5</v>
       </c>
       <c r="M2">
-        <v>2.7702844616863277E-4</v>
+        <v>6.0273552356143137E-4</v>
       </c>
       <c r="N2">
-        <v>4.0241872151877441E-5</v>
+        <v>3.9930419103059351E-5</v>
       </c>
       <c r="O2">
-        <v>-1.7387916095756059E-5</v>
+        <v>-1.458698715135819E-5</v>
       </c>
       <c r="P2">
-        <v>2.2049819480201042E-5</v>
+        <v>2.6114299376365103E-6</v>
       </c>
       <c r="Q2">
-        <v>-2.9599634379596917E-5</v>
+        <v>-3.0296709751113915E-5</v>
       </c>
       <c r="R2">
-        <v>1.2615467195869573E-4</v>
+        <v>1.2494138010618404E-4</v>
       </c>
       <c r="S2">
-        <v>-3.7708971970062607E-5</v>
+        <v>-7.2229306322428458E-5</v>
       </c>
       <c r="T2">
-        <v>7.6191647672587792E-7</v>
+        <v>-1.3810208354205029E-5</v>
       </c>
       <c r="U2">
-        <v>-4.9382030287635812E-5</v>
+        <v>-8.3624974095545732E-5</v>
       </c>
       <c r="V2">
-        <v>-5.0307634420019304E-5</v>
+        <v>-9.240927332737167E-5</v>
       </c>
       <c r="W2">
-        <v>-1.59242023260923E-6</v>
+        <v>-2.4795870408941207E-7</v>
       </c>
       <c r="X2">
-        <v>5.2859281324847061E-5</v>
+        <v>6.7433969298730028E-5</v>
       </c>
       <c r="Y2">
-        <v>2.7521723292594163E-5</v>
+        <v>2.0718405999354389E-5</v>
       </c>
       <c r="Z2">
-        <v>-6.3300050580827156E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-9.5637322977209192E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3">
-        <v>-1.0203398754938992E-2</v>
+      <c r="B3" s="4">
+        <v>-4.1294214106139034E-3</v>
       </c>
       <c r="C3">
-        <v>8.3365636179657848E-6</v>
+        <v>1.737257619528956E-5</v>
       </c>
       <c r="D3">
-        <v>6.4093020737264185E-5</v>
+        <v>6.8523283012074938E-5</v>
       </c>
       <c r="E3">
-        <v>-6.2960188932341777E-7</v>
+        <v>-6.6959949856393759E-7</v>
       </c>
       <c r="F3">
-        <v>-2.8558010810339691E-5</v>
+        <v>-4.6589630640787893E-5</v>
       </c>
       <c r="G3">
-        <v>2.5066086106860188E-5</v>
+        <v>1.4119724126857941E-5</v>
       </c>
       <c r="H3">
-        <v>2.5685691636902555E-4</v>
+        <v>2.68867756684303E-4</v>
       </c>
       <c r="I3">
-        <v>3.0842433962998986E-5</v>
+        <v>3.2338033705701913E-5</v>
       </c>
       <c r="J3">
-        <v>1.3224905857323502E-4</v>
+        <v>1.2867297143100425E-4</v>
       </c>
       <c r="K3">
-        <v>3.5076270168998129E-5</v>
+        <v>5.8038038890257065E-5</v>
       </c>
       <c r="L3">
-        <v>1.3516784826917263E-4</v>
+        <v>1.4442001206125697E-4</v>
       </c>
       <c r="M3">
-        <v>6.5279206375495397E-5</v>
+        <v>1.2971148499764645E-5</v>
       </c>
       <c r="N3">
-        <v>2.1132816904050447E-5</v>
+        <v>1.9421016589697866E-5</v>
       </c>
       <c r="O3">
-        <v>4.7119692326846874E-6</v>
+        <v>4.9212467047515194E-6</v>
       </c>
       <c r="P3">
-        <v>5.7072958594495474E-6</v>
+        <v>1.2401777296190946E-5</v>
       </c>
       <c r="Q3">
-        <v>-1.0444302360948755E-5</v>
+        <v>-1.1615012699619212E-5</v>
       </c>
       <c r="R3">
-        <v>-4.4886580386263846E-5</v>
+        <v>-4.3814862827839867E-5</v>
       </c>
       <c r="S3">
-        <v>2.1026153341513693E-5</v>
+        <v>2.5643541923509755E-5</v>
       </c>
       <c r="T3">
-        <v>1.7328315430801129E-5</v>
+        <v>1.7837015331143594E-5</v>
       </c>
       <c r="U3">
-        <v>1.3741360709732648E-5</v>
+        <v>1.7752048625917422E-5</v>
       </c>
       <c r="V3">
-        <v>2.0424133569076758E-5</v>
+        <v>2.0738018459584302E-5</v>
       </c>
       <c r="W3">
-        <v>-3.7229853755828287E-6</v>
+        <v>-3.8754436014623456E-6</v>
       </c>
       <c r="X3">
-        <v>5.1624028596042098E-5</v>
+        <v>5.3781555794152596E-5</v>
       </c>
       <c r="Y3">
-        <v>1.9315859824938462E-5</v>
+        <v>2.0796034719010987E-5</v>
       </c>
       <c r="Z3">
-        <v>-1.5512688371152185E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-1.6542415225429112E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4">
-        <v>5.0889820754302921E-5</v>
+      <c r="B4" s="4">
+        <v>-3.2432626748519507E-6</v>
       </c>
       <c r="C4">
-        <v>-4.0252872420265715E-8</v>
+        <v>-1.1616774394067268E-7</v>
       </c>
       <c r="D4">
-        <v>-6.2960188932341777E-7</v>
+        <v>-6.6959949856393759E-7</v>
       </c>
       <c r="E4">
-        <v>6.4695395679752905E-9</v>
+        <v>6.8645270197397541E-9</v>
       </c>
       <c r="F4">
-        <v>2.3730448046229829E-7</v>
+        <v>4.1294478458150012E-7</v>
       </c>
       <c r="G4">
-        <v>-4.4907073304756365E-7</v>
+        <v>-3.6508210106764774E-7</v>
       </c>
       <c r="H4">
-        <v>-2.153797478356697E-6</v>
+        <v>-2.1858629172693672E-6</v>
       </c>
       <c r="I4">
-        <v>-3.2465627940393598E-7</v>
+        <v>-3.180098382858305E-7</v>
       </c>
       <c r="J4">
-        <v>-1.8720181810279129E-6</v>
+        <v>-1.8736599248275938E-6</v>
       </c>
       <c r="K4">
-        <v>-8.3803301959039521E-8</v>
+        <v>-2.5048641241198732E-7</v>
       </c>
       <c r="L4">
-        <v>-1.1940740355775338E-6</v>
+        <v>-1.2992389818355303E-6</v>
       </c>
       <c r="M4">
-        <v>-6.1001402152295774E-7</v>
+        <v>1.5273418853740785E-7</v>
       </c>
       <c r="N4">
-        <v>-8.1755540346408186E-8</v>
+        <v>-4.1621415388086167E-8</v>
       </c>
       <c r="O4">
-        <v>-3.8845283409055552E-8</v>
+        <v>-3.8127756271604699E-8</v>
       </c>
       <c r="P4">
-        <v>-8.4825458459917967E-8</v>
+        <v>-1.8870018343804978E-7</v>
       </c>
       <c r="Q4">
-        <v>9.7577236740796708E-8</v>
+        <v>1.0192969026863015E-7</v>
       </c>
       <c r="R4">
-        <v>4.262903560622059E-7</v>
+        <v>3.8758918640671627E-7</v>
       </c>
       <c r="S4">
-        <v>-1.8935686681343227E-7</v>
+        <v>-2.3494776435404803E-7</v>
       </c>
       <c r="T4">
-        <v>-1.9714900914324872E-7</v>
+        <v>-2.2548566584016032E-7</v>
       </c>
       <c r="U4">
-        <v>-1.3152232896886681E-7</v>
+        <v>-1.8797143272103792E-7</v>
       </c>
       <c r="V4">
-        <v>-2.0942305509992146E-7</v>
+        <v>-2.1568307127880259E-7</v>
       </c>
       <c r="W4">
-        <v>3.3091428757200318E-8</v>
+        <v>3.4913256897352414E-8</v>
       </c>
       <c r="X4">
-        <v>-4.8340020574211956E-7</v>
+        <v>-4.8737713992206224E-7</v>
       </c>
       <c r="Y4">
-        <v>-2.0620838233940774E-7</v>
+        <v>-2.3018480895985338E-7</v>
       </c>
       <c r="Z4">
-        <v>1.4096460283060727E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+        <v>1.4856783071257045E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5">
-        <v>-0.11454570587423712</v>
+      <c r="B5" s="4">
+        <v>-0.12901578536593336</v>
       </c>
       <c r="C5">
-        <v>-3.4173504902302134E-4</v>
+        <v>-2.9276437534348903E-4</v>
       </c>
       <c r="D5">
-        <v>-2.8558010810339691E-5</v>
+        <v>-4.6589630640787893E-5</v>
       </c>
       <c r="E5">
-        <v>2.3730448046229829E-7</v>
+        <v>4.1294478458150012E-7</v>
       </c>
       <c r="F5">
-        <v>2.0655082324737241E-3</v>
+        <v>2.1171986065197093E-3</v>
       </c>
       <c r="G5">
-        <v>1.7666008537404181E-3</v>
+        <v>1.735309504888151E-3</v>
       </c>
       <c r="H5">
-        <v>1.1326775238870277E-5</v>
+        <v>-1.7279807151563477E-5</v>
       </c>
       <c r="I5">
-        <v>-9.3015517891537031E-5</v>
+        <v>-1.1389077865832999E-5</v>
       </c>
       <c r="J5">
-        <v>1.4348920307140781E-4</v>
+        <v>1.7963748599264363E-4</v>
       </c>
       <c r="K5">
-        <v>2.6317406843500226E-4</v>
+        <v>2.0557060125146997E-4</v>
       </c>
       <c r="L5">
-        <v>2.0443446984482307E-4</v>
+        <v>1.1619161749674381E-4</v>
       </c>
       <c r="M5">
-        <v>1.2419903445530419E-4</v>
+        <v>-9.0523140344964885E-5</v>
       </c>
       <c r="N5">
-        <v>1.3752301208439423E-5</v>
+        <v>2.8219321925358152E-5</v>
       </c>
       <c r="O5">
-        <v>1.3118021638228419E-6</v>
+        <v>1.3651976639571656E-5</v>
       </c>
       <c r="P5">
-        <v>3.3712233142294944E-5</v>
+        <v>-1.2380394879097246E-4</v>
       </c>
       <c r="Q5">
-        <v>6.9125596468589499E-5</v>
+        <v>5.7033666822347171E-5</v>
       </c>
       <c r="R5">
-        <v>1.2203673264889821E-5</v>
+        <v>1.9980529488244957E-4</v>
       </c>
       <c r="S5">
-        <v>-1.1163577926576385E-4</v>
+        <v>-9.1341169951589306E-5</v>
       </c>
       <c r="T5">
-        <v>-1.3810193462509217E-4</v>
+        <v>-1.4255835927019634E-4</v>
       </c>
       <c r="U5">
-        <v>1.9230131233916926E-5</v>
+        <v>3.2064669681672905E-5</v>
       </c>
       <c r="V5">
-        <v>-1.3564700663557319E-6</v>
+        <v>3.8629330512639974E-5</v>
       </c>
       <c r="W5">
-        <v>1.8083950447145022E-5</v>
+        <v>1.6780898849984723E-5</v>
       </c>
       <c r="X5">
-        <v>-1.2453219700036492E-4</v>
+        <v>-2.6206282702263107E-4</v>
       </c>
       <c r="Y5">
-        <v>-1.1587242953453819E-4</v>
+        <v>-1.0377978844040316E-4</v>
       </c>
       <c r="Z5">
-        <v>-1.404383824021672E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-1.0098450943983E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6">
-        <v>-7.7524790767445881E-2</v>
+      <c r="B6" s="4">
+        <v>-2.4969388056565521E-3</v>
       </c>
       <c r="C6">
-        <v>-3.9079923239952714E-4</v>
+        <v>-2.5680184037327685E-4</v>
       </c>
       <c r="D6">
-        <v>2.5066086106860188E-5</v>
+        <v>1.4119724126857941E-5</v>
       </c>
       <c r="E6">
-        <v>-4.4907073304756365E-7</v>
+        <v>-3.6508210106764774E-7</v>
       </c>
       <c r="F6">
-        <v>1.7666008537404181E-3</v>
+        <v>1.735309504888151E-3</v>
       </c>
       <c r="G6">
-        <v>3.9737625342898472E-3</v>
+        <v>3.9333721118099555E-3</v>
       </c>
       <c r="H6">
-        <v>1.5241339327994066E-4</v>
+        <v>-2.5532056884928638E-4</v>
       </c>
       <c r="I6">
-        <v>-5.1362275886589182E-5</v>
+        <v>-1.1949031094927228E-5</v>
       </c>
       <c r="J6">
-        <v>2.8464689717903733E-4</v>
+        <v>4.4016656257601342E-4</v>
       </c>
       <c r="K6">
-        <v>3.2248581207428356E-5</v>
+        <v>6.6689983793811645E-5</v>
       </c>
       <c r="L6">
-        <v>-2.6441478041818193E-5</v>
+        <v>-7.2787182736824471E-5</v>
       </c>
       <c r="M6">
-        <v>-2.6595397463760991E-4</v>
+        <v>-3.6942066648914347E-5</v>
       </c>
       <c r="N6">
-        <v>1.1585078330530763E-4</v>
+        <v>1.4941621957684033E-4</v>
       </c>
       <c r="O6">
-        <v>1.9802913063255758E-5</v>
+        <v>2.5791307129902732E-5</v>
       </c>
       <c r="P6">
-        <v>3.6444509586752022E-4</v>
+        <v>9.2396741036410851E-5</v>
       </c>
       <c r="Q6">
-        <v>7.7544594834477466E-5</v>
+        <v>7.0942675256009555E-5</v>
       </c>
       <c r="R6">
-        <v>6.3783560497934506E-5</v>
+        <v>2.8673531749758853E-4</v>
       </c>
       <c r="S6">
-        <v>-3.01857423008745E-4</v>
+        <v>-3.0772182479964531E-4</v>
       </c>
       <c r="T6">
-        <v>-1.2610093713507931E-4</v>
+        <v>-1.1486151445549959E-4</v>
       </c>
       <c r="U6">
-        <v>-9.984883543762927E-5</v>
+        <v>-1.1126407280846913E-4</v>
       </c>
       <c r="V6">
-        <v>-1.5271723643335534E-4</v>
+        <v>-1.6133526409355451E-4</v>
       </c>
       <c r="W6">
-        <v>3.0368289063953198E-5</v>
+        <v>2.3372852206692549E-5</v>
       </c>
       <c r="X6">
-        <v>-7.6996072198391979E-5</v>
+        <v>-2.4623897812581371E-4</v>
       </c>
       <c r="Y6">
-        <v>-4.850207953023284E-5</v>
+        <v>1.5850342079120434E-5</v>
       </c>
       <c r="Z6">
-        <v>-2.8011344979559597E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-2.5245331617493104E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B7">
-        <v>0.71907174360390569</v>
+      <c r="B7" s="4">
+        <v>0.56927200644399734</v>
       </c>
       <c r="C7">
-        <v>-1.8876503471591425E-4</v>
+        <v>-1.459952872540863E-4</v>
       </c>
       <c r="D7">
-        <v>2.5685691636902555E-4</v>
+        <v>2.68867756684303E-4</v>
       </c>
       <c r="E7">
-        <v>-2.153797478356697E-6</v>
+        <v>-2.1858629172693672E-6</v>
       </c>
       <c r="F7">
-        <v>1.1326775238870277E-5</v>
+        <v>-1.7279807151563477E-5</v>
       </c>
       <c r="G7">
-        <v>1.5241339327994066E-4</v>
+        <v>-2.5532056884928638E-4</v>
       </c>
       <c r="H7">
-        <v>1.3379384303715368E-2</v>
+        <v>1.4822996426778617E-2</v>
       </c>
       <c r="I7">
-        <v>2.6070942122833093E-3</v>
+        <v>2.9365845497712467E-3</v>
       </c>
       <c r="J7">
-        <v>2.4800392519217155E-3</v>
+        <v>2.6724669261874905E-3</v>
       </c>
       <c r="K7">
-        <v>6.4281841312871285E-4</v>
+        <v>9.7463034316761096E-4</v>
       </c>
       <c r="L7">
-        <v>-9.7971754184591597E-5</v>
+        <v>-5.8962554195566251E-6</v>
       </c>
       <c r="M7">
-        <v>2.094644978220865E-4</v>
+        <v>5.9458539561772729E-4</v>
       </c>
       <c r="N7">
-        <v>-8.1133270648942328E-6</v>
+        <v>-4.815486461643868E-5</v>
       </c>
       <c r="O7">
-        <v>3.8066404946551476E-4</v>
+        <v>3.9299633344927129E-4</v>
       </c>
       <c r="P7">
-        <v>3.7330541888129162E-4</v>
+        <v>2.8284975896666203E-4</v>
       </c>
       <c r="Q7">
-        <v>-6.545434483585353E-6</v>
+        <v>-3.9584795376331725E-6</v>
       </c>
       <c r="R7">
-        <v>-2.0246381496754999E-4</v>
+        <v>-1.7845289457517257E-4</v>
       </c>
       <c r="S7">
-        <v>7.8994546500757174E-5</v>
+        <v>3.5322350767870393E-4</v>
       </c>
       <c r="T7">
-        <v>-1.4894403725424366E-4</v>
+        <v>7.6665356072332276E-5</v>
       </c>
       <c r="U7">
-        <v>4.0259868081085268E-5</v>
+        <v>3.1243331258468728E-4</v>
       </c>
       <c r="V7">
-        <v>1.3303768236653211E-4</v>
+        <v>4.880149499593893E-4</v>
       </c>
       <c r="W7">
-        <v>-9.1012104731735778E-6</v>
+        <v>-3.6028062892759212E-5</v>
       </c>
       <c r="X7">
-        <v>2.2196550436561673E-4</v>
+        <v>5.2251308234808457E-4</v>
       </c>
       <c r="Y7">
-        <v>-3.3009918465570602E-4</v>
+        <v>-1.309029736989804E-4</v>
       </c>
       <c r="Z7">
-        <v>-9.8290345177518956E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-1.0314915623959081E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="B8">
-        <v>0.30592393239884119</v>
+      <c r="B8" s="4">
+        <v>0.30379796574439294</v>
       </c>
       <c r="C8">
-        <v>1.2472423517799987E-4</v>
+        <v>1.0335506413627522E-4</v>
       </c>
       <c r="D8">
-        <v>3.0842433962998986E-5</v>
+        <v>3.2338033705701913E-5</v>
       </c>
       <c r="E8">
-        <v>-3.2465627940393598E-7</v>
+        <v>-3.180098382858305E-7</v>
       </c>
       <c r="F8">
-        <v>-9.3015517891537031E-5</v>
+        <v>-1.1389077865832999E-5</v>
       </c>
       <c r="G8">
-        <v>-5.1362275886589182E-5</v>
+        <v>-1.1949031094927228E-5</v>
       </c>
       <c r="H8">
-        <v>2.6070942122833093E-3</v>
+        <v>2.9365845497712467E-3</v>
       </c>
       <c r="I8">
-        <v>3.5406041816296511E-3</v>
+        <v>3.770017441758527E-3</v>
       </c>
       <c r="J8">
-        <v>2.8349497618947593E-3</v>
+        <v>3.0495806263089479E-3</v>
       </c>
       <c r="K8">
-        <v>-2.3578549985067807E-5</v>
+        <v>7.914887810697767E-5</v>
       </c>
       <c r="L8">
-        <v>-8.1672915638343439E-5</v>
+        <v>-4.9849731671507591E-5</v>
       </c>
       <c r="M8">
-        <v>-5.460043852352145E-5</v>
+        <v>1.8825791542161551E-4</v>
       </c>
       <c r="N8">
-        <v>1.7596335793546391E-4</v>
+        <v>1.6528795641490251E-4</v>
       </c>
       <c r="O8">
-        <v>3.2484263546522394E-4</v>
+        <v>3.3937401093048967E-4</v>
       </c>
       <c r="P8">
-        <v>-1.3285275620222858E-4</v>
+        <v>-2.3072737023731305E-4</v>
       </c>
       <c r="Q8">
-        <v>-9.2330469894749445E-6</v>
+        <v>7.0872003546904173E-6</v>
       </c>
       <c r="R8">
-        <v>-3.5405667031839123E-5</v>
+        <v>5.2418083024193679E-6</v>
       </c>
       <c r="S8">
-        <v>1.2546904317765179E-4</v>
+        <v>1.767531986095949E-4</v>
       </c>
       <c r="T8">
-        <v>-6.8259014252685388E-6</v>
+        <v>6.3047524281762963E-5</v>
       </c>
       <c r="U8">
-        <v>9.7548673299692511E-5</v>
+        <v>1.6588212220161212E-4</v>
       </c>
       <c r="V8">
-        <v>1.3135636582586299E-4</v>
+        <v>2.256318945267836E-4</v>
       </c>
       <c r="W8">
-        <v>-7.3949244018561996E-6</v>
+        <v>-1.0148672373999168E-5</v>
       </c>
       <c r="X8">
-        <v>2.2616161662900318E-4</v>
+        <v>2.4472238758744625E-4</v>
       </c>
       <c r="Y8">
-        <v>1.5180278425382847E-5</v>
+        <v>-2.8654762966951255E-5</v>
       </c>
       <c r="Z8">
-        <v>-3.9096741410154191E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-4.3445750211356434E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B9">
-        <v>-1.6578694355308364E-2</v>
+      <c r="B9" s="4">
+        <v>-1.3123878327652581E-2</v>
       </c>
       <c r="C9">
-        <v>2.6463331593991239E-5</v>
+        <v>1.2088400881003133E-5</v>
       </c>
       <c r="D9">
-        <v>1.3224905857323502E-4</v>
+        <v>1.2867297143100425E-4</v>
       </c>
       <c r="E9">
-        <v>-1.8720181810279129E-6</v>
+        <v>-1.8736599248275938E-6</v>
       </c>
       <c r="F9">
-        <v>1.4348920307140781E-4</v>
+        <v>1.7963748599264363E-4</v>
       </c>
       <c r="G9">
-        <v>2.8464689717903733E-4</v>
+        <v>4.4016656257601342E-4</v>
       </c>
       <c r="H9">
-        <v>2.4800392519217155E-3</v>
+        <v>2.6724669261874905E-3</v>
       </c>
       <c r="I9">
-        <v>2.8349497618947593E-3</v>
+        <v>3.0495806263089479E-3</v>
       </c>
       <c r="J9">
-        <v>6.1160196298961503E-3</v>
+        <v>6.3481723378923834E-3</v>
       </c>
       <c r="K9">
-        <v>-1.6812491360609523E-5</v>
+        <v>5.4641007508262262E-5</v>
       </c>
       <c r="L9">
-        <v>1.4301273106258718E-4</v>
+        <v>1.8082918452424937E-4</v>
       </c>
       <c r="M9">
-        <v>1.7844864126005241E-4</v>
+        <v>2.3689363587462678E-4</v>
       </c>
       <c r="N9">
-        <v>1.2892245172216953E-4</v>
+        <v>6.9999292556810163E-5</v>
       </c>
       <c r="O9">
-        <v>3.3806781305934088E-4</v>
+        <v>3.4447877472526317E-4</v>
       </c>
       <c r="P9">
-        <v>-1.6982675515300229E-4</v>
+        <v>-2.2827396845630406E-4</v>
       </c>
       <c r="Q9">
-        <v>1.229517468010277E-5</v>
+        <v>4.9386736126068851E-5</v>
       </c>
       <c r="R9">
-        <v>-2.3321814303460357E-5</v>
+        <v>4.9124949953125493E-5</v>
       </c>
       <c r="S9">
-        <v>5.3236431521975179E-5</v>
+        <v>1.0807477538755375E-4</v>
       </c>
       <c r="T9">
-        <v>-1.674975367610995E-5</v>
+        <v>5.2368354271832259E-5</v>
       </c>
       <c r="U9">
-        <v>5.9598399923333281E-5</v>
+        <v>1.8911647863155672E-4</v>
       </c>
       <c r="V9">
-        <v>4.0282874050456136E-5</v>
+        <v>1.2243417765891627E-4</v>
       </c>
       <c r="W9">
-        <v>-2.001817007933672E-5</v>
+        <v>-2.3646739208948281E-5</v>
       </c>
       <c r="X9">
-        <v>2.0842332499672106E-4</v>
+        <v>1.3818293816274382E-4</v>
       </c>
       <c r="Y9">
-        <v>3.9024858750564065E-6</v>
+        <v>-3.2169873384303542E-5</v>
       </c>
       <c r="Z9">
-        <v>-5.1833794531631235E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-5.2110016349323132E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B10">
-        <v>0.56290807310381452</v>
+      <c r="B10" s="4">
+        <v>0.23961624772958864</v>
       </c>
       <c r="C10">
-        <v>1.0782491019087143E-4</v>
+        <v>1.6019303252251898E-4</v>
       </c>
       <c r="D10">
-        <v>3.5076270168998129E-5</v>
+        <v>5.8038038890257065E-5</v>
       </c>
       <c r="E10">
-        <v>-8.3803301959039521E-8</v>
+        <v>-2.5048641241198732E-7</v>
       </c>
       <c r="F10">
-        <v>2.6317406843500226E-4</v>
+        <v>2.0557060125146997E-4</v>
       </c>
       <c r="G10">
-        <v>3.2248581207428356E-5</v>
+        <v>6.6689983793811645E-5</v>
       </c>
       <c r="H10">
-        <v>6.4281841312871285E-4</v>
+        <v>9.7463034316761096E-4</v>
       </c>
       <c r="I10">
-        <v>-2.3578549985067807E-5</v>
+        <v>7.914887810697767E-5</v>
       </c>
       <c r="J10">
-        <v>-1.6812491360609523E-5</v>
+        <v>5.4641007508262262E-5</v>
       </c>
       <c r="K10">
-        <v>2.4887390828631189E-3</v>
+        <v>2.734995533116508E-3</v>
       </c>
       <c r="L10">
-        <v>1.394546707524406E-3</v>
+        <v>1.1469380948495465E-3</v>
       </c>
       <c r="M10">
-        <v>1.1616537786522921E-3</v>
+        <v>1.5305456762613652E-3</v>
       </c>
       <c r="N10">
-        <v>-3.1369130805412458E-5</v>
+        <v>-2.9667605192823141E-6</v>
       </c>
       <c r="O10">
-        <v>5.2347007313706043E-7</v>
+        <v>2.2128840993250834E-5</v>
       </c>
       <c r="P10">
-        <v>-2.9990137262427691E-5</v>
+        <v>-2.8469705871052037E-4</v>
       </c>
       <c r="Q10">
-        <v>-2.689814196696306E-5</v>
+        <v>-4.9394830328884156E-5</v>
       </c>
       <c r="R10">
-        <v>2.9870069866392212E-4</v>
+        <v>1.1567433877254676E-4</v>
       </c>
       <c r="S10">
-        <v>9.3995152603937012E-6</v>
+        <v>9.5227363434946988E-5</v>
       </c>
       <c r="T10">
-        <v>-1.3723257344544685E-4</v>
+        <v>-1.5634592597498073E-4</v>
       </c>
       <c r="U10">
-        <v>1.4837122359665444E-5</v>
+        <v>1.009207177396455E-5</v>
       </c>
       <c r="V10">
-        <v>-6.1856924424674557E-5</v>
+        <v>2.4024038883461974E-5</v>
       </c>
       <c r="W10">
-        <v>-3.34204415243664E-6</v>
+        <v>-8.4300908268228412E-6</v>
       </c>
       <c r="X10">
-        <v>1.4190473008828604E-4</v>
+        <v>1.7000338869801557E-4</v>
       </c>
       <c r="Y10">
-        <v>-2.4589402003355183E-5</v>
+        <v>2.8503196426972813E-6</v>
       </c>
       <c r="Z10">
-        <v>-2.8424685660307812E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-3.4415472521406787E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="B11">
-        <v>9.7377766538373475E-2</v>
+      <c r="B11" s="4">
+        <v>-6.0659242833658211E-4</v>
       </c>
       <c r="C11">
-        <v>2.4544173577099994E-5</v>
+        <v>4.658819835013451E-5</v>
       </c>
       <c r="D11">
-        <v>1.3516784826917263E-4</v>
+        <v>1.4442001206125697E-4</v>
       </c>
       <c r="E11">
-        <v>-1.1940740355775338E-6</v>
+        <v>-1.2992389818355303E-6</v>
       </c>
       <c r="F11">
-        <v>2.0443446984482307E-4</v>
+        <v>1.1619161749674381E-4</v>
       </c>
       <c r="G11">
-        <v>-2.6441478041818193E-5</v>
+        <v>-7.2787182736824471E-5</v>
       </c>
       <c r="H11">
-        <v>-9.7971754184591597E-5</v>
+        <v>-5.8962554195566251E-6</v>
       </c>
       <c r="I11">
-        <v>-8.1672915638343439E-5</v>
+        <v>-4.9849731671507591E-5</v>
       </c>
       <c r="J11">
-        <v>1.4301273106258718E-4</v>
+        <v>1.8082918452424937E-4</v>
       </c>
       <c r="K11">
-        <v>1.394546707524406E-3</v>
+        <v>1.1469380948495465E-3</v>
       </c>
       <c r="L11">
-        <v>2.5742544071564689E-3</v>
+        <v>2.2918628027421943E-3</v>
       </c>
       <c r="M11">
-        <v>1.3295098777927068E-3</v>
+        <v>1.0452419135235087E-3</v>
       </c>
       <c r="N11">
-        <v>1.6393934151611659E-5</v>
+        <v>3.262560799612783E-5</v>
       </c>
       <c r="O11">
-        <v>-1.6015626756244643E-9</v>
+        <v>9.3929851033967515E-6</v>
       </c>
       <c r="P11">
-        <v>-3.3194826788579893E-4</v>
+        <v>-3.9681432042659899E-4</v>
       </c>
       <c r="Q11">
-        <v>5.8587825460618018E-6</v>
+        <v>5.7334419651379907E-6</v>
       </c>
       <c r="R11">
-        <v>-2.2653572995494668E-4</v>
+        <v>-3.9595072171200781E-4</v>
       </c>
       <c r="S11">
-        <v>1.9332717365256268E-4</v>
+        <v>1.1714901728507635E-4</v>
       </c>
       <c r="T11">
-        <v>1.1628657869443076E-5</v>
+        <v>-1.3969125730667526E-4</v>
       </c>
       <c r="U11">
-        <v>1.1105299919618775E-4</v>
+        <v>-1.3638284240899759E-5</v>
       </c>
       <c r="V11">
-        <v>1.0657508396126028E-4</v>
+        <v>-4.5002668236837542E-6</v>
       </c>
       <c r="W11">
-        <v>-1.4267982526458811E-5</v>
+        <v>-2.1129403950058672E-6</v>
       </c>
       <c r="X11">
-        <v>1.8885125714125867E-4</v>
+        <v>1.2985145922262808E-4</v>
       </c>
       <c r="Y11">
-        <v>7.3302105040448044E-5</v>
+        <v>4.5706187493194106E-5</v>
       </c>
       <c r="Z11">
-        <v>-4.8534975995017408E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-4.9385160206989022E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B12">
-        <v>1.246317864144562</v>
+      <c r="B12" s="4">
+        <v>1.4660193088958622</v>
       </c>
       <c r="C12">
-        <v>2.7702844616863277E-4</v>
+        <v>6.0273552356143137E-4</v>
       </c>
       <c r="D12">
-        <v>6.5279206375495397E-5</v>
+        <v>1.2971148499764645E-5</v>
       </c>
       <c r="E12">
-        <v>-6.1001402152295774E-7</v>
+        <v>1.5273418853740785E-7</v>
       </c>
       <c r="F12">
-        <v>1.2419903445530419E-4</v>
+        <v>-9.0523140344964885E-5</v>
       </c>
       <c r="G12">
-        <v>-2.6595397463760991E-4</v>
+        <v>-3.6942066648914347E-5</v>
       </c>
       <c r="H12">
-        <v>2.094644978220865E-4</v>
+        <v>5.9458539561772729E-4</v>
       </c>
       <c r="I12">
-        <v>-5.460043852352145E-5</v>
+        <v>1.8825791542161551E-4</v>
       </c>
       <c r="J12">
-        <v>1.7844864126005241E-4</v>
+        <v>2.3689363587462678E-4</v>
       </c>
       <c r="K12">
-        <v>1.1616537786522921E-3</v>
+        <v>1.5305456762613652E-3</v>
       </c>
       <c r="L12">
-        <v>1.3295098777927068E-3</v>
+        <v>1.0452419135235087E-3</v>
       </c>
       <c r="M12">
-        <v>4.9348778993794484E-3</v>
+        <v>1.3830522208544841E-2</v>
       </c>
       <c r="N12">
-        <v>4.5915308151131399E-5</v>
+        <v>7.228720775136103E-5</v>
       </c>
       <c r="O12">
-        <v>-5.0394658918273858E-6</v>
+        <v>-2.2614760857203353E-5</v>
       </c>
       <c r="P12">
-        <v>-7.0517996266094597E-4</v>
+        <v>-1.5410419644764882E-3</v>
       </c>
       <c r="Q12">
-        <v>1.1325287498770492E-5</v>
+        <v>4.483011203373435E-6</v>
       </c>
       <c r="R12">
-        <v>-2.9232956257841313E-4</v>
+        <v>-4.7059036434025166E-4</v>
       </c>
       <c r="S12">
-        <v>-6.1856898278748692E-5</v>
+        <v>-4.2799548847220867E-5</v>
       </c>
       <c r="T12">
-        <v>-2.4013724840669123E-4</v>
+        <v>3.2118693613518326E-5</v>
       </c>
       <c r="U12">
-        <v>-1.3654766006881958E-4</v>
+        <v>-4.1055594133236227E-5</v>
       </c>
       <c r="V12">
-        <v>-2.468464676118183E-4</v>
+        <v>-1.9828308052192653E-4</v>
       </c>
       <c r="W12">
-        <v>2.3524398506338036E-5</v>
+        <v>2.3733900787817477E-6</v>
       </c>
       <c r="X12">
-        <v>-3.5561004175591277E-4</v>
+        <v>-5.4872387622790532E-4</v>
       </c>
       <c r="Y12">
-        <v>-2.3755184723151879E-4</v>
+        <v>-2.904742414332525E-4</v>
       </c>
       <c r="Z12">
-        <v>-3.3078161493371684E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-2.5721828612691585E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13">
-        <v>-4.229332678340781E-2</v>
+      <c r="B13" s="4">
+        <v>-2.1089883362983612E-2</v>
       </c>
       <c r="C13">
-        <v>4.0241872151877441E-5</v>
+        <v>3.9930419103059351E-5</v>
       </c>
       <c r="D13">
-        <v>2.1132816904050447E-5</v>
+        <v>1.9421016589697866E-5</v>
       </c>
       <c r="E13">
-        <v>-8.1755540346408186E-8</v>
+        <v>-4.1621415388086167E-8</v>
       </c>
       <c r="F13">
-        <v>1.3752301208439423E-5</v>
+        <v>2.8219321925358152E-5</v>
       </c>
       <c r="G13">
-        <v>1.1585078330530763E-4</v>
+        <v>1.4941621957684033E-4</v>
       </c>
       <c r="H13">
-        <v>-8.1133270648942328E-6</v>
+        <v>-4.815486461643868E-5</v>
       </c>
       <c r="I13">
-        <v>1.7596335793546391E-4</v>
+        <v>1.6528795641490251E-4</v>
       </c>
       <c r="J13">
-        <v>1.2892245172216953E-4</v>
+        <v>6.9999292556810163E-5</v>
       </c>
       <c r="K13">
-        <v>-3.1369130805412458E-5</v>
+        <v>-2.9667605192823141E-6</v>
       </c>
       <c r="L13">
-        <v>1.6393934151611659E-5</v>
+        <v>3.262560799612783E-5</v>
       </c>
       <c r="M13">
-        <v>4.5915308151131399E-5</v>
+        <v>7.228720775136103E-5</v>
       </c>
       <c r="N13">
-        <v>5.110636011183532E-4</v>
+        <v>5.3734121531802447E-4</v>
       </c>
       <c r="O13">
-        <v>-4.9120505347230327E-6</v>
+        <v>-8.3880003439831377E-6</v>
       </c>
       <c r="P13">
-        <v>5.0893033811178455E-5</v>
+        <v>2.8343068527989825E-5</v>
       </c>
       <c r="Q13">
-        <v>-5.3739173929167233E-6</v>
+        <v>-6.5324849800232357E-6</v>
       </c>
       <c r="R13">
-        <v>-2.7867794874642665E-5</v>
+        <v>-2.5882262417559979E-5</v>
       </c>
       <c r="S13">
-        <v>5.5019829734959786E-5</v>
+        <v>6.2304257811124884E-6</v>
       </c>
       <c r="T13">
-        <v>4.6732771942808814E-5</v>
+        <v>1.06143594329471E-5</v>
       </c>
       <c r="U13">
-        <v>3.1084076438729711E-5</v>
+        <v>-7.8325768242829344E-6</v>
       </c>
       <c r="V13">
-        <v>1.8065322732457563E-5</v>
+        <v>-3.2219459393250001E-5</v>
       </c>
       <c r="W13">
-        <v>-9.4070924320097999E-6</v>
+        <v>-6.2541249412879994E-6</v>
       </c>
       <c r="X13">
-        <v>5.5724490768070331E-5</v>
+        <v>1.0412810404225527E-4</v>
       </c>
       <c r="Y13">
-        <v>-8.7831813781085507E-6</v>
+        <v>-1.9220447549101209E-5</v>
       </c>
       <c r="Z13">
-        <v>-2.5886016241340693E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-2.7175512097526071E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14">
-        <v>2.5290789368810615E-2</v>
+      <c r="B14" s="4">
+        <v>2.2986698154222395E-2</v>
       </c>
       <c r="C14">
-        <v>-1.7387916095756059E-5</v>
+        <v>-1.458698715135819E-5</v>
       </c>
       <c r="D14">
-        <v>4.7119692326846874E-6</v>
+        <v>4.9212467047515194E-6</v>
       </c>
       <c r="E14">
-        <v>-3.8845283409055552E-8</v>
+        <v>-3.8127756271604699E-8</v>
       </c>
       <c r="F14">
-        <v>1.3118021638228419E-6</v>
+        <v>1.3651976639571656E-5</v>
       </c>
       <c r="G14">
-        <v>1.9802913063255758E-5</v>
+        <v>2.5791307129902732E-5</v>
       </c>
       <c r="H14">
-        <v>3.8066404946551476E-4</v>
+        <v>3.9299633344927129E-4</v>
       </c>
       <c r="I14">
-        <v>3.2484263546522394E-4</v>
+        <v>3.3937401093048967E-4</v>
       </c>
       <c r="J14">
-        <v>3.3806781305934088E-4</v>
+        <v>3.4447877472526317E-4</v>
       </c>
       <c r="K14">
-        <v>5.2347007313706043E-7</v>
+        <v>2.2128840993250834E-5</v>
       </c>
       <c r="L14">
-        <v>-1.6015626756244643E-9</v>
+        <v>9.3929851033967515E-6</v>
       </c>
       <c r="M14">
-        <v>-5.0394658918273858E-6</v>
+        <v>-2.2614760857203353E-5</v>
       </c>
       <c r="N14">
-        <v>-4.9120505347230327E-6</v>
+        <v>-8.3880003439831377E-6</v>
       </c>
       <c r="O14">
-        <v>1.2470841999647278E-4</v>
+        <v>1.3429005909886948E-4</v>
       </c>
       <c r="P14">
-        <v>8.3086766376955831E-6</v>
+        <v>-1.270365733334485E-5</v>
       </c>
       <c r="Q14">
-        <v>-7.1763492732298062E-5</v>
+        <v>-7.8666491876243033E-5</v>
       </c>
       <c r="R14">
-        <v>-6.667502560281656E-5</v>
+        <v>-5.6694740393089946E-5</v>
       </c>
       <c r="S14">
-        <v>6.1047843717334117E-6</v>
+        <v>9.315088389986331E-6</v>
       </c>
       <c r="T14">
-        <v>-1.7333197059075537E-5</v>
+        <v>-1.4936685730256399E-5</v>
       </c>
       <c r="U14">
-        <v>-2.905122624399987E-8</v>
+        <v>2.2301992587479402E-8</v>
       </c>
       <c r="V14">
-        <v>-2.3974174540334291E-6</v>
+        <v>3.0052355105146436E-6</v>
       </c>
       <c r="W14">
-        <v>1.1174877223125349E-6</v>
+        <v>1.5127823267167701E-6</v>
       </c>
       <c r="X14">
-        <v>3.1417511571900673E-6</v>
+        <v>-6.0105060608917646E-6</v>
       </c>
       <c r="Y14">
-        <v>-1.6359995741617033E-5</v>
+        <v>-2.1772012809804115E-5</v>
       </c>
       <c r="Z14">
-        <v>-4.8706367161306782E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-5.301500789003787E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15">
-        <v>4.2773444099808229</v>
+      <c r="B15" s="4">
+        <v>4.2631975141117353</v>
       </c>
       <c r="C15">
-        <v>2.2049819480201042E-5</v>
+        <v>2.6114299376365103E-6</v>
       </c>
       <c r="D15">
-        <v>5.7072958594495474E-6</v>
+        <v>1.2401777296190946E-5</v>
       </c>
       <c r="E15">
-        <v>-8.4825458459917967E-8</v>
+        <v>-1.8870018343804978E-7</v>
       </c>
       <c r="F15">
-        <v>3.3712233142294944E-5</v>
+        <v>-1.2380394879097246E-4</v>
       </c>
       <c r="G15">
-        <v>3.6444509586752022E-4</v>
+        <v>9.2396741036410851E-5</v>
       </c>
       <c r="H15">
-        <v>3.7330541888129162E-4</v>
+        <v>2.8284975896666203E-4</v>
       </c>
       <c r="I15">
-        <v>-1.3285275620222858E-4</v>
+        <v>-2.3072737023731305E-4</v>
       </c>
       <c r="J15">
-        <v>-1.6982675515300229E-4</v>
+        <v>-2.2827396845630406E-4</v>
       </c>
       <c r="K15">
-        <v>-2.9990137262427691E-5</v>
+        <v>-2.8469705871052037E-4</v>
       </c>
       <c r="L15">
-        <v>-3.3194826788579893E-4</v>
+        <v>-3.9681432042659899E-4</v>
       </c>
       <c r="M15">
-        <v>-7.0517996266094597E-4</v>
+        <v>-1.5410419644764882E-3</v>
       </c>
       <c r="N15">
-        <v>5.0893033811178455E-5</v>
+        <v>2.8343068527989825E-5</v>
       </c>
       <c r="O15">
-        <v>8.3086766376955831E-6</v>
+        <v>-1.270365733334485E-5</v>
       </c>
       <c r="P15">
-        <v>1.7841806139628234E-2</v>
+        <v>1.9641489251194848E-2</v>
       </c>
       <c r="Q15">
-        <v>-1.626610213343956E-5</v>
+        <v>-6.0444305296299657E-6</v>
       </c>
       <c r="R15">
-        <v>-2.0013593900287579E-3</v>
+        <v>-2.2298395887180244E-3</v>
       </c>
       <c r="S15">
-        <v>-3.6601222135653269E-4</v>
+        <v>-3.4980126239866406E-4</v>
       </c>
       <c r="T15">
-        <v>-2.1406951215547672E-4</v>
+        <v>-3.2874083957978536E-4</v>
       </c>
       <c r="U15">
-        <v>-3.8982692379621034E-4</v>
+        <v>-5.0454487284182854E-4</v>
       </c>
       <c r="V15">
-        <v>-8.4341463687442878E-5</v>
+        <v>-1.6058000714906973E-4</v>
       </c>
       <c r="W15">
-        <v>1.5177706893611618E-5</v>
+        <v>1.6402633979182872E-5</v>
       </c>
       <c r="X15">
-        <v>1.2071162849984478E-3</v>
+        <v>1.4987042106780102E-3</v>
       </c>
       <c r="Y15">
-        <v>-4.3864156995643191E-4</v>
+        <v>-4.915953621430632E-4</v>
       </c>
       <c r="Z15">
-        <v>-8.6640387965583284E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-5.2167586395967006E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>33</v>
       </c>
-      <c r="B16">
-        <v>-1.1227454524569786E-2</v>
+      <c r="B16" s="4">
+        <v>-1.3802970490021776E-2</v>
       </c>
       <c r="C16">
-        <v>-2.9599634379596917E-5</v>
+        <v>-3.0296709751113915E-5</v>
       </c>
       <c r="D16">
-        <v>-1.0444302360948755E-5</v>
+        <v>-1.1615012699619212E-5</v>
       </c>
       <c r="E16">
-        <v>9.7577236740796708E-8</v>
+        <v>1.0192969026863015E-7</v>
       </c>
       <c r="F16">
-        <v>6.9125596468589499E-5</v>
+        <v>5.7033666822347171E-5</v>
       </c>
       <c r="G16">
-        <v>7.7544594834477466E-5</v>
+        <v>7.0942675256009555E-5</v>
       </c>
       <c r="H16">
-        <v>-6.545434483585353E-6</v>
+        <v>-3.9584795376331725E-6</v>
       </c>
       <c r="I16">
-        <v>-9.2330469894749445E-6</v>
+        <v>7.0872003546904173E-6</v>
       </c>
       <c r="J16">
-        <v>1.229517468010277E-5</v>
+        <v>4.9386736126068851E-5</v>
       </c>
       <c r="K16">
-        <v>-2.689814196696306E-5</v>
+        <v>-4.9394830328884156E-5</v>
       </c>
       <c r="L16">
-        <v>5.8587825460618018E-6</v>
+        <v>5.7334419651379907E-6</v>
       </c>
       <c r="M16">
-        <v>1.1325287498770492E-5</v>
+        <v>4.483011203373435E-6</v>
       </c>
       <c r="N16">
-        <v>-5.3739173929167233E-6</v>
+        <v>-6.5324849800232357E-6</v>
       </c>
       <c r="O16">
-        <v>-7.1763492732298062E-5</v>
+        <v>-7.8666491876243033E-5</v>
       </c>
       <c r="P16">
-        <v>-1.626610213343956E-5</v>
+        <v>-6.0444305296299657E-6</v>
       </c>
       <c r="Q16">
-        <v>9.1563180607353201E-5</v>
+        <v>1.0183084713612834E-4</v>
       </c>
       <c r="R16">
-        <v>3.938271458772227E-5</v>
+        <v>3.5910440738145253E-5</v>
       </c>
       <c r="S16">
-        <v>-2.0317286165677501E-6</v>
+        <v>-1.3513646709737917E-6</v>
       </c>
       <c r="T16">
-        <v>3.4678447842870924E-6</v>
+        <v>3.9062021479938935E-6</v>
       </c>
       <c r="U16">
-        <v>2.9356031670988391E-6</v>
+        <v>6.9629632612035544E-6</v>
       </c>
       <c r="V16">
-        <v>7.2317139372100563E-6</v>
+        <v>8.5393677651394756E-6</v>
       </c>
       <c r="W16">
-        <v>-1.0126811126608498E-6</v>
+        <v>-1.5955846287035728E-6</v>
       </c>
       <c r="X16">
-        <v>-1.5577685430048389E-5</v>
+        <v>-2.6722343373659278E-5</v>
       </c>
       <c r="Y16">
-        <v>5.2453675475643729E-6</v>
+        <v>7.0005295636831549E-6</v>
       </c>
       <c r="Z16">
-        <v>1.7923654241092069E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+        <v>2.2678906067474699E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17">
-        <v>2.6614489397532162</v>
+      <c r="B17" s="4">
+        <v>2.6138910276520639</v>
       </c>
       <c r="C17">
-        <v>1.2615467195869573E-4</v>
+        <v>1.2494138010618404E-4</v>
       </c>
       <c r="D17">
-        <v>-4.4886580386263846E-5</v>
+        <v>-4.3814862827839867E-5</v>
       </c>
       <c r="E17">
-        <v>4.262903560622059E-7</v>
+        <v>3.8758918640671627E-7</v>
       </c>
       <c r="F17">
-        <v>1.2203673264889821E-5</v>
+        <v>1.9980529488244957E-4</v>
       </c>
       <c r="G17">
-        <v>6.3783560497934506E-5</v>
+        <v>2.8673531749758853E-4</v>
       </c>
       <c r="H17">
-        <v>-2.0246381496754999E-4</v>
+        <v>-1.7845289457517257E-4</v>
       </c>
       <c r="I17">
-        <v>-3.5405667031839123E-5</v>
+        <v>5.2418083024193679E-6</v>
       </c>
       <c r="J17">
-        <v>-2.3321814303460357E-5</v>
+        <v>4.9124949953125493E-5</v>
       </c>
       <c r="K17">
-        <v>2.9870069866392212E-4</v>
+        <v>1.1567433877254676E-4</v>
       </c>
       <c r="L17">
-        <v>-2.2653572995494668E-4</v>
+        <v>-3.9595072171200781E-4</v>
       </c>
       <c r="M17">
-        <v>-2.9232956257841313E-4</v>
+        <v>-4.7059036434025166E-4</v>
       </c>
       <c r="N17">
-        <v>-2.7867794874642665E-5</v>
+        <v>-2.5882262417559979E-5</v>
       </c>
       <c r="O17">
-        <v>-6.667502560281656E-5</v>
+        <v>-5.6694740393089946E-5</v>
       </c>
       <c r="P17">
-        <v>-2.0013593900287579E-3</v>
+        <v>-2.2298395887180244E-3</v>
       </c>
       <c r="Q17">
-        <v>3.938271458772227E-5</v>
+        <v>3.5910440738145253E-5</v>
       </c>
       <c r="R17">
-        <v>9.6645219124000901E-3</v>
+        <v>1.0416723289793416E-2</v>
       </c>
       <c r="S17">
-        <v>-1.8861569443348491E-4</v>
+        <v>-1.5059093220359167E-4</v>
       </c>
       <c r="T17">
-        <v>-2.3570867794373709E-4</v>
+        <v>-2.0896024664491313E-4</v>
       </c>
       <c r="U17">
-        <v>-1.817468355145229E-4</v>
+        <v>-1.6901050182579054E-4</v>
       </c>
       <c r="V17">
-        <v>-1.9075781216161558E-4</v>
+        <v>-1.5559855612046051E-4</v>
       </c>
       <c r="W17">
-        <v>-1.7126467549264545E-5</v>
+        <v>-1.7532505674785703E-5</v>
       </c>
       <c r="X17">
-        <v>-2.689374331955165E-5</v>
+        <v>-1.377551786105497E-4</v>
       </c>
       <c r="Y17">
-        <v>-1.7057235696620431E-4</v>
+        <v>-1.5660651218286125E-4</v>
       </c>
       <c r="Z17">
-        <v>1.2095533325953362E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+        <v>1.1494416509874464E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>35</v>
       </c>
-      <c r="B18">
-        <v>6.6502196171544195E-2</v>
+      <c r="B18" s="4">
+        <v>7.8098393161519716E-2</v>
       </c>
       <c r="C18">
-        <v>-3.7708971970062607E-5</v>
+        <v>-7.2229306322428458E-5</v>
       </c>
       <c r="D18">
-        <v>2.1026153341513693E-5</v>
+        <v>2.5643541923509755E-5</v>
       </c>
       <c r="E18">
-        <v>-1.8935686681343227E-7</v>
+        <v>-2.3494776435404803E-7</v>
       </c>
       <c r="F18">
-        <v>-1.1163577926576385E-4</v>
+        <v>-9.1341169951589306E-5</v>
       </c>
       <c r="G18">
-        <v>-3.01857423008745E-4</v>
+        <v>-3.0772182479964531E-4</v>
       </c>
       <c r="H18">
-        <v>7.8994546500757174E-5</v>
+        <v>3.5322350767870393E-4</v>
       </c>
       <c r="I18">
-        <v>1.2546904317765179E-4</v>
+        <v>1.767531986095949E-4</v>
       </c>
       <c r="J18">
-        <v>5.3236431521975179E-5</v>
+        <v>1.0807477538755375E-4</v>
       </c>
       <c r="K18">
-        <v>9.3995152603937012E-6</v>
+        <v>9.5227363434946988E-5</v>
       </c>
       <c r="L18">
-        <v>1.9332717365256268E-4</v>
+        <v>1.1714901728507635E-4</v>
       </c>
       <c r="M18">
-        <v>-6.1856898278748692E-5</v>
+        <v>-4.2799548847220867E-5</v>
       </c>
       <c r="N18">
-        <v>5.5019829734959786E-5</v>
+        <v>6.2304257811124884E-6</v>
       </c>
       <c r="O18">
-        <v>6.1047843717334117E-6</v>
+        <v>9.315088389986331E-6</v>
       </c>
       <c r="P18">
-        <v>-3.6601222135653269E-4</v>
+        <v>-3.4980126239866406E-4</v>
       </c>
       <c r="Q18">
-        <v>-2.0317286165677501E-6</v>
+        <v>-1.3513646709737917E-6</v>
       </c>
       <c r="R18">
-        <v>-1.8861569443348491E-4</v>
+        <v>-1.5059093220359167E-4</v>
       </c>
       <c r="S18">
-        <v>3.5436660120571786E-3</v>
+        <v>3.9199561337557622E-3</v>
       </c>
       <c r="T18">
-        <v>1.9079577850533028E-3</v>
+        <v>2.1617469131848584E-3</v>
       </c>
       <c r="U18">
-        <v>1.9010975631199062E-3</v>
+        <v>2.1619727241405677E-3</v>
       </c>
       <c r="V18">
-        <v>1.9130639007642577E-3</v>
+        <v>2.1725952255835855E-3</v>
       </c>
       <c r="W18">
-        <v>-5.2830595982838643E-5</v>
+        <v>-6.9556489160641866E-5</v>
       </c>
       <c r="X18">
-        <v>-1.4261965926962649E-4</v>
+        <v>-6.24391367352135E-6</v>
       </c>
       <c r="Y18">
-        <v>2.6801395363444224E-4</v>
+        <v>3.0872888519868305E-4</v>
       </c>
       <c r="Z18">
-        <v>-1.6775699215163119E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-1.6532362918860416E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="B19">
-        <v>0.35440695050377108</v>
+      <c r="B19" s="4">
+        <v>0.34867941832214661</v>
       </c>
       <c r="C19">
-        <v>7.6191647672587792E-7</v>
+        <v>-1.3810208354205029E-5</v>
       </c>
       <c r="D19">
-        <v>1.7328315430801129E-5</v>
+        <v>1.7837015331143594E-5</v>
       </c>
       <c r="E19">
-        <v>-1.9714900914324872E-7</v>
+        <v>-2.2548566584016032E-7</v>
       </c>
       <c r="F19">
-        <v>-1.3810193462509217E-4</v>
+        <v>-1.4255835927019634E-4</v>
       </c>
       <c r="G19">
-        <v>-1.2610093713507931E-4</v>
+        <v>-1.1486151445549959E-4</v>
       </c>
       <c r="H19">
-        <v>-1.4894403725424366E-4</v>
+        <v>7.6665356072332276E-5</v>
       </c>
       <c r="I19">
-        <v>-6.8259014252685388E-6</v>
+        <v>6.3047524281762963E-5</v>
       </c>
       <c r="J19">
-        <v>-1.674975367610995E-5</v>
+        <v>5.2368354271832259E-5</v>
       </c>
       <c r="K19">
-        <v>-1.3723257344544685E-4</v>
+        <v>-1.5634592597498073E-4</v>
       </c>
       <c r="L19">
-        <v>1.1628657869443076E-5</v>
+        <v>-1.3969125730667526E-4</v>
       </c>
       <c r="M19">
-        <v>-2.4013724840669123E-4</v>
+        <v>3.2118693613518326E-5</v>
       </c>
       <c r="N19">
-        <v>4.6732771942808814E-5</v>
+        <v>1.06143594329471E-5</v>
       </c>
       <c r="O19">
-        <v>-1.7333197059075537E-5</v>
+        <v>-1.4936685730256399E-5</v>
       </c>
       <c r="P19">
-        <v>-2.1406951215547672E-4</v>
+        <v>-3.2874083957978536E-4</v>
       </c>
       <c r="Q19">
-        <v>3.4678447842870924E-6</v>
+        <v>3.9062021479938935E-6</v>
       </c>
       <c r="R19">
-        <v>-2.3570867794373709E-4</v>
+        <v>-2.0896024664491313E-4</v>
       </c>
       <c r="S19">
-        <v>1.9079577850533028E-3</v>
+        <v>2.1617469131848584E-3</v>
       </c>
       <c r="T19">
-        <v>4.4728222599823972E-3</v>
+        <v>4.834535885578797E-3</v>
       </c>
       <c r="U19">
-        <v>1.8982726606541636E-3</v>
+        <v>2.1684517247628089E-3</v>
       </c>
       <c r="V19">
-        <v>1.901938093330462E-3</v>
+        <v>2.1703549077246418E-3</v>
       </c>
       <c r="W19">
-        <v>-5.0881426739941828E-5</v>
+        <v>-7.1907320353814861E-5</v>
       </c>
       <c r="X19">
-        <v>-5.4108999480007849E-5</v>
+        <v>4.038644625897563E-5</v>
       </c>
       <c r="Y19">
-        <v>2.0923945430227468E-4</v>
+        <v>2.9681994107703328E-4</v>
       </c>
       <c r="Z19">
-        <v>-1.2692790179211276E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-1.027409179893829E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>37</v>
       </c>
-      <c r="B20">
-        <v>0.1578242911532359</v>
+      <c r="B20" s="4">
+        <v>0.12351203618022899</v>
       </c>
       <c r="C20">
-        <v>-4.9382030287635812E-5</v>
+        <v>-8.3624974095545732E-5</v>
       </c>
       <c r="D20">
-        <v>1.3741360709732648E-5</v>
+        <v>1.7752048625917422E-5</v>
       </c>
       <c r="E20">
-        <v>-1.3152232896886681E-7</v>
+        <v>-1.8797143272103792E-7</v>
       </c>
       <c r="F20">
-        <v>1.9230131233916926E-5</v>
+        <v>3.2064669681672905E-5</v>
       </c>
       <c r="G20">
-        <v>-9.984883543762927E-5</v>
+        <v>-1.1126407280846913E-4</v>
       </c>
       <c r="H20">
-        <v>4.0259868081085268E-5</v>
+        <v>3.1243331258468728E-4</v>
       </c>
       <c r="I20">
-        <v>9.7548673299692511E-5</v>
+        <v>1.6588212220161212E-4</v>
       </c>
       <c r="J20">
-        <v>5.9598399923333281E-5</v>
+        <v>1.8911647863155672E-4</v>
       </c>
       <c r="K20">
-        <v>1.4837122359665444E-5</v>
+        <v>1.009207177396455E-5</v>
       </c>
       <c r="L20">
-        <v>1.1105299919618775E-4</v>
+        <v>-1.3638284240899759E-5</v>
       </c>
       <c r="M20">
-        <v>-1.3654766006881958E-4</v>
+        <v>-4.1055594133236227E-5</v>
       </c>
       <c r="N20">
-        <v>3.1084076438729711E-5</v>
+        <v>-7.8325768242829344E-6</v>
       </c>
       <c r="O20">
-        <v>-2.905122624399987E-8</v>
+        <v>2.2301992587479402E-8</v>
       </c>
       <c r="P20">
-        <v>-3.8982692379621034E-4</v>
+        <v>-5.0454487284182854E-4</v>
       </c>
       <c r="Q20">
-        <v>2.9356031670988391E-6</v>
+        <v>6.9629632612035544E-6</v>
       </c>
       <c r="R20">
-        <v>-1.817468355145229E-4</v>
+        <v>-1.6901050182579054E-4</v>
       </c>
       <c r="S20">
-        <v>1.9010975631199062E-3</v>
+        <v>2.1619727241405677E-3</v>
       </c>
       <c r="T20">
-        <v>1.8982726606541636E-3</v>
+        <v>2.1684517247628089E-3</v>
       </c>
       <c r="U20">
-        <v>3.3999181434144214E-3</v>
+        <v>3.7728911808155353E-3</v>
       </c>
       <c r="V20">
-        <v>1.9068124947215735E-3</v>
+        <v>2.1806805557141613E-3</v>
       </c>
       <c r="W20">
-        <v>-5.4200581327241278E-5</v>
+        <v>-7.3041743218926582E-5</v>
       </c>
       <c r="X20">
-        <v>-2.5029912067772578E-4</v>
+        <v>-1.2634799361616142E-4</v>
       </c>
       <c r="Y20">
-        <v>1.5725577314837803E-4</v>
+        <v>2.1767985315587432E-4</v>
       </c>
       <c r="Z20">
-        <v>-1.4101163499955199E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-1.3051873850985641E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="B21">
-        <v>7.3263048314709964E-2</v>
+      <c r="B21" s="4">
+        <v>6.9573284749212524E-2</v>
       </c>
       <c r="C21">
-        <v>-5.0307634420019304E-5</v>
+        <v>-9.240927332737167E-5</v>
       </c>
       <c r="D21">
-        <v>2.0424133569076758E-5</v>
+        <v>2.0738018459584302E-5</v>
       </c>
       <c r="E21">
-        <v>-2.0942305509992146E-7</v>
+        <v>-2.1568307127880259E-7</v>
       </c>
       <c r="F21">
-        <v>-1.3564700663557319E-6</v>
+        <v>3.8629330512639974E-5</v>
       </c>
       <c r="G21">
-        <v>-1.5271723643335534E-4</v>
+        <v>-1.6133526409355451E-4</v>
       </c>
       <c r="H21">
-        <v>1.3303768236653211E-4</v>
+        <v>4.880149499593893E-4</v>
       </c>
       <c r="I21">
-        <v>1.3135636582586299E-4</v>
+        <v>2.256318945267836E-4</v>
       </c>
       <c r="J21">
-        <v>4.0282874050456136E-5</v>
+        <v>1.2243417765891627E-4</v>
       </c>
       <c r="K21">
-        <v>-6.1856924424674557E-5</v>
+        <v>2.4024038883461974E-5</v>
       </c>
       <c r="L21">
-        <v>1.0657508396126028E-4</v>
+        <v>-4.5002668236837542E-6</v>
       </c>
       <c r="M21">
-        <v>-2.468464676118183E-4</v>
+        <v>-1.9828308052192653E-4</v>
       </c>
       <c r="N21">
-        <v>1.8065322732457563E-5</v>
+        <v>-3.2219459393250001E-5</v>
       </c>
       <c r="O21">
-        <v>-2.3974174540334291E-6</v>
+        <v>3.0052355105146436E-6</v>
       </c>
       <c r="P21">
-        <v>-8.4341463687442878E-5</v>
+        <v>-1.6058000714906973E-4</v>
       </c>
       <c r="Q21">
-        <v>7.2317139372100563E-6</v>
+        <v>8.5393677651394756E-6</v>
       </c>
       <c r="R21">
-        <v>-1.9075781216161558E-4</v>
+        <v>-1.5559855612046051E-4</v>
       </c>
       <c r="S21">
-        <v>1.9130639007642577E-3</v>
+        <v>2.1725952255835855E-3</v>
       </c>
       <c r="T21">
-        <v>1.901938093330462E-3</v>
+        <v>2.1703549077246418E-3</v>
       </c>
       <c r="U21">
-        <v>1.9068124947215735E-3</v>
+        <v>2.1806805557141613E-3</v>
       </c>
       <c r="V21">
-        <v>2.710700627262442E-3</v>
+        <v>3.0169653702485444E-3</v>
       </c>
       <c r="W21">
-        <v>-4.7038610339924867E-5</v>
+        <v>-6.694133294802498E-5</v>
       </c>
       <c r="X21">
-        <v>-1.7862028024448462E-4</v>
+        <v>-1.5912684952432967E-5</v>
       </c>
       <c r="Y21">
-        <v>6.4912429758853807E-5</v>
+        <v>1.3391394966685973E-4</v>
       </c>
       <c r="Z21">
-        <v>-1.5915716113016961E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-1.4495220305053001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>-3.6680784117341832E-2</v>
+      <c r="B22" s="4">
+        <v>-3.4996049790491784E-2</v>
       </c>
       <c r="C22">
-        <v>-1.59242023260923E-6</v>
+        <v>-2.4795870408941207E-7</v>
       </c>
       <c r="D22">
-        <v>-3.7229853755828287E-6</v>
+        <v>-3.8754436014623456E-6</v>
       </c>
       <c r="E22">
-        <v>3.3091428757200318E-8</v>
+        <v>3.4913256897352414E-8</v>
       </c>
       <c r="F22">
-        <v>1.8083950447145022E-5</v>
+        <v>1.6780898849984723E-5</v>
       </c>
       <c r="G22">
-        <v>3.0368289063953198E-5</v>
+        <v>2.3372852206692549E-5</v>
       </c>
       <c r="H22">
-        <v>-9.1012104731735778E-6</v>
+        <v>-3.6028062892759212E-5</v>
       </c>
       <c r="I22">
-        <v>-7.3949244018561996E-6</v>
+        <v>-1.0148672373999168E-5</v>
       </c>
       <c r="J22">
-        <v>-2.001817007933672E-5</v>
+        <v>-2.3646739208948281E-5</v>
       </c>
       <c r="K22">
-        <v>-3.34204415243664E-6</v>
+        <v>-8.4300908268228412E-6</v>
       </c>
       <c r="L22">
-        <v>-1.4267982526458811E-5</v>
+        <v>-2.1129403950058672E-6</v>
       </c>
       <c r="M22">
-        <v>2.3524398506338036E-5</v>
+        <v>2.3733900787817477E-6</v>
       </c>
       <c r="N22">
-        <v>-9.4070924320097999E-6</v>
+        <v>-6.2541249412879994E-6</v>
       </c>
       <c r="O22">
-        <v>1.1174877223125349E-6</v>
+        <v>1.5127823267167701E-6</v>
       </c>
       <c r="P22">
-        <v>1.5177706893611618E-5</v>
+        <v>1.6402633979182872E-5</v>
       </c>
       <c r="Q22">
-        <v>-1.0126811126608498E-6</v>
+        <v>-1.5955846287035728E-6</v>
       </c>
       <c r="R22">
-        <v>-1.7126467549264545E-5</v>
+        <v>-1.7532505674785703E-5</v>
       </c>
       <c r="S22">
-        <v>-5.2830595982838643E-5</v>
+        <v>-6.9556489160641866E-5</v>
       </c>
       <c r="T22">
-        <v>-5.0881426739941828E-5</v>
+        <v>-7.1907320353814861E-5</v>
       </c>
       <c r="U22">
-        <v>-5.4200581327241278E-5</v>
+        <v>-7.3041743218926582E-5</v>
       </c>
       <c r="V22">
-        <v>-4.7038610339924867E-5</v>
+        <v>-6.694133294802498E-5</v>
       </c>
       <c r="W22">
-        <v>2.9280718004006271E-5</v>
+        <v>3.1898248257181012E-5</v>
       </c>
       <c r="X22">
-        <v>-1.0542197497956704E-4</v>
+        <v>-1.1857788194529048E-4</v>
       </c>
       <c r="Y22">
-        <v>-1.2245101204000423E-4</v>
+        <v>-1.3472496847393868E-4</v>
       </c>
       <c r="Z22">
-        <v>-3.1284758893496763E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-3.4095036270860715E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>-0.46884303997736343</v>
+      <c r="B23" s="4">
+        <v>-0.51257672959008926</v>
       </c>
       <c r="C23">
-        <v>5.2859281324847061E-5</v>
+        <v>6.7433969298730028E-5</v>
       </c>
       <c r="D23">
-        <v>5.1624028596042098E-5</v>
+        <v>5.3781555794152596E-5</v>
       </c>
       <c r="E23">
-        <v>-4.8340020574211956E-7</v>
+        <v>-4.8737713992206224E-7</v>
       </c>
       <c r="F23">
-        <v>-1.2453219700036492E-4</v>
+        <v>-2.6206282702263107E-4</v>
       </c>
       <c r="G23">
-        <v>-7.6996072198391979E-5</v>
+        <v>-2.4623897812581371E-4</v>
       </c>
       <c r="H23">
-        <v>2.2196550436561673E-4</v>
+        <v>5.2251308234808457E-4</v>
       </c>
       <c r="I23">
-        <v>2.2616161662900318E-4</v>
+        <v>2.4472238758744625E-4</v>
       </c>
       <c r="J23">
-        <v>2.0842332499672106E-4</v>
+        <v>1.3818293816274382E-4</v>
       </c>
       <c r="K23">
-        <v>1.4190473008828604E-4</v>
+        <v>1.7000338869801557E-4</v>
       </c>
       <c r="L23">
-        <v>1.8885125714125867E-4</v>
+        <v>1.2985145922262808E-4</v>
       </c>
       <c r="M23">
-        <v>-3.5561004175591277E-4</v>
+        <v>-5.4872387622790532E-4</v>
       </c>
       <c r="N23">
-        <v>5.5724490768070331E-5</v>
+        <v>1.0412810404225527E-4</v>
       </c>
       <c r="O23">
-        <v>3.1417511571900673E-6</v>
+        <v>-6.0105060608917646E-6</v>
       </c>
       <c r="P23">
-        <v>1.2071162849984478E-3</v>
+        <v>1.4987042106780102E-3</v>
       </c>
       <c r="Q23">
-        <v>-1.5577685430048389E-5</v>
+        <v>-2.6722343373659278E-5</v>
       </c>
       <c r="R23">
-        <v>-2.689374331955165E-5</v>
+        <v>-1.377551786105497E-4</v>
       </c>
       <c r="S23">
-        <v>-1.4261965926962649E-4</v>
+        <v>-6.24391367352135E-6</v>
       </c>
       <c r="T23">
-        <v>-5.4108999480007849E-5</v>
+        <v>4.038644625897563E-5</v>
       </c>
       <c r="U23">
-        <v>-2.5029912067772578E-4</v>
+        <v>-1.2634799361616142E-4</v>
       </c>
       <c r="V23">
-        <v>-1.7862028024448462E-4</v>
+        <v>-1.5912684952432967E-5</v>
       </c>
       <c r="W23">
-        <v>-1.0542197497956704E-4</v>
+        <v>-1.1857788194529048E-4</v>
       </c>
       <c r="X23">
-        <v>6.2552684995603684E-3</v>
+        <v>7.0059157911962116E-3</v>
       </c>
       <c r="Y23">
-        <v>1.0804992024905299E-3</v>
+        <v>1.2299720002870577E-3</v>
       </c>
       <c r="Z23">
-        <v>-5.937834177839477E-5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-1.01750766453572E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>-0.41516675433278211</v>
+      <c r="B24" s="4">
+        <v>-0.41689727608834237</v>
       </c>
       <c r="C24">
-        <v>2.7521723292594163E-5</v>
+        <v>2.0718405999354389E-5</v>
       </c>
       <c r="D24">
-        <v>1.9315859824938462E-5</v>
+        <v>2.0796034719010987E-5</v>
       </c>
       <c r="E24">
-        <v>-2.0620838233940774E-7</v>
+        <v>-2.3018480895985338E-7</v>
       </c>
       <c r="F24">
-        <v>-1.1587242953453819E-4</v>
+        <v>-1.0377978844040316E-4</v>
       </c>
       <c r="G24">
-        <v>-4.850207953023284E-5</v>
+        <v>1.5850342079120434E-5</v>
       </c>
       <c r="H24">
-        <v>-3.3009918465570602E-4</v>
+        <v>-1.309029736989804E-4</v>
       </c>
       <c r="I24">
-        <v>1.5180278425382847E-5</v>
+        <v>-2.8654762966951255E-5</v>
       </c>
       <c r="J24">
-        <v>3.9024858750564065E-6</v>
+        <v>-3.2169873384303542E-5</v>
       </c>
       <c r="K24">
-        <v>-2.4589402003355183E-5</v>
+        <v>2.8503196426972813E-6</v>
       </c>
       <c r="L24">
-        <v>7.3302105040448044E-5</v>
+        <v>4.5706187493194106E-5</v>
       </c>
       <c r="M24">
-        <v>-2.3755184723151879E-4</v>
+        <v>-2.904742414332525E-4</v>
       </c>
       <c r="N24">
-        <v>-8.7831813781085507E-6</v>
+        <v>-1.9220447549101209E-5</v>
       </c>
       <c r="O24">
-        <v>-1.6359995741617033E-5</v>
+        <v>-2.1772012809804115E-5</v>
       </c>
       <c r="P24">
-        <v>-4.3864156995643191E-4</v>
+        <v>-4.915953621430632E-4</v>
       </c>
       <c r="Q24">
-        <v>5.2453675475643729E-6</v>
+        <v>7.0005295636831549E-6</v>
       </c>
       <c r="R24">
-        <v>-1.7057235696620431E-4</v>
+        <v>-1.5660651218286125E-4</v>
       </c>
       <c r="S24">
-        <v>2.6801395363444224E-4</v>
+        <v>3.0872888519868305E-4</v>
       </c>
       <c r="T24">
-        <v>2.0923945430227468E-4</v>
+        <v>2.9681994107703328E-4</v>
       </c>
       <c r="U24">
-        <v>1.5725577314837803E-4</v>
+        <v>2.1767985315587432E-4</v>
       </c>
       <c r="V24">
-        <v>6.4912429758853807E-5</v>
+        <v>1.3391394966685973E-4</v>
       </c>
       <c r="W24">
-        <v>-1.2245101204000423E-4</v>
+        <v>-1.3472496847393868E-4</v>
       </c>
       <c r="X24">
-        <v>1.0804992024905299E-3</v>
+        <v>1.2299720002870577E-3</v>
       </c>
       <c r="Y24">
-        <v>2.9416378072345773E-3</v>
+        <v>3.2589050577469482E-3</v>
       </c>
       <c r="Z24">
-        <v>1.3570874265659675E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+        <v>1.4998302658133364E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>-2.1642819772036228</v>
+      <c r="B25" s="4">
+        <v>-2.1806239216867906</v>
       </c>
       <c r="C25">
-        <v>-6.3300050580827156E-4</v>
+        <v>-9.5637322977209192E-4</v>
       </c>
       <c r="D25">
-        <v>-1.5512688371152185E-3</v>
+        <v>-1.6542415225429112E-3</v>
       </c>
       <c r="E25">
-        <v>1.4096460283060727E-5</v>
+        <v>1.4856783071257045E-5</v>
       </c>
       <c r="F25">
-        <v>-1.404383824021672E-3</v>
+        <v>-1.0098450943983E-3</v>
       </c>
       <c r="G25">
-        <v>-2.8011344979559597E-3</v>
+        <v>-2.5245331617493104E-3</v>
       </c>
       <c r="H25">
-        <v>-9.8290345177518956E-3</v>
+        <v>-1.0314915623959081E-2</v>
       </c>
       <c r="I25">
-        <v>-3.9096741410154191E-3</v>
+        <v>-4.3445750211356434E-3</v>
       </c>
       <c r="J25">
-        <v>-5.1833794531631235E-3</v>
+        <v>-5.2110016349323132E-3</v>
       </c>
       <c r="K25">
-        <v>-2.8424685660307812E-3</v>
+        <v>-3.4415472521406787E-3</v>
       </c>
       <c r="L25">
-        <v>-4.8534975995017408E-3</v>
+        <v>-4.9385160206989022E-3</v>
       </c>
       <c r="M25">
-        <v>-3.3078161493371684E-3</v>
+        <v>-2.5721828612691585E-3</v>
       </c>
       <c r="N25">
-        <v>-2.5886016241340693E-3</v>
+        <v>-2.7175512097526071E-3</v>
       </c>
       <c r="O25">
-        <v>-4.8706367161306782E-4</v>
+        <v>-5.301500789003787E-4</v>
       </c>
       <c r="P25">
-        <v>-8.6640387965583284E-4</v>
+        <v>-5.2167586395967006E-4</v>
       </c>
       <c r="Q25">
-        <v>1.7923654241092069E-4</v>
+        <v>2.2678906067474699E-4</v>
       </c>
       <c r="R25">
-        <v>1.2095533325953362E-3</v>
+        <v>1.1494416509874464E-3</v>
       </c>
       <c r="S25">
-        <v>-1.6775699215163119E-3</v>
+        <v>-1.6532362918860416E-3</v>
       </c>
       <c r="T25">
-        <v>-1.2692790179211276E-3</v>
+        <v>-1.027409179893829E-3</v>
       </c>
       <c r="U25">
-        <v>-1.4101163499955199E-3</v>
+        <v>-1.3051873850985641E-3</v>
       </c>
       <c r="V25">
-        <v>-1.5915716113016961E-3</v>
+        <v>-1.4495220305053001E-3</v>
       </c>
       <c r="W25">
-        <v>-3.1284758893496763E-4</v>
+        <v>-3.4095036270860715E-4</v>
       </c>
       <c r="X25">
-        <v>-5.937834177839477E-5</v>
+        <v>-1.01750766453572E-4</v>
       </c>
       <c r="Y25">
-        <v>1.3570874265659675E-3</v>
+        <v>1.4998302658133364E-3</v>
       </c>
       <c r="Z25">
-        <v>6.1949212833745437E-2</v>
+        <v>6.5842556999397089E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3413,16 +3414,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -3472,704 +3471,704 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2">
-        <v>0.15723596814416196</v>
+      <c r="B2" s="4">
+        <v>0.12316746969829941</v>
       </c>
       <c r="C2">
-        <v>5.7614667066220905E-3</v>
+        <v>5.0202077102944401E-3</v>
       </c>
       <c r="D2">
-        <v>-6.6687652283632182E-4</v>
+        <v>-1.1231680133569465E-3</v>
       </c>
       <c r="E2">
-        <v>1.7813191983784088E-5</v>
+        <v>2.7158640157504297E-5</v>
       </c>
       <c r="F2">
-        <v>-1.8774160069188008E-4</v>
+        <v>-2.9292588895649986E-4</v>
       </c>
       <c r="G2">
-        <v>3.5031439852881564E-4</v>
+        <v>2.3168901396491872E-4</v>
       </c>
       <c r="H2">
-        <v>1.5176034295380225E-3</v>
+        <v>1.384717224126291E-3</v>
       </c>
       <c r="I2">
-        <v>5.7965922943296541E-4</v>
+        <v>1.2303408780517493E-3</v>
       </c>
       <c r="J2">
-        <v>-8.8953960027448437E-4</v>
+        <v>-2.4786056664098492E-4</v>
       </c>
       <c r="K2">
-        <v>9.8523078916027892E-4</v>
+        <v>1.2337907109993204E-3</v>
       </c>
       <c r="L2">
-        <v>1.3107922160317722E-3</v>
+        <v>1.3215428890431136E-3</v>
       </c>
       <c r="M2">
-        <v>-2.1852466033162304E-4</v>
+        <v>-2.0675063335471797E-4</v>
       </c>
       <c r="N2">
-        <v>2.1707430681265315E-3</v>
+        <v>1.1139847368952308E-3</v>
       </c>
       <c r="O2">
-        <v>1.5224079528500661E-3</v>
+        <v>1.3603979672593101E-3</v>
       </c>
       <c r="P2">
-        <v>5.84100280692601E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.1788853945673985E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3">
-        <v>-0.9393654305637017</v>
+      <c r="B3" s="4">
+        <v>-1.1530740530468646</v>
       </c>
       <c r="C3">
-        <v>-6.6687652283632182E-4</v>
+        <v>-1.1231680133569465E-3</v>
       </c>
       <c r="D3">
-        <v>0.13089207602245839</v>
+        <v>0.11383429631938419</v>
       </c>
       <c r="E3">
-        <v>-3.0689687563687151E-3</v>
+        <v>-2.6747276533438643E-3</v>
       </c>
       <c r="F3">
-        <v>-1.7696606568833873E-3</v>
+        <v>-1.7652430659281793E-3</v>
       </c>
       <c r="G3">
-        <v>-2.7600423273383828E-3</v>
+        <v>-2.3426933129390703E-3</v>
       </c>
       <c r="H3">
-        <v>-1.3845837284489182E-2</v>
+        <v>-1.1198718298259802E-2</v>
       </c>
       <c r="I3">
-        <v>-2.0832716101604198E-3</v>
+        <v>7.9663601195201217E-4</v>
       </c>
       <c r="J3">
-        <v>-6.6174707515540103E-3</v>
+        <v>-5.6222598465478502E-3</v>
       </c>
       <c r="K3">
-        <v>-2.6940815404379315E-3</v>
+        <v>-2.3719189058146739E-3</v>
       </c>
       <c r="L3">
-        <v>-4.4860140804864335E-3</v>
+        <v>-5.1880228123681871E-3</v>
       </c>
       <c r="M3">
-        <v>1.5735351012699517E-4</v>
+        <v>2.6461809729538821E-5</v>
       </c>
       <c r="N3">
-        <v>-4.2863839808020554E-3</v>
+        <v>-6.4773142500507142E-4</v>
       </c>
       <c r="O3">
-        <v>1.1616150634305988E-2</v>
+        <v>1.6228776492190899E-3</v>
       </c>
       <c r="P3">
-        <v>-1.3648231369097799</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-1.1818750340998916</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4">
-        <v>2.1154403463160148E-2</v>
+      <c r="B4" s="4">
+        <v>2.6336710399429794E-2</v>
       </c>
       <c r="C4">
-        <v>1.7813191983784088E-5</v>
+        <v>2.7158640157504297E-5</v>
       </c>
       <c r="D4">
-        <v>-3.0689687563687151E-3</v>
+        <v>-2.6747276533438643E-3</v>
       </c>
       <c r="E4">
-        <v>7.2234922358598583E-5</v>
+        <v>6.3074955432337209E-5</v>
       </c>
       <c r="F4">
-        <v>4.5825348436594887E-5</v>
+        <v>4.4208311020971138E-5</v>
       </c>
       <c r="G4">
-        <v>6.202506541195911E-5</v>
+        <v>5.2363017395937054E-5</v>
       </c>
       <c r="H4">
-        <v>2.9782390794964864E-4</v>
+        <v>2.421345837203201E-4</v>
       </c>
       <c r="I4">
-        <v>2.9646294314587818E-5</v>
+        <v>-3.1962352972370045E-5</v>
       </c>
       <c r="J4">
-        <v>1.4579862488724816E-4</v>
+        <v>1.2580525826271644E-4</v>
       </c>
       <c r="K4">
-        <v>5.4932150936933682E-5</v>
+        <v>5.0679069216279932E-5</v>
       </c>
       <c r="L4">
-        <v>1.0514704419398863E-4</v>
+        <v>1.2200330847066815E-4</v>
       </c>
       <c r="M4">
-        <v>-2.2160545601465284E-6</v>
+        <v>2.6366743720914604E-7</v>
       </c>
       <c r="N4">
-        <v>1.0009231334464838E-4</v>
+        <v>7.4720525802020321E-6</v>
       </c>
       <c r="O4">
-        <v>-2.681144901102786E-4</v>
+        <v>-3.8016507664107024E-5</v>
       </c>
       <c r="P4">
-        <v>3.1860495329021202E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2.7663184626622983E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B5">
-        <v>6.79665177284937E-2</v>
+      <c r="B5" s="4">
+        <v>5.2574825305009315E-2</v>
       </c>
       <c r="C5">
-        <v>-1.8774160069188008E-4</v>
+        <v>-2.9292588895649986E-4</v>
       </c>
       <c r="D5">
-        <v>-1.7696606568833873E-3</v>
+        <v>-1.7652430659281793E-3</v>
       </c>
       <c r="E5">
-        <v>4.5825348436594887E-5</v>
+        <v>4.4208311020971138E-5</v>
       </c>
       <c r="F5">
-        <v>2.5446978654110669E-3</v>
+        <v>2.2704480615901709E-3</v>
       </c>
       <c r="G5">
-        <v>6.2995559509628667E-5</v>
+        <v>5.3312124759642308E-5</v>
       </c>
       <c r="H5">
-        <v>-1.3457513426778228E-4</v>
+        <v>-2.2907288855104208E-4</v>
       </c>
       <c r="I5">
-        <v>8.8000338084461005E-5</v>
+        <v>6.6453700611339428E-4</v>
       </c>
       <c r="J5">
-        <v>1.3799977876170547E-3</v>
+        <v>1.4572360646183287E-3</v>
       </c>
       <c r="K5">
-        <v>4.0057030663901913E-4</v>
+        <v>4.6696188837904926E-4</v>
       </c>
       <c r="L5">
-        <v>9.2640273736580535E-4</v>
+        <v>1.0907327387213606E-3</v>
       </c>
       <c r="M5">
-        <v>1.7119489331697459E-5</v>
+        <v>1.6858543120074326E-5</v>
       </c>
       <c r="N5">
-        <v>-6.8860315298830549E-4</v>
+        <v>-1.4508777270566542E-4</v>
       </c>
       <c r="O5">
-        <v>-8.9602202384638646E-4</v>
+        <v>-5.1887276413972727E-4</v>
       </c>
       <c r="P5">
-        <v>4.8971013669523583E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>6.5911296983207912E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6">
-        <v>-6.5507625974446978E-3</v>
+      <c r="B6" s="4">
+        <v>1.1888003522894959E-2</v>
       </c>
       <c r="C6">
-        <v>3.5031439852881564E-4</v>
+        <v>2.3168901396491872E-4</v>
       </c>
       <c r="D6">
-        <v>-2.7600423273383828E-3</v>
+        <v>-2.3426933129390703E-3</v>
       </c>
       <c r="E6">
-        <v>6.202506541195911E-5</v>
+        <v>5.2363017395937054E-5</v>
       </c>
       <c r="F6">
-        <v>6.2995559509628667E-5</v>
+        <v>5.3312124759642308E-5</v>
       </c>
       <c r="G6">
-        <v>1.8805826916985691E-3</v>
+        <v>1.3934391038098845E-3</v>
       </c>
       <c r="H6">
-        <v>8.3519184152894277E-4</v>
+        <v>5.915218477582293E-4</v>
       </c>
       <c r="I6">
-        <v>4.9148696193646903E-4</v>
+        <v>5.5656324932413896E-4</v>
       </c>
       <c r="J6">
-        <v>-3.3803715836324072E-4</v>
+        <v>-9.6201790878455793E-6</v>
       </c>
       <c r="K6">
-        <v>-1.1273458128929596E-4</v>
+        <v>9.80071618621077E-5</v>
       </c>
       <c r="L6">
-        <v>4.3619556205169892E-4</v>
+        <v>4.5713031720713906E-4</v>
       </c>
       <c r="M6">
-        <v>-5.787076284883663E-5</v>
+        <v>-4.5550287654875067E-5</v>
       </c>
       <c r="N6">
-        <v>-3.5319893979940051E-4</v>
+        <v>1.1475660276728111E-4</v>
       </c>
       <c r="O6">
-        <v>3.8913856670312608E-4</v>
+        <v>-3.0087790210956561E-4</v>
       </c>
       <c r="P6">
-        <v>2.9753257424159164E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2.5288225547322282E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7">
-        <v>1.9940972012899063</v>
+      <c r="B7" s="4">
+        <v>1.9646809987247114</v>
       </c>
       <c r="C7">
-        <v>1.5176034295380225E-3</v>
+        <v>1.384717224126291E-3</v>
       </c>
       <c r="D7">
-        <v>-1.3845837284489182E-2</v>
+        <v>-1.1198718298259802E-2</v>
       </c>
       <c r="E7">
-        <v>2.9782390794964864E-4</v>
+        <v>2.421345837203201E-4</v>
       </c>
       <c r="F7">
-        <v>-1.3457513426778228E-4</v>
+        <v>-2.2907288855104208E-4</v>
       </c>
       <c r="G7">
-        <v>8.3519184152894277E-4</v>
+        <v>5.915218477582293E-4</v>
       </c>
       <c r="H7">
-        <v>1.4261513149364302E-2</v>
+        <v>1.1294988200547001E-2</v>
       </c>
       <c r="I7">
-        <v>2.4413085887727143E-3</v>
+        <v>2.1509628766338551E-3</v>
       </c>
       <c r="J7">
-        <v>-1.4142942239526251E-3</v>
+        <v>-7.7588335459982498E-4</v>
       </c>
       <c r="K7">
-        <v>1.0276414227544939E-3</v>
+        <v>9.8549803672162706E-4</v>
       </c>
       <c r="L7">
-        <v>-1.3712794334233558E-4</v>
+        <v>2.0435829415577089E-4</v>
       </c>
       <c r="M7">
-        <v>-6.0457178088986138E-4</v>
+        <v>-4.5495119302338405E-4</v>
       </c>
       <c r="N7">
-        <v>-1.0236550232652353E-3</v>
+        <v>2.5675608967673236E-3</v>
       </c>
       <c r="O7">
-        <v>5.1175733222356412E-3</v>
+        <v>3.1648956970813241E-3</v>
       </c>
       <c r="P7">
-        <v>0.15949329460445566</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.12824309562695879</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>35</v>
       </c>
-      <c r="B8">
-        <v>0.25562317590842493</v>
+      <c r="B8" s="4">
+        <v>0.24673609426278356</v>
       </c>
       <c r="C8">
-        <v>5.7965922943296541E-4</v>
+        <v>1.2303408780517493E-3</v>
       </c>
       <c r="D8">
-        <v>-2.0832716101604198E-3</v>
+        <v>7.9663601195201217E-4</v>
       </c>
       <c r="E8">
-        <v>2.9646294314587818E-5</v>
+        <v>-3.1962352972370045E-5</v>
       </c>
       <c r="F8">
-        <v>8.8000338084461005E-5</v>
+        <v>6.6453700611339428E-4</v>
       </c>
       <c r="G8">
-        <v>4.9148696193646903E-4</v>
+        <v>5.5656324932413896E-4</v>
       </c>
       <c r="H8">
-        <v>2.4413085887727143E-3</v>
+        <v>2.1509628766338551E-3</v>
       </c>
       <c r="I8">
-        <v>2.5902924885512386E-2</v>
+        <v>2.3620037478285401E-2</v>
       </c>
       <c r="J8">
-        <v>1.9662560422302001E-2</v>
+        <v>1.8947179121466783E-2</v>
       </c>
       <c r="K8">
-        <v>1.9111560821134053E-2</v>
+        <v>1.8469804141373371E-2</v>
       </c>
       <c r="L8">
-        <v>1.9269410816226979E-2</v>
+        <v>1.8686017064830335E-2</v>
       </c>
       <c r="M8">
-        <v>-2.566796605071274E-4</v>
+        <v>-2.703479074945437E-4</v>
       </c>
       <c r="N8">
-        <v>1.1694978553712654E-3</v>
+        <v>1.8931049011973317E-3</v>
       </c>
       <c r="O8">
-        <v>1.4512522374797027E-3</v>
+        <v>7.8679544687196984E-4</v>
       </c>
       <c r="P8">
-        <v>1.3048642120701365E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-2.1592086238120173E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>36</v>
       </c>
-      <c r="B9">
-        <v>0.14781895500841313</v>
+      <c r="B9" s="4">
+        <v>0.16465522567420485</v>
       </c>
       <c r="C9">
-        <v>-8.8953960027448437E-4</v>
+        <v>-2.4786056664098492E-4</v>
       </c>
       <c r="D9">
-        <v>-6.6174707515540103E-3</v>
+        <v>-5.6222598465478502E-3</v>
       </c>
       <c r="E9">
-        <v>1.4579862488724816E-4</v>
+        <v>1.2580525826271644E-4</v>
       </c>
       <c r="F9">
-        <v>1.3799977876170547E-3</v>
+        <v>1.4572360646183287E-3</v>
       </c>
       <c r="G9">
-        <v>-3.3803715836324072E-4</v>
+        <v>-9.6201790878455793E-6</v>
       </c>
       <c r="H9">
-        <v>-1.4142942239526251E-3</v>
+        <v>-7.7588335459982498E-4</v>
       </c>
       <c r="I9">
-        <v>1.9662560422302001E-2</v>
+        <v>1.8947179121466783E-2</v>
       </c>
       <c r="J9">
-        <v>3.9167327807523487E-2</v>
+        <v>3.4726003596237724E-2</v>
       </c>
       <c r="K9">
-        <v>1.9968292474206069E-2</v>
+        <v>1.9023816507226191E-2</v>
       </c>
       <c r="L9">
-        <v>1.9644710780549843E-2</v>
+        <v>1.9057122504855945E-2</v>
       </c>
       <c r="M9">
-        <v>2.306949959406284E-4</v>
+        <v>1.8001387196106707E-4</v>
       </c>
       <c r="N9">
-        <v>4.5259526961529198E-4</v>
+        <v>-1.6908567986907326E-3</v>
       </c>
       <c r="O9">
-        <v>-4.4150843059066122E-3</v>
+        <v>-3.0152353434869834E-3</v>
       </c>
       <c r="P9">
-        <v>4.4990155598183715E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3.3914461449876983E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>37</v>
       </c>
-      <c r="B10">
-        <v>0.1730579568010582</v>
+      <c r="B10" s="4">
+        <v>0.14489172381667076</v>
       </c>
       <c r="C10">
-        <v>9.8523078916027892E-4</v>
+        <v>1.2337907109993204E-3</v>
       </c>
       <c r="D10">
-        <v>-2.6940815404379315E-3</v>
+        <v>-2.3719189058146739E-3</v>
       </c>
       <c r="E10">
-        <v>5.4932150936933682E-5</v>
+        <v>5.0679069216279932E-5</v>
       </c>
       <c r="F10">
-        <v>4.0057030663901913E-4</v>
+        <v>4.6696188837904926E-4</v>
       </c>
       <c r="G10">
-        <v>-1.1273458128929596E-4</v>
+        <v>9.80071618621077E-5</v>
       </c>
       <c r="H10">
-        <v>1.0276414227544939E-3</v>
+        <v>9.8549803672162706E-4</v>
       </c>
       <c r="I10">
-        <v>1.9111560821134053E-2</v>
+        <v>1.8469804141373371E-2</v>
       </c>
       <c r="J10">
-        <v>1.9968292474206069E-2</v>
+        <v>1.9023816507226191E-2</v>
       </c>
       <c r="K10">
-        <v>2.3906562259780544E-2</v>
+        <v>2.3777428883310747E-2</v>
       </c>
       <c r="L10">
-        <v>1.907780103187838E-2</v>
+        <v>1.8539332921140302E-2</v>
       </c>
       <c r="M10">
-        <v>-1.4182915506327277E-4</v>
+        <v>-1.2306582264627391E-4</v>
       </c>
       <c r="N10">
-        <v>2.619586790422835E-3</v>
+        <v>1.621789356988387E-3</v>
       </c>
       <c r="O10">
-        <v>2.247706888881644E-4</v>
+        <v>8.1747076964549387E-5</v>
       </c>
       <c r="P10">
-        <v>1.2549933134927412E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>7.6626458076796758E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>38</v>
       </c>
-      <c r="B11">
-        <v>0.17656842566696512</v>
+      <c r="B11" s="4">
+        <v>0.1877376678371932</v>
       </c>
       <c r="C11">
-        <v>1.3107922160317722E-3</v>
+        <v>1.3215428890431136E-3</v>
       </c>
       <c r="D11">
-        <v>-4.4860140804864335E-3</v>
+        <v>-5.1880228123681871E-3</v>
       </c>
       <c r="E11">
-        <v>1.0514704419398863E-4</v>
+        <v>1.2200330847066815E-4</v>
       </c>
       <c r="F11">
-        <v>9.2640273736580535E-4</v>
+        <v>1.0907327387213606E-3</v>
       </c>
       <c r="G11">
-        <v>4.3619556205169892E-4</v>
+        <v>4.5713031720713906E-4</v>
       </c>
       <c r="H11">
-        <v>-1.3712794334233558E-4</v>
+        <v>2.0435829415577089E-4</v>
       </c>
       <c r="I11">
-        <v>1.9269410816226979E-2</v>
+        <v>1.8686017064830335E-2</v>
       </c>
       <c r="J11">
-        <v>1.9644710780549843E-2</v>
+        <v>1.9057122504855945E-2</v>
       </c>
       <c r="K11">
-        <v>1.907780103187838E-2</v>
+        <v>1.8539332921140302E-2</v>
       </c>
       <c r="L11">
-        <v>2.2351476988696335E-2</v>
+        <v>2.1416882389241318E-2</v>
       </c>
       <c r="M11">
-        <v>-1.2815699956505782E-4</v>
+        <v>-1.471551743939324E-4</v>
       </c>
       <c r="N11">
-        <v>6.8713560153125727E-4</v>
+        <v>4.9816066662204672E-4</v>
       </c>
       <c r="O11">
-        <v>2.0093759386690876E-4</v>
+        <v>-3.6432250552883433E-5</v>
       </c>
       <c r="P11">
-        <v>2.5251092288449989E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3.2590230285623162E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12">
-        <v>6.4160003415538467E-4</v>
+      <c r="B12" s="4">
+        <v>1.7182857206674761E-4</v>
       </c>
       <c r="C12">
-        <v>-2.1852466033162304E-4</v>
+        <v>-2.0675063335471797E-4</v>
       </c>
       <c r="D12">
-        <v>1.5735351012699517E-4</v>
+        <v>2.6461809729538821E-5</v>
       </c>
       <c r="E12">
-        <v>-2.2160545601465284E-6</v>
+        <v>2.6366743720914604E-7</v>
       </c>
       <c r="F12">
-        <v>1.7119489331697459E-5</v>
+        <v>1.6858543120074326E-5</v>
       </c>
       <c r="G12">
-        <v>-5.787076284883663E-5</v>
+        <v>-4.5550287654875067E-5</v>
       </c>
       <c r="H12">
-        <v>-6.0457178088986138E-4</v>
+        <v>-4.5495119302338405E-4</v>
       </c>
       <c r="I12">
-        <v>-2.566796605071274E-4</v>
+        <v>-2.703479074945437E-4</v>
       </c>
       <c r="J12">
-        <v>2.306949959406284E-4</v>
+        <v>1.8001387196106707E-4</v>
       </c>
       <c r="K12">
-        <v>-1.4182915506327277E-4</v>
+        <v>-1.2306582264627391E-4</v>
       </c>
       <c r="L12">
-        <v>-1.2815699956505782E-4</v>
+        <v>-1.471551743939324E-4</v>
       </c>
       <c r="M12">
-        <v>1.6359993062507673E-4</v>
+        <v>1.3958510766102898E-4</v>
       </c>
       <c r="N12">
-        <v>-8.8360768615141239E-4</v>
+        <v>-7.8480074862088793E-4</v>
       </c>
       <c r="O12">
-        <v>-1.1056403263056914E-3</v>
+        <v>-8.6988921874756996E-4</v>
       </c>
       <c r="P12">
-        <v>-4.3023370319451668E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-2.4049707795721804E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13">
-        <v>0.27270491399623842</v>
+      <c r="B13" s="4">
+        <v>0.37390427135236259</v>
       </c>
       <c r="C13">
-        <v>2.1707430681265315E-3</v>
+        <v>1.1139847368952308E-3</v>
       </c>
       <c r="D13">
-        <v>-4.2863839808020554E-3</v>
+        <v>-6.4773142500507142E-4</v>
       </c>
       <c r="E13">
-        <v>1.0009231334464838E-4</v>
+        <v>7.4720525802020321E-6</v>
       </c>
       <c r="F13">
-        <v>-6.8860315298830549E-4</v>
+        <v>-1.4508777270566542E-4</v>
       </c>
       <c r="G13">
-        <v>-3.5319893979940051E-4</v>
+        <v>1.1475660276728111E-4</v>
       </c>
       <c r="H13">
-        <v>-1.0236550232652353E-3</v>
+        <v>2.5675608967673236E-3</v>
       </c>
       <c r="I13">
-        <v>1.1694978553712654E-3</v>
+        <v>1.8931049011973317E-3</v>
       </c>
       <c r="J13">
-        <v>4.5259526961529198E-4</v>
+        <v>-1.6908567986907326E-3</v>
       </c>
       <c r="K13">
-        <v>2.619586790422835E-3</v>
+        <v>1.621789356988387E-3</v>
       </c>
       <c r="L13">
-        <v>6.8713560153125727E-4</v>
+        <v>4.9816066662204672E-4</v>
       </c>
       <c r="M13">
-        <v>-8.8360768615141239E-4</v>
+        <v>-7.8480074862088793E-4</v>
       </c>
       <c r="N13">
-        <v>4.461673690275781E-2</v>
+        <v>1.8780446039318065E-2</v>
       </c>
       <c r="O13">
-        <v>5.8421749510662035E-3</v>
+        <v>5.9052096767198145E-3</v>
       </c>
       <c r="P13">
-        <v>5.8229897487968127E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.8996484164790474E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14">
-        <v>0.43562716822670633</v>
+      <c r="B14" s="4">
+        <v>0.1959498988497074</v>
       </c>
       <c r="C14">
-        <v>1.5224079528500661E-3</v>
+        <v>1.3603979672593101E-3</v>
       </c>
       <c r="D14">
-        <v>1.1616150634305988E-2</v>
+        <v>1.6228776492190899E-3</v>
       </c>
       <c r="E14">
-        <v>-2.681144901102786E-4</v>
+        <v>-3.8016507664107024E-5</v>
       </c>
       <c r="F14">
-        <v>-8.9602202384638646E-4</v>
+        <v>-5.1887276413972727E-4</v>
       </c>
       <c r="G14">
-        <v>3.8913856670312608E-4</v>
+        <v>-3.0087790210956561E-4</v>
       </c>
       <c r="H14">
-        <v>5.1175733222356412E-3</v>
+        <v>3.1648956970813241E-3</v>
       </c>
       <c r="I14">
-        <v>1.4512522374797027E-3</v>
+        <v>7.8679544687196984E-4</v>
       </c>
       <c r="J14">
-        <v>-4.4150843059066122E-3</v>
+        <v>-3.0152353434869834E-3</v>
       </c>
       <c r="K14">
-        <v>2.247706888881644E-4</v>
+        <v>8.1747076964549387E-5</v>
       </c>
       <c r="L14">
-        <v>2.0093759386690876E-4</v>
+        <v>-3.6432250552883433E-5</v>
       </c>
       <c r="M14">
-        <v>-1.1056403263056914E-3</v>
+        <v>-8.6988921874756996E-4</v>
       </c>
       <c r="N14">
-        <v>5.8421749510662035E-3</v>
+        <v>5.9052096767198145E-3</v>
       </c>
       <c r="O14">
-        <v>7.7793171120904864E-2</v>
+        <v>2.5281904691839975E-2</v>
       </c>
       <c r="P14">
-        <v>-0.10756709870008235</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-4.4435097034529747E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B15">
-        <v>7.851290228396727</v>
+      <c r="B15" s="4">
+        <v>10.114113595252606</v>
       </c>
       <c r="C15">
-        <v>5.84100280692601E-3</v>
+        <v>1.1788853945673985E-2</v>
       </c>
       <c r="D15">
-        <v>-1.3648231369097799</v>
+        <v>-1.1818750340998916</v>
       </c>
       <c r="E15">
-        <v>3.1860495329021202E-2</v>
+        <v>2.7663184626622983E-2</v>
       </c>
       <c r="F15">
-        <v>4.8971013669523583E-3</v>
+        <v>6.5911296983207912E-3</v>
       </c>
       <c r="G15">
-        <v>2.9753257424159164E-2</v>
+        <v>2.5288225547322282E-2</v>
       </c>
       <c r="H15">
-        <v>0.15949329460445566</v>
+        <v>0.12824309562695879</v>
       </c>
       <c r="I15">
-        <v>1.3048642120701365E-2</v>
+        <v>-2.1592086238120173E-2</v>
       </c>
       <c r="J15">
-        <v>4.4990155598183715E-2</v>
+        <v>3.3914461449876983E-2</v>
       </c>
       <c r="K15">
-        <v>1.2549933134927412E-2</v>
+        <v>7.6626458076796758E-3</v>
       </c>
       <c r="L15">
-        <v>2.5251092288449989E-2</v>
+        <v>3.2590230285623162E-2</v>
       </c>
       <c r="M15">
-        <v>-4.3023370319451668E-3</v>
+        <v>-2.4049707795721804E-3</v>
       </c>
       <c r="N15">
-        <v>5.8229897487968127E-2</v>
+        <v>1.8996484164790474E-2</v>
       </c>
       <c r="O15">
-        <v>-0.10756709870008235</v>
+        <v>-4.4435097034529747E-3</v>
       </c>
       <c r="P15">
-        <v>14.400058899569558</v>
+        <v>12.412140720073964</v>
       </c>
     </row>
   </sheetData>
@@ -4183,12 +4182,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -4268,1924 +4267,1924 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2">
-        <v>-6.7376083469045903E-2</v>
+      <c r="B2" s="4">
+        <v>-4.8105310707866313E-2</v>
       </c>
       <c r="C2">
-        <v>8.3448395711533622E-4</v>
+        <v>9.2220215145010268E-4</v>
       </c>
       <c r="D2">
-        <v>1.0601501865366519E-5</v>
+        <v>1.6334761464355979E-5</v>
       </c>
       <c r="E2">
-        <v>-1.3159698072181217E-7</v>
+        <v>-1.8171851974083144E-7</v>
       </c>
       <c r="F2">
-        <v>-6.6787098347496931E-5</v>
+        <v>-7.2628673819656305E-5</v>
       </c>
       <c r="G2">
-        <v>-1.1147002012244447E-4</v>
+        <v>-1.0946595621317553E-4</v>
       </c>
       <c r="H2">
-        <v>-8.5602313271067098E-5</v>
+        <v>1.5143020720828496E-5</v>
       </c>
       <c r="I2">
-        <v>6.3805925542638844E-5</v>
+        <v>1.4956290339553798E-5</v>
       </c>
       <c r="J2">
-        <v>8.8283652639244251E-5</v>
+        <v>9.0834130916543792E-5</v>
       </c>
       <c r="K2">
-        <v>-1.7710239135255317E-7</v>
+        <v>4.5711070346756601E-5</v>
       </c>
       <c r="L2">
-        <v>1.3639239983555761E-4</v>
+        <v>1.6752996805613726E-4</v>
       </c>
       <c r="M2">
-        <v>2.7378647570067312E-4</v>
+        <v>4.1906479156940261E-4</v>
       </c>
       <c r="N2">
-        <v>1.3750783375554753E-5</v>
+        <v>1.3398407475876835E-5</v>
       </c>
       <c r="O2">
-        <v>-3.3713209678274899E-5</v>
+        <v>-4.1152004011492617E-5</v>
       </c>
       <c r="P2">
-        <v>4.0490536606856511E-5</v>
+        <v>3.6483644133159974E-5</v>
       </c>
       <c r="Q2">
-        <v>7.3907586212482045E-6</v>
+        <v>8.3684404168434316E-6</v>
       </c>
       <c r="R2">
-        <v>3.1559156080481832E-5</v>
+        <v>3.1862332515091322E-5</v>
       </c>
       <c r="S2">
-        <v>-5.6497426713402241E-5</v>
+        <v>-7.4431657362069149E-5</v>
       </c>
       <c r="T2">
-        <v>-9.6836985600862635E-6</v>
+        <v>-3.6733507901112365E-5</v>
       </c>
       <c r="U2">
-        <v>-1.1695144719378803E-5</v>
+        <v>-3.6005002589971211E-5</v>
       </c>
       <c r="V2">
-        <v>-4.590193589927032E-5</v>
+        <v>-7.0636763647271536E-5</v>
       </c>
       <c r="W2">
-        <v>2.3994748559267172E-6</v>
+        <v>3.7995865139333987E-6</v>
       </c>
       <c r="X2">
-        <v>-5.8835637197819033E-5</v>
+        <v>-8.3450547568137285E-5</v>
       </c>
       <c r="Y2">
-        <v>3.5978416771459615E-6</v>
+        <v>-1.4725226803484324E-5</v>
       </c>
       <c r="Z2">
-        <v>-5.2485834304010642E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-6.8989888867785395E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3">
-        <v>1.0231970437688869E-4</v>
+      <c r="B3" s="4">
+        <v>-3.3896291010167782E-3</v>
       </c>
       <c r="C3">
-        <v>1.0601501865366519E-5</v>
+        <v>1.6334761464355979E-5</v>
       </c>
       <c r="D3">
-        <v>3.9860566864631069E-5</v>
+        <v>4.0203676833554712E-5</v>
       </c>
       <c r="E3">
-        <v>-4.0346123683491924E-7</v>
+        <v>-4.1204717964527205E-7</v>
       </c>
       <c r="F3">
-        <v>4.0274648021802317E-6</v>
+        <v>-3.2693064153825136E-6</v>
       </c>
       <c r="G3">
-        <v>2.523469470957552E-5</v>
+        <v>1.5882878774866401E-5</v>
       </c>
       <c r="H3">
-        <v>1.3758351375681442E-4</v>
+        <v>1.2981292131126885E-4</v>
       </c>
       <c r="I3">
-        <v>2.2192343668282065E-5</v>
+        <v>2.5733648098505295E-5</v>
       </c>
       <c r="J3">
-        <v>1.2773736592120149E-4</v>
+        <v>1.461883294926649E-4</v>
       </c>
       <c r="K3">
-        <v>6.2950827365955897E-6</v>
+        <v>1.2173356021035129E-5</v>
       </c>
       <c r="L3">
-        <v>1.1115753051258869E-4</v>
+        <v>1.0017960591807262E-4</v>
       </c>
       <c r="M3">
-        <v>1.6792903789320413E-5</v>
+        <v>1.219113503676773E-5</v>
       </c>
       <c r="N3">
-        <v>1.8052079905563139E-5</v>
+        <v>1.735719798072573E-5</v>
       </c>
       <c r="O3">
-        <v>4.300777415323295E-6</v>
+        <v>3.9068867296479246E-6</v>
       </c>
       <c r="P3">
-        <v>3.1246501495565526E-6</v>
+        <v>1.079076971270904E-6</v>
       </c>
       <c r="Q3">
-        <v>-7.1419442880165509E-6</v>
+        <v>-7.2993135007448977E-6</v>
       </c>
       <c r="R3">
-        <v>-1.164385642522098E-5</v>
+        <v>-1.4774062806708135E-5</v>
       </c>
       <c r="S3">
-        <v>-4.6238719204995079E-5</v>
+        <v>-3.6092662114050781E-5</v>
       </c>
       <c r="T3">
-        <v>-3.093766193656782E-5</v>
+        <v>-2.9235522226682973E-5</v>
       </c>
       <c r="U3">
-        <v>-1.6740135949443034E-5</v>
+        <v>-1.2867267233399238E-5</v>
       </c>
       <c r="V3">
-        <v>-9.8032382611121618E-6</v>
+        <v>-7.1578020328012695E-6</v>
       </c>
       <c r="W3">
-        <v>4.6726971253454385E-7</v>
+        <v>-1.6580964949024988E-8</v>
       </c>
       <c r="X3">
-        <v>-9.8350023974937465E-6</v>
+        <v>1.1819747227211031E-7</v>
       </c>
       <c r="Y3">
-        <v>-2.6324846101332376E-5</v>
+        <v>-1.9021527717843084E-5</v>
       </c>
       <c r="Z3">
-        <v>-9.9255790789224037E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-9.8155927425072165E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4">
-        <v>-1.69014544665147E-5</v>
+      <c r="B4" s="4">
+        <v>2.3398717949811203E-5</v>
       </c>
       <c r="C4">
-        <v>-1.3159698072181217E-7</v>
+        <v>-1.8171851974083144E-7</v>
       </c>
       <c r="D4">
-        <v>-4.0346123683491924E-7</v>
+        <v>-4.1204717964527205E-7</v>
       </c>
       <c r="E4">
-        <v>4.2490072618787995E-9</v>
+        <v>4.417447043565617E-9</v>
       </c>
       <c r="F4">
-        <v>-5.3520460458576537E-8</v>
+        <v>1.7188055792328167E-8</v>
       </c>
       <c r="G4">
-        <v>-3.0720348426565805E-7</v>
+        <v>-2.197737486639714E-7</v>
       </c>
       <c r="H4">
-        <v>-1.2091946844926784E-6</v>
+        <v>-1.084272691605423E-6</v>
       </c>
       <c r="I4">
-        <v>-2.0465217280838867E-7</v>
+        <v>-2.3631178896444755E-7</v>
       </c>
       <c r="J4">
-        <v>-1.6701540702092135E-6</v>
+        <v>-1.9243905445315023E-6</v>
       </c>
       <c r="K4">
-        <v>3.9065273709101146E-8</v>
+        <v>5.4510775950826547E-8</v>
       </c>
       <c r="L4">
-        <v>-9.9546647373010944E-7</v>
+        <v>-9.1433828256350755E-7</v>
       </c>
       <c r="M4">
-        <v>-8.8555644179409964E-8</v>
+        <v>4.7887539788049603E-8</v>
       </c>
       <c r="N4">
-        <v>-1.1129052151801536E-7</v>
+        <v>-1.0038335107829547E-7</v>
       </c>
       <c r="O4">
-        <v>-3.340335848892318E-8</v>
+        <v>-3.3300619036738938E-8</v>
       </c>
       <c r="P4">
-        <v>-3.4126802680655184E-8</v>
+        <v>-3.2998109647666975E-8</v>
       </c>
       <c r="Q4">
-        <v>6.7624491934371247E-8</v>
+        <v>6.9486645096075561E-8</v>
       </c>
       <c r="R4">
-        <v>8.3291885269745062E-8</v>
+        <v>9.8165157882162679E-8</v>
       </c>
       <c r="S4">
-        <v>4.3862129364033952E-7</v>
+        <v>3.7004901348710459E-7</v>
       </c>
       <c r="T4">
-        <v>3.1502116019195042E-7</v>
+        <v>3.3242430440620148E-7</v>
       </c>
       <c r="U4">
-        <v>1.6139332758481854E-7</v>
+        <v>1.33239449174271E-7</v>
       </c>
       <c r="V4">
-        <v>1.1031338812589567E-7</v>
+        <v>9.7934312441844257E-8</v>
       </c>
       <c r="W4">
-        <v>-7.3885500796395693E-9</v>
+        <v>-2.0240877543588244E-9</v>
       </c>
       <c r="X4">
-        <v>7.8636617600665505E-8</v>
+        <v>6.1889748098592801E-9</v>
       </c>
       <c r="Y4">
-        <v>2.5777763390541868E-7</v>
+        <v>1.9646370504546369E-7</v>
       </c>
       <c r="Z4">
-        <v>9.4047104296620219E-6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+        <v>9.3112525936317709E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5">
-        <v>-1.5561657593544722E-2</v>
+      <c r="B5" s="4">
+        <v>-3.4111089021627961E-2</v>
       </c>
       <c r="C5">
-        <v>-6.6787098347496931E-5</v>
+        <v>-7.2628673819656305E-5</v>
       </c>
       <c r="D5">
-        <v>4.0274648021802317E-6</v>
+        <v>-3.2693064153825136E-6</v>
       </c>
       <c r="E5">
-        <v>-5.3520460458576537E-8</v>
+        <v>1.7188055792328167E-8</v>
       </c>
       <c r="F5">
-        <v>1.2608038511558331E-3</v>
+        <v>1.29242254682272E-3</v>
       </c>
       <c r="G5">
-        <v>1.0973820419675107E-3</v>
+        <v>1.0946553382867083E-3</v>
       </c>
       <c r="H5">
-        <v>1.6209909901472355E-4</v>
+        <v>3.1298675458414014E-4</v>
       </c>
       <c r="I5">
-        <v>2.2907911389943525E-5</v>
+        <v>1.1217664830586035E-4</v>
       </c>
       <c r="J5">
-        <v>1.363739039329926E-4</v>
+        <v>2.3103261612933971E-4</v>
       </c>
       <c r="K5">
-        <v>-6.3059086449659789E-5</v>
+        <v>5.8811814672751415E-5</v>
       </c>
       <c r="L5">
-        <v>-4.3786949559139655E-5</v>
+        <v>1.4437021683030565E-5</v>
       </c>
       <c r="M5">
-        <v>-1.0519832740297559E-4</v>
+        <v>1.071143098380935E-5</v>
       </c>
       <c r="N5">
-        <v>4.0027688215172549E-5</v>
+        <v>6.4261427322604101E-5</v>
       </c>
       <c r="O5">
-        <v>2.0447523851786798E-5</v>
+        <v>4.2656601493032471E-5</v>
       </c>
       <c r="P5">
-        <v>2.7739862607641488E-4</v>
+        <v>2.661154850629459E-4</v>
       </c>
       <c r="Q5">
-        <v>1.3311791262614162E-5</v>
+        <v>-7.304422989041786E-7</v>
       </c>
       <c r="R5">
-        <v>1.2756311434061643E-4</v>
+        <v>1.4439790944511074E-4</v>
       </c>
       <c r="S5">
-        <v>-1.9732977589503165E-4</v>
+        <v>-2.2336253114626391E-4</v>
       </c>
       <c r="T5">
-        <v>-8.9468834975389656E-5</v>
+        <v>-1.9447462820486349E-4</v>
       </c>
       <c r="U5">
-        <v>-5.9190670430929449E-5</v>
+        <v>-1.1871257092158029E-4</v>
       </c>
       <c r="V5">
-        <v>3.3021147815670424E-5</v>
+        <v>-2.8385639934974403E-5</v>
       </c>
       <c r="W5">
-        <v>3.9702209119750474E-6</v>
+        <v>5.673412804609043E-6</v>
       </c>
       <c r="X5">
-        <v>-1.1240361074189398E-4</v>
+        <v>-5.6590807353276706E-5</v>
       </c>
       <c r="Y5">
-        <v>-1.5224453645974856E-4</v>
+        <v>-1.1241830519004509E-4</v>
       </c>
       <c r="Z5">
-        <v>-1.4015828000096637E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-1.4581603785109318E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6">
-        <v>-0.13021883395020592</v>
+      <c r="B6" s="4">
+        <v>-0.14947315445386505</v>
       </c>
       <c r="C6">
-        <v>-1.1147002012244447E-4</v>
+        <v>-1.0946595621317553E-4</v>
       </c>
       <c r="D6">
-        <v>2.523469470957552E-5</v>
+        <v>1.5882878774866401E-5</v>
       </c>
       <c r="E6">
-        <v>-3.0720348426565805E-7</v>
+        <v>-2.197737486639714E-7</v>
       </c>
       <c r="F6">
-        <v>1.0973820419675107E-3</v>
+        <v>1.0946553382867083E-3</v>
       </c>
       <c r="G6">
-        <v>2.1304242211222634E-3</v>
+        <v>2.2082786324418872E-3</v>
       </c>
       <c r="H6">
-        <v>8.4053450789673279E-5</v>
+        <v>4.3484823948995179E-6</v>
       </c>
       <c r="I6">
-        <v>-1.88074344597607E-5</v>
+        <v>5.0110543607243766E-5</v>
       </c>
       <c r="J6">
-        <v>1.3868426183725192E-4</v>
+        <v>2.5857200124777059E-4</v>
       </c>
       <c r="K6">
-        <v>-1.5625188671785663E-4</v>
+        <v>1.7114695154612272E-5</v>
       </c>
       <c r="L6">
-        <v>-2.4388150264812328E-4</v>
+        <v>-1.3875696593799319E-4</v>
       </c>
       <c r="M6">
-        <v>-2.0202334260185364E-4</v>
+        <v>-7.1776144413885539E-5</v>
       </c>
       <c r="N6">
-        <v>4.3126345373184662E-5</v>
+        <v>6.9566063168289492E-5</v>
       </c>
       <c r="O6">
-        <v>1.8489647809086619E-5</v>
+        <v>3.4630660376647712E-5</v>
       </c>
       <c r="P6">
-        <v>2.9705838321355659E-4</v>
+        <v>2.7807762210207217E-4</v>
       </c>
       <c r="Q6">
-        <v>1.9791559493876102E-5</v>
+        <v>1.068220038143353E-5</v>
       </c>
       <c r="R6">
-        <v>1.9063944210634376E-4</v>
+        <v>1.9781655360009737E-4</v>
       </c>
       <c r="S6">
-        <v>-1.9847337837325418E-4</v>
+        <v>-1.9650299947967777E-4</v>
       </c>
       <c r="T6">
-        <v>-1.241036320344702E-4</v>
+        <v>-1.8991831611327544E-4</v>
       </c>
       <c r="U6">
-        <v>-1.0170843992157193E-4</v>
+        <v>-1.5229181470900169E-4</v>
       </c>
       <c r="V6">
-        <v>9.6051577566638713E-5</v>
+        <v>5.0617061321913727E-5</v>
       </c>
       <c r="W6">
-        <v>1.0133866653764533E-5</v>
+        <v>1.1080616008043168E-5</v>
       </c>
       <c r="X6">
-        <v>-1.8068470836493905E-4</v>
+        <v>-1.0623668856516832E-4</v>
       </c>
       <c r="Y6">
-        <v>-1.6231647281468052E-4</v>
+        <v>-9.3352127560775538E-5</v>
       </c>
       <c r="Z6">
-        <v>-1.853115590278939E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-1.8840732332717301E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B7">
-        <v>-1.9386421684801047E-2</v>
+      <c r="B7" s="4">
+        <v>-1.1164919985001253E-2</v>
       </c>
       <c r="C7">
-        <v>-8.5602313271067098E-5</v>
+        <v>1.5143020720828496E-5</v>
       </c>
       <c r="D7">
-        <v>1.3758351375681442E-4</v>
+        <v>1.2981292131126885E-4</v>
       </c>
       <c r="E7">
-        <v>-1.2091946844926784E-6</v>
+        <v>-1.084272691605423E-6</v>
       </c>
       <c r="F7">
-        <v>1.6209909901472355E-4</v>
+        <v>3.1298675458414014E-4</v>
       </c>
       <c r="G7">
-        <v>8.4053450789673279E-5</v>
+        <v>4.3484823948995179E-6</v>
       </c>
       <c r="H7">
-        <v>6.6547719327690472E-3</v>
+        <v>8.0292070023355692E-3</v>
       </c>
       <c r="I7">
-        <v>1.5548003665562444E-3</v>
+        <v>1.7674841639383526E-3</v>
       </c>
       <c r="J7">
-        <v>1.554666161109526E-3</v>
+        <v>1.7364252028569508E-3</v>
       </c>
       <c r="K7">
-        <v>2.8382496481321002E-4</v>
+        <v>4.9688952728450299E-4</v>
       </c>
       <c r="L7">
-        <v>-4.2003168095193537E-6</v>
+        <v>7.6733885214863784E-5</v>
       </c>
       <c r="M7">
-        <v>2.1833120347936399E-4</v>
+        <v>4.1462292532126093E-4</v>
       </c>
       <c r="N7">
-        <v>-2.5747862517000946E-5</v>
+        <v>-2.6038349720601366E-5</v>
       </c>
       <c r="O7">
-        <v>2.5675837702111951E-4</v>
+        <v>2.823641260090759E-4</v>
       </c>
       <c r="P7">
-        <v>8.4132283306365997E-5</v>
+        <v>4.7382613091078232E-5</v>
       </c>
       <c r="Q7">
-        <v>-4.242815017156436E-5</v>
+        <v>-4.7903944979923852E-5</v>
       </c>
       <c r="R7">
-        <v>1.9177338079117345E-4</v>
+        <v>7.5211327422280636E-5</v>
       </c>
       <c r="S7">
-        <v>-3.4222993662410325E-4</v>
+        <v>-1.5570235108373844E-4</v>
       </c>
       <c r="T7">
-        <v>-3.7175988812763322E-4</v>
+        <v>-2.5507458608591037E-4</v>
       </c>
       <c r="U7">
-        <v>-1.9942948736599065E-4</v>
+        <v>-1.1328205675571377E-4</v>
       </c>
       <c r="V7">
-        <v>-1.9991551720520016E-4</v>
+        <v>6.1861772470650674E-5</v>
       </c>
       <c r="W7">
-        <v>-9.9060296205678898E-6</v>
+        <v>5.3114567552340621E-6</v>
       </c>
       <c r="X7">
-        <v>-2.1890109888177568E-4</v>
+        <v>-2.4681563780574469E-4</v>
       </c>
       <c r="Y7">
-        <v>-2.5462352912222503E-4</v>
+        <v>-1.8817940517742217E-4</v>
       </c>
       <c r="Z7">
-        <v>-5.0089032851498962E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-5.7114267814077184E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="B8">
-        <v>0.1027577007817589</v>
+      <c r="B8" s="4">
+        <v>9.5923460051752396E-2</v>
       </c>
       <c r="C8">
-        <v>6.3805925542638844E-5</v>
+        <v>1.4956290339553798E-5</v>
       </c>
       <c r="D8">
-        <v>2.2192343668282065E-5</v>
+        <v>2.5733648098505295E-5</v>
       </c>
       <c r="E8">
-        <v>-2.0465217280838867E-7</v>
+        <v>-2.3631178896444755E-7</v>
       </c>
       <c r="F8">
-        <v>2.2907911389943525E-5</v>
+        <v>1.1217664830586035E-4</v>
       </c>
       <c r="G8">
-        <v>-1.88074344597607E-5</v>
+        <v>5.0110543607243766E-5</v>
       </c>
       <c r="H8">
-        <v>1.5548003665562444E-3</v>
+        <v>1.7674841639383526E-3</v>
       </c>
       <c r="I8">
-        <v>1.8033669696385765E-3</v>
+        <v>1.9600344593566975E-3</v>
       </c>
       <c r="J8">
-        <v>1.4808169933409592E-3</v>
+        <v>1.6869311564130338E-3</v>
       </c>
       <c r="K8">
-        <v>6.1247210839779939E-5</v>
+        <v>2.0195103862192642E-5</v>
       </c>
       <c r="L8">
-        <v>8.9524394028450539E-5</v>
+        <v>6.5593259782377149E-5</v>
       </c>
       <c r="M8">
-        <v>1.102030907091789E-4</v>
+        <v>1.0640721668859088E-4</v>
       </c>
       <c r="N8">
-        <v>1.0649031724359654E-4</v>
+        <v>1.0608651550274737E-4</v>
       </c>
       <c r="O8">
-        <v>1.9011089477651065E-4</v>
+        <v>2.1561135710295465E-4</v>
       </c>
       <c r="P8">
-        <v>2.3694676415157278E-5</v>
+        <v>2.8676352332359083E-5</v>
       </c>
       <c r="Q8">
-        <v>-1.5835468645914217E-5</v>
+        <v>-1.5217183777949903E-5</v>
       </c>
       <c r="R8">
-        <v>-1.7526911983276787E-5</v>
+        <v>-2.7617260485751421E-5</v>
       </c>
       <c r="S8">
-        <v>-1.3034909956297395E-4</v>
+        <v>-1.0157377494529108E-4</v>
       </c>
       <c r="T8">
-        <v>-1.7552509912905495E-4</v>
+        <v>-1.8005753919864132E-4</v>
       </c>
       <c r="U8">
-        <v>-9.8126705276060564E-5</v>
+        <v>-8.4424517088551058E-5</v>
       </c>
       <c r="V8">
-        <v>-1.1867635086223235E-5</v>
+        <v>3.8962281084118191E-5</v>
       </c>
       <c r="W8">
-        <v>1.7101471540302625E-6</v>
+        <v>3.27217014153906E-7</v>
       </c>
       <c r="X8">
-        <v>-1.2037656747638061E-4</v>
+        <v>-1.6460812009336961E-4</v>
       </c>
       <c r="Y8">
-        <v>-6.6812600021464938E-5</v>
+        <v>-1.0043302925012727E-4</v>
       </c>
       <c r="Z8">
-        <v>-2.4471672998148926E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-2.7512083943151016E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B9">
-        <v>7.5475413124488397E-2</v>
+      <c r="B9" s="4">
+        <v>3.4807011220785798E-2</v>
       </c>
       <c r="C9">
-        <v>8.8283652639244251E-5</v>
+        <v>9.0834130916543792E-5</v>
       </c>
       <c r="D9">
-        <v>1.2773736592120149E-4</v>
+        <v>1.461883294926649E-4</v>
       </c>
       <c r="E9">
-        <v>-1.6701540702092135E-6</v>
+        <v>-1.9243905445315023E-6</v>
       </c>
       <c r="F9">
-        <v>1.363739039329926E-4</v>
+        <v>2.3103261612933971E-4</v>
       </c>
       <c r="G9">
-        <v>1.3868426183725192E-4</v>
+        <v>2.5857200124777059E-4</v>
       </c>
       <c r="H9">
-        <v>1.554666161109526E-3</v>
+        <v>1.7364252028569508E-3</v>
       </c>
       <c r="I9">
-        <v>1.4808169933409592E-3</v>
+        <v>1.6869311564130338E-3</v>
       </c>
       <c r="J9">
-        <v>4.1682670128509753E-3</v>
+        <v>4.6833360428223132E-3</v>
       </c>
       <c r="K9">
-        <v>1.4185021958177768E-4</v>
+        <v>1.0401123570608008E-4</v>
       </c>
       <c r="L9">
-        <v>2.6592447577822591E-4</v>
+        <v>2.9188829683138675E-4</v>
       </c>
       <c r="M9">
-        <v>2.8122830147977204E-4</v>
+        <v>1.5364515547390111E-4</v>
       </c>
       <c r="N9">
-        <v>1.2694962030219457E-4</v>
+        <v>1.2855909298709138E-4</v>
       </c>
       <c r="O9">
-        <v>1.9524444337852532E-4</v>
+        <v>2.2918871611552827E-4</v>
       </c>
       <c r="P9">
-        <v>2.2456648343088543E-5</v>
+        <v>3.9152924537132379E-5</v>
       </c>
       <c r="Q9">
-        <v>-1.9357121392584926E-5</v>
+        <v>-1.6469619763172573E-5</v>
       </c>
       <c r="R9">
-        <v>-1.2283639548936465E-5</v>
+        <v>-6.87084334167554E-7</v>
       </c>
       <c r="S9">
-        <v>-4.7493604451662131E-5</v>
+        <v>-2.8848921239038659E-5</v>
       </c>
       <c r="T9">
-        <v>-2.742242472849191E-4</v>
+        <v>-4.0914327924475833E-4</v>
       </c>
       <c r="U9">
-        <v>-1.0444637224041385E-4</v>
+        <v>-1.37044860147339E-4</v>
       </c>
       <c r="V9">
-        <v>-4.6962735526593952E-5</v>
+        <v>-3.1512651010399213E-5</v>
       </c>
       <c r="W9">
-        <v>-5.0110246131266511E-6</v>
+        <v>-1.1564343731699706E-5</v>
       </c>
       <c r="X9">
-        <v>1.1963121869585053E-4</v>
+        <v>4.3853546299079272E-5</v>
       </c>
       <c r="Y9">
-        <v>-3.2141730267818888E-5</v>
+        <v>-3.5786165880733275E-5</v>
       </c>
       <c r="Z9">
-        <v>-4.2974488749744329E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-4.8018768321458349E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B10">
-        <v>-7.3277565949491419E-2</v>
+      <c r="B10" s="4">
+        <v>-9.9872194678841522E-2</v>
       </c>
       <c r="C10">
-        <v>-1.7710239135255317E-7</v>
+        <v>4.5711070346756601E-5</v>
       </c>
       <c r="D10">
-        <v>6.2950827365955897E-6</v>
+        <v>1.2173356021035129E-5</v>
       </c>
       <c r="E10">
-        <v>3.9065273709101146E-8</v>
+        <v>5.4510775950826547E-8</v>
       </c>
       <c r="F10">
-        <v>-6.3059086449659789E-5</v>
+        <v>5.8811814672751415E-5</v>
       </c>
       <c r="G10">
-        <v>-1.5625188671785663E-4</v>
+        <v>1.7114695154612272E-5</v>
       </c>
       <c r="H10">
-        <v>2.8382496481321002E-4</v>
+        <v>4.9688952728450299E-4</v>
       </c>
       <c r="I10">
-        <v>6.1247210839779939E-5</v>
+        <v>2.0195103862192642E-5</v>
       </c>
       <c r="J10">
-        <v>1.4185021958177768E-4</v>
+        <v>1.0401123570608008E-4</v>
       </c>
       <c r="K10">
-        <v>1.5428000794778126E-3</v>
+        <v>1.6878083933076172E-3</v>
       </c>
       <c r="L10">
-        <v>1.1057041236064704E-3</v>
+        <v>8.5766387345007447E-4</v>
       </c>
       <c r="M10">
-        <v>1.1007768551025187E-3</v>
+        <v>1.0442235800970621E-3</v>
       </c>
       <c r="N10">
-        <v>1.9582951962352361E-5</v>
+        <v>-1.9968182265075302E-6</v>
       </c>
       <c r="O10">
-        <v>1.9685708366092927E-5</v>
+        <v>5.6709887575257137E-6</v>
       </c>
       <c r="P10">
-        <v>2.9226397941924239E-5</v>
+        <v>-6.6184954083076813E-5</v>
       </c>
       <c r="Q10">
-        <v>-8.1193100815199037E-6</v>
+        <v>-1.1169608551120595E-6</v>
       </c>
       <c r="R10">
-        <v>-3.8064888070627758E-6</v>
+        <v>-4.9958866044719674E-5</v>
       </c>
       <c r="S10">
-        <v>-1.4825214773810601E-5</v>
+        <v>1.1937286236646569E-4</v>
       </c>
       <c r="T10">
-        <v>-7.9556142581293393E-5</v>
+        <v>-8.3142991119697894E-5</v>
       </c>
       <c r="U10">
-        <v>-7.2540105278297697E-6</v>
+        <v>-6.0612895378730938E-5</v>
       </c>
       <c r="V10">
-        <v>-7.9269981426316493E-5</v>
+        <v>-7.0320068713865426E-5</v>
       </c>
       <c r="W10">
-        <v>-7.7657004786006483E-6</v>
+        <v>-3.8454373014178737E-6</v>
       </c>
       <c r="X10">
-        <v>1.6032207294182512E-4</v>
+        <v>2.1280004747759187E-4</v>
       </c>
       <c r="Y10">
-        <v>1.4784706223999755E-4</v>
+        <v>2.2656752511030474E-4</v>
       </c>
       <c r="Z10">
-        <v>-1.4221837326224452E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-1.5991749832346364E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="B11">
-        <v>4.2583204982276857E-2</v>
+      <c r="B11" s="4">
+        <v>3.8796831872076623E-2</v>
       </c>
       <c r="C11">
-        <v>1.3639239983555761E-4</v>
+        <v>1.6752996805613726E-4</v>
       </c>
       <c r="D11">
-        <v>1.1115753051258869E-4</v>
+        <v>1.0017960591807262E-4</v>
       </c>
       <c r="E11">
-        <v>-9.9546647373010944E-7</v>
+        <v>-9.1433828256350755E-7</v>
       </c>
       <c r="F11">
-        <v>-4.3786949559139655E-5</v>
+        <v>1.4437021683030565E-5</v>
       </c>
       <c r="G11">
-        <v>-2.4388150264812328E-4</v>
+        <v>-1.3875696593799319E-4</v>
       </c>
       <c r="H11">
-        <v>-4.2003168095193537E-6</v>
+        <v>7.6733885214863784E-5</v>
       </c>
       <c r="I11">
-        <v>8.9524394028450539E-5</v>
+        <v>6.5593259782377149E-5</v>
       </c>
       <c r="J11">
-        <v>2.6592447577822591E-4</v>
+        <v>2.9188829683138675E-4</v>
       </c>
       <c r="K11">
-        <v>1.1057041236064704E-3</v>
+        <v>8.5766387345007447E-4</v>
       </c>
       <c r="L11">
-        <v>2.2104308212368244E-3</v>
+        <v>1.6748987264463399E-3</v>
       </c>
       <c r="M11">
-        <v>1.1754798416363991E-3</v>
+        <v>8.9481841928241946E-4</v>
       </c>
       <c r="N11">
-        <v>4.1983058335401201E-5</v>
+        <v>2.2259441027052882E-5</v>
       </c>
       <c r="O11">
-        <v>1.6861181547955905E-5</v>
+        <v>2.7721550644818931E-6</v>
       </c>
       <c r="P11">
-        <v>-5.070762057878507E-5</v>
+        <v>-1.1317442579262833E-4</v>
       </c>
       <c r="Q11">
-        <v>5.5512840632850622E-6</v>
+        <v>1.2171090268546052E-5</v>
       </c>
       <c r="R11">
-        <v>-3.1907110912271193E-5</v>
+        <v>-3.8624556272472653E-5</v>
       </c>
       <c r="S11">
-        <v>-1.8598687622371952E-4</v>
+        <v>-3.1467372436678911E-5</v>
       </c>
       <c r="T11">
-        <v>-8.427654362964704E-5</v>
+        <v>-5.5837193915297218E-5</v>
       </c>
       <c r="U11">
-        <v>2.1108472822961273E-6</v>
+        <v>7.4839373608902651E-6</v>
       </c>
       <c r="V11">
-        <v>4.3870065297712982E-5</v>
+        <v>4.7879664425286349E-5</v>
       </c>
       <c r="W11">
-        <v>-3.7362536136686735E-6</v>
+        <v>-6.6616235452028399E-6</v>
       </c>
       <c r="X11">
-        <v>4.2437526013629993E-5</v>
+        <v>1.616869986423102E-4</v>
       </c>
       <c r="Y11">
-        <v>-1.9444971587665165E-5</v>
+        <v>9.230862734686403E-5</v>
       </c>
       <c r="Z11">
-        <v>-4.1420140892849365E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-3.4466007511044054E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B12">
-        <v>0.13725456202181363</v>
+      <c r="B12" s="4">
+        <v>0.27454399681723185</v>
       </c>
       <c r="C12">
-        <v>2.7378647570067312E-4</v>
+        <v>4.1906479156940261E-4</v>
       </c>
       <c r="D12">
-        <v>1.6792903789320413E-5</v>
+        <v>1.219113503676773E-5</v>
       </c>
       <c r="E12">
-        <v>-8.8555644179409964E-8</v>
+        <v>4.7887539788049603E-8</v>
       </c>
       <c r="F12">
-        <v>-1.0519832740297559E-4</v>
+        <v>1.071143098380935E-5</v>
       </c>
       <c r="G12">
-        <v>-2.0202334260185364E-4</v>
+        <v>-7.1776144413885539E-5</v>
       </c>
       <c r="H12">
-        <v>2.1833120347936399E-4</v>
+        <v>4.1462292532126093E-4</v>
       </c>
       <c r="I12">
-        <v>1.102030907091789E-4</v>
+        <v>1.0640721668859088E-4</v>
       </c>
       <c r="J12">
-        <v>2.8122830147977204E-4</v>
+        <v>1.5364515547390111E-4</v>
       </c>
       <c r="K12">
-        <v>1.1007768551025187E-3</v>
+        <v>1.0442235800970621E-3</v>
       </c>
       <c r="L12">
-        <v>1.1754798416363991E-3</v>
+        <v>8.9481841928241946E-4</v>
       </c>
       <c r="M12">
-        <v>1.9836049477070564E-3</v>
+        <v>2.0527082509467025E-3</v>
       </c>
       <c r="N12">
-        <v>2.1662530705976374E-5</v>
+        <v>1.6957157886181661E-5</v>
       </c>
       <c r="O12">
-        <v>1.5056872164191964E-6</v>
+        <v>-2.3267131918027553E-5</v>
       </c>
       <c r="P12">
-        <v>-1.4207116597719652E-4</v>
+        <v>-1.6792226642172153E-4</v>
       </c>
       <c r="Q12">
-        <v>6.7694929471799311E-7</v>
+        <v>1.242475206168558E-5</v>
       </c>
       <c r="R12">
-        <v>-2.5793369895204502E-5</v>
+        <v>-1.8901752551528242E-5</v>
       </c>
       <c r="S12">
-        <v>1.032738226574667E-4</v>
+        <v>3.6338978474302359E-5</v>
       </c>
       <c r="T12">
-        <v>8.0001481158747131E-5</v>
+        <v>3.0409728744527681E-5</v>
       </c>
       <c r="U12">
-        <v>1.5375170190961242E-4</v>
+        <v>7.3386271984515088E-5</v>
       </c>
       <c r="V12">
-        <v>8.1945651635511652E-5</v>
+        <v>5.5542348170973692E-5</v>
       </c>
       <c r="W12">
-        <v>-2.0010828914140882E-5</v>
+        <v>-1.7756625286866682E-5</v>
       </c>
       <c r="X12">
-        <v>3.0842843633890616E-4</v>
+        <v>1.0967496385986208E-4</v>
       </c>
       <c r="Y12">
-        <v>2.4769213940981717E-4</v>
+        <v>1.0099150843679508E-4</v>
       </c>
       <c r="Z12">
-        <v>-1.557069927762495E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-1.4944328657644388E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13">
-        <v>-6.8996265481490607E-3</v>
+      <c r="B13" s="4">
+        <v>-1.042742030684202E-2</v>
       </c>
       <c r="C13">
-        <v>1.3750783375554753E-5</v>
+        <v>1.3398407475876835E-5</v>
       </c>
       <c r="D13">
-        <v>1.8052079905563139E-5</v>
+        <v>1.735719798072573E-5</v>
       </c>
       <c r="E13">
-        <v>-1.1129052151801536E-7</v>
+        <v>-1.0038335107829547E-7</v>
       </c>
       <c r="F13">
-        <v>4.0027688215172549E-5</v>
+        <v>6.4261427322604101E-5</v>
       </c>
       <c r="G13">
-        <v>4.3126345373184662E-5</v>
+        <v>6.9566063168289492E-5</v>
       </c>
       <c r="H13">
-        <v>-2.5747862517000946E-5</v>
+        <v>-2.6038349720601366E-5</v>
       </c>
       <c r="I13">
-        <v>1.0649031724359654E-4</v>
+        <v>1.0608651550274737E-4</v>
       </c>
       <c r="J13">
-        <v>1.2694962030219457E-4</v>
+        <v>1.2855909298709138E-4</v>
       </c>
       <c r="K13">
-        <v>1.9582951962352361E-5</v>
+        <v>-1.9968182265075302E-6</v>
       </c>
       <c r="L13">
-        <v>4.1983058335401201E-5</v>
+        <v>2.2259441027052882E-5</v>
       </c>
       <c r="M13">
-        <v>2.1662530705976374E-5</v>
+        <v>1.6957157886181661E-5</v>
       </c>
       <c r="N13">
-        <v>2.9617674104368946E-4</v>
+        <v>3.190617300199002E-4</v>
       </c>
       <c r="O13">
-        <v>2.0847049659661366E-6</v>
+        <v>-1.666736043867383E-7</v>
       </c>
       <c r="P13">
-        <v>2.1538624242551296E-5</v>
+        <v>1.4640583972100503E-5</v>
       </c>
       <c r="Q13">
-        <v>-9.1983048766376134E-6</v>
+        <v>-9.4188263006042814E-6</v>
       </c>
       <c r="R13">
-        <v>-9.7581361417540115E-5</v>
+        <v>-9.8565940264779776E-5</v>
       </c>
       <c r="S13">
-        <v>-2.6295765749894339E-5</v>
+        <v>5.6135383769440614E-6</v>
       </c>
       <c r="T13">
-        <v>-1.8712789591208436E-5</v>
+        <v>-4.1426634243197681E-6</v>
       </c>
       <c r="U13">
-        <v>-5.9585915753529667E-6</v>
+        <v>-6.0894921329865187E-7</v>
       </c>
       <c r="V13">
-        <v>1.7730848363863624E-5</v>
+        <v>2.6212918578359792E-5</v>
       </c>
       <c r="W13">
-        <v>-2.1019228166922757E-6</v>
+        <v>-1.9123111746028337E-6</v>
       </c>
       <c r="X13">
-        <v>-2.0196606888456476E-5</v>
+        <v>1.8691610155036021E-5</v>
       </c>
       <c r="Y13">
-        <v>-3.8006238025751712E-5</v>
+        <v>-3.3260905203872596E-5</v>
       </c>
       <c r="Z13">
-        <v>-1.6710349882502176E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-1.7531744006291749E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14">
-        <v>1.9438199819221149E-2</v>
+      <c r="B14" s="4">
+        <v>2.1515961128952505E-2</v>
       </c>
       <c r="C14">
-        <v>-3.3713209678274899E-5</v>
+        <v>-4.1152004011492617E-5</v>
       </c>
       <c r="D14">
-        <v>4.300777415323295E-6</v>
+        <v>3.9068867296479246E-6</v>
       </c>
       <c r="E14">
-        <v>-3.340335848892318E-8</v>
+        <v>-3.3300619036738938E-8</v>
       </c>
       <c r="F14">
-        <v>2.0447523851786798E-5</v>
+        <v>4.2656601493032471E-5</v>
       </c>
       <c r="G14">
-        <v>1.8489647809086619E-5</v>
+        <v>3.4630660376647712E-5</v>
       </c>
       <c r="H14">
-        <v>2.5675837702111951E-4</v>
+        <v>2.823641260090759E-4</v>
       </c>
       <c r="I14">
-        <v>1.9011089477651065E-4</v>
+        <v>2.1561135710295465E-4</v>
       </c>
       <c r="J14">
-        <v>1.9524444337852532E-4</v>
+        <v>2.2918871611552827E-4</v>
       </c>
       <c r="K14">
-        <v>1.9685708366092927E-5</v>
+        <v>5.6709887575257137E-6</v>
       </c>
       <c r="L14">
-        <v>1.6861181547955905E-5</v>
+        <v>2.7721550644818931E-6</v>
       </c>
       <c r="M14">
-        <v>1.5056872164191964E-6</v>
+        <v>-2.3267131918027553E-5</v>
       </c>
       <c r="N14">
-        <v>2.0847049659661366E-6</v>
+        <v>-1.666736043867383E-7</v>
       </c>
       <c r="O14">
-        <v>8.6747600438439313E-5</v>
+        <v>9.9135732817937821E-5</v>
       </c>
       <c r="P14">
-        <v>-9.3036218159423803E-7</v>
+        <v>-3.0684920844468175E-6</v>
       </c>
       <c r="Q14">
-        <v>-5.5391846936995225E-5</v>
+        <v>-6.3156867118921239E-5</v>
       </c>
       <c r="R14">
-        <v>1.5944281474912682E-6</v>
+        <v>1.0666832802257815E-7</v>
       </c>
       <c r="S14">
-        <v>-2.0567921192092613E-5</v>
+        <v>-1.6002011782170814E-5</v>
       </c>
       <c r="T14">
-        <v>-3.3683189648261162E-5</v>
+        <v>-4.397314029562897E-5</v>
       </c>
       <c r="U14">
-        <v>-8.4864132037343711E-6</v>
+        <v>-9.2790144137246935E-6</v>
       </c>
       <c r="V14">
-        <v>6.3097472756783247E-6</v>
+        <v>1.0890072899562345E-5</v>
       </c>
       <c r="W14">
-        <v>-9.6049749704975734E-8</v>
+        <v>-1.1572562313009822E-7</v>
       </c>
       <c r="X14">
-        <v>-1.905613930039201E-5</v>
+        <v>-2.1555144226910789E-5</v>
       </c>
       <c r="Y14">
-        <v>-1.5718106710657605E-5</v>
+        <v>-1.4847611941664534E-5</v>
       </c>
       <c r="Z14">
-        <v>-3.4945308565194734E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-3.5499642869959807E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15">
-        <v>1.4917320998661929</v>
+      <c r="B15" s="4">
+        <v>1.4936280823539314</v>
       </c>
       <c r="C15">
-        <v>4.0490536606856511E-5</v>
+        <v>3.6483644133159974E-5</v>
       </c>
       <c r="D15">
-        <v>3.1246501495565526E-6</v>
+        <v>1.079076971270904E-6</v>
       </c>
       <c r="E15">
-        <v>-3.4126802680655184E-8</v>
+        <v>-3.2998109647666975E-8</v>
       </c>
       <c r="F15">
-        <v>2.7739862607641488E-4</v>
+        <v>2.661154850629459E-4</v>
       </c>
       <c r="G15">
-        <v>2.9705838321355659E-4</v>
+        <v>2.7807762210207217E-4</v>
       </c>
       <c r="H15">
-        <v>8.4132283306365997E-5</v>
+        <v>4.7382613091078232E-5</v>
       </c>
       <c r="I15">
-        <v>2.3694676415157278E-5</v>
+        <v>2.8676352332359083E-5</v>
       </c>
       <c r="J15">
-        <v>2.2456648343088543E-5</v>
+        <v>3.9152924537132379E-5</v>
       </c>
       <c r="K15">
-        <v>2.9226397941924239E-5</v>
+        <v>-6.6184954083076813E-5</v>
       </c>
       <c r="L15">
-        <v>-5.070762057878507E-5</v>
+        <v>-1.1317442579262833E-4</v>
       </c>
       <c r="M15">
-        <v>-1.4207116597719652E-4</v>
+        <v>-1.6792226642172153E-4</v>
       </c>
       <c r="N15">
-        <v>2.1538624242551296E-5</v>
+        <v>1.4640583972100503E-5</v>
       </c>
       <c r="O15">
-        <v>-9.3036218159423803E-7</v>
+        <v>-3.0684920844468175E-6</v>
       </c>
       <c r="P15">
-        <v>2.2055653678214352E-3</v>
+        <v>2.3381543935785776E-3</v>
       </c>
       <c r="Q15">
-        <v>-1.247243371971676E-5</v>
+        <v>-1.3027332982742837E-5</v>
       </c>
       <c r="R15">
-        <v>-1.2386486924043025E-3</v>
+        <v>-1.3420818154828013E-3</v>
       </c>
       <c r="S15">
-        <v>-2.307258661840699E-4</v>
+        <v>-2.2739398280261907E-4</v>
       </c>
       <c r="T15">
-        <v>-1.4909010681357502E-4</v>
+        <v>-1.3677740717905871E-4</v>
       </c>
       <c r="U15">
-        <v>-6.5859143922587614E-6</v>
+        <v>-9.3860419482813908E-6</v>
       </c>
       <c r="V15">
-        <v>-1.4366721912773494E-4</v>
+        <v>-1.3469764003452606E-4</v>
       </c>
       <c r="W15">
-        <v>-4.6111740834657895E-7</v>
+        <v>-1.7865236893927705E-7</v>
       </c>
       <c r="X15">
-        <v>-3.0365082240592627E-4</v>
+        <v>-3.4447398947885815E-4</v>
       </c>
       <c r="Y15">
-        <v>-1.5790437371313501E-4</v>
+        <v>-1.8280395864963498E-4</v>
       </c>
       <c r="Z15">
-        <v>-6.1966612005403686E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-4.5683889058609526E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>33</v>
       </c>
-      <c r="B16">
-        <v>-1.9099437143816538E-3</v>
+      <c r="B16" s="4">
+        <v>-4.9426279531876909E-3</v>
       </c>
       <c r="C16">
-        <v>7.3907586212482045E-6</v>
+        <v>8.3684404168434316E-6</v>
       </c>
       <c r="D16">
-        <v>-7.1419442880165509E-6</v>
+        <v>-7.2993135007448977E-6</v>
       </c>
       <c r="E16">
-        <v>6.7624491934371247E-8</v>
+        <v>6.9486645096075561E-8</v>
       </c>
       <c r="F16">
-        <v>1.3311791262614162E-5</v>
+        <v>-7.304422989041786E-7</v>
       </c>
       <c r="G16">
-        <v>1.9791559493876102E-5</v>
+        <v>1.068220038143353E-5</v>
       </c>
       <c r="H16">
-        <v>-4.242815017156436E-5</v>
+        <v>-4.7903944979923852E-5</v>
       </c>
       <c r="I16">
-        <v>-1.5835468645914217E-5</v>
+        <v>-1.5217183777949903E-5</v>
       </c>
       <c r="J16">
-        <v>-1.9357121392584926E-5</v>
+        <v>-1.6469619763172573E-5</v>
       </c>
       <c r="K16">
-        <v>-8.1193100815199037E-6</v>
+        <v>-1.1169608551120595E-6</v>
       </c>
       <c r="L16">
-        <v>5.5512840632850622E-6</v>
+        <v>1.2171090268546052E-5</v>
       </c>
       <c r="M16">
-        <v>6.7694929471799311E-7</v>
+        <v>1.242475206168558E-5</v>
       </c>
       <c r="N16">
-        <v>-9.1983048766376134E-6</v>
+        <v>-9.4188263006042814E-6</v>
       </c>
       <c r="O16">
-        <v>-5.5391846936995225E-5</v>
+        <v>-6.3156867118921239E-5</v>
       </c>
       <c r="P16">
-        <v>-1.247243371971676E-5</v>
+        <v>-1.3027332982742837E-5</v>
       </c>
       <c r="Q16">
-        <v>6.2816171816604811E-5</v>
+        <v>7.1015414438575618E-5</v>
       </c>
       <c r="R16">
-        <v>4.925805591954396E-6</v>
+        <v>5.2255338818586557E-6</v>
       </c>
       <c r="S16">
-        <v>2.3659232015938608E-5</v>
+        <v>2.1747494591693295E-5</v>
       </c>
       <c r="T16">
-        <v>1.9821823275302228E-5</v>
+        <v>2.2781524258966874E-5</v>
       </c>
       <c r="U16">
-        <v>7.4654729363972847E-6</v>
+        <v>6.993626984098736E-6</v>
       </c>
       <c r="V16">
-        <v>6.8312283735098184E-6</v>
+        <v>4.3033697489717942E-6</v>
       </c>
       <c r="W16">
-        <v>-9.4321369332270403E-7</v>
+        <v>-1.1404438278010793E-6</v>
       </c>
       <c r="X16">
-        <v>9.3712192308026965E-6</v>
+        <v>1.0321995552856399E-5</v>
       </c>
       <c r="Y16">
-        <v>1.893840321743309E-5</v>
+        <v>2.1488158100372785E-5</v>
       </c>
       <c r="Z16">
-        <v>1.8080812062743341E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+        <v>1.897524794412818E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17">
-        <v>0.56137429160879648</v>
+      <c r="B17" s="4">
+        <v>0.54428839187809741</v>
       </c>
       <c r="C17">
-        <v>3.1559156080481832E-5</v>
+        <v>3.1862332515091322E-5</v>
       </c>
       <c r="D17">
-        <v>-1.164385642522098E-5</v>
+        <v>-1.4774062806708135E-5</v>
       </c>
       <c r="E17">
-        <v>8.3291885269745062E-8</v>
+        <v>9.8165157882162679E-8</v>
       </c>
       <c r="F17">
-        <v>1.2756311434061643E-4</v>
+        <v>1.4439790944511074E-4</v>
       </c>
       <c r="G17">
-        <v>1.9063944210634376E-4</v>
+        <v>1.9781655360009737E-4</v>
       </c>
       <c r="H17">
-        <v>1.9177338079117345E-4</v>
+        <v>7.5211327422280636E-5</v>
       </c>
       <c r="I17">
-        <v>-1.7526911983276787E-5</v>
+        <v>-2.7617260485751421E-5</v>
       </c>
       <c r="J17">
-        <v>-1.2283639548936465E-5</v>
+        <v>-6.87084334167554E-7</v>
       </c>
       <c r="K17">
-        <v>-3.8064888070627758E-6</v>
+        <v>-4.9958866044719674E-5</v>
       </c>
       <c r="L17">
-        <v>-3.1907110912271193E-5</v>
+        <v>-3.8624556272472653E-5</v>
       </c>
       <c r="M17">
-        <v>-2.5793369895204502E-5</v>
+        <v>-1.8901752551528242E-5</v>
       </c>
       <c r="N17">
-        <v>-9.7581361417540115E-5</v>
+        <v>-9.8565940264779776E-5</v>
       </c>
       <c r="O17">
-        <v>1.5944281474912682E-6</v>
+        <v>1.0666832802257815E-7</v>
       </c>
       <c r="P17">
-        <v>-1.2386486924043025E-3</v>
+        <v>-1.3420818154828013E-3</v>
       </c>
       <c r="Q17">
-        <v>4.925805591954396E-6</v>
+        <v>5.2255338818586557E-6</v>
       </c>
       <c r="R17">
-        <v>2.116988459646486E-3</v>
+        <v>2.255939311875817E-3</v>
       </c>
       <c r="S17">
-        <v>-2.0444216804849953E-4</v>
+        <v>-2.1633474035601564E-4</v>
       </c>
       <c r="T17">
-        <v>-1.4694983853515996E-4</v>
+        <v>-1.7074710503105168E-4</v>
       </c>
       <c r="U17">
-        <v>-1.2344371183237773E-4</v>
+        <v>-1.3436536385351785E-4</v>
       </c>
       <c r="V17">
-        <v>-6.981499784344663E-5</v>
+        <v>-7.6292177835771642E-5</v>
       </c>
       <c r="W17">
-        <v>-9.1474170943763387E-7</v>
+        <v>5.323147460884369E-8</v>
       </c>
       <c r="X17">
-        <v>-5.8952861423007172E-5</v>
+        <v>-4.1602330535013977E-5</v>
       </c>
       <c r="Y17">
-        <v>-2.3538543810729091E-5</v>
+        <v>-2.5361190939785013E-5</v>
       </c>
       <c r="Z17">
-        <v>4.608102287538553E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+        <v>5.8256299470891215E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>35</v>
       </c>
-      <c r="B18">
-        <v>5.9827546184474896E-2</v>
+      <c r="B18" s="4">
+        <v>5.0329188966680927E-2</v>
       </c>
       <c r="C18">
-        <v>-5.6497426713402241E-5</v>
+        <v>-7.4431657362069149E-5</v>
       </c>
       <c r="D18">
-        <v>-4.6238719204995079E-5</v>
+        <v>-3.6092662114050781E-5</v>
       </c>
       <c r="E18">
-        <v>4.3862129364033952E-7</v>
+        <v>3.7004901348710459E-7</v>
       </c>
       <c r="F18">
-        <v>-1.9732977589503165E-4</v>
+        <v>-2.2336253114626391E-4</v>
       </c>
       <c r="G18">
-        <v>-1.9847337837325418E-4</v>
+        <v>-1.9650299947967777E-4</v>
       </c>
       <c r="H18">
-        <v>-3.4222993662410325E-4</v>
+        <v>-1.5570235108373844E-4</v>
       </c>
       <c r="I18">
-        <v>-1.3034909956297395E-4</v>
+        <v>-1.0157377494529108E-4</v>
       </c>
       <c r="J18">
-        <v>-4.7493604451662131E-5</v>
+        <v>-2.8848921239038659E-5</v>
       </c>
       <c r="K18">
-        <v>-1.4825214773810601E-5</v>
+        <v>1.1937286236646569E-4</v>
       </c>
       <c r="L18">
-        <v>-1.8598687622371952E-4</v>
+        <v>-3.1467372436678911E-5</v>
       </c>
       <c r="M18">
-        <v>1.032738226574667E-4</v>
+        <v>3.6338978474302359E-5</v>
       </c>
       <c r="N18">
-        <v>-2.6295765749894339E-5</v>
+        <v>5.6135383769440614E-6</v>
       </c>
       <c r="O18">
-        <v>-2.0567921192092613E-5</v>
+        <v>-1.6002011782170814E-5</v>
       </c>
       <c r="P18">
-        <v>-2.307258661840699E-4</v>
+        <v>-2.2739398280261907E-4</v>
       </c>
       <c r="Q18">
-        <v>2.3659232015938608E-5</v>
+        <v>2.1747494591693295E-5</v>
       </c>
       <c r="R18">
-        <v>-2.0444216804849953E-4</v>
+        <v>-2.1633474035601564E-4</v>
       </c>
       <c r="S18">
-        <v>2.3561019553869807E-3</v>
+        <v>2.60474196878567E-3</v>
       </c>
       <c r="T18">
-        <v>1.1051230793057791E-3</v>
+        <v>1.2668351583683389E-3</v>
       </c>
       <c r="U18">
-        <v>1.1152470230105253E-3</v>
+        <v>1.2772817532948765E-3</v>
       </c>
       <c r="V18">
-        <v>1.088740191136008E-3</v>
+        <v>1.2427886226532021E-3</v>
       </c>
       <c r="W18">
-        <v>-8.7626010762261949E-6</v>
+        <v>-9.8935544167680728E-6</v>
       </c>
       <c r="X18">
-        <v>6.0182799847430268E-4</v>
+        <v>6.4374091776451365E-4</v>
       </c>
       <c r="Y18">
-        <v>4.4197634542186192E-4</v>
+        <v>5.224794375842559E-4</v>
       </c>
       <c r="Z18">
-        <v>5.480149162107713E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-1.0310956631641216E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="B19">
-        <v>-6.4702301617247118E-2</v>
+      <c r="B19" s="4">
+        <v>-7.1882561497731701E-2</v>
       </c>
       <c r="C19">
-        <v>-9.6836985600862635E-6</v>
+        <v>-3.6733507901112365E-5</v>
       </c>
       <c r="D19">
-        <v>-3.093766193656782E-5</v>
+        <v>-2.9235522226682973E-5</v>
       </c>
       <c r="E19">
-        <v>3.1502116019195042E-7</v>
+        <v>3.3242430440620148E-7</v>
       </c>
       <c r="F19">
-        <v>-8.9468834975389656E-5</v>
+        <v>-1.9447462820486349E-4</v>
       </c>
       <c r="G19">
-        <v>-1.241036320344702E-4</v>
+        <v>-1.8991831611327544E-4</v>
       </c>
       <c r="H19">
-        <v>-3.7175988812763322E-4</v>
+        <v>-2.5507458608591037E-4</v>
       </c>
       <c r="I19">
-        <v>-1.7552509912905495E-4</v>
+        <v>-1.8005753919864132E-4</v>
       </c>
       <c r="J19">
-        <v>-2.742242472849191E-4</v>
+        <v>-4.0914327924475833E-4</v>
       </c>
       <c r="K19">
-        <v>-7.9556142581293393E-5</v>
+        <v>-8.3142991119697894E-5</v>
       </c>
       <c r="L19">
-        <v>-8.427654362964704E-5</v>
+        <v>-5.5837193915297218E-5</v>
       </c>
       <c r="M19">
-        <v>8.0001481158747131E-5</v>
+        <v>3.0409728744527681E-5</v>
       </c>
       <c r="N19">
-        <v>-1.8712789591208436E-5</v>
+        <v>-4.1426634243197681E-6</v>
       </c>
       <c r="O19">
-        <v>-3.3683189648261162E-5</v>
+        <v>-4.397314029562897E-5</v>
       </c>
       <c r="P19">
-        <v>-1.4909010681357502E-4</v>
+        <v>-1.3677740717905871E-4</v>
       </c>
       <c r="Q19">
-        <v>1.9821823275302228E-5</v>
+        <v>2.2781524258966874E-5</v>
       </c>
       <c r="R19">
-        <v>-1.4694983853515996E-4</v>
+        <v>-1.7074710503105168E-4</v>
       </c>
       <c r="S19">
-        <v>1.1051230793057791E-3</v>
+        <v>1.2668351583683389E-3</v>
       </c>
       <c r="T19">
-        <v>2.9141502522920908E-3</v>
+        <v>3.144733774054928E-3</v>
       </c>
       <c r="U19">
-        <v>1.0843943796319416E-3</v>
+        <v>1.2474539329545046E-3</v>
       </c>
       <c r="V19">
-        <v>1.0543821852870342E-3</v>
+        <v>1.2116707453683464E-3</v>
       </c>
       <c r="W19">
-        <v>1.766517570730377E-7</v>
+        <v>-1.79647216182337E-6</v>
       </c>
       <c r="X19">
-        <v>6.7610176876392342E-5</v>
+        <v>6.4917108052656343E-5</v>
       </c>
       <c r="Y19">
-        <v>1.2067070644594471E-4</v>
+        <v>1.5713200353341573E-4</v>
       </c>
       <c r="Z19">
-        <v>8.2485067891505549E-6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-1.6148653392878949E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>37</v>
       </c>
-      <c r="B20">
-        <v>0.11337010271202008</v>
+      <c r="B20" s="4">
+        <v>0.11570751956301911</v>
       </c>
       <c r="C20">
-        <v>-1.1695144719378803E-5</v>
+        <v>-3.6005002589971211E-5</v>
       </c>
       <c r="D20">
-        <v>-1.6740135949443034E-5</v>
+        <v>-1.2867267233399238E-5</v>
       </c>
       <c r="E20">
-        <v>1.6139332758481854E-7</v>
+        <v>1.33239449174271E-7</v>
       </c>
       <c r="F20">
-        <v>-5.9190670430929449E-5</v>
+        <v>-1.1871257092158029E-4</v>
       </c>
       <c r="G20">
-        <v>-1.0170843992157193E-4</v>
+        <v>-1.5229181470900169E-4</v>
       </c>
       <c r="H20">
-        <v>-1.9942948736599065E-4</v>
+        <v>-1.1328205675571377E-4</v>
       </c>
       <c r="I20">
-        <v>-9.8126705276060564E-5</v>
+        <v>-8.4424517088551058E-5</v>
       </c>
       <c r="J20">
-        <v>-1.0444637224041385E-4</v>
+        <v>-1.37044860147339E-4</v>
       </c>
       <c r="K20">
-        <v>-7.2540105278297697E-6</v>
+        <v>-6.0612895378730938E-5</v>
       </c>
       <c r="L20">
-        <v>2.1108472822961273E-6</v>
+        <v>7.4839373608902651E-6</v>
       </c>
       <c r="M20">
-        <v>1.5375170190961242E-4</v>
+        <v>7.3386271984515088E-5</v>
       </c>
       <c r="N20">
-        <v>-5.9585915753529667E-6</v>
+        <v>-6.0894921329865187E-7</v>
       </c>
       <c r="O20">
-        <v>-8.4864132037343711E-6</v>
+        <v>-9.2790144137246935E-6</v>
       </c>
       <c r="P20">
-        <v>-6.5859143922587614E-6</v>
+        <v>-9.3860419482813908E-6</v>
       </c>
       <c r="Q20">
-        <v>7.4654729363972847E-6</v>
+        <v>6.993626984098736E-6</v>
       </c>
       <c r="R20">
-        <v>-1.2344371183237773E-4</v>
+        <v>-1.3436536385351785E-4</v>
       </c>
       <c r="S20">
-        <v>1.1152470230105253E-3</v>
+        <v>1.2772817532948765E-3</v>
       </c>
       <c r="T20">
-        <v>1.0843943796319416E-3</v>
+        <v>1.2474539329545046E-3</v>
       </c>
       <c r="U20">
-        <v>1.7160857183185355E-3</v>
+        <v>1.9247520282997168E-3</v>
       </c>
       <c r="V20">
-        <v>1.0573580769356159E-3</v>
+        <v>1.2157193964804555E-3</v>
       </c>
       <c r="W20">
-        <v>-3.3554100882624992E-6</v>
+        <v>-3.6061206234627655E-6</v>
       </c>
       <c r="X20">
-        <v>1.3807125314175514E-4</v>
+        <v>1.244599694511977E-4</v>
       </c>
       <c r="Y20">
-        <v>1.2402272091294563E-4</v>
+        <v>1.3683959288476709E-4</v>
       </c>
       <c r="Z20">
-        <v>-4.6753352256642005E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-6.6121881200560271E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="B21">
-        <v>-9.0620025095866953E-3</v>
+      <c r="B21" s="4">
+        <v>-1.406545954944138E-2</v>
       </c>
       <c r="C21">
-        <v>-4.590193589927032E-5</v>
+        <v>-7.0636763647271536E-5</v>
       </c>
       <c r="D21">
-        <v>-9.8032382611121618E-6</v>
+        <v>-7.1578020328012695E-6</v>
       </c>
       <c r="E21">
-        <v>1.1031338812589567E-7</v>
+        <v>9.7934312441844257E-8</v>
       </c>
       <c r="F21">
-        <v>3.3021147815670424E-5</v>
+        <v>-2.8385639934974403E-5</v>
       </c>
       <c r="G21">
-        <v>9.6051577566638713E-5</v>
+        <v>5.0617061321913727E-5</v>
       </c>
       <c r="H21">
-        <v>-1.9991551720520016E-4</v>
+        <v>6.1861772470650674E-5</v>
       </c>
       <c r="I21">
-        <v>-1.1867635086223235E-5</v>
+        <v>3.8962281084118191E-5</v>
       </c>
       <c r="J21">
-        <v>-4.6962735526593952E-5</v>
+        <v>-3.1512651010399213E-5</v>
       </c>
       <c r="K21">
-        <v>-7.9269981426316493E-5</v>
+        <v>-7.0320068713865426E-5</v>
       </c>
       <c r="L21">
-        <v>4.3870065297712982E-5</v>
+        <v>4.7879664425286349E-5</v>
       </c>
       <c r="M21">
-        <v>8.1945651635511652E-5</v>
+        <v>5.5542348170973692E-5</v>
       </c>
       <c r="N21">
-        <v>1.7730848363863624E-5</v>
+        <v>2.6212918578359792E-5</v>
       </c>
       <c r="O21">
-        <v>6.3097472756783247E-6</v>
+        <v>1.0890072899562345E-5</v>
       </c>
       <c r="P21">
-        <v>-1.4366721912773494E-4</v>
+        <v>-1.3469764003452606E-4</v>
       </c>
       <c r="Q21">
-        <v>6.8312283735098184E-6</v>
+        <v>4.3033697489717942E-6</v>
       </c>
       <c r="R21">
-        <v>-6.981499784344663E-5</v>
+        <v>-7.6292177835771642E-5</v>
       </c>
       <c r="S21">
-        <v>1.088740191136008E-3</v>
+        <v>1.2427886226532021E-3</v>
       </c>
       <c r="T21">
-        <v>1.0543821852870342E-3</v>
+        <v>1.2116707453683464E-3</v>
       </c>
       <c r="U21">
-        <v>1.0573580769356159E-3</v>
+        <v>1.2157193964804555E-3</v>
       </c>
       <c r="V21">
-        <v>1.5385007416467071E-3</v>
+        <v>1.7117029396860575E-3</v>
       </c>
       <c r="W21">
-        <v>-2.7592368136086654E-6</v>
+        <v>-3.6021800508937369E-6</v>
       </c>
       <c r="X21">
-        <v>4.5287683907909771E-5</v>
+        <v>3.6600324362965437E-5</v>
       </c>
       <c r="Y21">
-        <v>2.8119193444855952E-5</v>
+        <v>3.557656785319082E-5</v>
       </c>
       <c r="Z21">
-        <v>-8.7377729719525935E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-1.1242518191035976E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>1.531390317255649E-2</v>
+      <c r="B22" s="4">
+        <v>1.4255469761199119E-2</v>
       </c>
       <c r="C22">
-        <v>2.3994748559267172E-6</v>
+        <v>3.7995865139333987E-6</v>
       </c>
       <c r="D22">
-        <v>4.6726971253454385E-7</v>
+        <v>-1.6580964949024988E-8</v>
       </c>
       <c r="E22">
-        <v>-7.3885500796395693E-9</v>
+        <v>-2.0240877543588244E-9</v>
       </c>
       <c r="F22">
-        <v>3.9702209119750474E-6</v>
+        <v>5.673412804609043E-6</v>
       </c>
       <c r="G22">
-        <v>1.0133866653764533E-5</v>
+        <v>1.1080616008043168E-5</v>
       </c>
       <c r="H22">
-        <v>-9.9060296205678898E-6</v>
+        <v>5.3114567552340621E-6</v>
       </c>
       <c r="I22">
-        <v>1.7101471540302625E-6</v>
+        <v>3.27217014153906E-7</v>
       </c>
       <c r="J22">
-        <v>-5.0110246131266511E-6</v>
+        <v>-1.1564343731699706E-5</v>
       </c>
       <c r="K22">
-        <v>-7.7657004786006483E-6</v>
+        <v>-3.8454373014178737E-6</v>
       </c>
       <c r="L22">
-        <v>-3.7362536136686735E-6</v>
+        <v>-6.6616235452028399E-6</v>
       </c>
       <c r="M22">
-        <v>-2.0010828914140882E-5</v>
+        <v>-1.7756625286866682E-5</v>
       </c>
       <c r="N22">
-        <v>-2.1019228166922757E-6</v>
+        <v>-1.9123111746028337E-6</v>
       </c>
       <c r="O22">
-        <v>-9.6049749704975734E-8</v>
+        <v>-1.1572562313009822E-7</v>
       </c>
       <c r="P22">
-        <v>-4.6111740834657895E-7</v>
+        <v>-1.7865236893927705E-7</v>
       </c>
       <c r="Q22">
-        <v>-9.4321369332270403E-7</v>
+        <v>-1.1404438278010793E-6</v>
       </c>
       <c r="R22">
-        <v>-9.1474170943763387E-7</v>
+        <v>5.323147460884369E-8</v>
       </c>
       <c r="S22">
-        <v>-8.7626010762261949E-6</v>
+        <v>-9.8935544167680728E-6</v>
       </c>
       <c r="T22">
-        <v>1.766517570730377E-7</v>
+        <v>-1.79647216182337E-6</v>
       </c>
       <c r="U22">
-        <v>-3.3554100882624992E-6</v>
+        <v>-3.6061206234627655E-6</v>
       </c>
       <c r="V22">
-        <v>-2.7592368136086654E-6</v>
+        <v>-3.6021800508937369E-6</v>
       </c>
       <c r="W22">
-        <v>1.484624498140104E-5</v>
+        <v>1.5782164304298552E-5</v>
       </c>
       <c r="X22">
-        <v>-5.6697080579895623E-5</v>
+        <v>-6.0112476242764215E-5</v>
       </c>
       <c r="Y22">
-        <v>-7.2325217824494007E-5</v>
+        <v>-7.7881335210976539E-5</v>
       </c>
       <c r="Z22">
-        <v>-2.2595099702997387E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+        <v>-2.3295569225918007E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>5.0217507049188516E-2</v>
+      <c r="B23" s="4">
+        <v>4.8823515315336269E-2</v>
       </c>
       <c r="C23">
-        <v>-5.8835637197819033E-5</v>
+        <v>-8.3450547568137285E-5</v>
       </c>
       <c r="D23">
-        <v>-9.8350023974937465E-6</v>
+        <v>1.1819747227211031E-7</v>
       </c>
       <c r="E23">
-        <v>7.8636617600665505E-8</v>
+        <v>6.1889748098592801E-9</v>
       </c>
       <c r="F23">
-        <v>-1.1240361074189398E-4</v>
+        <v>-5.6590807353276706E-5</v>
       </c>
       <c r="G23">
-        <v>-1.8068470836493905E-4</v>
+        <v>-1.0623668856516832E-4</v>
       </c>
       <c r="H23">
-        <v>-2.1890109888177568E-4</v>
+        <v>-2.4681563780574469E-4</v>
       </c>
       <c r="I23">
-        <v>-1.2037656747638061E-4</v>
+        <v>-1.6460812009336961E-4</v>
       </c>
       <c r="J23">
-        <v>1.1963121869585053E-4</v>
+        <v>4.3853546299079272E-5</v>
       </c>
       <c r="K23">
-        <v>1.6032207294182512E-4</v>
+        <v>2.1280004747759187E-4</v>
       </c>
       <c r="L23">
-        <v>4.2437526013629993E-5</v>
+        <v>1.616869986423102E-4</v>
       </c>
       <c r="M23">
-        <v>3.0842843633890616E-4</v>
+        <v>1.0967496385986208E-4</v>
       </c>
       <c r="N23">
-        <v>-2.0196606888456476E-5</v>
+        <v>1.8691610155036021E-5</v>
       </c>
       <c r="O23">
-        <v>-1.905613930039201E-5</v>
+        <v>-2.1555144226910789E-5</v>
       </c>
       <c r="P23">
-        <v>-3.0365082240592627E-4</v>
+        <v>-3.4447398947885815E-4</v>
       </c>
       <c r="Q23">
-        <v>9.3712192308026965E-6</v>
+        <v>1.0321995552856399E-5</v>
       </c>
       <c r="R23">
-        <v>-5.8952861423007172E-5</v>
+        <v>-4.1602330535013977E-5</v>
       </c>
       <c r="S23">
-        <v>6.0182799847430268E-4</v>
+        <v>6.4374091776451365E-4</v>
       </c>
       <c r="T23">
-        <v>6.7610176876392342E-5</v>
+        <v>6.4917108052656343E-5</v>
       </c>
       <c r="U23">
-        <v>1.3807125314175514E-4</v>
+        <v>1.244599694511977E-4</v>
       </c>
       <c r="V23">
-        <v>4.5287683907909771E-5</v>
+        <v>3.6600324362965437E-5</v>
       </c>
       <c r="W23">
-        <v>-5.6697080579895623E-5</v>
+        <v>-6.0112476242764215E-5</v>
       </c>
       <c r="X23">
-        <v>2.9613060682158725E-3</v>
+        <v>3.2014505544329793E-3</v>
       </c>
       <c r="Y23">
-        <v>9.6570964798626971E-4</v>
+        <v>1.0824063447997937E-3</v>
       </c>
       <c r="Z23">
-        <v>1.0831602105337216E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+        <v>6.8954095945417354E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>0.10513940112018808</v>
+      <c r="B24" s="4">
+        <v>9.9024834513301782E-2</v>
       </c>
       <c r="C24">
-        <v>3.5978416771459615E-6</v>
+        <v>-1.4725226803484324E-5</v>
       </c>
       <c r="D24">
-        <v>-2.6324846101332376E-5</v>
+        <v>-1.9021527717843084E-5</v>
       </c>
       <c r="E24">
-        <v>2.5777763390541868E-7</v>
+        <v>1.9646370504546369E-7</v>
       </c>
       <c r="F24">
-        <v>-1.5224453645974856E-4</v>
+        <v>-1.1241830519004509E-4</v>
       </c>
       <c r="G24">
-        <v>-1.6231647281468052E-4</v>
+        <v>-9.3352127560775538E-5</v>
       </c>
       <c r="H24">
-        <v>-2.5462352912222503E-4</v>
+        <v>-1.8817940517742217E-4</v>
       </c>
       <c r="I24">
-        <v>-6.6812600021464938E-5</v>
+        <v>-1.0043302925012727E-4</v>
       </c>
       <c r="J24">
-        <v>-3.2141730267818888E-5</v>
+        <v>-3.5786165880733275E-5</v>
       </c>
       <c r="K24">
-        <v>1.4784706223999755E-4</v>
+        <v>2.2656752511030474E-4</v>
       </c>
       <c r="L24">
-        <v>-1.9444971587665165E-5</v>
+        <v>9.230862734686403E-5</v>
       </c>
       <c r="M24">
-        <v>2.4769213940981717E-4</v>
+        <v>1.0099150843679508E-4</v>
       </c>
       <c r="N24">
-        <v>-3.8006238025751712E-5</v>
+        <v>-3.3260905203872596E-5</v>
       </c>
       <c r="O24">
-        <v>-1.5718106710657605E-5</v>
+        <v>-1.4847611941664534E-5</v>
       </c>
       <c r="P24">
-        <v>-1.5790437371313501E-4</v>
+        <v>-1.8280395864963498E-4</v>
       </c>
       <c r="Q24">
-        <v>1.893840321743309E-5</v>
+        <v>2.1488158100372785E-5</v>
       </c>
       <c r="R24">
-        <v>-2.3538543810729091E-5</v>
+        <v>-2.5361190939785013E-5</v>
       </c>
       <c r="S24">
-        <v>4.4197634542186192E-4</v>
+        <v>5.224794375842559E-4</v>
       </c>
       <c r="T24">
-        <v>1.2067070644594471E-4</v>
+        <v>1.5713200353341573E-4</v>
       </c>
       <c r="U24">
-        <v>1.2402272091294563E-4</v>
+        <v>1.3683959288476709E-4</v>
       </c>
       <c r="V24">
-        <v>2.8119193444855952E-5</v>
+        <v>3.557656785319082E-5</v>
       </c>
       <c r="W24">
-        <v>-7.2325217824494007E-5</v>
+        <v>-7.7881335210976539E-5</v>
       </c>
       <c r="X24">
-        <v>9.6570964798626971E-4</v>
+        <v>1.0824063447997937E-3</v>
       </c>
       <c r="Y24">
-        <v>2.3350698982121721E-3</v>
+        <v>2.6882971796960285E-3</v>
       </c>
       <c r="Z24">
-        <v>1.6876441661395024E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+        <v>1.4773797322593036E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>-2.244592896222279</v>
+      <c r="B25" s="4">
+        <v>-2.1251319713839156</v>
       </c>
       <c r="C25">
-        <v>-5.2485834304010642E-4</v>
+        <v>-6.8989888867785395E-4</v>
       </c>
       <c r="D25">
-        <v>-9.9255790789224037E-4</v>
+        <v>-9.8155927425072165E-4</v>
       </c>
       <c r="E25">
-        <v>9.4047104296620219E-6</v>
+        <v>9.3112525936317709E-6</v>
       </c>
       <c r="F25">
-        <v>-1.4015828000096637E-3</v>
+        <v>-1.4581603785109318E-3</v>
       </c>
       <c r="G25">
-        <v>-1.853115590278939E-3</v>
+        <v>-1.8840732332717301E-3</v>
       </c>
       <c r="H25">
-        <v>-5.0089032851498962E-3</v>
+        <v>-5.7114267814077184E-3</v>
       </c>
       <c r="I25">
-        <v>-2.4471672998148926E-3</v>
+        <v>-2.7512083943151016E-3</v>
       </c>
       <c r="J25">
-        <v>-4.2974488749744329E-3</v>
+        <v>-4.8018768321458349E-3</v>
       </c>
       <c r="K25">
-        <v>-1.4221837326224452E-3</v>
+        <v>-1.5991749832346364E-3</v>
       </c>
       <c r="L25">
-        <v>-4.1420140892849365E-3</v>
+        <v>-3.4466007511044054E-3</v>
       </c>
       <c r="M25">
-        <v>-1.557069927762495E-3</v>
+        <v>-1.4944328657644388E-3</v>
       </c>
       <c r="N25">
-        <v>-1.6710349882502176E-3</v>
+        <v>-1.7531744006291749E-3</v>
       </c>
       <c r="O25">
-        <v>-3.4945308565194734E-4</v>
+        <v>-3.5499642869959807E-4</v>
       </c>
       <c r="P25">
-        <v>-6.1966612005403686E-4</v>
+        <v>-4.5683889058609526E-4</v>
       </c>
       <c r="Q25">
-        <v>1.8080812062743341E-4</v>
+        <v>1.897524794412818E-4</v>
       </c>
       <c r="R25">
-        <v>4.608102287538553E-4</v>
+        <v>5.8256299470891215E-4</v>
       </c>
       <c r="S25">
-        <v>5.480149162107713E-4</v>
+        <v>-1.0310956631641216E-4</v>
       </c>
       <c r="T25">
-        <v>8.2485067891505549E-6</v>
+        <v>-1.6148653392878949E-4</v>
       </c>
       <c r="U25">
-        <v>-4.6753352256642005E-4</v>
+        <v>-6.6121881200560271E-4</v>
       </c>
       <c r="V25">
-        <v>-8.7377729719525935E-4</v>
+        <v>-1.1242518191035976E-3</v>
       </c>
       <c r="W25">
-        <v>-2.2595099702997387E-4</v>
+        <v>-2.3295569225918007E-4</v>
       </c>
       <c r="X25">
-        <v>1.0831602105337216E-3</v>
+        <v>6.8954095945417354E-4</v>
       </c>
       <c r="Y25">
-        <v>1.6876441661395024E-3</v>
+        <v>1.4773797322593036E-3</v>
       </c>
       <c r="Z25">
-        <v>3.9103699568588723E-2</v>
+        <v>3.9561081774394033E-2</v>
       </c>
     </row>
   </sheetData>

--- a/input/reg_income.xlsx
+++ b/input/reg_income.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596872C3-AB1B-4EE0-87A7-85692A0165B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540C88CD-7E85-471E-A0BE-1350A34D4C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="14566" windowHeight="17363" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="14566" windowHeight="17363" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -632,7 +632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -694,49 +694,49 @@
         <v>15</v>
       </c>
       <c r="B2" s="4">
-        <v>-5.413895693906591E-2</v>
+        <v>-5.4195916477670178E-2</v>
       </c>
       <c r="C2">
-        <v>8.1691337540841791E-3</v>
+        <v>8.1691920548476547E-3</v>
       </c>
       <c r="D2">
-        <v>2.6213006599096027E-4</v>
+        <v>2.5927086468314185E-4</v>
       </c>
       <c r="E2">
-        <v>-6.8804177687770497E-6</v>
+        <v>-6.8166325106816638E-6</v>
       </c>
       <c r="F2">
-        <v>4.0176904822628501E-4</v>
+        <v>4.0525755546789608E-4</v>
       </c>
       <c r="G2">
-        <v>2.3081170605387046E-4</v>
+        <v>2.3087837583198617E-4</v>
       </c>
       <c r="H2">
-        <v>-6.5221625064260103E-4</v>
+        <v>-6.5016898835071335E-4</v>
       </c>
       <c r="I2">
-        <v>4.9473571393106883E-4</v>
+        <v>4.9805907074982605E-4</v>
       </c>
       <c r="J2">
-        <v>1.2851502816236919E-4</v>
+        <v>1.3214142799248185E-4</v>
       </c>
       <c r="K2">
-        <v>-5.7060045993730677E-4</v>
+        <v>-5.676904090733553E-4</v>
       </c>
       <c r="L2">
-        <v>-4.5165165787903956E-4</v>
+        <v>-4.485077544803776E-4</v>
       </c>
       <c r="M2">
-        <v>2.7374125245175544E-5</v>
+        <v>2.7204180497073091E-5</v>
       </c>
       <c r="N2">
-        <v>1.8853391401716692E-5</v>
+        <v>2.0443495185602789E-5</v>
       </c>
       <c r="O2">
-        <v>4.0259349806614966E-4</v>
+        <v>4.0401144563914117E-4</v>
       </c>
       <c r="P2">
-        <v>-8.6216099729082406E-3</v>
+        <v>-8.6062735248320175E-3</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
@@ -744,49 +744,49 @@
         <v>16</v>
       </c>
       <c r="B3" s="4">
-        <v>-1.2936649419110358</v>
+        <v>-1.2930789870906354</v>
       </c>
       <c r="C3">
-        <v>2.6213006599096027E-4</v>
+        <v>2.5927086468314185E-4</v>
       </c>
       <c r="D3">
-        <v>0.13555648321942909</v>
+        <v>0.13557900273199791</v>
       </c>
       <c r="E3">
-        <v>-3.1922993437823828E-3</v>
+        <v>-3.1928022328535461E-3</v>
       </c>
       <c r="F3">
-        <v>-1.7370213117880728E-3</v>
+        <v>-1.7720913230165336E-3</v>
       </c>
       <c r="G3">
-        <v>8.2522918166490385E-4</v>
+        <v>8.2483561493512311E-4</v>
       </c>
       <c r="H3">
-        <v>-3.0723161283917833E-2</v>
+        <v>-3.0735952235135144E-2</v>
       </c>
       <c r="I3">
-        <v>-8.6578429680855828E-4</v>
+        <v>-8.8347110041592236E-4</v>
       </c>
       <c r="J3">
-        <v>-4.217859299998461E-3</v>
+        <v>-4.2364121916049768E-3</v>
       </c>
       <c r="K3">
-        <v>-1.23431519831569E-3</v>
+        <v>-1.2458261744344029E-3</v>
       </c>
       <c r="L3">
-        <v>-4.8875640425388688E-3</v>
+        <v>-4.903096949434374E-3</v>
       </c>
       <c r="M3">
-        <v>1.9797512805043091E-4</v>
+        <v>1.9922906335933036E-4</v>
       </c>
       <c r="N3">
-        <v>-1.3165271134932821E-3</v>
+        <v>-1.3302070002176869E-3</v>
       </c>
       <c r="O3">
-        <v>3.8480890978465077E-5</v>
+        <v>2.7847462886532171E-5</v>
       </c>
       <c r="P3">
-        <v>-1.4115257751338999</v>
+        <v>-1.4116192330683661</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
@@ -794,49 +794,49 @@
         <v>17</v>
       </c>
       <c r="B4" s="4">
-        <v>2.8650192557363622E-2</v>
+        <v>2.8636951172297961E-2</v>
       </c>
       <c r="C4">
-        <v>-6.8804177687770497E-6</v>
+        <v>-6.8166325106816638E-6</v>
       </c>
       <c r="D4">
-        <v>-3.1922993437823828E-3</v>
+        <v>-3.1928022328535461E-3</v>
       </c>
       <c r="E4">
-        <v>7.5493058361212039E-5</v>
+        <v>7.5504267241909023E-5</v>
       </c>
       <c r="F4">
-        <v>3.6322607004456772E-5</v>
+        <v>3.7114904614166545E-5</v>
       </c>
       <c r="G4">
-        <v>-2.2897735138223131E-5</v>
+        <v>-2.2888563418816364E-5</v>
       </c>
       <c r="H4">
-        <v>6.7700932446665418E-4</v>
+        <v>6.7729699830049173E-4</v>
       </c>
       <c r="I4">
-        <v>3.8586644433378364E-5</v>
+        <v>3.8972871924849994E-5</v>
       </c>
       <c r="J4">
-        <v>1.0379365267325965E-4</v>
+        <v>1.0419969467440927E-4</v>
       </c>
       <c r="K4">
-        <v>4.0030401470860389E-5</v>
+        <v>4.0277390738826082E-5</v>
       </c>
       <c r="L4">
-        <v>1.2979932132004804E-4</v>
+        <v>1.3013587127392033E-4</v>
       </c>
       <c r="M4">
-        <v>-4.4963598280124304E-6</v>
+        <v>-4.5241372333371067E-6</v>
       </c>
       <c r="N4">
-        <v>3.6060589767692233E-5</v>
+        <v>3.6366219018603083E-5</v>
       </c>
       <c r="O4">
-        <v>-1.2300119641810159E-6</v>
+        <v>-9.9358884120270829E-7</v>
       </c>
       <c r="P4">
-        <v>3.3125192001421555E-2</v>
+        <v>3.3127252719317851E-2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
@@ -844,49 +844,49 @@
         <v>18</v>
       </c>
       <c r="B5" s="4">
-        <v>-0.1972035123915013</v>
+        <v>-0.1973557992456175</v>
       </c>
       <c r="C5">
-        <v>4.0176904822628501E-4</v>
+        <v>4.0525755546789608E-4</v>
       </c>
       <c r="D5">
-        <v>-1.7370213117880728E-3</v>
+        <v>-1.7720913230165336E-3</v>
       </c>
       <c r="E5">
-        <v>3.6322607004456772E-5</v>
+        <v>3.7114904614166545E-5</v>
       </c>
       <c r="F5">
-        <v>4.7328737734591963E-3</v>
+        <v>4.7445377445975113E-3</v>
       </c>
       <c r="G5">
-        <v>-8.0526690327414259E-5</v>
+        <v>-7.9726076344024542E-5</v>
       </c>
       <c r="H5">
-        <v>2.8854419732986317E-3</v>
+        <v>2.9078458026708456E-3</v>
       </c>
       <c r="I5">
-        <v>6.5532043387448585E-4</v>
+        <v>6.7660067941723977E-4</v>
       </c>
       <c r="J5">
-        <v>9.4645318271271203E-4</v>
+        <v>9.6815510454524838E-4</v>
       </c>
       <c r="K5">
-        <v>-3.3092924203557354E-4</v>
+        <v>-3.1605842463547801E-4</v>
       </c>
       <c r="L5">
-        <v>-9.6233020541244363E-5</v>
+        <v>-7.502633651325244E-5</v>
       </c>
       <c r="M5">
-        <v>6.3641480683066887E-5</v>
+        <v>6.1604915765201397E-5</v>
       </c>
       <c r="N5">
-        <v>1.0910448960885681E-3</v>
+        <v>1.104472807160182E-3</v>
       </c>
       <c r="O5">
-        <v>-8.3589024462494763E-5</v>
+        <v>-6.8895104880995622E-5</v>
       </c>
       <c r="P5">
-        <v>-2.6172734531353711E-3</v>
+        <v>-2.2807651744780142E-3</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
@@ -894,49 +894,49 @@
         <v>19</v>
       </c>
       <c r="B6" s="4">
-        <v>0.14158193451335491</v>
+        <v>0.14155425159903157</v>
       </c>
       <c r="C6">
-        <v>2.3081170605387046E-4</v>
+        <v>2.3087837583198617E-4</v>
       </c>
       <c r="D6">
-        <v>8.2522918166490385E-4</v>
+        <v>8.2483561493512311E-4</v>
       </c>
       <c r="E6">
-        <v>-2.2897735138223131E-5</v>
+        <v>-2.2888563418816364E-5</v>
       </c>
       <c r="F6">
-        <v>-8.0526690327414259E-5</v>
+        <v>-7.9726076344024542E-5</v>
       </c>
       <c r="G6">
-        <v>1.8566575933999412E-3</v>
+        <v>1.8565272735226923E-3</v>
       </c>
       <c r="H6">
-        <v>-5.4758484982640396E-4</v>
+        <v>-5.4713420063030524E-4</v>
       </c>
       <c r="I6">
-        <v>-1.5816068078008342E-4</v>
+        <v>-1.5769035154343698E-4</v>
       </c>
       <c r="J6">
-        <v>-1.0191153143705211E-3</v>
+        <v>-1.0186300341650158E-3</v>
       </c>
       <c r="K6">
-        <v>-3.9545589585004818E-4</v>
+        <v>-3.9520583004779778E-4</v>
       </c>
       <c r="L6">
-        <v>-3.8143527564511769E-4</v>
+        <v>-3.8110051216101964E-4</v>
       </c>
       <c r="M6">
-        <v>-4.212806068279039E-6</v>
+        <v>-4.208581769266724E-6</v>
       </c>
       <c r="N6">
-        <v>-4.1987315502793957E-4</v>
+        <v>-4.1964026666554098E-4</v>
       </c>
       <c r="O6">
-        <v>6.328301858630897E-4</v>
+        <v>6.3286787272887491E-4</v>
       </c>
       <c r="P6">
-        <v>-6.8885262718541874E-3</v>
+        <v>-6.8883707396388914E-3</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
@@ -944,49 +944,49 @@
         <v>20</v>
       </c>
       <c r="B7" s="4">
-        <v>6.1104128049513715</v>
+        <v>6.1101146020187818</v>
       </c>
       <c r="C7">
-        <v>-6.5221625064260103E-4</v>
+        <v>-6.5016898835071335E-4</v>
       </c>
       <c r="D7">
-        <v>-3.0723161283917833E-2</v>
+        <v>-3.0735952235135144E-2</v>
       </c>
       <c r="E7">
-        <v>6.7700932446665418E-4</v>
+        <v>6.7729699830049173E-4</v>
       </c>
       <c r="F7">
-        <v>2.8854419732986317E-3</v>
+        <v>2.9078458026708456E-3</v>
       </c>
       <c r="G7">
-        <v>-5.4758484982640396E-4</v>
+        <v>-5.4713420063030524E-4</v>
       </c>
       <c r="H7">
-        <v>0.22747116279182461</v>
+        <v>0.2274621502916479</v>
       </c>
       <c r="I7">
-        <v>-2.0457891735361916E-3</v>
+        <v>-2.0335716009964241E-3</v>
       </c>
       <c r="J7">
-        <v>1.0933157205874476E-2</v>
+        <v>1.0946242255156058E-2</v>
       </c>
       <c r="K7">
-        <v>-4.1838092513528007E-3</v>
+        <v>-4.1757733507196944E-3</v>
       </c>
       <c r="L7">
-        <v>-1.9497506540785334E-3</v>
+        <v>-1.9380397356296363E-3</v>
       </c>
       <c r="M7">
-        <v>-1.3617399589979044E-4</v>
+        <v>-1.3703878397937222E-4</v>
       </c>
       <c r="N7">
-        <v>-1.1072709503141126E-2</v>
+        <v>-1.1064409362404728E-2</v>
       </c>
       <c r="O7">
-        <v>3.0992585275897017E-3</v>
+        <v>3.1059247500814929E-3</v>
       </c>
       <c r="P7">
-        <v>0.32300867758518581</v>
+        <v>0.32304954040186973</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
@@ -994,49 +994,49 @@
         <v>35</v>
       </c>
       <c r="B8" s="4">
-        <v>0.51882021565006853</v>
+        <v>0.51843175874412695</v>
       </c>
       <c r="C8">
-        <v>4.9473571393106883E-4</v>
+        <v>4.9805907074982605E-4</v>
       </c>
       <c r="D8">
-        <v>-8.6578429680855828E-4</v>
+        <v>-8.8347110041592236E-4</v>
       </c>
       <c r="E8">
-        <v>3.8586644433378364E-5</v>
+        <v>3.8972871924849994E-5</v>
       </c>
       <c r="F8">
-        <v>6.5532043387448585E-4</v>
+        <v>6.7660067941723977E-4</v>
       </c>
       <c r="G8">
-        <v>-1.5816068078008342E-4</v>
+        <v>-1.5769035154343698E-4</v>
       </c>
       <c r="H8">
-        <v>-2.0457891735361916E-3</v>
+        <v>-2.0335716009964241E-3</v>
       </c>
       <c r="I8">
-        <v>3.0135640080364155E-2</v>
+        <v>3.0137745580250588E-2</v>
       </c>
       <c r="J8">
-        <v>1.628971882367283E-2</v>
+        <v>1.6292725710756163E-2</v>
       </c>
       <c r="K8">
-        <v>1.6402823538071636E-2</v>
+        <v>1.6401852100039596E-2</v>
       </c>
       <c r="L8">
-        <v>1.643275250288153E-2</v>
+        <v>1.6433576966933181E-2</v>
       </c>
       <c r="M8">
-        <v>-8.4741042674420144E-5</v>
+        <v>-8.5512421666685798E-5</v>
       </c>
       <c r="N8">
-        <v>9.1069784185505813E-4</v>
+        <v>9.1908488846958493E-4</v>
       </c>
       <c r="O8">
-        <v>6.5386378853884639E-4</v>
+        <v>6.5999672950090536E-4</v>
       </c>
       <c r="P8">
-        <v>-1.6367951086714266E-2</v>
+        <v>-1.6257081916556806E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
@@ -1044,49 +1044,49 @@
         <v>36</v>
       </c>
       <c r="B9" s="4">
-        <v>0.55707431687834219</v>
+        <v>0.55667587218144632</v>
       </c>
       <c r="C9">
-        <v>1.2851502816236919E-4</v>
+        <v>1.3214142799248185E-4</v>
       </c>
       <c r="D9">
-        <v>-4.217859299998461E-3</v>
+        <v>-4.2364121916049768E-3</v>
       </c>
       <c r="E9">
-        <v>1.0379365267325965E-4</v>
+        <v>1.0419969467440927E-4</v>
       </c>
       <c r="F9">
-        <v>9.4645318271271203E-4</v>
+        <v>9.6815510454524838E-4</v>
       </c>
       <c r="G9">
-        <v>-1.0191153143705211E-3</v>
+        <v>-1.0186300341650158E-3</v>
       </c>
       <c r="H9">
-        <v>1.0933157205874476E-2</v>
+        <v>1.0946242255156058E-2</v>
       </c>
       <c r="I9">
-        <v>1.628971882367283E-2</v>
+        <v>1.6292725710756163E-2</v>
       </c>
       <c r="J9">
-        <v>3.9369552014537824E-2</v>
+        <v>3.9372713955532261E-2</v>
       </c>
       <c r="K9">
-        <v>1.620209941862339E-2</v>
+        <v>1.62018471024724E-2</v>
       </c>
       <c r="L9">
-        <v>1.6279519735759657E-2</v>
+        <v>1.6281201945770801E-2</v>
       </c>
       <c r="M9">
-        <v>1.9171109283045351E-4</v>
+        <v>1.9079129883465157E-4</v>
       </c>
       <c r="N9">
-        <v>6.527126722013013E-5</v>
+        <v>7.4690522880243963E-5</v>
       </c>
       <c r="O9">
-        <v>-5.1078407321390306E-4</v>
+        <v>-5.0335122456411294E-4</v>
       </c>
       <c r="P9">
-        <v>1.8396761992909651E-2</v>
+        <v>1.8516219390862364E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
@@ -1094,49 +1094,49 @@
         <v>37</v>
       </c>
       <c r="B10" s="4">
-        <v>0.34117299244793353</v>
+        <v>0.34094675805504671</v>
       </c>
       <c r="C10">
-        <v>-5.7060045993730677E-4</v>
+        <v>-5.676904090733553E-4</v>
       </c>
       <c r="D10">
-        <v>-1.23431519831569E-3</v>
+        <v>-1.2458261744344029E-3</v>
       </c>
       <c r="E10">
-        <v>4.0030401470860389E-5</v>
+        <v>4.0277390738826082E-5</v>
       </c>
       <c r="F10">
-        <v>-3.3092924203557354E-4</v>
+        <v>-3.1605842463547801E-4</v>
       </c>
       <c r="G10">
-        <v>-3.9545589585004818E-4</v>
+        <v>-3.9520583004779778E-4</v>
       </c>
       <c r="H10">
-        <v>-4.1838092513528007E-3</v>
+        <v>-4.1757733507196944E-3</v>
       </c>
       <c r="I10">
-        <v>1.6402823538071636E-2</v>
+        <v>1.6401852100039596E-2</v>
       </c>
       <c r="J10">
-        <v>1.620209941862339E-2</v>
+        <v>1.62018471024724E-2</v>
       </c>
       <c r="K10">
-        <v>2.9317320640815641E-2</v>
+        <v>2.9315101734371907E-2</v>
       </c>
       <c r="L10">
-        <v>1.6531656549833653E-2</v>
+        <v>1.6529826786783143E-2</v>
       </c>
       <c r="M10">
-        <v>-1.4004834829257212E-4</v>
+        <v>-1.4042547823460343E-4</v>
       </c>
       <c r="N10">
-        <v>1.0557730654571597E-3</v>
+        <v>1.0601706424469939E-3</v>
       </c>
       <c r="O10">
-        <v>2.0357132843087638E-3</v>
+        <v>2.0385673508418194E-3</v>
       </c>
       <c r="P10">
-        <v>-3.8010171487005166E-3</v>
+        <v>-3.7315949711386855E-3</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
@@ -1144,49 +1144,49 @@
         <v>38</v>
       </c>
       <c r="B11" s="4">
-        <v>0.45454334008868164</v>
+        <v>0.45413664592627845</v>
       </c>
       <c r="C11">
-        <v>-4.5165165787903956E-4</v>
+        <v>-4.485077544803776E-4</v>
       </c>
       <c r="D11">
-        <v>-4.8875640425388688E-3</v>
+        <v>-4.903096949434374E-3</v>
       </c>
       <c r="E11">
-        <v>1.2979932132004804E-4</v>
+        <v>1.3013587127392033E-4</v>
       </c>
       <c r="F11">
-        <v>-9.6233020541244363E-5</v>
+        <v>-7.502633651325244E-5</v>
       </c>
       <c r="G11">
-        <v>-3.8143527564511769E-4</v>
+        <v>-3.8110051216101964E-4</v>
       </c>
       <c r="H11">
-        <v>-1.9497506540785334E-3</v>
+        <v>-1.9380397356296363E-3</v>
       </c>
       <c r="I11">
-        <v>1.643275250288153E-2</v>
+        <v>1.6433576966933181E-2</v>
       </c>
       <c r="J11">
-        <v>1.6279519735759657E-2</v>
+        <v>1.6281201945770801E-2</v>
       </c>
       <c r="K11">
-        <v>1.6531656549833653E-2</v>
+        <v>1.6529826786783143E-2</v>
       </c>
       <c r="L11">
-        <v>2.0903335527483666E-2</v>
+        <v>2.0902631506899819E-2</v>
       </c>
       <c r="M11">
-        <v>-6.8244815206909931E-5</v>
+        <v>-6.8872418659500094E-5</v>
       </c>
       <c r="N11">
-        <v>3.1926393069209297E-4</v>
+        <v>3.2688443227641355E-4</v>
       </c>
       <c r="O11">
-        <v>1.7905890044448308E-3</v>
+        <v>1.795632266911477E-3</v>
       </c>
       <c r="P11">
-        <v>3.0671164744450523E-2</v>
+        <v>3.0758647960639689E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
@@ -1194,49 +1194,49 @@
         <v>21</v>
       </c>
       <c r="B12" s="4">
-        <v>-1.3289487943530907E-2</v>
+        <v>-1.3248714263209772E-2</v>
       </c>
       <c r="C12">
-        <v>2.7374125245175544E-5</v>
+        <v>2.7204180497073091E-5</v>
       </c>
       <c r="D12">
-        <v>1.9797512805043091E-4</v>
+        <v>1.9922906335933036E-4</v>
       </c>
       <c r="E12">
-        <v>-4.4963598280124304E-6</v>
+        <v>-4.5241372333371067E-6</v>
       </c>
       <c r="F12">
-        <v>6.3641480683066887E-5</v>
+        <v>6.1604915765201397E-5</v>
       </c>
       <c r="G12">
-        <v>-4.212806068279039E-6</v>
+        <v>-4.208581769266724E-6</v>
       </c>
       <c r="H12">
-        <v>-1.3617399589979044E-4</v>
+        <v>-1.3703878397937222E-4</v>
       </c>
       <c r="I12">
-        <v>-8.4741042674420144E-5</v>
+        <v>-8.5512421666685798E-5</v>
       </c>
       <c r="J12">
-        <v>1.9171109283045351E-4</v>
+        <v>1.9079129883465157E-4</v>
       </c>
       <c r="K12">
-        <v>-1.4004834829257212E-4</v>
+        <v>-1.4042547823460343E-4</v>
       </c>
       <c r="L12">
-        <v>-6.8244815206909931E-5</v>
+        <v>-6.8872418659500094E-5</v>
       </c>
       <c r="M12">
-        <v>1.7085968602718212E-4</v>
+        <v>1.7085367722927027E-4</v>
       </c>
       <c r="N12">
-        <v>-7.4675752310208662E-4</v>
+        <v>-7.4707731942032772E-4</v>
       </c>
       <c r="O12">
-        <v>-8.3519868270770514E-4</v>
+        <v>-8.3525857547424071E-4</v>
       </c>
       <c r="P12">
-        <v>-5.0028773575633307E-3</v>
+        <v>-5.0068612123493105E-3</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
@@ -1244,49 +1244,49 @@
         <v>22</v>
       </c>
       <c r="B13" s="4">
-        <v>-0.57606985945236311</v>
+        <v>-0.57630880707849841</v>
       </c>
       <c r="C13">
-        <v>1.8853391401716692E-5</v>
+        <v>2.0443495185602789E-5</v>
       </c>
       <c r="D13">
-        <v>-1.3165271134932821E-3</v>
+        <v>-1.3302070002176869E-3</v>
       </c>
       <c r="E13">
-        <v>3.6060589767692233E-5</v>
+        <v>3.6366219018603083E-5</v>
       </c>
       <c r="F13">
-        <v>1.0910448960885681E-3</v>
+        <v>1.104472807160182E-3</v>
       </c>
       <c r="G13">
-        <v>-4.1987315502793957E-4</v>
+        <v>-4.1964026666554098E-4</v>
       </c>
       <c r="H13">
-        <v>-1.1072709503141126E-2</v>
+        <v>-1.1064409362404728E-2</v>
       </c>
       <c r="I13">
-        <v>9.1069784185505813E-4</v>
+        <v>9.1908488846958493E-4</v>
       </c>
       <c r="J13">
-        <v>6.527126722013013E-5</v>
+        <v>7.4690522880243963E-5</v>
       </c>
       <c r="K13">
-        <v>1.0557730654571597E-3</v>
+        <v>1.0601706424469939E-3</v>
       </c>
       <c r="L13">
-        <v>3.1926393069209297E-4</v>
+        <v>3.2688443227641355E-4</v>
       </c>
       <c r="M13">
-        <v>-7.4675752310208662E-4</v>
+        <v>-7.4707731942032772E-4</v>
       </c>
       <c r="N13">
-        <v>4.2561765798723929E-2</v>
+        <v>4.2563430290085205E-2</v>
       </c>
       <c r="O13">
-        <v>4.4651345189340224E-3</v>
+        <v>4.4683339396158709E-3</v>
       </c>
       <c r="P13">
-        <v>1.6188366525265563E-2</v>
+        <v>1.6275145995177286E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
@@ -1294,49 +1294,49 @@
         <v>23</v>
       </c>
       <c r="B14" s="4">
-        <v>-0.41564251057217538</v>
+        <v>-0.41593435651321148</v>
       </c>
       <c r="C14">
-        <v>4.0259349806614966E-4</v>
+        <v>4.0401144563914117E-4</v>
       </c>
       <c r="D14">
-        <v>3.8480890978465077E-5</v>
+        <v>2.7847462886532171E-5</v>
       </c>
       <c r="E14">
-        <v>-1.2300119641810159E-6</v>
+        <v>-9.9358884120270829E-7</v>
       </c>
       <c r="F14">
-        <v>-8.3589024462494763E-5</v>
+        <v>-6.8895104880995622E-5</v>
       </c>
       <c r="G14">
-        <v>6.328301858630897E-4</v>
+        <v>6.3286787272887491E-4</v>
       </c>
       <c r="H14">
-        <v>3.0992585275897017E-3</v>
+        <v>3.1059247500814929E-3</v>
       </c>
       <c r="I14">
-        <v>6.5386378853884639E-4</v>
+        <v>6.5999672950090536E-4</v>
       </c>
       <c r="J14">
-        <v>-5.1078407321390306E-4</v>
+        <v>-5.0335122456411294E-4</v>
       </c>
       <c r="K14">
-        <v>2.0357132843087638E-3</v>
+        <v>2.0385673508418194E-3</v>
       </c>
       <c r="L14">
-        <v>1.7905890044448308E-3</v>
+        <v>1.795632266911477E-3</v>
       </c>
       <c r="M14">
-        <v>-8.3519868270770514E-4</v>
+        <v>-8.3525857547424071E-4</v>
       </c>
       <c r="N14">
-        <v>4.4651345189340224E-3</v>
+        <v>4.4683339396158709E-3</v>
       </c>
       <c r="O14">
-        <v>4.435569031589532E-2</v>
+        <v>4.4355597936093172E-2</v>
       </c>
       <c r="P14">
-        <v>9.2867223847657894E-3</v>
+        <v>9.3334734430350012E-3</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
@@ -1344,49 +1344,49 @@
         <v>24</v>
       </c>
       <c r="B15" s="4">
-        <v>12.770848868523037</v>
+        <v>12.764979619392339</v>
       </c>
       <c r="C15">
-        <v>-8.6216099729082406E-3</v>
+        <v>-8.6062735248320175E-3</v>
       </c>
       <c r="D15">
-        <v>-1.4115257751338999</v>
+        <v>-1.4116192330683661</v>
       </c>
       <c r="E15">
-        <v>3.3125192001421555E-2</v>
+        <v>3.3127252719317851E-2</v>
       </c>
       <c r="F15">
-        <v>-2.6172734531353711E-3</v>
+        <v>-2.2807651744780142E-3</v>
       </c>
       <c r="G15">
-        <v>-6.8885262718541874E-3</v>
+        <v>-6.8883707396388914E-3</v>
       </c>
       <c r="H15">
-        <v>0.32300867758518581</v>
+        <v>0.32304954040186973</v>
       </c>
       <c r="I15">
-        <v>-1.6367951086714266E-2</v>
+        <v>-1.6257081916556806E-2</v>
       </c>
       <c r="J15">
-        <v>1.8396761992909651E-2</v>
+        <v>1.8516219390862364E-2</v>
       </c>
       <c r="K15">
-        <v>-3.8010171487005166E-3</v>
+        <v>-3.7315949711386855E-3</v>
       </c>
       <c r="L15">
-        <v>3.0671164744450523E-2</v>
+        <v>3.0758647960639689E-2</v>
       </c>
       <c r="M15">
-        <v>-5.0028773575633307E-3</v>
+        <v>-5.0068612123493105E-3</v>
       </c>
       <c r="N15">
-        <v>1.6188366525265563E-2</v>
+        <v>1.6275145995177286E-2</v>
       </c>
       <c r="O15">
-        <v>9.2867223847657894E-3</v>
+        <v>9.3334734430350012E-3</v>
       </c>
       <c r="P15">
-        <v>14.904839738925935</v>
+        <v>14.904352184626887</v>
       </c>
     </row>
   </sheetData>
@@ -1490,79 +1490,79 @@
         <v>15</v>
       </c>
       <c r="B2" s="4">
-        <v>-5.618177630659682E-2</v>
+        <v>-6.0311047926147936E-2</v>
       </c>
       <c r="C2">
-        <v>1.3954087584672685E-3</v>
+        <v>1.3343070177331555E-3</v>
       </c>
       <c r="D2">
-        <v>1.737257619528956E-5</v>
+        <v>1.2570491828734379E-5</v>
       </c>
       <c r="E2">
-        <v>-1.1616774394067268E-7</v>
+        <v>-7.564428022270162E-8</v>
       </c>
       <c r="F2">
-        <v>-2.9276437534348903E-4</v>
+        <v>-3.2042047436069539E-4</v>
       </c>
       <c r="G2">
-        <v>-2.5680184037327685E-4</v>
+        <v>-3.2700163107205772E-4</v>
       </c>
       <c r="H2">
-        <v>-1.459952872540863E-4</v>
+        <v>-1.4602621609638067E-4</v>
       </c>
       <c r="I2">
-        <v>1.0335506413627522E-4</v>
+        <v>1.1539980195091426E-4</v>
       </c>
       <c r="J2">
-        <v>1.2088400881003133E-5</v>
+        <v>1.887448996251969E-5</v>
       </c>
       <c r="K2">
-        <v>1.6019303252251898E-4</v>
+        <v>1.3590582542531791E-4</v>
       </c>
       <c r="L2">
-        <v>4.658819835013451E-5</v>
+        <v>3.6241522555972974E-5</v>
       </c>
       <c r="M2">
-        <v>6.0273552356143137E-4</v>
+        <v>5.767836060510637E-4</v>
       </c>
       <c r="N2">
-        <v>3.9930419103059351E-5</v>
+        <v>2.8338898545950185E-5</v>
       </c>
       <c r="O2">
-        <v>-1.458698715135819E-5</v>
+        <v>-1.6106877841293591E-5</v>
       </c>
       <c r="P2">
-        <v>2.6114299376365103E-6</v>
+        <v>-6.1616736195303518E-6</v>
       </c>
       <c r="Q2">
-        <v>-3.0296709751113915E-5</v>
+        <v>-2.974110074611576E-5</v>
       </c>
       <c r="R2">
-        <v>1.2494138010618404E-4</v>
+        <v>1.1317409883911767E-4</v>
       </c>
       <c r="S2">
-        <v>-7.2229306322428458E-5</v>
+        <v>-3.1930597001795954E-5</v>
       </c>
       <c r="T2">
-        <v>-1.3810208354205029E-5</v>
+        <v>1.5787656139973656E-5</v>
       </c>
       <c r="U2">
-        <v>-8.3624974095545732E-5</v>
+        <v>-4.303234360877463E-5</v>
       </c>
       <c r="V2">
-        <v>-9.240927332737167E-5</v>
+        <v>-4.03622165785195E-5</v>
       </c>
       <c r="W2">
-        <v>-2.4795870408941207E-7</v>
+        <v>-1.8489065971462965E-6</v>
       </c>
       <c r="X2">
-        <v>6.7433969298730028E-5</v>
+        <v>3.8758169007535272E-5</v>
       </c>
       <c r="Y2">
-        <v>2.0718405999354389E-5</v>
+        <v>1.8506060607368518E-5</v>
       </c>
       <c r="Z2">
-        <v>-9.5637322977209192E-4</v>
+        <v>-7.3127166886379001E-4</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.45">
@@ -1570,79 +1570,79 @@
         <v>16</v>
       </c>
       <c r="B3" s="4">
-        <v>-4.1294214106139034E-3</v>
+        <v>-6.6407839768712652E-3</v>
       </c>
       <c r="C3">
-        <v>1.737257619528956E-5</v>
+        <v>1.2570491828734379E-5</v>
       </c>
       <c r="D3">
-        <v>6.8523283012074938E-5</v>
+        <v>6.4945394696462656E-5</v>
       </c>
       <c r="E3">
-        <v>-6.6959949856393759E-7</v>
+        <v>-6.400972096180439E-7</v>
       </c>
       <c r="F3">
-        <v>-4.6589630640787893E-5</v>
+        <v>-3.0026751803752011E-5</v>
       </c>
       <c r="G3">
-        <v>1.4119724126857941E-5</v>
+        <v>3.2085328801988947E-5</v>
       </c>
       <c r="H3">
-        <v>2.68867756684303E-4</v>
+        <v>2.3982663141522257E-4</v>
       </c>
       <c r="I3">
-        <v>3.2338033705701913E-5</v>
+        <v>2.824905813684158E-5</v>
       </c>
       <c r="J3">
-        <v>1.2867297143100425E-4</v>
+        <v>1.2900836432948041E-4</v>
       </c>
       <c r="K3">
-        <v>5.8038038890257065E-5</v>
+        <v>4.8081521995091279E-5</v>
       </c>
       <c r="L3">
-        <v>1.4442001206125697E-4</v>
+        <v>1.4151240801527263E-4</v>
       </c>
       <c r="M3">
-        <v>1.2971148499764645E-5</v>
+        <v>3.3295278434521559E-6</v>
       </c>
       <c r="N3">
-        <v>1.9421016589697866E-5</v>
+        <v>2.0583332736663366E-5</v>
       </c>
       <c r="O3">
-        <v>4.9212467047515194E-6</v>
+        <v>4.7850681222955064E-6</v>
       </c>
       <c r="P3">
-        <v>1.2401777296190946E-5</v>
+        <v>1.7990167347663785E-5</v>
       </c>
       <c r="Q3">
-        <v>-1.1615012699619212E-5</v>
+        <v>-1.0838488077256601E-5</v>
       </c>
       <c r="R3">
-        <v>-4.3814862827839867E-5</v>
+        <v>-4.3551902623353085E-5</v>
       </c>
       <c r="S3">
-        <v>2.5643541923509755E-5</v>
+        <v>1.9280583675494105E-5</v>
       </c>
       <c r="T3">
-        <v>1.7837015331143594E-5</v>
+        <v>1.2070308675688482E-5</v>
       </c>
       <c r="U3">
-        <v>1.7752048625917422E-5</v>
+        <v>9.1289300966917878E-6</v>
       </c>
       <c r="V3">
-        <v>2.0738018459584302E-5</v>
+        <v>1.5433213691023887E-5</v>
       </c>
       <c r="W3">
-        <v>-3.8754436014623456E-6</v>
+        <v>-3.3377470949820688E-6</v>
       </c>
       <c r="X3">
-        <v>5.3781555794152596E-5</v>
+        <v>4.7456284863945449E-5</v>
       </c>
       <c r="Y3">
-        <v>2.0796034719010987E-5</v>
+        <v>1.7790854707234191E-5</v>
       </c>
       <c r="Z3">
-        <v>-1.6542415225429112E-3</v>
+        <v>-1.5703476312509779E-3</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.45">
@@ -1650,79 +1650,79 @@
         <v>17</v>
       </c>
       <c r="B4" s="4">
-        <v>-3.2432626748519507E-6</v>
+        <v>1.756968971653699E-5</v>
       </c>
       <c r="C4">
-        <v>-1.1616774394067268E-7</v>
+        <v>-7.564428022270162E-8</v>
       </c>
       <c r="D4">
-        <v>-6.6959949856393759E-7</v>
+        <v>-6.400972096180439E-7</v>
       </c>
       <c r="E4">
-        <v>6.8645270197397541E-9</v>
+        <v>6.6066756638699412E-9</v>
       </c>
       <c r="F4">
-        <v>4.1294478458150012E-7</v>
+        <v>2.6422719286221168E-7</v>
       </c>
       <c r="G4">
-        <v>-3.6508210106764774E-7</v>
+        <v>-5.0903460306619199E-7</v>
       </c>
       <c r="H4">
-        <v>-2.1858629172693672E-6</v>
+        <v>-1.9895927450758859E-6</v>
       </c>
       <c r="I4">
-        <v>-3.180098382858305E-7</v>
+        <v>-3.040476631851745E-7</v>
       </c>
       <c r="J4">
-        <v>-1.8736599248275938E-6</v>
+        <v>-1.8824850879085174E-6</v>
       </c>
       <c r="K4">
-        <v>-2.5048641241198732E-7</v>
+        <v>-1.8396240802711042E-7</v>
       </c>
       <c r="L4">
-        <v>-1.2992389818355303E-6</v>
+        <v>-1.2642399934480773E-6</v>
       </c>
       <c r="M4">
-        <v>1.5273418853740785E-7</v>
+        <v>2.2305133179276629E-7</v>
       </c>
       <c r="N4">
-        <v>-4.1621415388086167E-8</v>
+        <v>-7.1265447348865531E-8</v>
       </c>
       <c r="O4">
-        <v>-3.8127756271604699E-8</v>
+        <v>-3.7662758621914361E-8</v>
       </c>
       <c r="P4">
-        <v>-1.8870018343804978E-7</v>
+        <v>-2.3914809880062036E-7</v>
       </c>
       <c r="Q4">
-        <v>1.0192969026863015E-7</v>
+        <v>9.5820471223792519E-8</v>
       </c>
       <c r="R4">
-        <v>3.8758918640671627E-7</v>
+        <v>3.8938360788607817E-7</v>
       </c>
       <c r="S4">
-        <v>-2.3494776435404803E-7</v>
+        <v>-1.8016041331657672E-7</v>
       </c>
       <c r="T4">
-        <v>-2.2548566584016032E-7</v>
+        <v>-1.7012423833868518E-7</v>
       </c>
       <c r="U4">
-        <v>-1.8797143272103792E-7</v>
+        <v>-1.1490490676355463E-7</v>
       </c>
       <c r="V4">
-        <v>-2.1568307127880259E-7</v>
+        <v>-1.7527874688059326E-7</v>
       </c>
       <c r="W4">
-        <v>3.4913256897352414E-8</v>
+        <v>3.0340105741843263E-8</v>
       </c>
       <c r="X4">
-        <v>-4.8737713992206224E-7</v>
+        <v>-4.3748824523357364E-7</v>
       </c>
       <c r="Y4">
-        <v>-2.3018480895985338E-7</v>
+        <v>-1.9351885592057598E-7</v>
       </c>
       <c r="Z4">
-        <v>1.4856783071257045E-5</v>
+        <v>1.4296387363460427E-5</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.45">
@@ -1730,79 +1730,79 @@
         <v>25</v>
       </c>
       <c r="B5" s="4">
-        <v>-0.12901578536593336</v>
+        <v>-0.11099651758769653</v>
       </c>
       <c r="C5">
-        <v>-2.9276437534348903E-4</v>
+        <v>-3.2042047436069539E-4</v>
       </c>
       <c r="D5">
-        <v>-4.6589630640787893E-5</v>
+        <v>-3.0026751803752011E-5</v>
       </c>
       <c r="E5">
-        <v>4.1294478458150012E-7</v>
+        <v>2.6422719286221168E-7</v>
       </c>
       <c r="F5">
-        <v>2.1171986065197093E-3</v>
+        <v>2.0524077273745564E-3</v>
       </c>
       <c r="G5">
-        <v>1.735309504888151E-3</v>
+        <v>1.7323414894727946E-3</v>
       </c>
       <c r="H5">
-        <v>-1.7279807151563477E-5</v>
+        <v>1.0062460226827364E-5</v>
       </c>
       <c r="I5">
-        <v>-1.1389077865832999E-5</v>
+        <v>-1.2765492198652916E-4</v>
       </c>
       <c r="J5">
-        <v>1.7963748599264363E-4</v>
+        <v>1.0183353506414827E-4</v>
       </c>
       <c r="K5">
-        <v>2.0557060125146997E-4</v>
+        <v>2.1040434921762853E-4</v>
       </c>
       <c r="L5">
-        <v>1.1619161749674381E-4</v>
+        <v>1.2962097761670769E-4</v>
       </c>
       <c r="M5">
-        <v>-9.0523140344964885E-5</v>
+        <v>2.6872124933042803E-5</v>
       </c>
       <c r="N5">
-        <v>2.8219321925358152E-5</v>
+        <v>1.7924379537528074E-5</v>
       </c>
       <c r="O5">
-        <v>1.3651976639571656E-5</v>
+        <v>-3.7507574787564714E-6</v>
       </c>
       <c r="P5">
-        <v>-1.2380394879097246E-4</v>
+        <v>4.5893494467773993E-5</v>
       </c>
       <c r="Q5">
-        <v>5.7033666822347171E-5</v>
+        <v>6.6773799459460647E-5</v>
       </c>
       <c r="R5">
-        <v>1.9980529488244957E-4</v>
+        <v>5.1875941152168515E-5</v>
       </c>
       <c r="S5">
-        <v>-9.1341169951589306E-5</v>
+        <v>-8.9427230875303138E-5</v>
       </c>
       <c r="T5">
-        <v>-1.4255835927019634E-4</v>
+        <v>-1.4944370075172048E-4</v>
       </c>
       <c r="U5">
-        <v>3.2064669681672905E-5</v>
+        <v>1.225885141637839E-5</v>
       </c>
       <c r="V5">
-        <v>3.8629330512639974E-5</v>
+        <v>3.492604323026313E-6</v>
       </c>
       <c r="W5">
-        <v>1.6780898849984723E-5</v>
+        <v>1.7220990881987147E-5</v>
       </c>
       <c r="X5">
-        <v>-2.6206282702263107E-4</v>
+        <v>-1.2103884618969542E-4</v>
       </c>
       <c r="Y5">
-        <v>-1.0377978844040316E-4</v>
+        <v>-1.0175761089266844E-4</v>
       </c>
       <c r="Z5">
-        <v>-1.0098450943983E-3</v>
+        <v>-1.2966174938875807E-3</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.45">
@@ -1810,79 +1810,79 @@
         <v>26</v>
       </c>
       <c r="B6" s="4">
-        <v>-2.4969388056565521E-3</v>
+        <v>-1.1153490839974377E-2</v>
       </c>
       <c r="C6">
-        <v>-2.5680184037327685E-4</v>
+        <v>-3.2700163107205772E-4</v>
       </c>
       <c r="D6">
-        <v>1.4119724126857941E-5</v>
+        <v>3.2085328801988947E-5</v>
       </c>
       <c r="E6">
-        <v>-3.6508210106764774E-7</v>
+        <v>-5.0903460306619199E-7</v>
       </c>
       <c r="F6">
-        <v>1.735309504888151E-3</v>
+        <v>1.7323414894727946E-3</v>
       </c>
       <c r="G6">
-        <v>3.9333721118099555E-3</v>
+        <v>3.8477276011083766E-3</v>
       </c>
       <c r="H6">
-        <v>-2.5532056884928638E-4</v>
+        <v>-7.7853982558026926E-6</v>
       </c>
       <c r="I6">
-        <v>-1.1949031094927228E-5</v>
+        <v>-8.6965930811555456E-5</v>
       </c>
       <c r="J6">
-        <v>4.4016656257601342E-4</v>
+        <v>3.8119956888355401E-4</v>
       </c>
       <c r="K6">
-        <v>6.6689983793811645E-5</v>
+        <v>8.7360787852286534E-5</v>
       </c>
       <c r="L6">
-        <v>-7.2787182736824471E-5</v>
+        <v>-5.260542536790247E-5</v>
       </c>
       <c r="M6">
-        <v>-3.6942066648914347E-5</v>
+        <v>2.3828626514347823E-5</v>
       </c>
       <c r="N6">
-        <v>1.4941621957684033E-4</v>
+        <v>1.3107041374988757E-4</v>
       </c>
       <c r="O6">
-        <v>2.5791307129902732E-5</v>
+        <v>1.5242450349293475E-5</v>
       </c>
       <c r="P6">
-        <v>9.2396741036410851E-5</v>
+        <v>3.5326185515899017E-4</v>
       </c>
       <c r="Q6">
-        <v>7.0942675256009555E-5</v>
+        <v>7.599701265936589E-5</v>
       </c>
       <c r="R6">
-        <v>2.8673531749758853E-4</v>
+        <v>8.2620771070478346E-5</v>
       </c>
       <c r="S6">
-        <v>-3.0772182479964531E-4</v>
+        <v>-2.5749285919079404E-4</v>
       </c>
       <c r="T6">
-        <v>-1.1486151445549959E-4</v>
+        <v>-9.0989792033858833E-5</v>
       </c>
       <c r="U6">
-        <v>-1.1126407280846913E-4</v>
+        <v>-8.3710056878112974E-5</v>
       </c>
       <c r="V6">
-        <v>-1.6133526409355451E-4</v>
+        <v>-1.2486684619019382E-4</v>
       </c>
       <c r="W6">
-        <v>2.3372852206692549E-5</v>
+        <v>2.0251400453035254E-5</v>
       </c>
       <c r="X6">
-        <v>-2.4623897812581371E-4</v>
+        <v>-4.2580763047944019E-5</v>
       </c>
       <c r="Y6">
-        <v>1.5850342079120434E-5</v>
+        <v>2.5806581809090234E-5</v>
       </c>
       <c r="Z6">
-        <v>-2.5245331617493104E-3</v>
+        <v>-2.9021676809827097E-3</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.45">
@@ -1890,79 +1890,79 @@
         <v>27</v>
       </c>
       <c r="B7" s="4">
-        <v>0.56927200644399734</v>
+        <v>0.56985303287543332</v>
       </c>
       <c r="C7">
-        <v>-1.459952872540863E-4</v>
+        <v>-1.4602621609638067E-4</v>
       </c>
       <c r="D7">
-        <v>2.68867756684303E-4</v>
+        <v>2.3982663141522257E-4</v>
       </c>
       <c r="E7">
-        <v>-2.1858629172693672E-6</v>
+        <v>-1.9895927450758859E-6</v>
       </c>
       <c r="F7">
-        <v>-1.7279807151563477E-5</v>
+        <v>1.0062460226827364E-5</v>
       </c>
       <c r="G7">
-        <v>-2.5532056884928638E-4</v>
+        <v>-7.7853982558026926E-6</v>
       </c>
       <c r="H7">
-        <v>1.4822996426778617E-2</v>
+        <v>1.4170261905547772E-2</v>
       </c>
       <c r="I7">
-        <v>2.9365845497712467E-3</v>
+        <v>2.6139754447995086E-3</v>
       </c>
       <c r="J7">
-        <v>2.6724669261874905E-3</v>
+        <v>2.4428434018274455E-3</v>
       </c>
       <c r="K7">
-        <v>9.7463034316761096E-4</v>
+        <v>7.7478156417348613E-4</v>
       </c>
       <c r="L7">
-        <v>-5.8962554195566251E-6</v>
+        <v>1.8542320371499593E-5</v>
       </c>
       <c r="M7">
-        <v>5.9458539561772729E-4</v>
+        <v>4.7998057282696259E-4</v>
       </c>
       <c r="N7">
-        <v>-4.815486461643868E-5</v>
+        <v>-3.0518826448337332E-5</v>
       </c>
       <c r="O7">
-        <v>3.9299633344927129E-4</v>
+        <v>3.5933627439942167E-4</v>
       </c>
       <c r="P7">
-        <v>2.8284975896666203E-4</v>
+        <v>3.5269211232810682E-4</v>
       </c>
       <c r="Q7">
-        <v>-3.9584795376331725E-6</v>
+        <v>3.5848321969282154E-6</v>
       </c>
       <c r="R7">
-        <v>-1.7845289457517257E-4</v>
+        <v>-2.1835425973305757E-4</v>
       </c>
       <c r="S7">
-        <v>3.5322350767870393E-4</v>
+        <v>2.0584464399172817E-4</v>
       </c>
       <c r="T7">
-        <v>7.6665356072332276E-5</v>
+        <v>-4.8157230896755986E-5</v>
       </c>
       <c r="U7">
-        <v>3.1243331258468728E-4</v>
+        <v>1.2341537077314611E-4</v>
       </c>
       <c r="V7">
-        <v>4.880149499593893E-4</v>
+        <v>2.7585135416178792E-4</v>
       </c>
       <c r="W7">
-        <v>-3.6028062892759212E-5</v>
+        <v>-2.5757842459753981E-5</v>
       </c>
       <c r="X7">
-        <v>5.2251308234808457E-4</v>
+        <v>5.2895724822177607E-4</v>
       </c>
       <c r="Y7">
-        <v>-1.309029736989804E-4</v>
+        <v>-1.0039890202066457E-4</v>
       </c>
       <c r="Z7">
-        <v>-1.0314915623959081E-2</v>
+        <v>-9.1895501848544611E-3</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.45">
@@ -1970,79 +1970,79 @@
         <v>28</v>
       </c>
       <c r="B8" s="4">
-        <v>0.30379796574439294</v>
+        <v>0.31216810932719424</v>
       </c>
       <c r="C8">
-        <v>1.0335506413627522E-4</v>
+        <v>1.1539980195091426E-4</v>
       </c>
       <c r="D8">
-        <v>3.2338033705701913E-5</v>
+        <v>2.824905813684158E-5</v>
       </c>
       <c r="E8">
-        <v>-3.180098382858305E-7</v>
+        <v>-3.040476631851745E-7</v>
       </c>
       <c r="F8">
-        <v>-1.1389077865832999E-5</v>
+        <v>-1.2765492198652916E-4</v>
       </c>
       <c r="G8">
-        <v>-1.1949031094927228E-5</v>
+        <v>-8.6965930811555456E-5</v>
       </c>
       <c r="H8">
-        <v>2.9365845497712467E-3</v>
+        <v>2.6139754447995086E-3</v>
       </c>
       <c r="I8">
-        <v>3.770017441758527E-3</v>
+        <v>3.5723353331107003E-3</v>
       </c>
       <c r="J8">
-        <v>3.0495806263089479E-3</v>
+        <v>2.8484065459553772E-3</v>
       </c>
       <c r="K8">
-        <v>7.914887810697767E-5</v>
+        <v>2.6343104554747525E-7</v>
       </c>
       <c r="L8">
-        <v>-4.9849731671507591E-5</v>
+        <v>-4.9888088172475283E-5</v>
       </c>
       <c r="M8">
-        <v>1.8825791542161551E-4</v>
+        <v>1.9537938671737934E-4</v>
       </c>
       <c r="N8">
-        <v>1.6528795641490251E-4</v>
+        <v>1.6431240731438554E-4</v>
       </c>
       <c r="O8">
-        <v>3.3937401093048967E-4</v>
+        <v>3.1452716917271728E-4</v>
       </c>
       <c r="P8">
-        <v>-2.3072737023731305E-4</v>
+        <v>-1.6091380724919148E-4</v>
       </c>
       <c r="Q8">
-        <v>7.0872003546904173E-6</v>
+        <v>2.8127441826961109E-6</v>
       </c>
       <c r="R8">
-        <v>5.2418083024193679E-6</v>
+        <v>-1.8320079918309872E-5</v>
       </c>
       <c r="S8">
-        <v>1.767531986095949E-4</v>
+        <v>1.4138133922669848E-4</v>
       </c>
       <c r="T8">
-        <v>6.3047524281762963E-5</v>
+        <v>3.8490274803550052E-5</v>
       </c>
       <c r="U8">
-        <v>1.6588212220161212E-4</v>
+        <v>9.6289252865628446E-5</v>
       </c>
       <c r="V8">
-        <v>2.256318945267836E-4</v>
+        <v>1.3900598378666258E-4</v>
       </c>
       <c r="W8">
-        <v>-1.0148672373999168E-5</v>
+        <v>-7.5662564888910545E-6</v>
       </c>
       <c r="X8">
-        <v>2.4472238758744625E-4</v>
+        <v>2.2587214035028392E-4</v>
       </c>
       <c r="Y8">
-        <v>-2.8654762966951255E-5</v>
+        <v>-1.0579345123202947E-5</v>
       </c>
       <c r="Z8">
-        <v>-4.3445750211356434E-3</v>
+        <v>-3.8211822754501551E-3</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.45">
@@ -2050,79 +2050,79 @@
         <v>29</v>
       </c>
       <c r="B9" s="4">
-        <v>-1.3123878327652581E-2</v>
+        <v>2.9366873380837444E-4</v>
       </c>
       <c r="C9">
-        <v>1.2088400881003133E-5</v>
+        <v>1.887448996251969E-5</v>
       </c>
       <c r="D9">
-        <v>1.2867297143100425E-4</v>
+        <v>1.2900836432948041E-4</v>
       </c>
       <c r="E9">
-        <v>-1.8736599248275938E-6</v>
+        <v>-1.8824850879085174E-6</v>
       </c>
       <c r="F9">
-        <v>1.7963748599264363E-4</v>
+        <v>1.0183353506414827E-4</v>
       </c>
       <c r="G9">
-        <v>4.4016656257601342E-4</v>
+        <v>3.8119956888355401E-4</v>
       </c>
       <c r="H9">
-        <v>2.6724669261874905E-3</v>
+        <v>2.4428434018274455E-3</v>
       </c>
       <c r="I9">
-        <v>3.0495806263089479E-3</v>
+        <v>2.8484065459553772E-3</v>
       </c>
       <c r="J9">
-        <v>6.3481723378923834E-3</v>
+        <v>6.1399011340624978E-3</v>
       </c>
       <c r="K9">
-        <v>5.4641007508262262E-5</v>
+        <v>-6.5415241314201135E-6</v>
       </c>
       <c r="L9">
-        <v>1.8082918452424937E-4</v>
+        <v>1.4995769916045342E-4</v>
       </c>
       <c r="M9">
-        <v>2.3689363587462678E-4</v>
+        <v>2.3451643719028695E-4</v>
       </c>
       <c r="N9">
-        <v>6.9999292556810163E-5</v>
+        <v>7.4764605206404581E-5</v>
       </c>
       <c r="O9">
-        <v>3.4447877472526317E-4</v>
+        <v>3.1898232102219308E-4</v>
       </c>
       <c r="P9">
-        <v>-2.2827396845630406E-4</v>
+        <v>-1.3256968413288654E-4</v>
       </c>
       <c r="Q9">
-        <v>4.9386736126068851E-5</v>
+        <v>4.4338415922231214E-5</v>
       </c>
       <c r="R9">
-        <v>4.9124949953125493E-5</v>
+        <v>1.3519401382955116E-5</v>
       </c>
       <c r="S9">
-        <v>1.0807477538755375E-4</v>
+        <v>8.2205096612161539E-5</v>
       </c>
       <c r="T9">
-        <v>5.2368354271832259E-5</v>
+        <v>3.8445495437119731E-5</v>
       </c>
       <c r="U9">
-        <v>1.8911647863155672E-4</v>
+        <v>1.3896181743156119E-4</v>
       </c>
       <c r="V9">
-        <v>1.2243417765891627E-4</v>
+        <v>5.9705543709869403E-5</v>
       </c>
       <c r="W9">
-        <v>-2.3646739208948281E-5</v>
+        <v>-2.0500938939573997E-5</v>
       </c>
       <c r="X9">
-        <v>1.3818293816274382E-4</v>
+        <v>1.4146172198566641E-4</v>
       </c>
       <c r="Y9">
-        <v>-3.2169873384303542E-5</v>
+        <v>-2.3070630088995337E-5</v>
       </c>
       <c r="Z9">
-        <v>-5.2110016349323132E-3</v>
+        <v>-4.9137828341010818E-3</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.45">
@@ -2130,79 +2130,79 @@
         <v>30</v>
       </c>
       <c r="B10" s="4">
-        <v>0.23961624772958864</v>
+        <v>0.24492975476427298</v>
       </c>
       <c r="C10">
-        <v>1.6019303252251898E-4</v>
+        <v>1.3590582542531791E-4</v>
       </c>
       <c r="D10">
-        <v>5.8038038890257065E-5</v>
+        <v>4.8081521995091279E-5</v>
       </c>
       <c r="E10">
-        <v>-2.5048641241198732E-7</v>
+        <v>-1.8396240802711042E-7</v>
       </c>
       <c r="F10">
-        <v>2.0557060125146997E-4</v>
+        <v>2.1040434921762853E-4</v>
       </c>
       <c r="G10">
-        <v>6.6689983793811645E-5</v>
+        <v>8.7360787852286534E-5</v>
       </c>
       <c r="H10">
-        <v>9.7463034316761096E-4</v>
+        <v>7.7478156417348613E-4</v>
       </c>
       <c r="I10">
-        <v>7.914887810697767E-5</v>
+        <v>2.6343104554747525E-7</v>
       </c>
       <c r="J10">
-        <v>5.4641007508262262E-5</v>
+        <v>-6.5415241314201135E-6</v>
       </c>
       <c r="K10">
-        <v>2.734995533116508E-3</v>
+        <v>2.558653816506828E-3</v>
       </c>
       <c r="L10">
-        <v>1.1469380948495465E-3</v>
+        <v>1.1315204574886295E-3</v>
       </c>
       <c r="M10">
-        <v>1.5305456762613652E-3</v>
+        <v>1.4444696640919033E-3</v>
       </c>
       <c r="N10">
-        <v>-2.9667605192823141E-6</v>
+        <v>-7.9968446126236922E-6</v>
       </c>
       <c r="O10">
-        <v>2.2128840993250834E-5</v>
+        <v>9.4470998932977872E-6</v>
       </c>
       <c r="P10">
-        <v>-2.8469705871052037E-4</v>
+        <v>-2.7221906913465956E-4</v>
       </c>
       <c r="Q10">
-        <v>-4.9394830328884156E-5</v>
+        <v>-3.7153096475986611E-5</v>
       </c>
       <c r="R10">
-        <v>1.1567433877254676E-4</v>
+        <v>9.8458759243898056E-5</v>
       </c>
       <c r="S10">
-        <v>9.5227363434946988E-5</v>
+        <v>6.4229959810783869E-5</v>
       </c>
       <c r="T10">
-        <v>-1.5634592597498073E-4</v>
+        <v>-1.6859652177268303E-4</v>
       </c>
       <c r="U10">
-        <v>1.009207177396455E-5</v>
+        <v>-1.089832686853795E-5</v>
       </c>
       <c r="V10">
-        <v>2.4024038883461974E-5</v>
+        <v>-4.5036032423920679E-6</v>
       </c>
       <c r="W10">
-        <v>-8.4300908268228412E-6</v>
+        <v>-7.8548086608421695E-6</v>
       </c>
       <c r="X10">
-        <v>1.7000338869801557E-4</v>
+        <v>1.9946283460452836E-4</v>
       </c>
       <c r="Y10">
-        <v>2.8503196426972813E-6</v>
+        <v>2.9082759658217126E-5</v>
       </c>
       <c r="Z10">
-        <v>-3.4415472521406787E-3</v>
+        <v>-2.9915155472920204E-3</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.45">
@@ -2210,79 +2210,79 @@
         <v>31</v>
       </c>
       <c r="B11" s="4">
-        <v>-6.0659242833658211E-4</v>
+        <v>1.759073037574994E-2</v>
       </c>
       <c r="C11">
-        <v>4.658819835013451E-5</v>
+        <v>3.6241522555972974E-5</v>
       </c>
       <c r="D11">
-        <v>1.4442001206125697E-4</v>
+        <v>1.4151240801527263E-4</v>
       </c>
       <c r="E11">
-        <v>-1.2992389818355303E-6</v>
+        <v>-1.2642399934480773E-6</v>
       </c>
       <c r="F11">
-        <v>1.1619161749674381E-4</v>
+        <v>1.2962097761670769E-4</v>
       </c>
       <c r="G11">
-        <v>-7.2787182736824471E-5</v>
+        <v>-5.260542536790247E-5</v>
       </c>
       <c r="H11">
-        <v>-5.8962554195566251E-6</v>
+        <v>1.8542320371499593E-5</v>
       </c>
       <c r="I11">
-        <v>-4.9849731671507591E-5</v>
+        <v>-4.9888088172475283E-5</v>
       </c>
       <c r="J11">
-        <v>1.8082918452424937E-4</v>
+        <v>1.4995769916045342E-4</v>
       </c>
       <c r="K11">
-        <v>1.1469380948495465E-3</v>
+        <v>1.1315204574886295E-3</v>
       </c>
       <c r="L11">
-        <v>2.2918628027421943E-3</v>
+        <v>2.195019759054802E-3</v>
       </c>
       <c r="M11">
-        <v>1.0452419135235087E-3</v>
+        <v>1.0205180816306022E-3</v>
       </c>
       <c r="N11">
-        <v>3.262560799612783E-5</v>
+        <v>4.2994522351615252E-5</v>
       </c>
       <c r="O11">
-        <v>9.3929851033967515E-6</v>
+        <v>8.8620550228148473E-6</v>
       </c>
       <c r="P11">
-        <v>-3.9681432042659899E-4</v>
+        <v>-3.5757492036081126E-4</v>
       </c>
       <c r="Q11">
-        <v>5.7334419651379907E-6</v>
+        <v>2.4279502873301989E-6</v>
       </c>
       <c r="R11">
-        <v>-3.9595072171200781E-4</v>
+        <v>-3.4883103597178411E-4</v>
       </c>
       <c r="S11">
-        <v>1.1714901728507635E-4</v>
+        <v>1.3503534828820723E-4</v>
       </c>
       <c r="T11">
-        <v>-1.3969125730667526E-4</v>
+        <v>-1.0882491131549408E-4</v>
       </c>
       <c r="U11">
-        <v>-1.3638284240899759E-5</v>
+        <v>-9.2163317404511235E-6</v>
       </c>
       <c r="V11">
-        <v>-4.5002668236837542E-6</v>
+        <v>1.7176405853380565E-5</v>
       </c>
       <c r="W11">
-        <v>-2.1129403950058672E-6</v>
+        <v>-3.0300902384266246E-6</v>
       </c>
       <c r="X11">
-        <v>1.2985145922262808E-4</v>
+        <v>1.2214719370816124E-4</v>
       </c>
       <c r="Y11">
-        <v>4.5706187493194106E-5</v>
+        <v>3.7959409527624222E-5</v>
       </c>
       <c r="Z11">
-        <v>-4.9385160206989022E-3</v>
+        <v>-4.8929371409059917E-3</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.45">
@@ -2290,79 +2290,79 @@
         <v>32</v>
       </c>
       <c r="B12" s="4">
-        <v>1.4660193088958622</v>
+        <v>1.4612497094042312</v>
       </c>
       <c r="C12">
-        <v>6.0273552356143137E-4</v>
+        <v>5.767836060510637E-4</v>
       </c>
       <c r="D12">
-        <v>1.2971148499764645E-5</v>
+        <v>3.3295278434521559E-6</v>
       </c>
       <c r="E12">
-        <v>1.5273418853740785E-7</v>
+        <v>2.2305133179276629E-7</v>
       </c>
       <c r="F12">
-        <v>-9.0523140344964885E-5</v>
+        <v>2.6872124933042803E-5</v>
       </c>
       <c r="G12">
-        <v>-3.6942066648914347E-5</v>
+        <v>2.3828626514347823E-5</v>
       </c>
       <c r="H12">
-        <v>5.9458539561772729E-4</v>
+        <v>4.7998057282696259E-4</v>
       </c>
       <c r="I12">
-        <v>1.8825791542161551E-4</v>
+        <v>1.9537938671737934E-4</v>
       </c>
       <c r="J12">
-        <v>2.3689363587462678E-4</v>
+        <v>2.3451643719028695E-4</v>
       </c>
       <c r="K12">
-        <v>1.5305456762613652E-3</v>
+        <v>1.4444696640919033E-3</v>
       </c>
       <c r="L12">
-        <v>1.0452419135235087E-3</v>
+        <v>1.0205180816306022E-3</v>
       </c>
       <c r="M12">
-        <v>1.3830522208544841E-2</v>
+        <v>1.2382466905696497E-2</v>
       </c>
       <c r="N12">
-        <v>7.228720775136103E-5</v>
+        <v>6.9586036812538973E-5</v>
       </c>
       <c r="O12">
-        <v>-2.2614760857203353E-5</v>
+        <v>-1.1627332219492377E-5</v>
       </c>
       <c r="P12">
-        <v>-1.5410419644764882E-3</v>
+        <v>-1.494286632164147E-3</v>
       </c>
       <c r="Q12">
-        <v>4.483011203373435E-6</v>
+        <v>2.3954078196485482E-7</v>
       </c>
       <c r="R12">
-        <v>-4.7059036434025166E-4</v>
+        <v>-4.0761168211876967E-4</v>
       </c>
       <c r="S12">
-        <v>-4.2799548847220867E-5</v>
+        <v>-3.3336865053150227E-5</v>
       </c>
       <c r="T12">
-        <v>3.2118693613518326E-5</v>
+        <v>-2.7870820580016306E-5</v>
       </c>
       <c r="U12">
-        <v>-4.1055594133236227E-5</v>
+        <v>-3.9616323218604897E-5</v>
       </c>
       <c r="V12">
-        <v>-1.9828308052192653E-4</v>
+        <v>-1.7736314328391901E-4</v>
       </c>
       <c r="W12">
-        <v>2.3733900787817477E-6</v>
+        <v>3.0628907788204219E-6</v>
       </c>
       <c r="X12">
-        <v>-5.4872387622790532E-4</v>
+        <v>-4.5002205489233456E-4</v>
       </c>
       <c r="Y12">
-        <v>-2.904742414332525E-4</v>
+        <v>-2.5629639932315434E-4</v>
       </c>
       <c r="Z12">
-        <v>-2.5721828612691585E-3</v>
+        <v>-2.3289291197963963E-3</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.45">
@@ -2370,79 +2370,79 @@
         <v>18</v>
       </c>
       <c r="B13" s="4">
-        <v>-2.1089883362983612E-2</v>
+        <v>-3.462219818086322E-2</v>
       </c>
       <c r="C13">
-        <v>3.9930419103059351E-5</v>
+        <v>2.8338898545950185E-5</v>
       </c>
       <c r="D13">
-        <v>1.9421016589697866E-5</v>
+        <v>2.0583332736663366E-5</v>
       </c>
       <c r="E13">
-        <v>-4.1621415388086167E-8</v>
+        <v>-7.1265447348865531E-8</v>
       </c>
       <c r="F13">
-        <v>2.8219321925358152E-5</v>
+        <v>1.7924379537528074E-5</v>
       </c>
       <c r="G13">
-        <v>1.4941621957684033E-4</v>
+        <v>1.3107041374988757E-4</v>
       </c>
       <c r="H13">
-        <v>-4.815486461643868E-5</v>
+        <v>-3.0518826448337332E-5</v>
       </c>
       <c r="I13">
-        <v>1.6528795641490251E-4</v>
+        <v>1.6431240731438554E-4</v>
       </c>
       <c r="J13">
-        <v>6.9999292556810163E-5</v>
+        <v>7.4764605206404581E-5</v>
       </c>
       <c r="K13">
-        <v>-2.9667605192823141E-6</v>
+        <v>-7.9968446126236922E-6</v>
       </c>
       <c r="L13">
-        <v>3.262560799612783E-5</v>
+        <v>4.2994522351615252E-5</v>
       </c>
       <c r="M13">
-        <v>7.228720775136103E-5</v>
+        <v>6.9586036812538973E-5</v>
       </c>
       <c r="N13">
-        <v>5.3734121531802447E-4</v>
+        <v>4.9592489206346825E-4</v>
       </c>
       <c r="O13">
-        <v>-8.3880003439831377E-6</v>
+        <v>-2.6246099474191212E-6</v>
       </c>
       <c r="P13">
-        <v>2.8343068527989825E-5</v>
+        <v>5.8118703391004528E-5</v>
       </c>
       <c r="Q13">
-        <v>-6.5324849800232357E-6</v>
+        <v>-9.9559191873397179E-6</v>
       </c>
       <c r="R13">
-        <v>-2.5882262417559979E-5</v>
+        <v>-2.4799050599614821E-5</v>
       </c>
       <c r="S13">
-        <v>6.2304257811124884E-6</v>
+        <v>3.0391854924508087E-5</v>
       </c>
       <c r="T13">
-        <v>1.06143594329471E-5</v>
+        <v>4.3886044009500613E-5</v>
       </c>
       <c r="U13">
-        <v>-7.8325768242829344E-6</v>
+        <v>8.9992017319033037E-6</v>
       </c>
       <c r="V13">
-        <v>-3.2219459393250001E-5</v>
+        <v>-6.3358881642926537E-6</v>
       </c>
       <c r="W13">
-        <v>-6.2541249412879994E-6</v>
+        <v>-7.4402925825339214E-6</v>
       </c>
       <c r="X13">
-        <v>1.0412810404225527E-4</v>
+        <v>5.7388108143108197E-5</v>
       </c>
       <c r="Y13">
-        <v>-1.9220447549101209E-5</v>
+        <v>-1.010376771855173E-5</v>
       </c>
       <c r="Z13">
-        <v>-2.7175512097526071E-3</v>
+        <v>-2.545142494712441E-3</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.45">
@@ -2450,79 +2450,79 @@
         <v>19</v>
       </c>
       <c r="B14" s="4">
-        <v>2.2986698154222395E-2</v>
+        <v>2.2527491693505666E-2</v>
       </c>
       <c r="C14">
-        <v>-1.458698715135819E-5</v>
+        <v>-1.6106877841293591E-5</v>
       </c>
       <c r="D14">
-        <v>4.9212467047515194E-6</v>
+        <v>4.7850681222955064E-6</v>
       </c>
       <c r="E14">
-        <v>-3.8127756271604699E-8</v>
+        <v>-3.7662758621914361E-8</v>
       </c>
       <c r="F14">
-        <v>1.3651976639571656E-5</v>
+        <v>-3.7507574787564714E-6</v>
       </c>
       <c r="G14">
-        <v>2.5791307129902732E-5</v>
+        <v>1.5242450349293475E-5</v>
       </c>
       <c r="H14">
-        <v>3.9299633344927129E-4</v>
+        <v>3.5933627439942167E-4</v>
       </c>
       <c r="I14">
-        <v>3.3937401093048967E-4</v>
+        <v>3.1452716917271728E-4</v>
       </c>
       <c r="J14">
-        <v>3.4447877472526317E-4</v>
+        <v>3.1898232102219308E-4</v>
       </c>
       <c r="K14">
-        <v>2.2128840993250834E-5</v>
+        <v>9.4470998932977872E-6</v>
       </c>
       <c r="L14">
-        <v>9.3929851033967515E-6</v>
+        <v>8.8620550228148473E-6</v>
       </c>
       <c r="M14">
-        <v>-2.2614760857203353E-5</v>
+        <v>-1.1627332219492377E-5</v>
       </c>
       <c r="N14">
-        <v>-8.3880003439831377E-6</v>
+        <v>-2.6246099474191212E-6</v>
       </c>
       <c r="O14">
-        <v>1.3429005909886948E-4</v>
+        <v>1.1883968083991577E-4</v>
       </c>
       <c r="P14">
-        <v>-1.270365733334485E-5</v>
+        <v>1.6398495087742979E-5</v>
       </c>
       <c r="Q14">
-        <v>-7.8666491876243033E-5</v>
+        <v>-6.7652116701053262E-5</v>
       </c>
       <c r="R14">
-        <v>-5.6694740393089946E-5</v>
+        <v>-6.6410590162537339E-5</v>
       </c>
       <c r="S14">
-        <v>9.315088389986331E-6</v>
+        <v>8.5367800234729919E-6</v>
       </c>
       <c r="T14">
-        <v>-1.4936685730256399E-5</v>
+        <v>-1.4613606207607675E-5</v>
       </c>
       <c r="U14">
-        <v>2.2301992587479402E-8</v>
+        <v>-6.5743544327962313E-8</v>
       </c>
       <c r="V14">
-        <v>3.0052355105146436E-6</v>
+        <v>-2.8408037548809497E-6</v>
       </c>
       <c r="W14">
-        <v>1.5127823267167701E-6</v>
+        <v>7.4759129479839401E-7</v>
       </c>
       <c r="X14">
-        <v>-6.0105060608917646E-6</v>
+        <v>2.0814173024050837E-6</v>
       </c>
       <c r="Y14">
-        <v>-2.1772012809804115E-5</v>
+        <v>-1.9067396904003884E-5</v>
       </c>
       <c r="Z14">
-        <v>-5.301500789003787E-4</v>
+        <v>-4.8582126792973254E-4</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.45">
@@ -2530,79 +2530,79 @@
         <v>20</v>
       </c>
       <c r="B15" s="4">
-        <v>4.2631975141117353</v>
+        <v>4.2834043052942015</v>
       </c>
       <c r="C15">
-        <v>2.6114299376365103E-6</v>
+        <v>-6.1616736195303518E-6</v>
       </c>
       <c r="D15">
-        <v>1.2401777296190946E-5</v>
+        <v>1.7990167347663785E-5</v>
       </c>
       <c r="E15">
-        <v>-1.8870018343804978E-7</v>
+        <v>-2.3914809880062036E-7</v>
       </c>
       <c r="F15">
-        <v>-1.2380394879097246E-4</v>
+        <v>4.5893494467773993E-5</v>
       </c>
       <c r="G15">
-        <v>9.2396741036410851E-5</v>
+        <v>3.5326185515899017E-4</v>
       </c>
       <c r="H15">
-        <v>2.8284975896666203E-4</v>
+        <v>3.5269211232810682E-4</v>
       </c>
       <c r="I15">
-        <v>-2.3072737023731305E-4</v>
+        <v>-1.6091380724919148E-4</v>
       </c>
       <c r="J15">
-        <v>-2.2827396845630406E-4</v>
+        <v>-1.3256968413288654E-4</v>
       </c>
       <c r="K15">
-        <v>-2.8469705871052037E-4</v>
+        <v>-2.7221906913465956E-4</v>
       </c>
       <c r="L15">
-        <v>-3.9681432042659899E-4</v>
+        <v>-3.5757492036081126E-4</v>
       </c>
       <c r="M15">
-        <v>-1.5410419644764882E-3</v>
+        <v>-1.494286632164147E-3</v>
       </c>
       <c r="N15">
-        <v>2.8343068527989825E-5</v>
+        <v>5.8118703391004528E-5</v>
       </c>
       <c r="O15">
-        <v>-1.270365733334485E-5</v>
+        <v>1.6398495087742979E-5</v>
       </c>
       <c r="P15">
-        <v>1.9641489251194848E-2</v>
+        <v>1.8674224853223391E-2</v>
       </c>
       <c r="Q15">
-        <v>-6.0444305296299657E-6</v>
+        <v>-2.1379873176476958E-5</v>
       </c>
       <c r="R15">
-        <v>-2.2298395887180244E-3</v>
+        <v>-2.0497027268732968E-3</v>
       </c>
       <c r="S15">
-        <v>-3.4980126239866406E-4</v>
+        <v>-3.5298490546370074E-4</v>
       </c>
       <c r="T15">
-        <v>-3.2874083957978536E-4</v>
+        <v>-3.0721872127827707E-4</v>
       </c>
       <c r="U15">
-        <v>-5.0454487284182854E-4</v>
+        <v>-4.5934633212122008E-4</v>
       </c>
       <c r="V15">
-        <v>-1.6058000714906973E-4</v>
+        <v>-1.0936687984682683E-4</v>
       </c>
       <c r="W15">
-        <v>1.6402633979182872E-5</v>
+        <v>2.0165841262187761E-5</v>
       </c>
       <c r="X15">
-        <v>1.4987042106780102E-3</v>
+        <v>1.2790729798383975E-3</v>
       </c>
       <c r="Y15">
-        <v>-4.915953621430632E-4</v>
+        <v>-4.4773165627762148E-4</v>
       </c>
       <c r="Z15">
-        <v>-5.2167586395967006E-4</v>
+        <v>-1.0742443691731485E-3</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.45">
@@ -2610,79 +2610,79 @@
         <v>33</v>
       </c>
       <c r="B16" s="4">
-        <v>-1.3802970490021776E-2</v>
+        <v>-1.048984960227076E-2</v>
       </c>
       <c r="C16">
-        <v>-3.0296709751113915E-5</v>
+        <v>-2.974110074611576E-5</v>
       </c>
       <c r="D16">
-        <v>-1.1615012699619212E-5</v>
+        <v>-1.0838488077256601E-5</v>
       </c>
       <c r="E16">
-        <v>1.0192969026863015E-7</v>
+        <v>9.5820471223792519E-8</v>
       </c>
       <c r="F16">
-        <v>5.7033666822347171E-5</v>
+        <v>6.6773799459460647E-5</v>
       </c>
       <c r="G16">
-        <v>7.0942675256009555E-5</v>
+        <v>7.599701265936589E-5</v>
       </c>
       <c r="H16">
-        <v>-3.9584795376331725E-6</v>
+        <v>3.5848321969282154E-6</v>
       </c>
       <c r="I16">
-        <v>7.0872003546904173E-6</v>
+        <v>2.8127441826961109E-6</v>
       </c>
       <c r="J16">
-        <v>4.9386736126068851E-5</v>
+        <v>4.4338415922231214E-5</v>
       </c>
       <c r="K16">
-        <v>-4.9394830328884156E-5</v>
+        <v>-3.7153096475986611E-5</v>
       </c>
       <c r="L16">
-        <v>5.7334419651379907E-6</v>
+        <v>2.4279502873301989E-6</v>
       </c>
       <c r="M16">
-        <v>4.483011203373435E-6</v>
+        <v>2.3954078196485482E-7</v>
       </c>
       <c r="N16">
-        <v>-6.5324849800232357E-6</v>
+        <v>-9.9559191873397179E-6</v>
       </c>
       <c r="O16">
-        <v>-7.8666491876243033E-5</v>
+        <v>-6.7652116701053262E-5</v>
       </c>
       <c r="P16">
-        <v>-6.0444305296299657E-6</v>
+        <v>-2.1379873176476958E-5</v>
       </c>
       <c r="Q16">
-        <v>1.0183084713612834E-4</v>
+        <v>8.9615795632895805E-5</v>
       </c>
       <c r="R16">
-        <v>3.5910440738145253E-5</v>
+        <v>4.107602134735563E-5</v>
       </c>
       <c r="S16">
-        <v>-1.3513646709737917E-6</v>
+        <v>-9.2538073233173839E-7</v>
       </c>
       <c r="T16">
-        <v>3.9062021479938935E-6</v>
+        <v>5.2997385310260865E-6</v>
       </c>
       <c r="U16">
-        <v>6.9629632612035544E-6</v>
+        <v>5.4438029899058459E-6</v>
       </c>
       <c r="V16">
-        <v>8.5393677651394756E-6</v>
+        <v>8.5281436049276899E-6</v>
       </c>
       <c r="W16">
-        <v>-1.5955846287035728E-6</v>
+        <v>-1.1575118984314643E-6</v>
       </c>
       <c r="X16">
-        <v>-2.6722343373659278E-5</v>
+        <v>-1.44640776023036E-5</v>
       </c>
       <c r="Y16">
-        <v>7.0005295636831549E-6</v>
+        <v>7.7598119044286755E-6</v>
       </c>
       <c r="Z16">
-        <v>2.2678906067474699E-4</v>
+        <v>2.0599611265711387E-4</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.45">
@@ -2690,79 +2690,79 @@
         <v>34</v>
       </c>
       <c r="B17" s="4">
-        <v>2.6138910276520639</v>
+        <v>2.6491452669883668</v>
       </c>
       <c r="C17">
-        <v>1.2494138010618404E-4</v>
+        <v>1.1317409883911767E-4</v>
       </c>
       <c r="D17">
-        <v>-4.3814862827839867E-5</v>
+        <v>-4.3551902623353085E-5</v>
       </c>
       <c r="E17">
-        <v>3.8758918640671627E-7</v>
+        <v>3.8938360788607817E-7</v>
       </c>
       <c r="F17">
-        <v>1.9980529488244957E-4</v>
+        <v>5.1875941152168515E-5</v>
       </c>
       <c r="G17">
-        <v>2.8673531749758853E-4</v>
+        <v>8.2620771070478346E-5</v>
       </c>
       <c r="H17">
-        <v>-1.7845289457517257E-4</v>
+        <v>-2.1835425973305757E-4</v>
       </c>
       <c r="I17">
-        <v>5.2418083024193679E-6</v>
+        <v>-1.8320079918309872E-5</v>
       </c>
       <c r="J17">
-        <v>4.9124949953125493E-5</v>
+        <v>1.3519401382955116E-5</v>
       </c>
       <c r="K17">
-        <v>1.1567433877254676E-4</v>
+        <v>9.8458759243898056E-5</v>
       </c>
       <c r="L17">
-        <v>-3.9595072171200781E-4</v>
+        <v>-3.4883103597178411E-4</v>
       </c>
       <c r="M17">
-        <v>-4.7059036434025166E-4</v>
+        <v>-4.0761168211876967E-4</v>
       </c>
       <c r="N17">
-        <v>-2.5882262417559979E-5</v>
+        <v>-2.4799050599614821E-5</v>
       </c>
       <c r="O17">
-        <v>-5.6694740393089946E-5</v>
+        <v>-6.6410590162537339E-5</v>
       </c>
       <c r="P17">
-        <v>-2.2298395887180244E-3</v>
+        <v>-2.0497027268732968E-3</v>
       </c>
       <c r="Q17">
-        <v>3.5910440738145253E-5</v>
+        <v>4.107602134735563E-5</v>
       </c>
       <c r="R17">
-        <v>1.0416723289793416E-2</v>
+        <v>9.7864901892834484E-3</v>
       </c>
       <c r="S17">
-        <v>-1.5059093220359167E-4</v>
+        <v>-1.5592365356163862E-4</v>
       </c>
       <c r="T17">
-        <v>-2.0896024664491313E-4</v>
+        <v>-2.1631710320102988E-4</v>
       </c>
       <c r="U17">
-        <v>-1.6901050182579054E-4</v>
+        <v>-1.6548053702964452E-4</v>
       </c>
       <c r="V17">
-        <v>-1.5559855612046051E-4</v>
+        <v>-1.6197620198304117E-4</v>
       </c>
       <c r="W17">
-        <v>-1.7532505674785703E-5</v>
+        <v>-1.9104016726998E-5</v>
       </c>
       <c r="X17">
-        <v>-1.377551786105497E-4</v>
+        <v>-1.0357543255889339E-4</v>
       </c>
       <c r="Y17">
-        <v>-1.5660651218286125E-4</v>
+        <v>-1.4182065293793597E-4</v>
       </c>
       <c r="Z17">
-        <v>1.1494416509874464E-3</v>
+        <v>1.3332604625859018E-3</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.45">
@@ -2770,79 +2770,79 @@
         <v>35</v>
       </c>
       <c r="B18" s="4">
-        <v>7.8098393161519716E-2</v>
+        <v>7.0777923492592917E-2</v>
       </c>
       <c r="C18">
-        <v>-7.2229306322428458E-5</v>
+        <v>-3.1930597001795954E-5</v>
       </c>
       <c r="D18">
-        <v>2.5643541923509755E-5</v>
+        <v>1.9280583675494105E-5</v>
       </c>
       <c r="E18">
-        <v>-2.3494776435404803E-7</v>
+        <v>-1.8016041331657672E-7</v>
       </c>
       <c r="F18">
-        <v>-9.1341169951589306E-5</v>
+        <v>-8.9427230875303138E-5</v>
       </c>
       <c r="G18">
-        <v>-3.0772182479964531E-4</v>
+        <v>-2.5749285919079404E-4</v>
       </c>
       <c r="H18">
-        <v>3.5322350767870393E-4</v>
+        <v>2.0584464399172817E-4</v>
       </c>
       <c r="I18">
-        <v>1.767531986095949E-4</v>
+        <v>1.4138133922669848E-4</v>
       </c>
       <c r="J18">
-        <v>1.0807477538755375E-4</v>
+        <v>8.2205096612161539E-5</v>
       </c>
       <c r="K18">
-        <v>9.5227363434946988E-5</v>
+        <v>6.4229959810783869E-5</v>
       </c>
       <c r="L18">
-        <v>1.1714901728507635E-4</v>
+        <v>1.3503534828820723E-4</v>
       </c>
       <c r="M18">
-        <v>-4.2799548847220867E-5</v>
+        <v>-3.3336865053150227E-5</v>
       </c>
       <c r="N18">
-        <v>6.2304257811124884E-6</v>
+        <v>3.0391854924508087E-5</v>
       </c>
       <c r="O18">
-        <v>9.315088389986331E-6</v>
+        <v>8.5367800234729919E-6</v>
       </c>
       <c r="P18">
-        <v>-3.4980126239866406E-4</v>
+        <v>-3.5298490546370074E-4</v>
       </c>
       <c r="Q18">
-        <v>-1.3513646709737917E-6</v>
+        <v>-9.2538073233173839E-7</v>
       </c>
       <c r="R18">
-        <v>-1.5059093220359167E-4</v>
+        <v>-1.5592365356163862E-4</v>
       </c>
       <c r="S18">
-        <v>3.9199561337557622E-3</v>
+        <v>3.5981193214918794E-3</v>
       </c>
       <c r="T18">
-        <v>2.1617469131848584E-3</v>
+        <v>1.9373963085506938E-3</v>
       </c>
       <c r="U18">
-        <v>2.1619727241405677E-3</v>
+        <v>1.9308094190586039E-3</v>
       </c>
       <c r="V18">
-        <v>2.1725952255835855E-3</v>
+        <v>1.9410766389405993E-3</v>
       </c>
       <c r="W18">
-        <v>-6.9556489160641866E-5</v>
+        <v>-5.7304002856855302E-5</v>
       </c>
       <c r="X18">
-        <v>-6.24391367352135E-6</v>
+        <v>-1.3307224466582669E-4</v>
       </c>
       <c r="Y18">
-        <v>3.0872888519868305E-4</v>
+        <v>2.6827644528989395E-4</v>
       </c>
       <c r="Z18">
-        <v>-1.6532362918860416E-3</v>
+        <v>-1.5439685437287393E-3</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.45">
@@ -2850,79 +2850,79 @@
         <v>36</v>
       </c>
       <c r="B19" s="4">
-        <v>0.34867941832214661</v>
+        <v>0.34073087210179648</v>
       </c>
       <c r="C19">
-        <v>-1.3810208354205029E-5</v>
+        <v>1.5787656139973656E-5</v>
       </c>
       <c r="D19">
-        <v>1.7837015331143594E-5</v>
+        <v>1.2070308675688482E-5</v>
       </c>
       <c r="E19">
-        <v>-2.2548566584016032E-7</v>
+        <v>-1.7012423833868518E-7</v>
       </c>
       <c r="F19">
-        <v>-1.4255835927019634E-4</v>
+        <v>-1.4944370075172048E-4</v>
       </c>
       <c r="G19">
-        <v>-1.1486151445549959E-4</v>
+        <v>-9.0989792033858833E-5</v>
       </c>
       <c r="H19">
-        <v>7.6665356072332276E-5</v>
+        <v>-4.8157230896755986E-5</v>
       </c>
       <c r="I19">
-        <v>6.3047524281762963E-5</v>
+        <v>3.8490274803550052E-5</v>
       </c>
       <c r="J19">
-        <v>5.2368354271832259E-5</v>
+        <v>3.8445495437119731E-5</v>
       </c>
       <c r="K19">
-        <v>-1.5634592597498073E-4</v>
+        <v>-1.6859652177268303E-4</v>
       </c>
       <c r="L19">
-        <v>-1.3969125730667526E-4</v>
+        <v>-1.0882491131549408E-4</v>
       </c>
       <c r="M19">
-        <v>3.2118693613518326E-5</v>
+        <v>-2.7870820580016306E-5</v>
       </c>
       <c r="N19">
-        <v>1.06143594329471E-5</v>
+        <v>4.3886044009500613E-5</v>
       </c>
       <c r="O19">
-        <v>-1.4936685730256399E-5</v>
+        <v>-1.4613606207607675E-5</v>
       </c>
       <c r="P19">
-        <v>-3.2874083957978536E-4</v>
+        <v>-3.0721872127827707E-4</v>
       </c>
       <c r="Q19">
-        <v>3.9062021479938935E-6</v>
+        <v>5.2997385310260865E-6</v>
       </c>
       <c r="R19">
-        <v>-2.0896024664491313E-4</v>
+        <v>-2.1631710320102988E-4</v>
       </c>
       <c r="S19">
-        <v>2.1617469131848584E-3</v>
+        <v>1.9373963085506938E-3</v>
       </c>
       <c r="T19">
-        <v>4.834535885578797E-3</v>
+        <v>4.4700106496537596E-3</v>
       </c>
       <c r="U19">
-        <v>2.1684517247628089E-3</v>
+        <v>1.9385638211049895E-3</v>
       </c>
       <c r="V19">
-        <v>2.1703549077246418E-3</v>
+        <v>1.9422909549137294E-3</v>
       </c>
       <c r="W19">
-        <v>-7.1907320353814861E-5</v>
+        <v>-5.9695659533411686E-5</v>
       </c>
       <c r="X19">
-        <v>4.038644625897563E-5</v>
+        <v>-4.175097813983856E-5</v>
       </c>
       <c r="Y19">
-        <v>2.9681994107703328E-4</v>
+        <v>2.2727092413333096E-4</v>
       </c>
       <c r="Z19">
-        <v>-1.027409179893829E-3</v>
+        <v>-9.912376939941812E-4</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.45">
@@ -2930,79 +2930,79 @@
         <v>37</v>
       </c>
       <c r="B20" s="4">
-        <v>0.12351203618022899</v>
+        <v>0.1473893944873047</v>
       </c>
       <c r="C20">
-        <v>-8.3624974095545732E-5</v>
+        <v>-4.303234360877463E-5</v>
       </c>
       <c r="D20">
-        <v>1.7752048625917422E-5</v>
+        <v>9.1289300966917878E-6</v>
       </c>
       <c r="E20">
-        <v>-1.8797143272103792E-7</v>
+        <v>-1.1490490676355463E-7</v>
       </c>
       <c r="F20">
-        <v>3.2064669681672905E-5</v>
+        <v>1.225885141637839E-5</v>
       </c>
       <c r="G20">
-        <v>-1.1126407280846913E-4</v>
+        <v>-8.3710056878112974E-5</v>
       </c>
       <c r="H20">
-        <v>3.1243331258468728E-4</v>
+        <v>1.2341537077314611E-4</v>
       </c>
       <c r="I20">
-        <v>1.6588212220161212E-4</v>
+        <v>9.6289252865628446E-5</v>
       </c>
       <c r="J20">
-        <v>1.8911647863155672E-4</v>
+        <v>1.3896181743156119E-4</v>
       </c>
       <c r="K20">
-        <v>1.009207177396455E-5</v>
+        <v>-1.089832686853795E-5</v>
       </c>
       <c r="L20">
-        <v>-1.3638284240899759E-5</v>
+        <v>-9.2163317404511235E-6</v>
       </c>
       <c r="M20">
-        <v>-4.1055594133236227E-5</v>
+        <v>-3.9616323218604897E-5</v>
       </c>
       <c r="N20">
-        <v>-7.8325768242829344E-6</v>
+        <v>8.9992017319033037E-6</v>
       </c>
       <c r="O20">
-        <v>2.2301992587479402E-8</v>
+        <v>-6.5743544327962313E-8</v>
       </c>
       <c r="P20">
-        <v>-5.0454487284182854E-4</v>
+        <v>-4.5934633212122008E-4</v>
       </c>
       <c r="Q20">
-        <v>6.9629632612035544E-6</v>
+        <v>5.4438029899058459E-6</v>
       </c>
       <c r="R20">
-        <v>-1.6901050182579054E-4</v>
+        <v>-1.6548053702964452E-4</v>
       </c>
       <c r="S20">
-        <v>2.1619727241405677E-3</v>
+        <v>1.9308094190586039E-3</v>
       </c>
       <c r="T20">
-        <v>2.1684517247628089E-3</v>
+        <v>1.9385638211049895E-3</v>
       </c>
       <c r="U20">
-        <v>3.7728911808155353E-3</v>
+        <v>3.4453687608547237E-3</v>
       </c>
       <c r="V20">
-        <v>2.1806805557141613E-3</v>
+        <v>1.9433143873317878E-3</v>
       </c>
       <c r="W20">
-        <v>-7.3041743218926582E-5</v>
+        <v>-6.0126414419292787E-5</v>
       </c>
       <c r="X20">
-        <v>-1.2634799361616142E-4</v>
+        <v>-2.406400711238616E-4</v>
       </c>
       <c r="Y20">
-        <v>2.1767985315587432E-4</v>
+        <v>1.6286987944488698E-4</v>
       </c>
       <c r="Z20">
-        <v>-1.3051873850985641E-3</v>
+        <v>-1.08000187558999E-3</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.45">
@@ -3010,79 +3010,79 @@
         <v>38</v>
       </c>
       <c r="B21" s="4">
-        <v>6.9573284749212524E-2</v>
+        <v>6.9638471794936138E-2</v>
       </c>
       <c r="C21">
-        <v>-9.240927332737167E-5</v>
+        <v>-4.03622165785195E-5</v>
       </c>
       <c r="D21">
-        <v>2.0738018459584302E-5</v>
+        <v>1.5433213691023887E-5</v>
       </c>
       <c r="E21">
-        <v>-2.1568307127880259E-7</v>
+        <v>-1.7527874688059326E-7</v>
       </c>
       <c r="F21">
-        <v>3.8629330512639974E-5</v>
+        <v>3.492604323026313E-6</v>
       </c>
       <c r="G21">
-        <v>-1.6133526409355451E-4</v>
+        <v>-1.2486684619019382E-4</v>
       </c>
       <c r="H21">
-        <v>4.880149499593893E-4</v>
+        <v>2.7585135416178792E-4</v>
       </c>
       <c r="I21">
-        <v>2.256318945267836E-4</v>
+        <v>1.3900598378666258E-4</v>
       </c>
       <c r="J21">
-        <v>1.2243417765891627E-4</v>
+        <v>5.9705543709869403E-5</v>
       </c>
       <c r="K21">
-        <v>2.4024038883461974E-5</v>
+        <v>-4.5036032423920679E-6</v>
       </c>
       <c r="L21">
-        <v>-4.5002668236837542E-6</v>
+        <v>1.7176405853380565E-5</v>
       </c>
       <c r="M21">
-        <v>-1.9828308052192653E-4</v>
+        <v>-1.7736314328391901E-4</v>
       </c>
       <c r="N21">
-        <v>-3.2219459393250001E-5</v>
+        <v>-6.3358881642926537E-6</v>
       </c>
       <c r="O21">
-        <v>3.0052355105146436E-6</v>
+        <v>-2.8408037548809497E-6</v>
       </c>
       <c r="P21">
-        <v>-1.6058000714906973E-4</v>
+        <v>-1.0936687984682683E-4</v>
       </c>
       <c r="Q21">
-        <v>8.5393677651394756E-6</v>
+        <v>8.5281436049276899E-6</v>
       </c>
       <c r="R21">
-        <v>-1.5559855612046051E-4</v>
+        <v>-1.6197620198304117E-4</v>
       </c>
       <c r="S21">
-        <v>2.1725952255835855E-3</v>
+        <v>1.9410766389405993E-3</v>
       </c>
       <c r="T21">
-        <v>2.1703549077246418E-3</v>
+        <v>1.9422909549137294E-3</v>
       </c>
       <c r="U21">
-        <v>2.1806805557141613E-3</v>
+        <v>1.9433143873317878E-3</v>
       </c>
       <c r="V21">
-        <v>3.0169653702485444E-3</v>
+        <v>2.7525533154353242E-3</v>
       </c>
       <c r="W21">
-        <v>-6.694133294802498E-5</v>
+        <v>-5.31416522502238E-5</v>
       </c>
       <c r="X21">
-        <v>-1.5912684952432967E-5</v>
+        <v>-1.5499141738962139E-4</v>
       </c>
       <c r="Y21">
-        <v>1.3391394966685973E-4</v>
+        <v>7.2766200978291559E-5</v>
       </c>
       <c r="Z21">
-        <v>-1.4495220305053001E-3</v>
+        <v>-1.3212830075310126E-3</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.45">
@@ -3090,79 +3090,79 @@
         <v>21</v>
       </c>
       <c r="B22" s="4">
-        <v>-3.4996049790491784E-2</v>
+        <v>-3.6948423892811111E-2</v>
       </c>
       <c r="C22">
-        <v>-2.4795870408941207E-7</v>
+        <v>-1.8489065971462965E-6</v>
       </c>
       <c r="D22">
-        <v>-3.8754436014623456E-6</v>
+        <v>-3.3377470949820688E-6</v>
       </c>
       <c r="E22">
-        <v>3.4913256897352414E-8</v>
+        <v>3.0340105741843263E-8</v>
       </c>
       <c r="F22">
-        <v>1.6780898849984723E-5</v>
+        <v>1.7220990881987147E-5</v>
       </c>
       <c r="G22">
-        <v>2.3372852206692549E-5</v>
+        <v>2.0251400453035254E-5</v>
       </c>
       <c r="H22">
-        <v>-3.6028062892759212E-5</v>
+        <v>-2.5757842459753981E-5</v>
       </c>
       <c r="I22">
-        <v>-1.0148672373999168E-5</v>
+        <v>-7.5662564888910545E-6</v>
       </c>
       <c r="J22">
-        <v>-2.3646739208948281E-5</v>
+        <v>-2.0500938939573997E-5</v>
       </c>
       <c r="K22">
-        <v>-8.4300908268228412E-6</v>
+        <v>-7.8548086608421695E-6</v>
       </c>
       <c r="L22">
-        <v>-2.1129403950058672E-6</v>
+        <v>-3.0300902384266246E-6</v>
       </c>
       <c r="M22">
-        <v>2.3733900787817477E-6</v>
+        <v>3.0628907788204219E-6</v>
       </c>
       <c r="N22">
-        <v>-6.2541249412879994E-6</v>
+        <v>-7.4402925825339214E-6</v>
       </c>
       <c r="O22">
-        <v>1.5127823267167701E-6</v>
+        <v>7.4759129479839401E-7</v>
       </c>
       <c r="P22">
-        <v>1.6402633979182872E-5</v>
+        <v>2.0165841262187761E-5</v>
       </c>
       <c r="Q22">
-        <v>-1.5955846287035728E-6</v>
+        <v>-1.1575118984314643E-6</v>
       </c>
       <c r="R22">
-        <v>-1.7532505674785703E-5</v>
+        <v>-1.9104016726998E-5</v>
       </c>
       <c r="S22">
-        <v>-6.9556489160641866E-5</v>
+        <v>-5.7304002856855302E-5</v>
       </c>
       <c r="T22">
-        <v>-7.1907320353814861E-5</v>
+        <v>-5.9695659533411686E-5</v>
       </c>
       <c r="U22">
-        <v>-7.3041743218926582E-5</v>
+        <v>-6.0126414419292787E-5</v>
       </c>
       <c r="V22">
-        <v>-6.694133294802498E-5</v>
+        <v>-5.31416522502238E-5</v>
       </c>
       <c r="W22">
-        <v>3.1898248257181012E-5</v>
+        <v>2.9795200121711498E-5</v>
       </c>
       <c r="X22">
-        <v>-1.1857788194529048E-4</v>
+        <v>-1.0832512201968902E-4</v>
       </c>
       <c r="Y22">
-        <v>-1.3472496847393868E-4</v>
+        <v>-1.2479886174834951E-4</v>
       </c>
       <c r="Z22">
-        <v>-3.4095036270860715E-4</v>
+        <v>-3.2913715363322638E-4</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.45">
@@ -3170,79 +3170,79 @@
         <v>22</v>
       </c>
       <c r="B23" s="4">
-        <v>-0.51257672959008926</v>
+        <v>-0.46497500611767489</v>
       </c>
       <c r="C23">
-        <v>6.7433969298730028E-5</v>
+        <v>3.8758169007535272E-5</v>
       </c>
       <c r="D23">
-        <v>5.3781555794152596E-5</v>
+        <v>4.7456284863945449E-5</v>
       </c>
       <c r="E23">
-        <v>-4.8737713992206224E-7</v>
+        <v>-4.3748824523357364E-7</v>
       </c>
       <c r="F23">
-        <v>-2.6206282702263107E-4</v>
+        <v>-1.2103884618969542E-4</v>
       </c>
       <c r="G23">
-        <v>-2.4623897812581371E-4</v>
+        <v>-4.2580763047944019E-5</v>
       </c>
       <c r="H23">
-        <v>5.2251308234808457E-4</v>
+        <v>5.2895724822177607E-4</v>
       </c>
       <c r="I23">
-        <v>2.4472238758744625E-4</v>
+        <v>2.2587214035028392E-4</v>
       </c>
       <c r="J23">
-        <v>1.3818293816274382E-4</v>
+        <v>1.4146172198566641E-4</v>
       </c>
       <c r="K23">
-        <v>1.7000338869801557E-4</v>
+        <v>1.9946283460452836E-4</v>
       </c>
       <c r="L23">
-        <v>1.2985145922262808E-4</v>
+        <v>1.2214719370816124E-4</v>
       </c>
       <c r="M23">
-        <v>-5.4872387622790532E-4</v>
+        <v>-4.5002205489233456E-4</v>
       </c>
       <c r="N23">
-        <v>1.0412810404225527E-4</v>
+        <v>5.7388108143108197E-5</v>
       </c>
       <c r="O23">
-        <v>-6.0105060608917646E-6</v>
+        <v>2.0814173024050837E-6</v>
       </c>
       <c r="P23">
-        <v>1.4987042106780102E-3</v>
+        <v>1.2790729798383975E-3</v>
       </c>
       <c r="Q23">
-        <v>-2.6722343373659278E-5</v>
+        <v>-1.44640776023036E-5</v>
       </c>
       <c r="R23">
-        <v>-1.377551786105497E-4</v>
+        <v>-1.0357543255889339E-4</v>
       </c>
       <c r="S23">
-        <v>-6.24391367352135E-6</v>
+        <v>-1.3307224466582669E-4</v>
       </c>
       <c r="T23">
-        <v>4.038644625897563E-5</v>
+        <v>-4.175097813983856E-5</v>
       </c>
       <c r="U23">
-        <v>-1.2634799361616142E-4</v>
+        <v>-2.406400711238616E-4</v>
       </c>
       <c r="V23">
-        <v>-1.5912684952432967E-5</v>
+        <v>-1.5499141738962139E-4</v>
       </c>
       <c r="W23">
-        <v>-1.1857788194529048E-4</v>
+        <v>-1.0832512201968902E-4</v>
       </c>
       <c r="X23">
-        <v>7.0059157911962116E-3</v>
+        <v>6.4292795434908916E-3</v>
       </c>
       <c r="Y23">
-        <v>1.2299720002870577E-3</v>
+        <v>1.1281446579347871E-3</v>
       </c>
       <c r="Z23">
-        <v>-1.01750766453572E-4</v>
+        <v>3.6661003420565596E-5</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.45">
@@ -3250,79 +3250,79 @@
         <v>23</v>
       </c>
       <c r="B24" s="4">
-        <v>-0.41689727608834237</v>
+        <v>-0.41258663436045423</v>
       </c>
       <c r="C24">
-        <v>2.0718405999354389E-5</v>
+        <v>1.8506060607368518E-5</v>
       </c>
       <c r="D24">
-        <v>2.0796034719010987E-5</v>
+        <v>1.7790854707234191E-5</v>
       </c>
       <c r="E24">
-        <v>-2.3018480895985338E-7</v>
+        <v>-1.9351885592057598E-7</v>
       </c>
       <c r="F24">
-        <v>-1.0377978844040316E-4</v>
+        <v>-1.0175761089266844E-4</v>
       </c>
       <c r="G24">
-        <v>1.5850342079120434E-5</v>
+        <v>2.5806581809090234E-5</v>
       </c>
       <c r="H24">
-        <v>-1.309029736989804E-4</v>
+        <v>-1.0039890202066457E-4</v>
       </c>
       <c r="I24">
-        <v>-2.8654762966951255E-5</v>
+        <v>-1.0579345123202947E-5</v>
       </c>
       <c r="J24">
-        <v>-3.2169873384303542E-5</v>
+        <v>-2.3070630088995337E-5</v>
       </c>
       <c r="K24">
-        <v>2.8503196426972813E-6</v>
+        <v>2.9082759658217126E-5</v>
       </c>
       <c r="L24">
-        <v>4.5706187493194106E-5</v>
+        <v>3.7959409527624222E-5</v>
       </c>
       <c r="M24">
-        <v>-2.904742414332525E-4</v>
+        <v>-2.5629639932315434E-4</v>
       </c>
       <c r="N24">
-        <v>-1.9220447549101209E-5</v>
+        <v>-1.010376771855173E-5</v>
       </c>
       <c r="O24">
-        <v>-2.1772012809804115E-5</v>
+        <v>-1.9067396904003884E-5</v>
       </c>
       <c r="P24">
-        <v>-4.915953621430632E-4</v>
+        <v>-4.4773165627762148E-4</v>
       </c>
       <c r="Q24">
-        <v>7.0005295636831549E-6</v>
+        <v>7.7598119044286755E-6</v>
       </c>
       <c r="R24">
-        <v>-1.5660651218286125E-4</v>
+        <v>-1.4182065293793597E-4</v>
       </c>
       <c r="S24">
-        <v>3.0872888519868305E-4</v>
+        <v>2.6827644528989395E-4</v>
       </c>
       <c r="T24">
-        <v>2.9681994107703328E-4</v>
+        <v>2.2727092413333096E-4</v>
       </c>
       <c r="U24">
-        <v>2.1767985315587432E-4</v>
+        <v>1.6286987944488698E-4</v>
       </c>
       <c r="V24">
-        <v>1.3391394966685973E-4</v>
+        <v>7.2766200978291559E-5</v>
       </c>
       <c r="W24">
-        <v>-1.3472496847393868E-4</v>
+        <v>-1.2479886174834951E-4</v>
       </c>
       <c r="X24">
-        <v>1.2299720002870577E-3</v>
+        <v>1.1281446579347871E-3</v>
       </c>
       <c r="Y24">
-        <v>3.2589050577469482E-3</v>
+        <v>3.0333125801310186E-3</v>
       </c>
       <c r="Z24">
-        <v>1.4998302658133364E-3</v>
+        <v>1.3948128600288795E-3</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.45">
@@ -3330,79 +3330,79 @@
         <v>24</v>
       </c>
       <c r="B25" s="4">
-        <v>-2.1806239216867906</v>
+        <v>-2.0725060798096253</v>
       </c>
       <c r="C25">
-        <v>-9.5637322977209192E-4</v>
+        <v>-7.3127166886379001E-4</v>
       </c>
       <c r="D25">
-        <v>-1.6542415225429112E-3</v>
+        <v>-1.5703476312509779E-3</v>
       </c>
       <c r="E25">
-        <v>1.4856783071257045E-5</v>
+        <v>1.4296387363460427E-5</v>
       </c>
       <c r="F25">
-        <v>-1.0098450943983E-3</v>
+        <v>-1.2966174938875807E-3</v>
       </c>
       <c r="G25">
-        <v>-2.5245331617493104E-3</v>
+        <v>-2.9021676809827097E-3</v>
       </c>
       <c r="H25">
-        <v>-1.0314915623959081E-2</v>
+        <v>-9.1895501848544611E-3</v>
       </c>
       <c r="I25">
-        <v>-4.3445750211356434E-3</v>
+        <v>-3.8211822754501551E-3</v>
       </c>
       <c r="J25">
-        <v>-5.2110016349323132E-3</v>
+        <v>-4.9137828341010818E-3</v>
       </c>
       <c r="K25">
-        <v>-3.4415472521406787E-3</v>
+        <v>-2.9915155472920204E-3</v>
       </c>
       <c r="L25">
-        <v>-4.9385160206989022E-3</v>
+        <v>-4.8929371409059917E-3</v>
       </c>
       <c r="M25">
-        <v>-2.5721828612691585E-3</v>
+        <v>-2.3289291197963963E-3</v>
       </c>
       <c r="N25">
-        <v>-2.7175512097526071E-3</v>
+        <v>-2.545142494712441E-3</v>
       </c>
       <c r="O25">
-        <v>-5.301500789003787E-4</v>
+        <v>-4.8582126792973254E-4</v>
       </c>
       <c r="P25">
-        <v>-5.2167586395967006E-4</v>
+        <v>-1.0742443691731485E-3</v>
       </c>
       <c r="Q25">
-        <v>2.2678906067474699E-4</v>
+        <v>2.0599611265711387E-4</v>
       </c>
       <c r="R25">
-        <v>1.1494416509874464E-3</v>
+        <v>1.3332604625859018E-3</v>
       </c>
       <c r="S25">
-        <v>-1.6532362918860416E-3</v>
+        <v>-1.5439685437287393E-3</v>
       </c>
       <c r="T25">
-        <v>-1.027409179893829E-3</v>
+        <v>-9.912376939941812E-4</v>
       </c>
       <c r="U25">
-        <v>-1.3051873850985641E-3</v>
+        <v>-1.08000187558999E-3</v>
       </c>
       <c r="V25">
-        <v>-1.4495220305053001E-3</v>
+        <v>-1.3212830075310126E-3</v>
       </c>
       <c r="W25">
-        <v>-3.4095036270860715E-4</v>
+        <v>-3.2913715363322638E-4</v>
       </c>
       <c r="X25">
-        <v>-1.01750766453572E-4</v>
+        <v>3.6661003420565596E-5</v>
       </c>
       <c r="Y25">
-        <v>1.4998302658133364E-3</v>
+        <v>1.3948128600288795E-3</v>
       </c>
       <c r="Z25">
-        <v>6.5842556999397089E-2</v>
+        <v>6.1924249902459427E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3476,49 +3476,49 @@
         <v>15</v>
       </c>
       <c r="B2" s="4">
-        <v>0.12316746969829941</v>
+        <v>0.12319420025411058</v>
       </c>
       <c r="C2">
-        <v>5.0202077102944401E-3</v>
+        <v>5.0195282325361801E-3</v>
       </c>
       <c r="D2">
-        <v>-1.1231680133569465E-3</v>
+        <v>-1.1252605851151789E-3</v>
       </c>
       <c r="E2">
-        <v>2.7158640157504297E-5</v>
+        <v>2.7207528922078958E-5</v>
       </c>
       <c r="F2">
-        <v>-2.9292588895649986E-4</v>
+        <v>-2.9057946088258493E-4</v>
       </c>
       <c r="G2">
-        <v>2.3168901396491872E-4</v>
+        <v>2.3169774070266414E-4</v>
       </c>
       <c r="H2">
-        <v>1.384717224126291E-3</v>
+        <v>1.3843346208248404E-3</v>
       </c>
       <c r="I2">
-        <v>1.2303408780517493E-3</v>
+        <v>1.22992819960481E-3</v>
       </c>
       <c r="J2">
-        <v>-2.4786056664098492E-4</v>
+        <v>-2.4736610286243835E-4</v>
       </c>
       <c r="K2">
-        <v>1.2337907109993204E-3</v>
+        <v>1.23506838494092E-3</v>
       </c>
       <c r="L2">
-        <v>1.3215428890431136E-3</v>
+        <v>1.3219394753812303E-3</v>
       </c>
       <c r="M2">
-        <v>-2.0675063335471797E-4</v>
+        <v>-2.0669883189212545E-4</v>
       </c>
       <c r="N2">
-        <v>1.1139847368952308E-3</v>
+        <v>1.1135141558624578E-3</v>
       </c>
       <c r="O2">
-        <v>1.3603979672593101E-3</v>
+        <v>1.3596766944184713E-3</v>
       </c>
       <c r="P2">
-        <v>1.1788853945673985E-2</v>
+        <v>1.1800140215829216E-2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
@@ -3526,49 +3526,49 @@
         <v>16</v>
       </c>
       <c r="B3" s="4">
-        <v>-1.1530740530468646</v>
+        <v>-1.1526274440216122</v>
       </c>
       <c r="C3">
-        <v>-1.1231680133569465E-3</v>
+        <v>-1.1252605851151789E-3</v>
       </c>
       <c r="D3">
-        <v>0.11383429631938419</v>
+        <v>0.11382906973580703</v>
       </c>
       <c r="E3">
-        <v>-2.6747276533438643E-3</v>
+        <v>-2.6746014776572657E-3</v>
       </c>
       <c r="F3">
-        <v>-1.7652430659281793E-3</v>
+        <v>-1.7554362139046986E-3</v>
       </c>
       <c r="G3">
-        <v>-2.3426933129390703E-3</v>
+        <v>-2.3433645321509072E-3</v>
       </c>
       <c r="H3">
-        <v>-1.1198718298259802E-2</v>
+        <v>-1.1197888601447215E-2</v>
       </c>
       <c r="I3">
-        <v>7.9663601195201217E-4</v>
+        <v>8.0043786157224517E-4</v>
       </c>
       <c r="J3">
-        <v>-5.6222598465478502E-3</v>
+        <v>-5.6185426881895373E-3</v>
       </c>
       <c r="K3">
-        <v>-2.3719189058146739E-3</v>
+        <v>-2.3673205086899296E-3</v>
       </c>
       <c r="L3">
-        <v>-5.1880228123681871E-3</v>
+        <v>-5.1838683665106355E-3</v>
       </c>
       <c r="M3">
-        <v>2.6461809729538821E-5</v>
+        <v>2.657933204922025E-5</v>
       </c>
       <c r="N3">
-        <v>-6.4773142500507142E-4</v>
+        <v>-6.4714649724706419E-4</v>
       </c>
       <c r="O3">
-        <v>1.6228776492190899E-3</v>
+        <v>1.6212045003851649E-3</v>
       </c>
       <c r="P3">
-        <v>-1.1818750340998916</v>
+        <v>-1.1818694378680359</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
@@ -3576,49 +3576,49 @@
         <v>17</v>
       </c>
       <c r="B4" s="4">
-        <v>2.6336710399429794E-2</v>
+        <v>2.6326382510832691E-2</v>
       </c>
       <c r="C4">
-        <v>2.7158640157504297E-5</v>
+        <v>2.7207528922078958E-5</v>
       </c>
       <c r="D4">
-        <v>-2.6747276533438643E-3</v>
+        <v>-2.6746014776572657E-3</v>
       </c>
       <c r="E4">
-        <v>6.3074955432337209E-5</v>
+        <v>6.3071912756288405E-5</v>
       </c>
       <c r="F4">
-        <v>4.4208311020971138E-5</v>
+        <v>4.3989813547445043E-5</v>
       </c>
       <c r="G4">
-        <v>5.2363017395937054E-5</v>
+        <v>5.2379212139450071E-5</v>
       </c>
       <c r="H4">
-        <v>2.421345837203201E-4</v>
+        <v>2.4211597486782643E-4</v>
       </c>
       <c r="I4">
-        <v>-3.1962352972370045E-5</v>
+        <v>-3.2047592142248754E-5</v>
       </c>
       <c r="J4">
-        <v>1.2580525826271644E-4</v>
+        <v>1.2572296763127631E-4</v>
       </c>
       <c r="K4">
-        <v>5.0679069216279932E-5</v>
+        <v>5.0569477060290885E-5</v>
       </c>
       <c r="L4">
-        <v>1.2200330847066815E-4</v>
+        <v>1.2190841548789105E-4</v>
       </c>
       <c r="M4">
-        <v>2.6366743720914604E-7</v>
+        <v>2.6058318862301824E-7</v>
       </c>
       <c r="N4">
-        <v>7.4720525802020321E-6</v>
+        <v>7.4613889960509217E-6</v>
       </c>
       <c r="O4">
-        <v>-3.8016507664107024E-5</v>
+        <v>-3.7975802741879033E-5</v>
       </c>
       <c r="P4">
-        <v>2.7663184626622983E-2</v>
+        <v>2.766296587348438E-2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
@@ -3626,49 +3626,49 @@
         <v>18</v>
       </c>
       <c r="B5" s="4">
-        <v>5.2574825305009315E-2</v>
+        <v>5.3308697031061704E-2</v>
       </c>
       <c r="C5">
-        <v>-2.9292588895649986E-4</v>
+        <v>-2.9057946088258493E-4</v>
       </c>
       <c r="D5">
-        <v>-1.7652430659281793E-3</v>
+        <v>-1.7554362139046986E-3</v>
       </c>
       <c r="E5">
-        <v>4.4208311020971138E-5</v>
+        <v>4.3989813547445043E-5</v>
       </c>
       <c r="F5">
-        <v>2.2704480615901709E-3</v>
+        <v>2.2706831400724154E-3</v>
       </c>
       <c r="G5">
-        <v>5.3312124759642308E-5</v>
+        <v>5.354546410503121E-5</v>
       </c>
       <c r="H5">
-        <v>-2.2907288855104208E-4</v>
+        <v>-2.280017075353552E-4</v>
       </c>
       <c r="I5">
-        <v>6.6453700611339428E-4</v>
+        <v>6.6446112980107427E-4</v>
       </c>
       <c r="J5">
-        <v>1.4572360646183287E-3</v>
+        <v>1.4565834611942954E-3</v>
       </c>
       <c r="K5">
-        <v>4.6696188837904926E-4</v>
+        <v>4.6274793327923461E-4</v>
       </c>
       <c r="L5">
-        <v>1.0907327387213606E-3</v>
+        <v>1.090800571213333E-3</v>
       </c>
       <c r="M5">
-        <v>1.6858543120074326E-5</v>
+        <v>1.6526992286030467E-5</v>
       </c>
       <c r="N5">
-        <v>-1.4508777270566542E-4</v>
+        <v>-1.4270717679869954E-4</v>
       </c>
       <c r="O5">
-        <v>-5.1887276413972727E-4</v>
+        <v>-5.1547254115068969E-4</v>
       </c>
       <c r="P5">
-        <v>6.5911296983207912E-3</v>
+        <v>6.4851542851403071E-3</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
@@ -3676,49 +3676,49 @@
         <v>19</v>
       </c>
       <c r="B6" s="4">
-        <v>1.1888003522894959E-2</v>
+        <v>1.1890812931562274E-2</v>
       </c>
       <c r="C6">
-        <v>2.3168901396491872E-4</v>
+        <v>2.3169774070266414E-4</v>
       </c>
       <c r="D6">
-        <v>-2.3426933129390703E-3</v>
+        <v>-2.3433645321509072E-3</v>
       </c>
       <c r="E6">
-        <v>5.2363017395937054E-5</v>
+        <v>5.2379212139450071E-5</v>
       </c>
       <c r="F6">
-        <v>5.3312124759642308E-5</v>
+        <v>5.354546410503121E-5</v>
       </c>
       <c r="G6">
-        <v>1.3934391038098845E-3</v>
+        <v>1.3934164198531646E-3</v>
       </c>
       <c r="H6">
-        <v>5.915218477582293E-4</v>
+        <v>5.9148698650419995E-4</v>
       </c>
       <c r="I6">
-        <v>5.5656324932413896E-4</v>
+        <v>5.565000081345535E-4</v>
       </c>
       <c r="J6">
-        <v>-9.6201790878455793E-6</v>
+        <v>-9.6644541236533352E-6</v>
       </c>
       <c r="K6">
-        <v>9.80071618621077E-5</v>
+        <v>9.7785644261284485E-5</v>
       </c>
       <c r="L6">
-        <v>4.5713031720713906E-4</v>
+        <v>4.5739009683734826E-4</v>
       </c>
       <c r="M6">
-        <v>-4.5550287654875067E-5</v>
+        <v>-4.5534866582593514E-5</v>
       </c>
       <c r="N6">
-        <v>1.1475660276728111E-4</v>
+        <v>1.1464250876590601E-4</v>
       </c>
       <c r="O6">
-        <v>-3.0087790210956561E-4</v>
+        <v>-3.0082824316213577E-4</v>
       </c>
       <c r="P6">
-        <v>2.5288225547322282E-2</v>
+        <v>2.5293738091566466E-2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
@@ -3726,49 +3726,49 @@
         <v>20</v>
       </c>
       <c r="B7" s="4">
-        <v>1.9646809987247114</v>
+        <v>1.9646408870008256</v>
       </c>
       <c r="C7">
-        <v>1.384717224126291E-3</v>
+        <v>1.3843346208248404E-3</v>
       </c>
       <c r="D7">
-        <v>-1.1198718298259802E-2</v>
+        <v>-1.1197888601447215E-2</v>
       </c>
       <c r="E7">
-        <v>2.421345837203201E-4</v>
+        <v>2.4211597486782643E-4</v>
       </c>
       <c r="F7">
-        <v>-2.2907288855104208E-4</v>
+        <v>-2.280017075353552E-4</v>
       </c>
       <c r="G7">
-        <v>5.915218477582293E-4</v>
+        <v>5.9148698650419995E-4</v>
       </c>
       <c r="H7">
-        <v>1.1294988200547001E-2</v>
+        <v>1.1294126352228845E-2</v>
       </c>
       <c r="I7">
-        <v>2.1509628766338551E-3</v>
+        <v>2.1498735493796356E-3</v>
       </c>
       <c r="J7">
-        <v>-7.7588335459982498E-4</v>
+        <v>-7.7674203696138401E-4</v>
       </c>
       <c r="K7">
-        <v>9.8549803672162706E-4</v>
+        <v>9.8575014910289027E-4</v>
       </c>
       <c r="L7">
-        <v>2.0435829415577089E-4</v>
+        <v>2.0363851534511979E-4</v>
       </c>
       <c r="M7">
-        <v>-4.5495119302338405E-4</v>
+        <v>-4.549144309909034E-4</v>
       </c>
       <c r="N7">
-        <v>2.5675608967673236E-3</v>
+        <v>2.5672419735162377E-3</v>
       </c>
       <c r="O7">
-        <v>3.1648956970813241E-3</v>
+        <v>3.1645858352313261E-3</v>
       </c>
       <c r="P7">
-        <v>0.12824309562695879</v>
+        <v>0.1282299973674339</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
@@ -3776,49 +3776,49 @@
         <v>35</v>
       </c>
       <c r="B8" s="4">
-        <v>0.24673609426278356</v>
+        <v>0.24676065035211078</v>
       </c>
       <c r="C8">
-        <v>1.2303408780517493E-3</v>
+        <v>1.22992819960481E-3</v>
       </c>
       <c r="D8">
-        <v>7.9663601195201217E-4</v>
+        <v>8.0043786157224517E-4</v>
       </c>
       <c r="E8">
-        <v>-3.1962352972370045E-5</v>
+        <v>-3.2047592142248754E-5</v>
       </c>
       <c r="F8">
-        <v>6.6453700611339428E-4</v>
+        <v>6.6446112980107427E-4</v>
       </c>
       <c r="G8">
-        <v>5.5656324932413896E-4</v>
+        <v>5.565000081345535E-4</v>
       </c>
       <c r="H8">
-        <v>2.1509628766338551E-3</v>
+        <v>2.1498735493796356E-3</v>
       </c>
       <c r="I8">
-        <v>2.3620037478285401E-2</v>
+        <v>2.3622077387497529E-2</v>
       </c>
       <c r="J8">
-        <v>1.8947179121466783E-2</v>
+        <v>1.894883084470695E-2</v>
       </c>
       <c r="K8">
-        <v>1.8469804141373371E-2</v>
+        <v>1.8470408843994611E-2</v>
       </c>
       <c r="L8">
-        <v>1.8686017064830335E-2</v>
+        <v>1.8687751272662857E-2</v>
       </c>
       <c r="M8">
-        <v>-2.703479074945437E-4</v>
+        <v>-2.7027870232842945E-4</v>
       </c>
       <c r="N8">
-        <v>1.8931049011973317E-3</v>
+        <v>1.8932994781061946E-3</v>
       </c>
       <c r="O8">
-        <v>7.8679544687196984E-4</v>
+        <v>7.8638256617918206E-4</v>
       </c>
       <c r="P8">
-        <v>-2.1592086238120173E-2</v>
+        <v>-2.1635764729056095E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
@@ -3826,49 +3826,49 @@
         <v>36</v>
       </c>
       <c r="B9" s="4">
-        <v>0.16465522567420485</v>
+        <v>0.16469994912358724</v>
       </c>
       <c r="C9">
-        <v>-2.4786056664098492E-4</v>
+        <v>-2.4736610286243835E-4</v>
       </c>
       <c r="D9">
-        <v>-5.6222598465478502E-3</v>
+        <v>-5.6185426881895373E-3</v>
       </c>
       <c r="E9">
-        <v>1.2580525826271644E-4</v>
+        <v>1.2572296763127631E-4</v>
       </c>
       <c r="F9">
-        <v>1.4572360646183287E-3</v>
+        <v>1.4565834611942954E-3</v>
       </c>
       <c r="G9">
-        <v>-9.6201790878455793E-6</v>
+        <v>-9.6644541236533352E-6</v>
       </c>
       <c r="H9">
-        <v>-7.7588335459982498E-4</v>
+        <v>-7.7674203696138401E-4</v>
       </c>
       <c r="I9">
-        <v>1.8947179121466783E-2</v>
+        <v>1.894883084470695E-2</v>
       </c>
       <c r="J9">
-        <v>3.4726003596237724E-2</v>
+        <v>3.4726450814474813E-2</v>
       </c>
       <c r="K9">
-        <v>1.9023816507226191E-2</v>
+        <v>1.9023048342741496E-2</v>
       </c>
       <c r="L9">
-        <v>1.9057122504855945E-2</v>
+        <v>1.9058813677783216E-2</v>
       </c>
       <c r="M9">
-        <v>1.8001387196106707E-4</v>
+        <v>1.8006094498874319E-4</v>
       </c>
       <c r="N9">
-        <v>-1.6908567986907326E-3</v>
+        <v>-1.6911947769313596E-3</v>
       </c>
       <c r="O9">
-        <v>-3.0152353434869834E-3</v>
+        <v>-3.0155073382366129E-3</v>
       </c>
       <c r="P9">
-        <v>3.3914461449876983E-2</v>
+        <v>3.3873743835035268E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
@@ -3876,49 +3876,49 @@
         <v>37</v>
       </c>
       <c r="B10" s="4">
-        <v>0.14489172381667076</v>
+        <v>0.14480378851144068</v>
       </c>
       <c r="C10">
-        <v>1.2337907109993204E-3</v>
+        <v>1.23506838494092E-3</v>
       </c>
       <c r="D10">
-        <v>-2.3719189058146739E-3</v>
+        <v>-2.3673205086899296E-3</v>
       </c>
       <c r="E10">
-        <v>5.0679069216279932E-5</v>
+        <v>5.0569477060290885E-5</v>
       </c>
       <c r="F10">
-        <v>4.6696188837904926E-4</v>
+        <v>4.6274793327923461E-4</v>
       </c>
       <c r="G10">
-        <v>9.80071618621077E-5</v>
+        <v>9.7785644261284485E-5</v>
       </c>
       <c r="H10">
-        <v>9.8549803672162706E-4</v>
+        <v>9.8575014910289027E-4</v>
       </c>
       <c r="I10">
-        <v>1.8469804141373371E-2</v>
+        <v>1.8470408843994611E-2</v>
       </c>
       <c r="J10">
-        <v>1.9023816507226191E-2</v>
+        <v>1.9023048342741496E-2</v>
       </c>
       <c r="K10">
-        <v>2.3777428883310747E-2</v>
+        <v>2.3775840579355861E-2</v>
       </c>
       <c r="L10">
-        <v>1.8539332921140302E-2</v>
+        <v>1.8539191987915378E-2</v>
       </c>
       <c r="M10">
-        <v>-1.2306582264627391E-4</v>
+        <v>-1.2296816655995094E-4</v>
       </c>
       <c r="N10">
-        <v>1.621789356988387E-3</v>
+        <v>1.6220238936531933E-3</v>
       </c>
       <c r="O10">
-        <v>8.1747076964549387E-5</v>
+        <v>8.2022740902427255E-5</v>
       </c>
       <c r="P10">
-        <v>7.6626458076796758E-3</v>
+        <v>7.6308813809943254E-3</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
@@ -3926,49 +3926,49 @@
         <v>38</v>
       </c>
       <c r="B11" s="4">
-        <v>0.1877376678371932</v>
+        <v>0.18776929739002465</v>
       </c>
       <c r="C11">
-        <v>1.3215428890431136E-3</v>
+        <v>1.3219394753812303E-3</v>
       </c>
       <c r="D11">
-        <v>-5.1880228123681871E-3</v>
+        <v>-5.1838683665106355E-3</v>
       </c>
       <c r="E11">
-        <v>1.2200330847066815E-4</v>
+        <v>1.2190841548789105E-4</v>
       </c>
       <c r="F11">
-        <v>1.0907327387213606E-3</v>
+        <v>1.090800571213333E-3</v>
       </c>
       <c r="G11">
-        <v>4.5713031720713906E-4</v>
+        <v>4.5739009683734826E-4</v>
       </c>
       <c r="H11">
-        <v>2.0435829415577089E-4</v>
+        <v>2.0363851534511979E-4</v>
       </c>
       <c r="I11">
-        <v>1.8686017064830335E-2</v>
+        <v>1.8687751272662857E-2</v>
       </c>
       <c r="J11">
-        <v>1.9057122504855945E-2</v>
+        <v>1.9058813677783216E-2</v>
       </c>
       <c r="K11">
-        <v>1.8539332921140302E-2</v>
+        <v>1.8539191987915378E-2</v>
       </c>
       <c r="L11">
-        <v>2.1416882389241318E-2</v>
+        <v>2.1418512058959178E-2</v>
       </c>
       <c r="M11">
-        <v>-1.471551743939324E-4</v>
+        <v>-1.4712561356783295E-4</v>
       </c>
       <c r="N11">
-        <v>4.9816066662204672E-4</v>
+        <v>4.9878461699426335E-4</v>
       </c>
       <c r="O11">
-        <v>-3.6432250552883433E-5</v>
+        <v>-3.6648383292658265E-5</v>
       </c>
       <c r="P11">
-        <v>3.2590230285623162E-2</v>
+        <v>3.2542808979383088E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
@@ -3976,49 +3976,49 @@
         <v>21</v>
       </c>
       <c r="B12" s="4">
-        <v>1.7182857206674761E-4</v>
+        <v>1.723373731460139E-4</v>
       </c>
       <c r="C12">
-        <v>-2.0675063335471797E-4</v>
+        <v>-2.0669883189212545E-4</v>
       </c>
       <c r="D12">
-        <v>2.6461809729538821E-5</v>
+        <v>2.657933204922025E-5</v>
       </c>
       <c r="E12">
-        <v>2.6366743720914604E-7</v>
+        <v>2.6058318862301824E-7</v>
       </c>
       <c r="F12">
-        <v>1.6858543120074326E-5</v>
+        <v>1.6526992286030467E-5</v>
       </c>
       <c r="G12">
-        <v>-4.5550287654875067E-5</v>
+        <v>-4.5534866582593514E-5</v>
       </c>
       <c r="H12">
-        <v>-4.5495119302338405E-4</v>
+        <v>-4.549144309909034E-4</v>
       </c>
       <c r="I12">
-        <v>-2.703479074945437E-4</v>
+        <v>-2.7027870232842945E-4</v>
       </c>
       <c r="J12">
-        <v>1.8001387196106707E-4</v>
+        <v>1.8006094498874319E-4</v>
       </c>
       <c r="K12">
-        <v>-1.2306582264627391E-4</v>
+        <v>-1.2296816655995094E-4</v>
       </c>
       <c r="L12">
-        <v>-1.471551743939324E-4</v>
+        <v>-1.4712561356783295E-4</v>
       </c>
       <c r="M12">
-        <v>1.3958510766102898E-4</v>
+        <v>1.3957275320010089E-4</v>
       </c>
       <c r="N12">
-        <v>-7.8480074862088793E-4</v>
+        <v>-7.8466856244705733E-4</v>
       </c>
       <c r="O12">
-        <v>-8.6988921874756996E-4</v>
+        <v>-8.6984134895892046E-4</v>
       </c>
       <c r="P12">
-        <v>-2.4049707795721804E-3</v>
+        <v>-2.4045286104206424E-3</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
@@ -4026,49 +4026,49 @@
         <v>22</v>
       </c>
       <c r="B13" s="4">
-        <v>0.37390427135236259</v>
+        <v>0.37387111698028147</v>
       </c>
       <c r="C13">
-        <v>1.1139847368952308E-3</v>
+        <v>1.1135141558624578E-3</v>
       </c>
       <c r="D13">
-        <v>-6.4773142500507142E-4</v>
+        <v>-6.4714649724706419E-4</v>
       </c>
       <c r="E13">
-        <v>7.4720525802020321E-6</v>
+        <v>7.4613889960509217E-6</v>
       </c>
       <c r="F13">
-        <v>-1.4508777270566542E-4</v>
+        <v>-1.4270717679869954E-4</v>
       </c>
       <c r="G13">
-        <v>1.1475660276728111E-4</v>
+        <v>1.1464250876590601E-4</v>
       </c>
       <c r="H13">
-        <v>2.5675608967673236E-3</v>
+        <v>2.5672419735162377E-3</v>
       </c>
       <c r="I13">
-        <v>1.8931049011973317E-3</v>
+        <v>1.8932994781061946E-3</v>
       </c>
       <c r="J13">
-        <v>-1.6908567986907326E-3</v>
+        <v>-1.6911947769313596E-3</v>
       </c>
       <c r="K13">
-        <v>1.621789356988387E-3</v>
+        <v>1.6220238936531933E-3</v>
       </c>
       <c r="L13">
-        <v>4.9816066662204672E-4</v>
+        <v>4.9878461699426335E-4</v>
       </c>
       <c r="M13">
-        <v>-7.8480074862088793E-4</v>
+        <v>-7.8466856244705733E-4</v>
       </c>
       <c r="N13">
-        <v>1.8780446039318065E-2</v>
+        <v>1.8778063265822459E-2</v>
       </c>
       <c r="O13">
-        <v>5.9052096767198145E-3</v>
+        <v>5.9044829463552294E-3</v>
       </c>
       <c r="P13">
-        <v>1.8996484164790474E-2</v>
+        <v>1.8976903857132403E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
@@ -4076,49 +4076,49 @@
         <v>23</v>
       </c>
       <c r="B14" s="4">
-        <v>0.1959498988497074</v>
+        <v>0.1959586069288192</v>
       </c>
       <c r="C14">
-        <v>1.3603979672593101E-3</v>
+        <v>1.3596766944184713E-3</v>
       </c>
       <c r="D14">
-        <v>1.6228776492190899E-3</v>
+        <v>1.6212045003851649E-3</v>
       </c>
       <c r="E14">
-        <v>-3.8016507664107024E-5</v>
+        <v>-3.7975802741879033E-5</v>
       </c>
       <c r="F14">
-        <v>-5.1887276413972727E-4</v>
+        <v>-5.1547254115068969E-4</v>
       </c>
       <c r="G14">
-        <v>-3.0087790210956561E-4</v>
+        <v>-3.0082824316213577E-4</v>
       </c>
       <c r="H14">
-        <v>3.1648956970813241E-3</v>
+        <v>3.1645858352313261E-3</v>
       </c>
       <c r="I14">
-        <v>7.8679544687196984E-4</v>
+        <v>7.8638256617918206E-4</v>
       </c>
       <c r="J14">
-        <v>-3.0152353434869834E-3</v>
+        <v>-3.0155073382366129E-3</v>
       </c>
       <c r="K14">
-        <v>8.1747076964549387E-5</v>
+        <v>8.2022740902427255E-5</v>
       </c>
       <c r="L14">
-        <v>-3.6432250552883433E-5</v>
+        <v>-3.6648383292658265E-5</v>
       </c>
       <c r="M14">
-        <v>-8.6988921874756996E-4</v>
+        <v>-8.6984134895892046E-4</v>
       </c>
       <c r="N14">
-        <v>5.9052096767198145E-3</v>
+        <v>5.9044829463552294E-3</v>
       </c>
       <c r="O14">
-        <v>2.5281904691839975E-2</v>
+        <v>2.5279861736286643E-2</v>
       </c>
       <c r="P14">
-        <v>-4.4435097034529747E-3</v>
+        <v>-4.4414507035290679E-3</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
@@ -4126,49 +4126,49 @@
         <v>24</v>
       </c>
       <c r="B15" s="4">
-        <v>10.114113595252606</v>
+        <v>10.10606926980193</v>
       </c>
       <c r="C15">
-        <v>1.1788853945673985E-2</v>
+        <v>1.1800140215829216E-2</v>
       </c>
       <c r="D15">
-        <v>-1.1818750340998916</v>
+        <v>-1.1818694378680359</v>
       </c>
       <c r="E15">
-        <v>2.7663184626622983E-2</v>
+        <v>2.766296587348438E-2</v>
       </c>
       <c r="F15">
-        <v>6.5911296983207912E-3</v>
+        <v>6.4851542851403071E-3</v>
       </c>
       <c r="G15">
-        <v>2.5288225547322282E-2</v>
+        <v>2.5293738091566466E-2</v>
       </c>
       <c r="H15">
-        <v>0.12824309562695879</v>
+        <v>0.1282299973674339</v>
       </c>
       <c r="I15">
-        <v>-2.1592086238120173E-2</v>
+        <v>-2.1635764729056095E-2</v>
       </c>
       <c r="J15">
-        <v>3.3914461449876983E-2</v>
+        <v>3.3873743835035268E-2</v>
       </c>
       <c r="K15">
-        <v>7.6626458076796758E-3</v>
+        <v>7.6308813809943254E-3</v>
       </c>
       <c r="L15">
-        <v>3.2590230285623162E-2</v>
+        <v>3.2542808979383088E-2</v>
       </c>
       <c r="M15">
-        <v>-2.4049707795721804E-3</v>
+        <v>-2.4045286104206424E-3</v>
       </c>
       <c r="N15">
-        <v>1.8996484164790474E-2</v>
+        <v>1.8976903857132403E-2</v>
       </c>
       <c r="O15">
-        <v>-4.4435097034529747E-3</v>
+        <v>-4.4414507035290679E-3</v>
       </c>
       <c r="P15">
-        <v>12.412140720073964</v>
+        <v>12.412622335513817</v>
       </c>
     </row>
   </sheetData>
@@ -4180,7 +4180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4272,79 +4272,79 @@
         <v>15</v>
       </c>
       <c r="B2" s="4">
-        <v>-4.8105310707866313E-2</v>
+        <v>-5.8244337439533299E-2</v>
       </c>
       <c r="C2">
-        <v>9.2220215145010268E-4</v>
+        <v>8.6129790233819463E-4</v>
       </c>
       <c r="D2">
-        <v>1.6334761464355979E-5</v>
+        <v>1.1537759783117645E-5</v>
       </c>
       <c r="E2">
-        <v>-1.8171851974083144E-7</v>
+        <v>-1.3832432375897174E-7</v>
       </c>
       <c r="F2">
-        <v>-7.2628673819656305E-5</v>
+        <v>-6.5821776464585857E-5</v>
       </c>
       <c r="G2">
-        <v>-1.0946595621317553E-4</v>
+        <v>-1.1041942892118178E-4</v>
       </c>
       <c r="H2">
-        <v>1.5143020720828496E-5</v>
+        <v>2.3926617753739894E-5</v>
       </c>
       <c r="I2">
-        <v>1.4956290339553798E-5</v>
+        <v>4.1345360460427807E-5</v>
       </c>
       <c r="J2">
-        <v>9.0834130916543792E-5</v>
+        <v>1.1812306491909035E-4</v>
       </c>
       <c r="K2">
-        <v>4.5711070346756601E-5</v>
+        <v>2.1290690263527561E-5</v>
       </c>
       <c r="L2">
-        <v>1.6752996805613726E-4</v>
+        <v>1.4136078321906563E-4</v>
       </c>
       <c r="M2">
-        <v>4.1906479156940261E-4</v>
+        <v>3.9559334507008163E-4</v>
       </c>
       <c r="N2">
-        <v>1.3398407475876835E-5</v>
+        <v>8.263790303207261E-6</v>
       </c>
       <c r="O2">
-        <v>-4.1152004011492617E-5</v>
+        <v>-3.4810703238267465E-5</v>
       </c>
       <c r="P2">
-        <v>3.6483644133159974E-5</v>
+        <v>3.4253593797670524E-5</v>
       </c>
       <c r="Q2">
-        <v>8.3684404168434316E-6</v>
+        <v>7.0746500088472745E-6</v>
       </c>
       <c r="R2">
-        <v>3.1862332515091322E-5</v>
+        <v>2.9219204551918839E-5</v>
       </c>
       <c r="S2">
-        <v>-7.4431657362069149E-5</v>
+        <v>-6.8740754487054616E-5</v>
       </c>
       <c r="T2">
-        <v>-3.6733507901112365E-5</v>
+        <v>-2.5049520889910439E-5</v>
       </c>
       <c r="U2">
-        <v>-3.6005002589971211E-5</v>
+        <v>-2.210067863526545E-5</v>
       </c>
       <c r="V2">
-        <v>-7.0636763647271536E-5</v>
+        <v>-5.2814065858668799E-5</v>
       </c>
       <c r="W2">
-        <v>3.7995865139333987E-6</v>
+        <v>2.531492062338568E-6</v>
       </c>
       <c r="X2">
-        <v>-8.3450547568137285E-5</v>
+        <v>-7.3838360348885991E-5</v>
       </c>
       <c r="Y2">
-        <v>-1.4725226803484324E-5</v>
+        <v>-1.2361335127915279E-5</v>
       </c>
       <c r="Z2">
-        <v>-6.8989888867785395E-4</v>
+        <v>-5.4097457861786245E-4</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.45">
@@ -4352,79 +4352,79 @@
         <v>16</v>
       </c>
       <c r="B3" s="4">
-        <v>-3.3896291010167782E-3</v>
+        <v>-3.1191217533901206E-3</v>
       </c>
       <c r="C3">
-        <v>1.6334761464355979E-5</v>
+        <v>1.1537759783117645E-5</v>
       </c>
       <c r="D3">
-        <v>4.0203676833554712E-5</v>
+        <v>3.9269203907667287E-5</v>
       </c>
       <c r="E3">
-        <v>-4.1204717964527205E-7</v>
+        <v>-4.0318523265743496E-7</v>
       </c>
       <c r="F3">
-        <v>-3.2693064153825136E-6</v>
+        <v>3.097747956421924E-6</v>
       </c>
       <c r="G3">
-        <v>1.5882878774866401E-5</v>
+        <v>2.0896688269028533E-5</v>
       </c>
       <c r="H3">
-        <v>1.2981292131126885E-4</v>
+        <v>1.2532664492259226E-4</v>
       </c>
       <c r="I3">
-        <v>2.5733648098505295E-5</v>
+        <v>2.7210431392616574E-5</v>
       </c>
       <c r="J3">
-        <v>1.461883294926649E-4</v>
+        <v>1.4538950345677318E-4</v>
       </c>
       <c r="K3">
-        <v>1.2173356021035129E-5</v>
+        <v>8.7815220380825715E-6</v>
       </c>
       <c r="L3">
-        <v>1.0017960591807262E-4</v>
+        <v>9.6829355437907016E-5</v>
       </c>
       <c r="M3">
-        <v>1.219113503676773E-5</v>
+        <v>8.1038298294644484E-6</v>
       </c>
       <c r="N3">
-        <v>1.735719798072573E-5</v>
+        <v>1.9440038454409223E-5</v>
       </c>
       <c r="O3">
-        <v>3.9068867296479246E-6</v>
+        <v>4.3904665657726409E-6</v>
       </c>
       <c r="P3">
-        <v>1.079076971270904E-6</v>
+        <v>2.1875134260745076E-6</v>
       </c>
       <c r="Q3">
-        <v>-7.2993135007448977E-6</v>
+        <v>-7.1366978749782726E-6</v>
       </c>
       <c r="R3">
-        <v>-1.4774062806708135E-5</v>
+        <v>-1.1912993313841652E-5</v>
       </c>
       <c r="S3">
-        <v>-3.6092662114050781E-5</v>
+        <v>-3.7250098793184365E-5</v>
       </c>
       <c r="T3">
-        <v>-2.9235522226682973E-5</v>
+        <v>-2.8046201873132789E-5</v>
       </c>
       <c r="U3">
-        <v>-1.2867267233399238E-5</v>
+        <v>-1.1754883711324031E-5</v>
       </c>
       <c r="V3">
-        <v>-7.1578020328012695E-6</v>
+        <v>-4.6111083192621025E-6</v>
       </c>
       <c r="W3">
-        <v>-1.6580964949024988E-8</v>
+        <v>-4.0329785101902516E-8</v>
       </c>
       <c r="X3">
-        <v>1.1819747227211031E-7</v>
+        <v>3.2091389183514342E-7</v>
       </c>
       <c r="Y3">
-        <v>-1.9021527717843084E-5</v>
+        <v>-1.899410615235473E-5</v>
       </c>
       <c r="Z3">
-        <v>-9.8155927425072165E-4</v>
+        <v>-9.7190515930184744E-4</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.45">
@@ -4432,79 +4432,79 @@
         <v>17</v>
       </c>
       <c r="B4" s="4">
-        <v>2.3398717949811203E-5</v>
+        <v>2.1458686554868058E-5</v>
       </c>
       <c r="C4">
-        <v>-1.8171851974083144E-7</v>
+        <v>-1.3832432375897174E-7</v>
       </c>
       <c r="D4">
-        <v>-4.1204717964527205E-7</v>
+        <v>-4.0318523265743496E-7</v>
       </c>
       <c r="E4">
-        <v>4.417447043565617E-9</v>
+        <v>4.3256818085386898E-9</v>
       </c>
       <c r="F4">
-        <v>1.7188055792328167E-8</v>
+        <v>-4.2284407424664498E-8</v>
       </c>
       <c r="G4">
-        <v>-2.197737486639714E-7</v>
+        <v>-2.6082323092895617E-7</v>
       </c>
       <c r="H4">
-        <v>-1.084272691605423E-6</v>
+        <v>-1.0542185214877344E-6</v>
       </c>
       <c r="I4">
-        <v>-2.3631178896444755E-7</v>
+        <v>-2.4625110527586493E-7</v>
       </c>
       <c r="J4">
-        <v>-1.9243905445315023E-6</v>
+        <v>-1.9126147150741681E-6</v>
       </c>
       <c r="K4">
-        <v>5.4510775950826547E-8</v>
+        <v>7.4340317162795604E-8</v>
       </c>
       <c r="L4">
-        <v>-9.1433828256350755E-7</v>
+        <v>-8.8391568942679372E-7</v>
       </c>
       <c r="M4">
-        <v>4.7887539788049603E-8</v>
+        <v>7.4115891119072505E-8</v>
       </c>
       <c r="N4">
-        <v>-1.0038335107829547E-7</v>
+        <v>-1.2270871511615015E-7</v>
       </c>
       <c r="O4">
-        <v>-3.3300619036738938E-8</v>
+        <v>-3.5907709889012168E-8</v>
       </c>
       <c r="P4">
-        <v>-3.2998109647666975E-8</v>
+        <v>-3.4445761935874338E-8</v>
       </c>
       <c r="Q4">
-        <v>6.9486645096075561E-8</v>
+        <v>6.6367420612143924E-8</v>
       </c>
       <c r="R4">
-        <v>9.8165157882162679E-8</v>
+        <v>7.9341648558189329E-8</v>
       </c>
       <c r="S4">
-        <v>3.7004901348710459E-7</v>
+        <v>3.6387185071771577E-7</v>
       </c>
       <c r="T4">
-        <v>3.3242430440620148E-7</v>
+        <v>3.1138648873248127E-7</v>
       </c>
       <c r="U4">
-        <v>1.33239449174271E-7</v>
+        <v>1.1685853539109537E-7</v>
       </c>
       <c r="V4">
-        <v>9.7934312441844257E-8</v>
+        <v>6.3122073051336974E-8</v>
       </c>
       <c r="W4">
-        <v>-2.0240877543588244E-9</v>
+        <v>-1.7091764456851345E-9</v>
       </c>
       <c r="X4">
-        <v>6.1889748098592801E-9</v>
+        <v>-9.0277729582625478E-9</v>
       </c>
       <c r="Y4">
-        <v>1.9646370504546369E-7</v>
+        <v>1.8642845634098309E-7</v>
       </c>
       <c r="Z4">
-        <v>9.3112525936317709E-6</v>
+        <v>9.2542742162443259E-6</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.45">
@@ -4512,79 +4512,79 @@
         <v>25</v>
       </c>
       <c r="B5" s="4">
-        <v>-3.4111089021627961E-2</v>
+        <v>-2.6243066590943814E-2</v>
       </c>
       <c r="C5">
-        <v>-7.2628673819656305E-5</v>
+        <v>-6.5821776464585857E-5</v>
       </c>
       <c r="D5">
-        <v>-3.2693064153825136E-6</v>
+        <v>3.097747956421924E-6</v>
       </c>
       <c r="E5">
-        <v>1.7188055792328167E-8</v>
+        <v>-4.2284407424664498E-8</v>
       </c>
       <c r="F5">
-        <v>1.29242254682272E-3</v>
+        <v>1.2487632945239503E-3</v>
       </c>
       <c r="G5">
-        <v>1.0946553382867083E-3</v>
+        <v>1.0734375848985645E-3</v>
       </c>
       <c r="H5">
-        <v>3.1298675458414014E-4</v>
+        <v>2.480932595793346E-4</v>
       </c>
       <c r="I5">
-        <v>1.1217664830586035E-4</v>
+        <v>2.5341839490375978E-5</v>
       </c>
       <c r="J5">
-        <v>2.3103261612933971E-4</v>
+        <v>1.4191679568151014E-4</v>
       </c>
       <c r="K5">
-        <v>5.8811814672751415E-5</v>
+        <v>3.6738752805370016E-5</v>
       </c>
       <c r="L5">
-        <v>1.4437021683030565E-5</v>
+        <v>6.5765629929144266E-6</v>
       </c>
       <c r="M5">
-        <v>1.071143098380935E-5</v>
+        <v>-1.1030112446794803E-5</v>
       </c>
       <c r="N5">
-        <v>6.4261427322604101E-5</v>
+        <v>2.5615280217365409E-5</v>
       </c>
       <c r="O5">
-        <v>4.2656601493032471E-5</v>
+        <v>2.2371872422610123E-5</v>
       </c>
       <c r="P5">
-        <v>2.661154850629459E-4</v>
+        <v>2.7209221914715662E-4</v>
       </c>
       <c r="Q5">
-        <v>-7.304422989041786E-7</v>
+        <v>1.2313494079948957E-5</v>
       </c>
       <c r="R5">
-        <v>1.4439790944511074E-4</v>
+        <v>1.2269489782068251E-4</v>
       </c>
       <c r="S5">
-        <v>-2.2336253114626391E-4</v>
+        <v>-1.8714320074651077E-4</v>
       </c>
       <c r="T5">
-        <v>-1.9447462820486349E-4</v>
+        <v>-9.8241641799995036E-5</v>
       </c>
       <c r="U5">
-        <v>-1.1871257092158029E-4</v>
+        <v>-5.9523634846229831E-5</v>
       </c>
       <c r="V5">
-        <v>-2.8385639934974403E-5</v>
+        <v>2.1986294995192217E-5</v>
       </c>
       <c r="W5">
-        <v>5.673412804609043E-6</v>
+        <v>3.8236620791673429E-6</v>
       </c>
       <c r="X5">
-        <v>-5.6590807353276706E-5</v>
+        <v>-8.6505127803494254E-5</v>
       </c>
       <c r="Y5">
-        <v>-1.1241830519004509E-4</v>
+        <v>-1.3023542989722944E-4</v>
       </c>
       <c r="Z5">
-        <v>-1.4581603785109318E-3</v>
+        <v>-1.3882889392827877E-3</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.45">
@@ -4592,79 +4592,79 @@
         <v>26</v>
       </c>
       <c r="B6" s="4">
-        <v>-0.14947315445386505</v>
+        <v>-0.12870404310936376</v>
       </c>
       <c r="C6">
-        <v>-1.0946595621317553E-4</v>
+        <v>-1.1041942892118178E-4</v>
       </c>
       <c r="D6">
-        <v>1.5882878774866401E-5</v>
+        <v>2.0896688269028533E-5</v>
       </c>
       <c r="E6">
-        <v>-2.197737486639714E-7</v>
+        <v>-2.6082323092895617E-7</v>
       </c>
       <c r="F6">
-        <v>1.0946553382867083E-3</v>
+        <v>1.0734375848985645E-3</v>
       </c>
       <c r="G6">
-        <v>2.2082786324418872E-3</v>
+        <v>2.1129750788040132E-3</v>
       </c>
       <c r="H6">
-        <v>4.3484823948995179E-6</v>
+        <v>-6.7964394361190515E-6</v>
       </c>
       <c r="I6">
-        <v>5.0110543607243766E-5</v>
+        <v>-1.7380737716333794E-5</v>
       </c>
       <c r="J6">
-        <v>2.5857200124777059E-4</v>
+        <v>1.8072184171006369E-4</v>
       </c>
       <c r="K6">
-        <v>1.7114695154612272E-5</v>
+        <v>1.8673146809732125E-5</v>
       </c>
       <c r="L6">
-        <v>-1.3875696593799319E-4</v>
+        <v>-1.5282205461530376E-4</v>
       </c>
       <c r="M6">
-        <v>-7.1776144413885539E-5</v>
+        <v>-7.6703185975858209E-5</v>
       </c>
       <c r="N6">
-        <v>6.9566063168289492E-5</v>
+        <v>2.0355774682455118E-5</v>
       </c>
       <c r="O6">
-        <v>3.4630660376647712E-5</v>
+        <v>1.8214459153904922E-5</v>
       </c>
       <c r="P6">
-        <v>2.7807762210207217E-4</v>
+        <v>2.9571721484926926E-4</v>
       </c>
       <c r="Q6">
-        <v>1.068220038143353E-5</v>
+        <v>2.1281815203028334E-5</v>
       </c>
       <c r="R6">
-        <v>1.9781655360009737E-4</v>
+        <v>1.7415127400607845E-4</v>
       </c>
       <c r="S6">
-        <v>-1.9650299947967777E-4</v>
+        <v>-1.780855412694877E-4</v>
       </c>
       <c r="T6">
-        <v>-1.8991831611327544E-4</v>
+        <v>-1.4103473078683497E-4</v>
       </c>
       <c r="U6">
-        <v>-1.5229181470900169E-4</v>
+        <v>-1.1157675396371362E-4</v>
       </c>
       <c r="V6">
-        <v>5.0617061321913727E-5</v>
+        <v>6.7610349847862605E-5</v>
       </c>
       <c r="W6">
-        <v>1.1080616008043168E-5</v>
+        <v>8.6731768599810364E-6</v>
       </c>
       <c r="X6">
-        <v>-1.0623668856516832E-4</v>
+        <v>-1.4161359383604117E-4</v>
       </c>
       <c r="Y6">
-        <v>-9.3352127560775538E-5</v>
+        <v>-1.2300805045074105E-4</v>
       </c>
       <c r="Z6">
-        <v>-1.8840732332717301E-3</v>
+        <v>-1.7516767670310801E-3</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.45">
@@ -4672,79 +4672,79 @@
         <v>27</v>
       </c>
       <c r="B7" s="4">
-        <v>-1.1164919985001253E-2</v>
+        <v>-9.8061738900925167E-3</v>
       </c>
       <c r="C7">
-        <v>1.5143020720828496E-5</v>
+        <v>2.3926617753739894E-5</v>
       </c>
       <c r="D7">
-        <v>1.2981292131126885E-4</v>
+        <v>1.2532664492259226E-4</v>
       </c>
       <c r="E7">
-        <v>-1.084272691605423E-6</v>
+        <v>-1.0542185214877344E-6</v>
       </c>
       <c r="F7">
-        <v>3.1298675458414014E-4</v>
+        <v>2.480932595793346E-4</v>
       </c>
       <c r="G7">
-        <v>4.3484823948995179E-6</v>
+        <v>-6.7964394361190515E-6</v>
       </c>
       <c r="H7">
-        <v>8.0292070023355692E-3</v>
+        <v>7.7388528488616919E-3</v>
       </c>
       <c r="I7">
-        <v>1.7674841639383526E-3</v>
+        <v>1.6203312486933364E-3</v>
       </c>
       <c r="J7">
-        <v>1.7364252028569508E-3</v>
+        <v>1.5924081783739484E-3</v>
       </c>
       <c r="K7">
-        <v>4.9688952728450299E-4</v>
+        <v>4.4819071621424769E-4</v>
       </c>
       <c r="L7">
-        <v>7.6733885214863784E-5</v>
+        <v>1.0461928419654767E-4</v>
       </c>
       <c r="M7">
-        <v>4.1462292532126093E-4</v>
+        <v>3.6682615579711328E-4</v>
       </c>
       <c r="N7">
-        <v>-2.6038349720601366E-5</v>
+        <v>8.9569415133233157E-6</v>
       </c>
       <c r="O7">
-        <v>2.823641260090759E-4</v>
+        <v>2.5729302500337168E-4</v>
       </c>
       <c r="P7">
-        <v>4.7382613091078232E-5</v>
+        <v>3.8243050074444028E-5</v>
       </c>
       <c r="Q7">
-        <v>-4.7903944979923852E-5</v>
+        <v>-4.389228717709255E-5</v>
       </c>
       <c r="R7">
-        <v>7.5211327422280636E-5</v>
+        <v>1.0957274743964886E-4</v>
       </c>
       <c r="S7">
-        <v>-1.5570235108373844E-4</v>
+        <v>-1.8674932461552169E-4</v>
       </c>
       <c r="T7">
-        <v>-2.5507458608591037E-4</v>
+        <v>-2.8735762084782478E-4</v>
       </c>
       <c r="U7">
-        <v>-1.1328205675571377E-4</v>
+        <v>-1.2146006919084207E-4</v>
       </c>
       <c r="V7">
-        <v>6.1861772470650674E-5</v>
+        <v>1.7266588027294548E-5</v>
       </c>
       <c r="W7">
-        <v>5.3114567552340621E-6</v>
+        <v>5.7238100108621354E-6</v>
       </c>
       <c r="X7">
-        <v>-2.4681563780574469E-4</v>
+        <v>-2.0487191327827996E-4</v>
       </c>
       <c r="Y7">
-        <v>-1.8817940517742217E-4</v>
+        <v>-1.7041217826349315E-4</v>
       </c>
       <c r="Z7">
-        <v>-5.7114267814077184E-3</v>
+        <v>-5.4677183572386127E-3</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.45">
@@ -4752,79 +4752,79 @@
         <v>28</v>
       </c>
       <c r="B8" s="4">
-        <v>9.5923460051752396E-2</v>
+        <v>8.5251364722751341E-2</v>
       </c>
       <c r="C8">
-        <v>1.4956290339553798E-5</v>
+        <v>4.1345360460427807E-5</v>
       </c>
       <c r="D8">
-        <v>2.5733648098505295E-5</v>
+        <v>2.7210431392616574E-5</v>
       </c>
       <c r="E8">
-        <v>-2.3631178896444755E-7</v>
+        <v>-2.4625110527586493E-7</v>
       </c>
       <c r="F8">
-        <v>1.1217664830586035E-4</v>
+        <v>2.5341839490375978E-5</v>
       </c>
       <c r="G8">
-        <v>5.0110543607243766E-5</v>
+        <v>-1.7380737716333794E-5</v>
       </c>
       <c r="H8">
-        <v>1.7674841639383526E-3</v>
+        <v>1.6203312486933364E-3</v>
       </c>
       <c r="I8">
-        <v>1.9600344593566975E-3</v>
+        <v>1.8493293060547126E-3</v>
       </c>
       <c r="J8">
-        <v>1.6869311564130338E-3</v>
+        <v>1.5452388929371645E-3</v>
       </c>
       <c r="K8">
-        <v>2.0195103862192642E-5</v>
+        <v>2.2190614749332117E-5</v>
       </c>
       <c r="L8">
-        <v>6.5593259782377149E-5</v>
+        <v>8.4168894894211439E-5</v>
       </c>
       <c r="M8">
-        <v>1.0640721668859088E-4</v>
+        <v>1.1086297911880815E-4</v>
       </c>
       <c r="N8">
-        <v>1.0608651550274737E-4</v>
+        <v>1.2640233518600844E-4</v>
       </c>
       <c r="O8">
-        <v>2.1561135710295465E-4</v>
+        <v>1.9361214300540549E-4</v>
       </c>
       <c r="P8">
-        <v>2.8676352332359083E-5</v>
+        <v>1.904642038395854E-5</v>
       </c>
       <c r="Q8">
-        <v>-1.5217183777949903E-5</v>
+        <v>-1.2476127105941895E-5</v>
       </c>
       <c r="R8">
-        <v>-2.7617260485751421E-5</v>
+        <v>-1.563756334544092E-5</v>
       </c>
       <c r="S8">
-        <v>-1.0157377494529108E-4</v>
+        <v>-1.2564809291153308E-4</v>
       </c>
       <c r="T8">
-        <v>-1.8005753919864132E-4</v>
+        <v>-1.8833404912447105E-4</v>
       </c>
       <c r="U8">
-        <v>-8.4424517088551058E-5</v>
+        <v>-8.9018456995237016E-5</v>
       </c>
       <c r="V8">
-        <v>3.8962281084118191E-5</v>
+        <v>5.0609610093509095E-6</v>
       </c>
       <c r="W8">
-        <v>3.27217014153906E-7</v>
+        <v>3.9283034091352527E-7</v>
       </c>
       <c r="X8">
-        <v>-1.6460812009336961E-4</v>
+        <v>-1.4779442285337572E-4</v>
       </c>
       <c r="Y8">
-        <v>-1.0043302925012727E-4</v>
+        <v>-8.2491207183308345E-5</v>
       </c>
       <c r="Z8">
-        <v>-2.7512083943151016E-3</v>
+        <v>-2.6610883106909845E-3</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.45">
@@ -4832,79 +4832,79 @@
         <v>29</v>
       </c>
       <c r="B9" s="4">
-        <v>3.4807011220785798E-2</v>
+        <v>2.1324978870012629E-2</v>
       </c>
       <c r="C9">
-        <v>9.0834130916543792E-5</v>
+        <v>1.1812306491909035E-4</v>
       </c>
       <c r="D9">
-        <v>1.461883294926649E-4</v>
+        <v>1.4538950345677318E-4</v>
       </c>
       <c r="E9">
-        <v>-1.9243905445315023E-6</v>
+        <v>-1.9126147150741681E-6</v>
       </c>
       <c r="F9">
-        <v>2.3103261612933971E-4</v>
+        <v>1.4191679568151014E-4</v>
       </c>
       <c r="G9">
-        <v>2.5857200124777059E-4</v>
+        <v>1.8072184171006369E-4</v>
       </c>
       <c r="H9">
-        <v>1.7364252028569508E-3</v>
+        <v>1.5924081783739484E-3</v>
       </c>
       <c r="I9">
-        <v>1.6869311564130338E-3</v>
+        <v>1.5452388929371645E-3</v>
       </c>
       <c r="J9">
-        <v>4.6833360428223132E-3</v>
+        <v>4.5006192393169725E-3</v>
       </c>
       <c r="K9">
-        <v>1.0401123570608008E-4</v>
+        <v>8.9944985331068478E-5</v>
       </c>
       <c r="L9">
-        <v>2.9188829683138675E-4</v>
+        <v>2.8384233521615905E-4</v>
       </c>
       <c r="M9">
-        <v>1.5364515547390111E-4</v>
+        <v>1.4607422224815125E-4</v>
       </c>
       <c r="N9">
-        <v>1.2855909298709138E-4</v>
+        <v>9.7407784196778217E-5</v>
       </c>
       <c r="O9">
-        <v>2.2918871611552827E-4</v>
+        <v>2.0300420819357678E-4</v>
       </c>
       <c r="P9">
-        <v>3.9152924537132379E-5</v>
+        <v>2.7483153931976995E-5</v>
       </c>
       <c r="Q9">
-        <v>-1.6469619763172573E-5</v>
+        <v>-1.1003625606446275E-5</v>
       </c>
       <c r="R9">
-        <v>-6.87084334167554E-7</v>
+        <v>-1.0976841387612575E-5</v>
       </c>
       <c r="S9">
-        <v>-2.8848921239038659E-5</v>
+        <v>-4.2312371119459244E-5</v>
       </c>
       <c r="T9">
-        <v>-4.0914327924475833E-4</v>
+        <v>-3.9263538518019916E-4</v>
       </c>
       <c r="U9">
-        <v>-1.37044860147339E-4</v>
+        <v>-1.2445994927460385E-4</v>
       </c>
       <c r="V9">
-        <v>-3.1512651010399213E-5</v>
+        <v>-4.6618273654365613E-5</v>
       </c>
       <c r="W9">
-        <v>-1.1564343731699706E-5</v>
+        <v>-1.0407116605641399E-5</v>
       </c>
       <c r="X9">
-        <v>4.3853546299079272E-5</v>
+        <v>7.4400115263890303E-5</v>
       </c>
       <c r="Y9">
-        <v>-3.5786165880733275E-5</v>
+        <v>-2.4825393044161474E-5</v>
       </c>
       <c r="Z9">
-        <v>-4.8018768321458349E-3</v>
+        <v>-4.4637914327299915E-3</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.45">
@@ -4912,79 +4912,79 @@
         <v>30</v>
       </c>
       <c r="B10" s="4">
-        <v>-9.9872194678841522E-2</v>
+        <v>-9.6034372623850131E-2</v>
       </c>
       <c r="C10">
-        <v>4.5711070346756601E-5</v>
+        <v>2.1290690263527561E-5</v>
       </c>
       <c r="D10">
-        <v>1.2173356021035129E-5</v>
+        <v>8.7815220380825715E-6</v>
       </c>
       <c r="E10">
-        <v>5.4510775950826547E-8</v>
+        <v>7.4340317162795604E-8</v>
       </c>
       <c r="F10">
-        <v>5.8811814672751415E-5</v>
+        <v>3.6738752805370016E-5</v>
       </c>
       <c r="G10">
-        <v>1.7114695154612272E-5</v>
+        <v>1.8673146809732125E-5</v>
       </c>
       <c r="H10">
-        <v>4.9688952728450299E-4</v>
+        <v>4.4819071621424769E-4</v>
       </c>
       <c r="I10">
-        <v>2.0195103862192642E-5</v>
+        <v>2.2190614749332117E-5</v>
       </c>
       <c r="J10">
-        <v>1.0401123570608008E-4</v>
+        <v>8.9944985331068478E-5</v>
       </c>
       <c r="K10">
-        <v>1.6878083933076172E-3</v>
+        <v>1.5677376201955568E-3</v>
       </c>
       <c r="L10">
-        <v>8.5766387345007447E-4</v>
+        <v>8.1901905611024952E-4</v>
       </c>
       <c r="M10">
-        <v>1.0442235800970621E-3</v>
+        <v>9.7344139533651441E-4</v>
       </c>
       <c r="N10">
-        <v>-1.9968182265075302E-6</v>
+        <v>-1.9240833091113939E-5</v>
       </c>
       <c r="O10">
-        <v>5.6709887575257137E-6</v>
+        <v>1.2935998733076218E-5</v>
       </c>
       <c r="P10">
-        <v>-6.6184954083076813E-5</v>
+        <v>-4.7986906572309055E-5</v>
       </c>
       <c r="Q10">
-        <v>-1.1169608551120595E-6</v>
+        <v>-5.8719200983573051E-6</v>
       </c>
       <c r="R10">
-        <v>-4.9958866044719674E-5</v>
+        <v>-5.9817895815331406E-5</v>
       </c>
       <c r="S10">
-        <v>1.1937286236646569E-4</v>
+        <v>1.0175382215642199E-4</v>
       </c>
       <c r="T10">
-        <v>-8.3142991119697894E-5</v>
+        <v>-7.4097733710036214E-5</v>
       </c>
       <c r="U10">
-        <v>-6.0612895378730938E-5</v>
+        <v>-4.5904528581284685E-5</v>
       </c>
       <c r="V10">
-        <v>-7.0320068713865426E-5</v>
+        <v>-5.9798794095122801E-5</v>
       </c>
       <c r="W10">
-        <v>-3.8454373014178737E-6</v>
+        <v>-3.7525721659891321E-6</v>
       </c>
       <c r="X10">
-        <v>2.1280004747759187E-4</v>
+        <v>2.0010662561979991E-4</v>
       </c>
       <c r="Y10">
-        <v>2.2656752511030474E-4</v>
+        <v>1.8473476141887287E-4</v>
       </c>
       <c r="Z10">
-        <v>-1.5991749832346364E-3</v>
+        <v>-1.3611217807710451E-3</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.45">
@@ -4992,79 +4992,79 @@
         <v>31</v>
       </c>
       <c r="B11" s="4">
-        <v>3.8796831872076623E-2</v>
+        <v>2.280846900442721E-2</v>
       </c>
       <c r="C11">
-        <v>1.6752996805613726E-4</v>
+        <v>1.4136078321906563E-4</v>
       </c>
       <c r="D11">
-        <v>1.0017960591807262E-4</v>
+        <v>9.6829355437907016E-5</v>
       </c>
       <c r="E11">
-        <v>-9.1433828256350755E-7</v>
+        <v>-8.8391568942679372E-7</v>
       </c>
       <c r="F11">
-        <v>1.4437021683030565E-5</v>
+        <v>6.5765629929144266E-6</v>
       </c>
       <c r="G11">
-        <v>-1.3875696593799319E-4</v>
+        <v>-1.5282205461530376E-4</v>
       </c>
       <c r="H11">
-        <v>7.6733885214863784E-5</v>
+        <v>1.0461928419654767E-4</v>
       </c>
       <c r="I11">
-        <v>6.5593259782377149E-5</v>
+        <v>8.4168894894211439E-5</v>
       </c>
       <c r="J11">
-        <v>2.9188829683138675E-4</v>
+        <v>2.8384233521615905E-4</v>
       </c>
       <c r="K11">
-        <v>8.5766387345007447E-4</v>
+        <v>8.1901905611024952E-4</v>
       </c>
       <c r="L11">
-        <v>1.6748987264463399E-3</v>
+        <v>1.6219684454342549E-3</v>
       </c>
       <c r="M11">
-        <v>8.9481841928241946E-4</v>
+        <v>8.6240133115083099E-4</v>
       </c>
       <c r="N11">
-        <v>2.2259441027052882E-5</v>
+        <v>-5.2403165446465889E-6</v>
       </c>
       <c r="O11">
-        <v>2.7721550644818931E-6</v>
+        <v>1.2626907106087651E-5</v>
       </c>
       <c r="P11">
-        <v>-1.1317442579262833E-4</v>
+        <v>-1.0012264019466921E-4</v>
       </c>
       <c r="Q11">
-        <v>1.2171090268546052E-5</v>
+        <v>6.5845791926000732E-6</v>
       </c>
       <c r="R11">
-        <v>-3.8624556272472653E-5</v>
+        <v>-5.463948481952371E-5</v>
       </c>
       <c r="S11">
-        <v>-3.1467372436678911E-5</v>
+        <v>-4.1055095720955595E-5</v>
       </c>
       <c r="T11">
-        <v>-5.5837193915297218E-5</v>
+        <v>-1.8903502955310014E-5</v>
       </c>
       <c r="U11">
-        <v>7.4839373608902651E-6</v>
+        <v>3.2915190851703262E-5</v>
       </c>
       <c r="V11">
-        <v>4.7879664425286349E-5</v>
+        <v>8.590314213695121E-5</v>
       </c>
       <c r="W11">
-        <v>-6.6616235452028399E-6</v>
+        <v>-5.002102684185811E-6</v>
       </c>
       <c r="X11">
-        <v>1.616869986423102E-4</v>
+        <v>1.4630818488771077E-4</v>
       </c>
       <c r="Y11">
-        <v>9.230862734686403E-5</v>
+        <v>6.6350580178099668E-5</v>
       </c>
       <c r="Z11">
-        <v>-3.4466007511044054E-3</v>
+        <v>-3.2882069727189294E-3</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.45">
@@ -5072,79 +5072,79 @@
         <v>32</v>
       </c>
       <c r="B12" s="4">
-        <v>0.27454399681723185</v>
+        <v>0.26741494989146103</v>
       </c>
       <c r="C12">
-        <v>4.1906479156940261E-4</v>
+        <v>3.9559334507008163E-4</v>
       </c>
       <c r="D12">
-        <v>1.219113503676773E-5</v>
+        <v>8.1038298294644484E-6</v>
       </c>
       <c r="E12">
-        <v>4.7887539788049603E-8</v>
+        <v>7.4115891119072505E-8</v>
       </c>
       <c r="F12">
-        <v>1.071143098380935E-5</v>
+        <v>-1.1030112446794803E-5</v>
       </c>
       <c r="G12">
-        <v>-7.1776144413885539E-5</v>
+        <v>-7.6703185975858209E-5</v>
       </c>
       <c r="H12">
-        <v>4.1462292532126093E-4</v>
+        <v>3.6682615579711328E-4</v>
       </c>
       <c r="I12">
-        <v>1.0640721668859088E-4</v>
+        <v>1.1086297911880815E-4</v>
       </c>
       <c r="J12">
-        <v>1.5364515547390111E-4</v>
+        <v>1.4607422224815125E-4</v>
       </c>
       <c r="K12">
-        <v>1.0442235800970621E-3</v>
+        <v>9.7344139533651441E-4</v>
       </c>
       <c r="L12">
-        <v>8.9481841928241946E-4</v>
+        <v>8.6240133115083099E-4</v>
       </c>
       <c r="M12">
-        <v>2.0527082509467025E-3</v>
+        <v>1.9174979005975388E-3</v>
       </c>
       <c r="N12">
-        <v>1.6957157886181661E-5</v>
+        <v>3.5285687823458664E-6</v>
       </c>
       <c r="O12">
-        <v>-2.3267131918027553E-5</v>
+        <v>-1.1725244156528871E-5</v>
       </c>
       <c r="P12">
-        <v>-1.6792226642172153E-4</v>
+        <v>-1.5782965813853668E-4</v>
       </c>
       <c r="Q12">
-        <v>1.242475206168558E-5</v>
+        <v>3.9970748210134486E-6</v>
       </c>
       <c r="R12">
-        <v>-1.8901752551528242E-5</v>
+        <v>-1.4472670299373481E-5</v>
       </c>
       <c r="S12">
-        <v>3.6338978474302359E-5</v>
+        <v>6.221047669368446E-6</v>
       </c>
       <c r="T12">
-        <v>3.0409728744527681E-5</v>
+        <v>3.3390118148220595E-6</v>
       </c>
       <c r="U12">
-        <v>7.3386271984515088E-5</v>
+        <v>6.0961263863224647E-5</v>
       </c>
       <c r="V12">
-        <v>5.5542348170973692E-5</v>
+        <v>3.4232478111005194E-5</v>
       </c>
       <c r="W12">
-        <v>-1.7756625286866682E-5</v>
+        <v>-1.5425744178756167E-5</v>
       </c>
       <c r="X12">
-        <v>1.0967496385986208E-4</v>
+        <v>1.1507275028427592E-4</v>
       </c>
       <c r="Y12">
-        <v>1.0099150843679508E-4</v>
+        <v>9.2035613564749757E-5</v>
       </c>
       <c r="Z12">
-        <v>-1.4944328657644388E-3</v>
+        <v>-1.2818561877108708E-3</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.45">
@@ -5152,79 +5152,79 @@
         <v>18</v>
       </c>
       <c r="B13" s="4">
-        <v>-1.042742030684202E-2</v>
+        <v>-7.7528342995605119E-3</v>
       </c>
       <c r="C13">
-        <v>1.3398407475876835E-5</v>
+        <v>8.263790303207261E-6</v>
       </c>
       <c r="D13">
-        <v>1.735719798072573E-5</v>
+        <v>1.9440038454409223E-5</v>
       </c>
       <c r="E13">
-        <v>-1.0038335107829547E-7</v>
+        <v>-1.2270871511615015E-7</v>
       </c>
       <c r="F13">
-        <v>6.4261427322604101E-5</v>
+        <v>2.5615280217365409E-5</v>
       </c>
       <c r="G13">
-        <v>6.9566063168289492E-5</v>
+        <v>2.0355774682455118E-5</v>
       </c>
       <c r="H13">
-        <v>-2.6038349720601366E-5</v>
+        <v>8.9569415133233157E-6</v>
       </c>
       <c r="I13">
-        <v>1.0608651550274737E-4</v>
+        <v>1.2640233518600844E-4</v>
       </c>
       <c r="J13">
-        <v>1.2855909298709138E-4</v>
+        <v>9.7407784196778217E-5</v>
       </c>
       <c r="K13">
-        <v>-1.9968182265075302E-6</v>
+        <v>-1.9240833091113939E-5</v>
       </c>
       <c r="L13">
-        <v>2.2259441027052882E-5</v>
+        <v>-5.2403165446465889E-6</v>
       </c>
       <c r="M13">
-        <v>1.6957157886181661E-5</v>
+        <v>3.5285687823458664E-6</v>
       </c>
       <c r="N13">
-        <v>3.190617300199002E-4</v>
+        <v>3.0659961120835938E-4</v>
       </c>
       <c r="O13">
-        <v>-1.666736043867383E-7</v>
+        <v>-1.1469035361401925E-7</v>
       </c>
       <c r="P13">
-        <v>1.4640583972100503E-5</v>
+        <v>3.3870416484631802E-5</v>
       </c>
       <c r="Q13">
-        <v>-9.4188263006042814E-6</v>
+        <v>-1.0060791849923822E-5</v>
       </c>
       <c r="R13">
-        <v>-9.8565940264779776E-5</v>
+        <v>-9.1027207010532449E-5</v>
       </c>
       <c r="S13">
-        <v>5.6135383769440614E-6</v>
+        <v>-2.4843403507190584E-5</v>
       </c>
       <c r="T13">
-        <v>-4.1426634243197681E-6</v>
+        <v>1.3084655330368108E-8</v>
       </c>
       <c r="U13">
-        <v>-6.0894921329865187E-7</v>
+        <v>1.0258318133512287E-6</v>
       </c>
       <c r="V13">
-        <v>2.6212918578359792E-5</v>
+        <v>1.3056585895025399E-5</v>
       </c>
       <c r="W13">
-        <v>-1.9123111746028337E-6</v>
+        <v>-3.7508758724344386E-6</v>
       </c>
       <c r="X13">
-        <v>1.8691610155036021E-5</v>
+        <v>-1.2180728347892396E-5</v>
       </c>
       <c r="Y13">
-        <v>-3.3260905203872596E-5</v>
+        <v>-5.0164733857542364E-5</v>
       </c>
       <c r="Z13">
-        <v>-1.7531744006291749E-3</v>
+        <v>-1.6751956709370778E-3</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.45">
@@ -5232,79 +5232,79 @@
         <v>19</v>
       </c>
       <c r="B14" s="4">
-        <v>2.1515961128952505E-2</v>
+        <v>1.7423236427559431E-2</v>
       </c>
       <c r="C14">
-        <v>-4.1152004011492617E-5</v>
+        <v>-3.4810703238267465E-5</v>
       </c>
       <c r="D14">
-        <v>3.9068867296479246E-6</v>
+        <v>4.3904665657726409E-6</v>
       </c>
       <c r="E14">
-        <v>-3.3300619036738938E-8</v>
+        <v>-3.5907709889012168E-8</v>
       </c>
       <c r="F14">
-        <v>4.2656601493032471E-5</v>
+        <v>2.2371872422610123E-5</v>
       </c>
       <c r="G14">
-        <v>3.4630660376647712E-5</v>
+        <v>1.8214459153904922E-5</v>
       </c>
       <c r="H14">
-        <v>2.823641260090759E-4</v>
+        <v>2.5729302500337168E-4</v>
       </c>
       <c r="I14">
-        <v>2.1561135710295465E-4</v>
+        <v>1.9361214300540549E-4</v>
       </c>
       <c r="J14">
-        <v>2.2918871611552827E-4</v>
+        <v>2.0300420819357678E-4</v>
       </c>
       <c r="K14">
-        <v>5.6709887575257137E-6</v>
+        <v>1.2935998733076218E-5</v>
       </c>
       <c r="L14">
-        <v>2.7721550644818931E-6</v>
+        <v>1.2626907106087651E-5</v>
       </c>
       <c r="M14">
-        <v>-2.3267131918027553E-5</v>
+        <v>-1.1725244156528871E-5</v>
       </c>
       <c r="N14">
-        <v>-1.666736043867383E-7</v>
+        <v>-1.1469035361401925E-7</v>
       </c>
       <c r="O14">
-        <v>9.9135732817937821E-5</v>
+        <v>8.7235659233855981E-5</v>
       </c>
       <c r="P14">
-        <v>-3.0684920844468175E-6</v>
+        <v>-2.8750510728788384E-6</v>
       </c>
       <c r="Q14">
-        <v>-6.3156867118921239E-5</v>
+        <v>-5.5073276741396366E-5</v>
       </c>
       <c r="R14">
-        <v>1.0666832802257815E-7</v>
+        <v>1.6528010135882261E-6</v>
       </c>
       <c r="S14">
-        <v>-1.6002011782170814E-5</v>
+        <v>-1.9623335413979399E-5</v>
       </c>
       <c r="T14">
-        <v>-4.397314029562897E-5</v>
+        <v>-3.5543902289093974E-5</v>
       </c>
       <c r="U14">
-        <v>-9.2790144137246935E-6</v>
+        <v>-7.5716303166748302E-6</v>
       </c>
       <c r="V14">
-        <v>1.0890072899562345E-5</v>
+        <v>9.6522063377708391E-6</v>
       </c>
       <c r="W14">
-        <v>-1.1572562313009822E-7</v>
+        <v>-9.2060685244680649E-8</v>
       </c>
       <c r="X14">
-        <v>-2.1555144226910789E-5</v>
+        <v>-2.1939000935732639E-5</v>
       </c>
       <c r="Y14">
-        <v>-1.4847611941664534E-5</v>
+        <v>-1.4351757241395973E-5</v>
       </c>
       <c r="Z14">
-        <v>-3.5499642869959807E-4</v>
+        <v>-3.4124106226029896E-4</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.45">
@@ -5312,79 +5312,79 @@
         <v>20</v>
       </c>
       <c r="B15" s="4">
-        <v>1.4936280823539314</v>
+        <v>1.4831210733588338</v>
       </c>
       <c r="C15">
-        <v>3.6483644133159974E-5</v>
+        <v>3.4253593797670524E-5</v>
       </c>
       <c r="D15">
-        <v>1.079076971270904E-6</v>
+        <v>2.1875134260745076E-6</v>
       </c>
       <c r="E15">
-        <v>-3.2998109647666975E-8</v>
+        <v>-3.4445761935874338E-8</v>
       </c>
       <c r="F15">
-        <v>2.661154850629459E-4</v>
+        <v>2.7209221914715662E-4</v>
       </c>
       <c r="G15">
-        <v>2.7807762210207217E-4</v>
+        <v>2.9571721484926926E-4</v>
       </c>
       <c r="H15">
-        <v>4.7382613091078232E-5</v>
+        <v>3.8243050074444028E-5</v>
       </c>
       <c r="I15">
-        <v>2.8676352332359083E-5</v>
+        <v>1.904642038395854E-5</v>
       </c>
       <c r="J15">
-        <v>3.9152924537132379E-5</v>
+        <v>2.7483153931976995E-5</v>
       </c>
       <c r="K15">
-        <v>-6.6184954083076813E-5</v>
+        <v>-4.7986906572309055E-5</v>
       </c>
       <c r="L15">
-        <v>-1.1317442579262833E-4</v>
+        <v>-1.0012264019466921E-4</v>
       </c>
       <c r="M15">
-        <v>-1.6792226642172153E-4</v>
+        <v>-1.5782965813853668E-4</v>
       </c>
       <c r="N15">
-        <v>1.4640583972100503E-5</v>
+        <v>3.3870416484631802E-5</v>
       </c>
       <c r="O15">
-        <v>-3.0684920844468175E-6</v>
+        <v>-2.8750510728788384E-6</v>
       </c>
       <c r="P15">
-        <v>2.3381543935785776E-3</v>
+        <v>2.2117457632896634E-3</v>
       </c>
       <c r="Q15">
-        <v>-1.3027332982742837E-5</v>
+        <v>-1.1852022061469748E-5</v>
       </c>
       <c r="R15">
-        <v>-1.3420818154828013E-3</v>
+        <v>-1.2422181125236818E-3</v>
       </c>
       <c r="S15">
-        <v>-2.2739398280261907E-4</v>
+        <v>-2.1227884036241251E-4</v>
       </c>
       <c r="T15">
-        <v>-1.3677740717905871E-4</v>
+        <v>-1.4067455843475759E-4</v>
       </c>
       <c r="U15">
-        <v>-9.3860419482813908E-6</v>
+        <v>4.9552684978026816E-6</v>
       </c>
       <c r="V15">
-        <v>-1.3469764003452606E-4</v>
+        <v>-1.3190455124847673E-4</v>
       </c>
       <c r="W15">
-        <v>-1.7865236893927705E-7</v>
+        <v>-7.3438250366484364E-7</v>
       </c>
       <c r="X15">
-        <v>-3.4447398947885815E-4</v>
+        <v>-2.8378356873044427E-4</v>
       </c>
       <c r="Y15">
-        <v>-1.8280395864963498E-4</v>
+        <v>-1.399591403825416E-4</v>
       </c>
       <c r="Z15">
-        <v>-4.5683889058609526E-4</v>
+        <v>-5.7394918700289638E-4</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.45">
@@ -5392,79 +5392,79 @@
         <v>33</v>
       </c>
       <c r="B16" s="4">
-        <v>-4.9426279531876909E-3</v>
+        <v>-2.6064242270854563E-3</v>
       </c>
       <c r="C16">
-        <v>8.3684404168434316E-6</v>
+        <v>7.0746500088472745E-6</v>
       </c>
       <c r="D16">
-        <v>-7.2993135007448977E-6</v>
+        <v>-7.1366978749782726E-6</v>
       </c>
       <c r="E16">
-        <v>6.9486645096075561E-8</v>
+        <v>6.6367420612143924E-8</v>
       </c>
       <c r="F16">
-        <v>-7.304422989041786E-7</v>
+        <v>1.2313494079948957E-5</v>
       </c>
       <c r="G16">
-        <v>1.068220038143353E-5</v>
+        <v>2.1281815203028334E-5</v>
       </c>
       <c r="H16">
-        <v>-4.7903944979923852E-5</v>
+        <v>-4.389228717709255E-5</v>
       </c>
       <c r="I16">
-        <v>-1.5217183777949903E-5</v>
+        <v>-1.2476127105941895E-5</v>
       </c>
       <c r="J16">
-        <v>-1.6469619763172573E-5</v>
+        <v>-1.1003625606446275E-5</v>
       </c>
       <c r="K16">
-        <v>-1.1169608551120595E-6</v>
+        <v>-5.8719200983573051E-6</v>
       </c>
       <c r="L16">
-        <v>1.2171090268546052E-5</v>
+        <v>6.5845791926000732E-6</v>
       </c>
       <c r="M16">
-        <v>1.242475206168558E-5</v>
+        <v>3.9970748210134486E-6</v>
       </c>
       <c r="N16">
-        <v>-9.4188263006042814E-6</v>
+        <v>-1.0060791849923822E-5</v>
       </c>
       <c r="O16">
-        <v>-6.3156867118921239E-5</v>
+        <v>-5.5073276741396366E-5</v>
       </c>
       <c r="P16">
-        <v>-1.3027332982742837E-5</v>
+        <v>-1.1852022061469748E-5</v>
       </c>
       <c r="Q16">
-        <v>7.1015414438575618E-5</v>
+        <v>6.3107266582559349E-5</v>
       </c>
       <c r="R16">
-        <v>5.2255338818586557E-6</v>
+        <v>4.2169214247192953E-6</v>
       </c>
       <c r="S16">
-        <v>2.1747494591693295E-5</v>
+        <v>2.4209763341831993E-5</v>
       </c>
       <c r="T16">
-        <v>2.2781524258966874E-5</v>
+        <v>1.9571674622286446E-5</v>
       </c>
       <c r="U16">
-        <v>6.993626984098736E-6</v>
+        <v>7.662239660605457E-6</v>
       </c>
       <c r="V16">
-        <v>4.3033697489717942E-6</v>
+        <v>6.8438667247680469E-6</v>
       </c>
       <c r="W16">
-        <v>-1.1404438278010793E-6</v>
+        <v>-8.6335968130657746E-7</v>
       </c>
       <c r="X16">
-        <v>1.0321995552856399E-5</v>
+        <v>9.5471783148785304E-6</v>
       </c>
       <c r="Y16">
-        <v>2.1488158100372785E-5</v>
+        <v>1.7298133638593463E-5</v>
       </c>
       <c r="Z16">
-        <v>1.897524794412818E-4</v>
+        <v>1.793518952605416E-4</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.45">
@@ -5472,79 +5472,79 @@
         <v>34</v>
       </c>
       <c r="B17" s="4">
-        <v>0.54428839187809741</v>
+        <v>0.56112966802657149</v>
       </c>
       <c r="C17">
-        <v>3.1862332515091322E-5</v>
+        <v>2.9219204551918839E-5</v>
       </c>
       <c r="D17">
-        <v>-1.4774062806708135E-5</v>
+        <v>-1.1912993313841652E-5</v>
       </c>
       <c r="E17">
-        <v>9.8165157882162679E-8</v>
+        <v>7.9341648558189329E-8</v>
       </c>
       <c r="F17">
-        <v>1.4439790944511074E-4</v>
+        <v>1.2269489782068251E-4</v>
       </c>
       <c r="G17">
-        <v>1.9781655360009737E-4</v>
+        <v>1.7415127400607845E-4</v>
       </c>
       <c r="H17">
-        <v>7.5211327422280636E-5</v>
+        <v>1.0957274743964886E-4</v>
       </c>
       <c r="I17">
-        <v>-2.7617260485751421E-5</v>
+        <v>-1.563756334544092E-5</v>
       </c>
       <c r="J17">
-        <v>-6.87084334167554E-7</v>
+        <v>-1.0976841387612575E-5</v>
       </c>
       <c r="K17">
-        <v>-4.9958866044719674E-5</v>
+        <v>-5.9817895815331406E-5</v>
       </c>
       <c r="L17">
-        <v>-3.8624556272472653E-5</v>
+        <v>-5.463948481952371E-5</v>
       </c>
       <c r="M17">
-        <v>-1.8901752551528242E-5</v>
+        <v>-1.4472670299373481E-5</v>
       </c>
       <c r="N17">
-        <v>-9.8565940264779776E-5</v>
+        <v>-9.1027207010532449E-5</v>
       </c>
       <c r="O17">
-        <v>1.0666832802257815E-7</v>
+        <v>1.6528010135882261E-6</v>
       </c>
       <c r="P17">
-        <v>-1.3420818154828013E-3</v>
+        <v>-1.2422181125236818E-3</v>
       </c>
       <c r="Q17">
-        <v>5.2255338818586557E-6</v>
+        <v>4.2169214247192953E-6</v>
       </c>
       <c r="R17">
-        <v>2.255939311875817E-3</v>
+        <v>2.1149364813453295E-3</v>
       </c>
       <c r="S17">
-        <v>-2.1633474035601564E-4</v>
+        <v>-2.0700161206325544E-4</v>
       </c>
       <c r="T17">
-        <v>-1.7074710503105168E-4</v>
+        <v>-1.4674195481609491E-4</v>
       </c>
       <c r="U17">
-        <v>-1.3436536385351785E-4</v>
+        <v>-1.2535112306990689E-4</v>
       </c>
       <c r="V17">
-        <v>-7.6292177835771642E-5</v>
+        <v>-7.1715201520077684E-5</v>
       </c>
       <c r="W17">
-        <v>5.323147460884369E-8</v>
+        <v>-8.5031063138964898E-7</v>
       </c>
       <c r="X17">
-        <v>-4.1602330535013977E-5</v>
+        <v>-5.4982861974611273E-5</v>
       </c>
       <c r="Y17">
-        <v>-2.5361190939785013E-5</v>
+        <v>-2.9337592473541067E-5</v>
       </c>
       <c r="Z17">
-        <v>5.8256299470891215E-4</v>
+        <v>4.9883554667337474E-4</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.45">
@@ -5552,79 +5552,79 @@
         <v>35</v>
       </c>
       <c r="B18" s="4">
-        <v>5.0329188966680927E-2</v>
+        <v>5.875962510135093E-2</v>
       </c>
       <c r="C18">
-        <v>-7.4431657362069149E-5</v>
+        <v>-6.8740754487054616E-5</v>
       </c>
       <c r="D18">
-        <v>-3.6092662114050781E-5</v>
+        <v>-3.7250098793184365E-5</v>
       </c>
       <c r="E18">
-        <v>3.7004901348710459E-7</v>
+        <v>3.6387185071771577E-7</v>
       </c>
       <c r="F18">
-        <v>-2.2336253114626391E-4</v>
+        <v>-1.8714320074651077E-4</v>
       </c>
       <c r="G18">
-        <v>-1.9650299947967777E-4</v>
+        <v>-1.780855412694877E-4</v>
       </c>
       <c r="H18">
-        <v>-1.5570235108373844E-4</v>
+        <v>-1.8674932461552169E-4</v>
       </c>
       <c r="I18">
-        <v>-1.0157377494529108E-4</v>
+        <v>-1.2564809291153308E-4</v>
       </c>
       <c r="J18">
-        <v>-2.8848921239038659E-5</v>
+        <v>-4.2312371119459244E-5</v>
       </c>
       <c r="K18">
-        <v>1.1937286236646569E-4</v>
+        <v>1.0175382215642199E-4</v>
       </c>
       <c r="L18">
-        <v>-3.1467372436678911E-5</v>
+        <v>-4.1055095720955595E-5</v>
       </c>
       <c r="M18">
-        <v>3.6338978474302359E-5</v>
+        <v>6.221047669368446E-6</v>
       </c>
       <c r="N18">
-        <v>5.6135383769440614E-6</v>
+        <v>-2.4843403507190584E-5</v>
       </c>
       <c r="O18">
-        <v>-1.6002011782170814E-5</v>
+        <v>-1.9623335413979399E-5</v>
       </c>
       <c r="P18">
-        <v>-2.2739398280261907E-4</v>
+        <v>-2.1227884036241251E-4</v>
       </c>
       <c r="Q18">
-        <v>2.1747494591693295E-5</v>
+        <v>2.4209763341831993E-5</v>
       </c>
       <c r="R18">
-        <v>-2.1633474035601564E-4</v>
+        <v>-2.0700161206325544E-4</v>
       </c>
       <c r="S18">
-        <v>2.60474196878567E-3</v>
+        <v>2.3545326252836143E-3</v>
       </c>
       <c r="T18">
-        <v>1.2668351583683389E-3</v>
+        <v>1.0956230346302978E-3</v>
       </c>
       <c r="U18">
-        <v>1.2772817532948765E-3</v>
+        <v>1.1083314335363493E-3</v>
       </c>
       <c r="V18">
-        <v>1.2427886226532021E-3</v>
+        <v>1.0802909365509165E-3</v>
       </c>
       <c r="W18">
-        <v>-9.8935544167680728E-6</v>
+        <v>-8.0417876519968477E-6</v>
       </c>
       <c r="X18">
-        <v>6.4374091776451365E-4</v>
+        <v>5.7620726639387009E-4</v>
       </c>
       <c r="Y18">
-        <v>5.224794375842559E-4</v>
+        <v>4.509097454734146E-4</v>
       </c>
       <c r="Z18">
-        <v>-1.0310956631641216E-4</v>
+        <v>2.1127715446781024E-4</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.45">
@@ -5632,79 +5632,79 @@
         <v>36</v>
       </c>
       <c r="B19" s="4">
-        <v>-7.1882561497731701E-2</v>
+        <v>-6.3216961994548307E-2</v>
       </c>
       <c r="C19">
-        <v>-3.6733507901112365E-5</v>
+        <v>-2.5049520889910439E-5</v>
       </c>
       <c r="D19">
-        <v>-2.9235522226682973E-5</v>
+        <v>-2.8046201873132789E-5</v>
       </c>
       <c r="E19">
-        <v>3.3242430440620148E-7</v>
+        <v>3.1138648873248127E-7</v>
       </c>
       <c r="F19">
-        <v>-1.9447462820486349E-4</v>
+        <v>-9.8241641799995036E-5</v>
       </c>
       <c r="G19">
-        <v>-1.8991831611327544E-4</v>
+        <v>-1.4103473078683497E-4</v>
       </c>
       <c r="H19">
-        <v>-2.5507458608591037E-4</v>
+        <v>-2.8735762084782478E-4</v>
       </c>
       <c r="I19">
-        <v>-1.8005753919864132E-4</v>
+        <v>-1.8833404912447105E-4</v>
       </c>
       <c r="J19">
-        <v>-4.0914327924475833E-4</v>
+        <v>-3.9263538518019916E-4</v>
       </c>
       <c r="K19">
-        <v>-8.3142991119697894E-5</v>
+        <v>-7.4097733710036214E-5</v>
       </c>
       <c r="L19">
-        <v>-5.5837193915297218E-5</v>
+        <v>-1.8903502955310014E-5</v>
       </c>
       <c r="M19">
-        <v>3.0409728744527681E-5</v>
+        <v>3.3390118148220595E-6</v>
       </c>
       <c r="N19">
-        <v>-4.1426634243197681E-6</v>
+        <v>1.3084655330368108E-8</v>
       </c>
       <c r="O19">
-        <v>-4.397314029562897E-5</v>
+        <v>-3.5543902289093974E-5</v>
       </c>
       <c r="P19">
-        <v>-1.3677740717905871E-4</v>
+        <v>-1.4067455843475759E-4</v>
       </c>
       <c r="Q19">
-        <v>2.2781524258966874E-5</v>
+        <v>1.9571674622286446E-5</v>
       </c>
       <c r="R19">
-        <v>-1.7074710503105168E-4</v>
+        <v>-1.4674195481609491E-4</v>
       </c>
       <c r="S19">
-        <v>1.2668351583683389E-3</v>
+        <v>1.0956230346302978E-3</v>
       </c>
       <c r="T19">
-        <v>3.144733774054928E-3</v>
+        <v>2.9245407493332896E-3</v>
       </c>
       <c r="U19">
-        <v>1.2474539329545046E-3</v>
+        <v>1.0813498203628463E-3</v>
       </c>
       <c r="V19">
-        <v>1.2116707453683464E-3</v>
+        <v>1.0527060866017571E-3</v>
       </c>
       <c r="W19">
-        <v>-1.79647216182337E-6</v>
+        <v>5.6280560119915208E-7</v>
       </c>
       <c r="X19">
-        <v>6.4917108052656343E-5</v>
+        <v>4.4271440204636818E-5</v>
       </c>
       <c r="Y19">
-        <v>1.5713200353341573E-4</v>
+        <v>1.1850122225729062E-4</v>
       </c>
       <c r="Z19">
-        <v>-1.6148653392878949E-4</v>
+        <v>-1.6132516765447681E-4</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.45">
@@ -5712,79 +5712,79 @@
         <v>37</v>
       </c>
       <c r="B20" s="4">
-        <v>0.11570751956301911</v>
+        <v>0.11409879160165518</v>
       </c>
       <c r="C20">
-        <v>-3.6005002589971211E-5</v>
+        <v>-2.210067863526545E-5</v>
       </c>
       <c r="D20">
-        <v>-1.2867267233399238E-5</v>
+        <v>-1.1754883711324031E-5</v>
       </c>
       <c r="E20">
-        <v>1.33239449174271E-7</v>
+        <v>1.1685853539109537E-7</v>
       </c>
       <c r="F20">
-        <v>-1.1871257092158029E-4</v>
+        <v>-5.9523634846229831E-5</v>
       </c>
       <c r="G20">
-        <v>-1.5229181470900169E-4</v>
+        <v>-1.1157675396371362E-4</v>
       </c>
       <c r="H20">
-        <v>-1.1328205675571377E-4</v>
+        <v>-1.2146006919084207E-4</v>
       </c>
       <c r="I20">
-        <v>-8.4424517088551058E-5</v>
+        <v>-8.9018456995237016E-5</v>
       </c>
       <c r="J20">
-        <v>-1.37044860147339E-4</v>
+        <v>-1.2445994927460385E-4</v>
       </c>
       <c r="K20">
-        <v>-6.0612895378730938E-5</v>
+        <v>-4.5904528581284685E-5</v>
       </c>
       <c r="L20">
-        <v>7.4839373608902651E-6</v>
+        <v>3.2915190851703262E-5</v>
       </c>
       <c r="M20">
-        <v>7.3386271984515088E-5</v>
+        <v>6.0961263863224647E-5</v>
       </c>
       <c r="N20">
-        <v>-6.0894921329865187E-7</v>
+        <v>1.0258318133512287E-6</v>
       </c>
       <c r="O20">
-        <v>-9.2790144137246935E-6</v>
+        <v>-7.5716303166748302E-6</v>
       </c>
       <c r="P20">
-        <v>-9.3860419482813908E-6</v>
+        <v>4.9552684978026816E-6</v>
       </c>
       <c r="Q20">
-        <v>6.993626984098736E-6</v>
+        <v>7.662239660605457E-6</v>
       </c>
       <c r="R20">
-        <v>-1.3436536385351785E-4</v>
+        <v>-1.2535112306990689E-4</v>
       </c>
       <c r="S20">
-        <v>1.2772817532948765E-3</v>
+        <v>1.1083314335363493E-3</v>
       </c>
       <c r="T20">
-        <v>1.2474539329545046E-3</v>
+        <v>1.0813498203628463E-3</v>
       </c>
       <c r="U20">
-        <v>1.9247520282997168E-3</v>
+        <v>1.7236799382494509E-3</v>
       </c>
       <c r="V20">
-        <v>1.2157193964804555E-3</v>
+        <v>1.0603915174576444E-3</v>
       </c>
       <c r="W20">
-        <v>-3.6061206234627655E-6</v>
+        <v>-2.5756087371170881E-6</v>
       </c>
       <c r="X20">
-        <v>1.244599694511977E-4</v>
+        <v>1.1295150881726347E-4</v>
       </c>
       <c r="Y20">
-        <v>1.3683959288476709E-4</v>
+        <v>1.0796865642086711E-4</v>
       </c>
       <c r="Z20">
-        <v>-6.6121881200560271E-4</v>
+        <v>-6.1456192242089467E-4</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.45">
@@ -5792,79 +5792,79 @@
         <v>38</v>
       </c>
       <c r="B21" s="4">
-        <v>-1.406545954944138E-2</v>
+        <v>-9.4710864514856129E-3</v>
       </c>
       <c r="C21">
-        <v>-7.0636763647271536E-5</v>
+        <v>-5.2814065858668799E-5</v>
       </c>
       <c r="D21">
-        <v>-7.1578020328012695E-6</v>
+        <v>-4.6111083192621025E-6</v>
       </c>
       <c r="E21">
-        <v>9.7934312441844257E-8</v>
+        <v>6.3122073051336974E-8</v>
       </c>
       <c r="F21">
-        <v>-2.8385639934974403E-5</v>
+        <v>2.1986294995192217E-5</v>
       </c>
       <c r="G21">
-        <v>5.0617061321913727E-5</v>
+        <v>6.7610349847862605E-5</v>
       </c>
       <c r="H21">
-        <v>6.1861772470650674E-5</v>
+        <v>1.7266588027294548E-5</v>
       </c>
       <c r="I21">
-        <v>3.8962281084118191E-5</v>
+        <v>5.0609610093509095E-6</v>
       </c>
       <c r="J21">
-        <v>-3.1512651010399213E-5</v>
+        <v>-4.6618273654365613E-5</v>
       </c>
       <c r="K21">
-        <v>-7.0320068713865426E-5</v>
+        <v>-5.9798794095122801E-5</v>
       </c>
       <c r="L21">
-        <v>4.7879664425286349E-5</v>
+        <v>8.590314213695121E-5</v>
       </c>
       <c r="M21">
-        <v>5.5542348170973692E-5</v>
+        <v>3.4232478111005194E-5</v>
       </c>
       <c r="N21">
-        <v>2.6212918578359792E-5</v>
+        <v>1.3056585895025399E-5</v>
       </c>
       <c r="O21">
-        <v>1.0890072899562345E-5</v>
+        <v>9.6522063377708391E-6</v>
       </c>
       <c r="P21">
-        <v>-1.3469764003452606E-4</v>
+        <v>-1.3190455124847673E-4</v>
       </c>
       <c r="Q21">
-        <v>4.3033697489717942E-6</v>
+        <v>6.8438667247680469E-6</v>
       </c>
       <c r="R21">
-        <v>-7.6292177835771642E-5</v>
+        <v>-7.1715201520077684E-5</v>
       </c>
       <c r="S21">
-        <v>1.2427886226532021E-3</v>
+        <v>1.0802909365509165E-3</v>
       </c>
       <c r="T21">
-        <v>1.2116707453683464E-3</v>
+        <v>1.0527060866017571E-3</v>
       </c>
       <c r="U21">
-        <v>1.2157193964804555E-3</v>
+        <v>1.0603915174576444E-3</v>
       </c>
       <c r="V21">
-        <v>1.7117029396860575E-3</v>
+        <v>1.5416761970843181E-3</v>
       </c>
       <c r="W21">
-        <v>-3.6021800508937369E-6</v>
+        <v>-2.5152068866856586E-6</v>
       </c>
       <c r="X21">
-        <v>3.6600324362965437E-5</v>
+        <v>2.947533416053713E-5</v>
       </c>
       <c r="Y21">
-        <v>3.557656785319082E-5</v>
+        <v>1.6014366203762233E-5</v>
       </c>
       <c r="Z21">
-        <v>-1.1242518191035976E-3</v>
+        <v>-1.0208579459922743E-3</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.45">
@@ -5872,79 +5872,79 @@
         <v>21</v>
       </c>
       <c r="B22" s="4">
-        <v>1.4255469761199119E-2</v>
+        <v>1.5097838322668224E-2</v>
       </c>
       <c r="C22">
-        <v>3.7995865139333987E-6</v>
+        <v>2.531492062338568E-6</v>
       </c>
       <c r="D22">
-        <v>-1.6580964949024988E-8</v>
+        <v>-4.0329785101902516E-8</v>
       </c>
       <c r="E22">
-        <v>-2.0240877543588244E-9</v>
+        <v>-1.7091764456851345E-9</v>
       </c>
       <c r="F22">
-        <v>5.673412804609043E-6</v>
+        <v>3.8236620791673429E-6</v>
       </c>
       <c r="G22">
-        <v>1.1080616008043168E-5</v>
+        <v>8.6731768599810364E-6</v>
       </c>
       <c r="H22">
-        <v>5.3114567552340621E-6</v>
+        <v>5.7238100108621354E-6</v>
       </c>
       <c r="I22">
-        <v>3.27217014153906E-7</v>
+        <v>3.9283034091352527E-7</v>
       </c>
       <c r="J22">
-        <v>-1.1564343731699706E-5</v>
+        <v>-1.0407116605641399E-5</v>
       </c>
       <c r="K22">
-        <v>-3.8454373014178737E-6</v>
+        <v>-3.7525721659891321E-6</v>
       </c>
       <c r="L22">
-        <v>-6.6616235452028399E-6</v>
+        <v>-5.002102684185811E-6</v>
       </c>
       <c r="M22">
-        <v>-1.7756625286866682E-5</v>
+        <v>-1.5425744178756167E-5</v>
       </c>
       <c r="N22">
-        <v>-1.9123111746028337E-6</v>
+        <v>-3.7508758724344386E-6</v>
       </c>
       <c r="O22">
-        <v>-1.1572562313009822E-7</v>
+        <v>-9.2060685244680649E-8</v>
       </c>
       <c r="P22">
-        <v>-1.7865236893927705E-7</v>
+        <v>-7.3438250366484364E-7</v>
       </c>
       <c r="Q22">
-        <v>-1.1404438278010793E-6</v>
+        <v>-8.6335968130657746E-7</v>
       </c>
       <c r="R22">
-        <v>5.323147460884369E-8</v>
+        <v>-8.5031063138964898E-7</v>
       </c>
       <c r="S22">
-        <v>-9.8935544167680728E-6</v>
+        <v>-8.0417876519968477E-6</v>
       </c>
       <c r="T22">
-        <v>-1.79647216182337E-6</v>
+        <v>5.6280560119915208E-7</v>
       </c>
       <c r="U22">
-        <v>-3.6061206234627655E-6</v>
+        <v>-2.5756087371170881E-6</v>
       </c>
       <c r="V22">
-        <v>-3.6021800508937369E-6</v>
+        <v>-2.5152068866856586E-6</v>
       </c>
       <c r="W22">
-        <v>1.5782164304298552E-5</v>
+        <v>1.4923715562899379E-5</v>
       </c>
       <c r="X22">
-        <v>-6.0112476242764215E-5</v>
+        <v>-5.6738986528005769E-5</v>
       </c>
       <c r="Y22">
-        <v>-7.7881335210976539E-5</v>
+        <v>-7.2502395698087162E-5</v>
       </c>
       <c r="Z22">
-        <v>-2.3295569225918007E-4</v>
+        <v>-2.1330096781240764E-4</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.45">
@@ -5952,79 +5952,79 @@
         <v>22</v>
       </c>
       <c r="B23" s="4">
-        <v>4.8823515315336269E-2</v>
+        <v>4.916657481033445E-2</v>
       </c>
       <c r="C23">
-        <v>-8.3450547568137285E-5</v>
+        <v>-7.3838360348885991E-5</v>
       </c>
       <c r="D23">
-        <v>1.1819747227211031E-7</v>
+        <v>3.2091389183514342E-7</v>
       </c>
       <c r="E23">
-        <v>6.1889748098592801E-9</v>
+        <v>-9.0277729582625478E-9</v>
       </c>
       <c r="F23">
-        <v>-5.6590807353276706E-5</v>
+        <v>-8.6505127803494254E-5</v>
       </c>
       <c r="G23">
-        <v>-1.0623668856516832E-4</v>
+        <v>-1.4161359383604117E-4</v>
       </c>
       <c r="H23">
-        <v>-2.4681563780574469E-4</v>
+        <v>-2.0487191327827996E-4</v>
       </c>
       <c r="I23">
-        <v>-1.6460812009336961E-4</v>
+        <v>-1.4779442285337572E-4</v>
       </c>
       <c r="J23">
-        <v>4.3853546299079272E-5</v>
+        <v>7.4400115263890303E-5</v>
       </c>
       <c r="K23">
-        <v>2.1280004747759187E-4</v>
+        <v>2.0010662561979991E-4</v>
       </c>
       <c r="L23">
-        <v>1.616869986423102E-4</v>
+        <v>1.4630818488771077E-4</v>
       </c>
       <c r="M23">
-        <v>1.0967496385986208E-4</v>
+        <v>1.1507275028427592E-4</v>
       </c>
       <c r="N23">
-        <v>1.8691610155036021E-5</v>
+        <v>-1.2180728347892396E-5</v>
       </c>
       <c r="O23">
-        <v>-2.1555144226910789E-5</v>
+        <v>-2.1939000935732639E-5</v>
       </c>
       <c r="P23">
-        <v>-3.4447398947885815E-4</v>
+        <v>-2.8378356873044427E-4</v>
       </c>
       <c r="Q23">
-        <v>1.0321995552856399E-5</v>
+        <v>9.5471783148785304E-6</v>
       </c>
       <c r="R23">
-        <v>-4.1602330535013977E-5</v>
+        <v>-5.4982861974611273E-5</v>
       </c>
       <c r="S23">
-        <v>6.4374091776451365E-4</v>
+        <v>5.7620726639387009E-4</v>
       </c>
       <c r="T23">
-        <v>6.4917108052656343E-5</v>
+        <v>4.4271440204636818E-5</v>
       </c>
       <c r="U23">
-        <v>1.244599694511977E-4</v>
+        <v>1.1295150881726347E-4</v>
       </c>
       <c r="V23">
-        <v>3.6600324362965437E-5</v>
+        <v>2.947533416053713E-5</v>
       </c>
       <c r="W23">
-        <v>-6.0112476242764215E-5</v>
+        <v>-5.6738986528005769E-5</v>
       </c>
       <c r="X23">
-        <v>3.2014505544329793E-3</v>
+        <v>2.9814213297746977E-3</v>
       </c>
       <c r="Y23">
-        <v>1.0824063447997937E-3</v>
+        <v>9.6936395508520385E-4</v>
       </c>
       <c r="Z23">
-        <v>6.8954095945417354E-4</v>
+        <v>8.0830793647224141E-4</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.45">
@@ -6032,79 +6032,79 @@
         <v>23</v>
       </c>
       <c r="B24" s="4">
-        <v>9.9024834513301782E-2</v>
+        <v>0.1012707683296683</v>
       </c>
       <c r="C24">
-        <v>-1.4725226803484324E-5</v>
+        <v>-1.2361335127915279E-5</v>
       </c>
       <c r="D24">
-        <v>-1.9021527717843084E-5</v>
+        <v>-1.899410615235473E-5</v>
       </c>
       <c r="E24">
-        <v>1.9646370504546369E-7</v>
+        <v>1.8642845634098309E-7</v>
       </c>
       <c r="F24">
-        <v>-1.1241830519004509E-4</v>
+        <v>-1.3023542989722944E-4</v>
       </c>
       <c r="G24">
-        <v>-9.3352127560775538E-5</v>
+        <v>-1.2300805045074105E-4</v>
       </c>
       <c r="H24">
-        <v>-1.8817940517742217E-4</v>
+        <v>-1.7041217826349315E-4</v>
       </c>
       <c r="I24">
-        <v>-1.0043302925012727E-4</v>
+        <v>-8.2491207183308345E-5</v>
       </c>
       <c r="J24">
-        <v>-3.5786165880733275E-5</v>
+        <v>-2.4825393044161474E-5</v>
       </c>
       <c r="K24">
-        <v>2.2656752511030474E-4</v>
+        <v>1.8473476141887287E-4</v>
       </c>
       <c r="L24">
-        <v>9.230862734686403E-5</v>
+        <v>6.6350580178099668E-5</v>
       </c>
       <c r="M24">
-        <v>1.0099150843679508E-4</v>
+        <v>9.2035613564749757E-5</v>
       </c>
       <c r="N24">
-        <v>-3.3260905203872596E-5</v>
+        <v>-5.0164733857542364E-5</v>
       </c>
       <c r="O24">
-        <v>-1.4847611941664534E-5</v>
+        <v>-1.4351757241395973E-5</v>
       </c>
       <c r="P24">
-        <v>-1.8280395864963498E-4</v>
+        <v>-1.399591403825416E-4</v>
       </c>
       <c r="Q24">
-        <v>2.1488158100372785E-5</v>
+        <v>1.7298133638593463E-5</v>
       </c>
       <c r="R24">
-        <v>-2.5361190939785013E-5</v>
+        <v>-2.9337592473541067E-5</v>
       </c>
       <c r="S24">
-        <v>5.224794375842559E-4</v>
+        <v>4.509097454734146E-4</v>
       </c>
       <c r="T24">
-        <v>1.5713200353341573E-4</v>
+        <v>1.1850122225729062E-4</v>
       </c>
       <c r="U24">
-        <v>1.3683959288476709E-4</v>
+        <v>1.0796865642086711E-4</v>
       </c>
       <c r="V24">
-        <v>3.557656785319082E-5</v>
+        <v>1.6014366203762233E-5</v>
       </c>
       <c r="W24">
-        <v>-7.7881335210976539E-5</v>
+        <v>-7.2502395698087162E-5</v>
       </c>
       <c r="X24">
-        <v>1.0824063447997937E-3</v>
+        <v>9.6936395508520385E-4</v>
       </c>
       <c r="Y24">
-        <v>2.6882971796960285E-3</v>
+        <v>2.4102027571552146E-3</v>
       </c>
       <c r="Z24">
-        <v>1.4773797322593036E-3</v>
+        <v>1.550912911325623E-3</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.45">
@@ -6112,79 +6112,79 @@
         <v>24</v>
       </c>
       <c r="B25" s="4">
-        <v>-2.1251319713839156</v>
+        <v>-2.1480988817062192</v>
       </c>
       <c r="C25">
-        <v>-6.8989888867785395E-4</v>
+        <v>-5.4097457861786245E-4</v>
       </c>
       <c r="D25">
-        <v>-9.8155927425072165E-4</v>
+        <v>-9.7190515930184744E-4</v>
       </c>
       <c r="E25">
-        <v>9.3112525936317709E-6</v>
+        <v>9.2542742162443259E-6</v>
       </c>
       <c r="F25">
-        <v>-1.4581603785109318E-3</v>
+        <v>-1.3882889392827877E-3</v>
       </c>
       <c r="G25">
-        <v>-1.8840732332717301E-3</v>
+        <v>-1.7516767670310801E-3</v>
       </c>
       <c r="H25">
-        <v>-5.7114267814077184E-3</v>
+        <v>-5.4677183572386127E-3</v>
       </c>
       <c r="I25">
-        <v>-2.7512083943151016E-3</v>
+        <v>-2.6610883106909845E-3</v>
       </c>
       <c r="J25">
-        <v>-4.8018768321458349E-3</v>
+        <v>-4.4637914327299915E-3</v>
       </c>
       <c r="K25">
-        <v>-1.5991749832346364E-3</v>
+        <v>-1.3611217807710451E-3</v>
       </c>
       <c r="L25">
-        <v>-3.4466007511044054E-3</v>
+        <v>-3.2882069727189294E-3</v>
       </c>
       <c r="M25">
-        <v>-1.4944328657644388E-3</v>
+        <v>-1.2818561877108708E-3</v>
       </c>
       <c r="N25">
-        <v>-1.7531744006291749E-3</v>
+        <v>-1.6751956709370778E-3</v>
       </c>
       <c r="O25">
-        <v>-3.5499642869959807E-4</v>
+        <v>-3.4124106226029896E-4</v>
       </c>
       <c r="P25">
-        <v>-4.5683889058609526E-4</v>
+        <v>-5.7394918700289638E-4</v>
       </c>
       <c r="Q25">
-        <v>1.897524794412818E-4</v>
+        <v>1.793518952605416E-4</v>
       </c>
       <c r="R25">
-        <v>5.8256299470891215E-4</v>
+        <v>4.9883554667337474E-4</v>
       </c>
       <c r="S25">
-        <v>-1.0310956631641216E-4</v>
+        <v>2.1127715446781024E-4</v>
       </c>
       <c r="T25">
-        <v>-1.6148653392878949E-4</v>
+        <v>-1.6132516765447681E-4</v>
       </c>
       <c r="U25">
-        <v>-6.6121881200560271E-4</v>
+        <v>-6.1456192242089467E-4</v>
       </c>
       <c r="V25">
-        <v>-1.1242518191035976E-3</v>
+        <v>-1.0208579459922743E-3</v>
       </c>
       <c r="W25">
-        <v>-2.3295569225918007E-4</v>
+        <v>-2.1330096781240764E-4</v>
       </c>
       <c r="X25">
-        <v>6.8954095945417354E-4</v>
+        <v>8.0830793647224141E-4</v>
       </c>
       <c r="Y25">
-        <v>1.4773797322593036E-3</v>
+        <v>1.550912911325623E-3</v>
       </c>
       <c r="Z25">
-        <v>3.9561081774394033E-2</v>
+        <v>3.824483816201954E-2</v>
       </c>
     </row>
   </sheetData>
